--- a/data/input_data_US_group2.xlsx
+++ b/data/input_data_US_group2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62767041-1473-42A7-BABC-32F773FDF975}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDC9F6D-DD22-4E64-A7A8-A2E7C6F40888}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age_sex" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="101">
   <si>
     <t>0-4</t>
   </si>
@@ -375,12 +375,6 @@
     <t>H, S, W, C</t>
   </si>
   <si>
-    <t>0.2, 0.4</t>
-  </si>
-  <si>
-    <t>14, 20</t>
-  </si>
-  <si>
     <t>id_checks</t>
   </si>
   <si>
@@ -388,6 +382,18 @@
   </si>
   <si>
     <t>Baltimore</t>
+  </si>
+  <si>
+    <t>State of emergency declared</t>
+  </si>
+  <si>
+    <t>Stay at home orders</t>
+  </si>
+  <si>
+    <t>Phase 1 re-opening</t>
+  </si>
+  <si>
+    <t>Phase 2 re-opening</t>
   </si>
 </sst>
 </file>
@@ -1644,7 +1650,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="80" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>19</v>
@@ -1762,7 +1768,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="80" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B8" s="37" t="s">
         <v>16</v>
@@ -2000,7 +2006,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" s="16">
         <v>3</v>
@@ -2114,7 +2120,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" s="16">
         <v>3</v>
@@ -2228,7 +2234,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" s="16">
         <v>3</v>
@@ -2342,7 +2348,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" s="16">
         <v>3</v>
@@ -3368,7 +3374,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="80" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B18" s="37" t="s">
         <v>0</v>
@@ -5277,7 +5283,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="80" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B18" s="37" t="s">
         <v>0</v>
@@ -7186,7 +7192,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="80" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B18" s="37" t="s">
         <v>0</v>
@@ -9095,7 +9101,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="80" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B18" s="37" t="s">
         <v>0</v>
@@ -10080,7 +10086,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -10117,7 +10123,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10135,7 +10141,7 @@
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -10423,16 +10429,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="84" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B9" s="54" t="s">
         <v>78</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="D9" s="56">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="E9" s="57">
         <v>1</v>
@@ -10455,10 +10461,10 @@
       <c r="K9" s="57"/>
       <c r="L9" s="57"/>
       <c r="M9" s="58">
-        <v>43902</v>
+        <v>43895</v>
       </c>
       <c r="N9" s="59">
-        <v>43906</v>
+        <v>43920</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -10467,10 +10473,10 @@
         <v>80</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D10" s="62">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E10" s="61">
         <v>1</v>
@@ -10493,7 +10499,7 @@
       <c r="K10" s="61"/>
       <c r="L10" s="61"/>
       <c r="M10" s="63">
-        <v>43906</v>
+        <v>43920</v>
       </c>
       <c r="N10" s="63">
         <v>43951</v>
@@ -10537,10 +10543,10 @@
         <v>84</v>
       </c>
       <c r="C12" s="61" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="D12" s="62">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E12" s="65">
         <v>1</v>
@@ -10563,10 +10569,10 @@
       <c r="K12" s="61"/>
       <c r="L12" s="61"/>
       <c r="M12" s="63">
-        <v>43951</v>
+        <v>43966</v>
       </c>
       <c r="N12" s="63">
-        <v>43998</v>
+        <v>44001</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -10574,8 +10580,8 @@
       <c r="B13" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="64" t="s">
-        <v>87</v>
+      <c r="C13" s="61" t="s">
+        <v>100</v>
       </c>
       <c r="D13" s="62">
         <v>0.6</v>
@@ -10601,7 +10607,7 @@
       <c r="K13" s="61"/>
       <c r="L13" s="61"/>
       <c r="M13" s="63">
-        <v>43998</v>
+        <v>44001</v>
       </c>
       <c r="N13" s="63"/>
     </row>
@@ -10614,7 +10620,7 @@
         <v>87</v>
       </c>
       <c r="D14" s="62">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E14" s="61">
         <v>1</v>
@@ -10647,7 +10653,9 @@
       <c r="C15" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="68"/>
+      <c r="D15" s="68">
+        <v>0.9</v>
+      </c>
       <c r="E15" s="69">
         <v>1</v>
       </c>
@@ -10688,8 +10696,8 @@
   </sheetPr>
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10846,10 +10854,10 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" s="2">
-        <v>43892</v>
+        <v>43905</v>
       </c>
       <c r="C3" s="2">
         <v>44257</v>
@@ -10874,7 +10882,7 @@
         <v>1.2</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>1.5E-3</v>
@@ -10895,13 +10903,13 @@
         <v>60</v>
       </c>
       <c r="Q3">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="R3">
         <v>1000</v>
       </c>
       <c r="S3">
-        <v>2.5</v>
+        <v>30</v>
       </c>
       <c r="T3">
         <v>1</v>
@@ -10930,8 +10938,8 @@
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10992,11 +11000,11 @@
       <c r="E2" s="49">
         <v>0</v>
       </c>
-      <c r="F2" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="49" t="s">
-        <v>95</v>
+      <c r="F2" s="49">
+        <v>0</v>
+      </c>
+      <c r="G2" s="49">
+        <v>10</v>
       </c>
       <c r="H2" s="50"/>
       <c r="I2" s="48"/>
@@ -11004,10 +11012,10 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="88"/>
       <c r="B3" s="51" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D3" s="53" t="s">
         <v>70</v>
@@ -11022,7 +11030,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="89" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B4" s="73" t="s">
         <v>91</v>
@@ -11036,11 +11044,11 @@
       <c r="E4" s="75">
         <v>0</v>
       </c>
-      <c r="F4" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" s="75" t="s">
-        <v>95</v>
+      <c r="F4" s="75">
+        <v>0</v>
+      </c>
+      <c r="G4" s="75">
+        <v>10</v>
       </c>
       <c r="H4" s="76"/>
       <c r="I4" s="74"/>
@@ -11048,10 +11056,10 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="90"/>
       <c r="B5" s="77" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D5" s="79" t="s">
         <v>70</v>
@@ -11166,7 +11174,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" s="9">
         <v>3</v>
@@ -11292,7 +11300,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" s="16">
         <v>4</v>
@@ -11417,7 +11425,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" s="16">
         <v>3</v>
@@ -11543,7 +11551,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" s="9">
         <v>18</v>

--- a/data/input_data_US_group2.xlsx
+++ b/data/input_data_US_group2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDC9F6D-DD22-4E64-A7A8-A2E7C6F40888}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE414D5-7664-4218-AE5B-D91B3B22C7C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age_sex" sheetId="1" r:id="rId1"/>
@@ -10122,8 +10122,8 @@
   </sheetPr>
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10476,7 +10476,7 @@
         <v>98</v>
       </c>
       <c r="D10" s="62">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="E10" s="61">
         <v>1</v>
@@ -10502,7 +10502,7 @@
         <v>43920</v>
       </c>
       <c r="N10" s="63">
-        <v>43951</v>
+        <v>43966</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -10546,7 +10546,7 @@
         <v>99</v>
       </c>
       <c r="D12" s="62">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E12" s="65">
         <v>1</v>
@@ -10584,7 +10584,7 @@
         <v>100</v>
       </c>
       <c r="D13" s="62">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E13" s="61">
         <v>1</v>
@@ -10620,7 +10620,7 @@
         <v>87</v>
       </c>
       <c r="D14" s="62">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E14" s="61">
         <v>1</v>
@@ -10697,7 +10697,7 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10938,7 +10938,7 @@
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>

--- a/data/input_data_US_group2.xlsx
+++ b/data/input_data_US_group2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AF7479-CDAE-4587-A8A9-8235FF03C646}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BD42D4-55D8-47F6-8AAE-6C5C3706B237}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="109">
   <si>
     <t>0-4</t>
   </si>
@@ -807,7 +807,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -922,37 +922,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -960,9 +933,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -972,9 +942,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -984,9 +951,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -995,9 +959,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1006,9 +967,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1026,6 +984,52 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1464,7 +1468,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="108" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="36" t="s">
@@ -1524,7 +1528,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
+      <c r="A3" s="108"/>
       <c r="B3" s="36" t="s">
         <v>20</v>
       </c>
@@ -1582,7 +1586,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="108" t="s">
         <v>90</v>
       </c>
       <c r="B4" s="36" t="s">
@@ -1658,7 +1662,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
+      <c r="A5" s="108"/>
       <c r="B5" s="36" t="s">
         <v>21</v>
       </c>
@@ -1732,7 +1736,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="108" t="s">
         <v>96</v>
       </c>
       <c r="B6" s="37" t="s">
@@ -1792,7 +1796,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
+      <c r="A7" s="108"/>
       <c r="B7" s="37" t="s">
         <v>20</v>
       </c>
@@ -1850,7 +1854,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="108" t="s">
         <v>96</v>
       </c>
       <c r="B8" s="37" t="s">
@@ -1926,7 +1930,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
+      <c r="A9" s="108"/>
       <c r="B9" s="37" t="s">
         <v>21</v>
       </c>
@@ -2000,7 +2004,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="108" t="s">
         <v>101</v>
       </c>
       <c r="B10" s="61" t="s">
@@ -2059,7 +2063,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
+      <c r="A11" s="108"/>
       <c r="B11" s="61" t="s">
         <v>20</v>
       </c>
@@ -2116,7 +2120,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="108" t="s">
         <v>101</v>
       </c>
       <c r="B12" s="61" t="s">
@@ -2175,7 +2179,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
+      <c r="A13" s="108"/>
       <c r="B13" s="61" t="s">
         <v>21</v>
       </c>
@@ -2232,7 +2236,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="108" t="s">
         <v>102</v>
       </c>
       <c r="B14" s="61" t="s">
@@ -2291,7 +2295,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
+      <c r="A15" s="108"/>
       <c r="B15" s="61" t="s">
         <v>20</v>
       </c>
@@ -2348,7 +2352,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="108" t="s">
         <v>102</v>
       </c>
       <c r="B16" s="61" t="s">
@@ -2407,7 +2411,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
+      <c r="A17" s="108"/>
       <c r="B17" s="61" t="s">
         <v>21</v>
       </c>
@@ -2464,7 +2468,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="108" t="s">
         <v>103</v>
       </c>
       <c r="B18" s="61" t="s">
@@ -2523,7 +2527,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="62"/>
+      <c r="A19" s="108"/>
       <c r="B19" s="61" t="s">
         <v>20</v>
       </c>
@@ -2580,7 +2584,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="108" t="s">
         <v>103</v>
       </c>
       <c r="B20" s="61" t="s">
@@ -2639,7 +2643,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
+      <c r="A21" s="108"/>
       <c r="B21" s="61" t="s">
         <v>21</v>
       </c>
@@ -2696,7 +2700,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="108" t="s">
         <v>104</v>
       </c>
       <c r="B22" s="61" t="s">
@@ -2755,7 +2759,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="62"/>
+      <c r="A23" s="108"/>
       <c r="B23" s="61" t="s">
         <v>20</v>
       </c>
@@ -2812,7 +2816,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="108" t="s">
         <v>104</v>
       </c>
       <c r="B24" s="61" t="s">
@@ -2871,7 +2875,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="62"/>
+      <c r="A25" s="108"/>
       <c r="B25" s="61" t="s">
         <v>21</v>
       </c>
@@ -2928,7 +2932,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="108" t="s">
         <v>105</v>
       </c>
       <c r="B26" s="61" t="s">
@@ -2987,7 +2991,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="62"/>
+      <c r="A27" s="108"/>
       <c r="B27" s="61" t="s">
         <v>20</v>
       </c>
@@ -3044,7 +3048,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="108" t="s">
         <v>105</v>
       </c>
       <c r="B28" s="61" t="s">
@@ -3103,7 +3107,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="62"/>
+      <c r="A29" s="108"/>
       <c r="B29" s="61" t="s">
         <v>21</v>
       </c>
@@ -3161,6 +3165,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
@@ -3170,11 +3179,6 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3256,7 +3260,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="108" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3315,7 +3319,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
+      <c r="A3" s="108"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3372,7 +3376,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
+      <c r="A4" s="108"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3429,7 +3433,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
+      <c r="A5" s="108"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3486,7 +3490,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
+      <c r="A6" s="108"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3543,7 +3547,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
+      <c r="A7" s="108"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3600,7 +3604,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
+      <c r="A8" s="108"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3657,7 +3661,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
+      <c r="A9" s="108"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3714,7 +3718,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
+      <c r="A10" s="108"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -3771,7 +3775,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
+      <c r="A11" s="108"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -3828,7 +3832,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
+      <c r="A12" s="108"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -3885,7 +3889,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
+      <c r="A13" s="108"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3942,7 +3946,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
+      <c r="A14" s="108"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
@@ -3999,7 +4003,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
+      <c r="A15" s="108"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
@@ -4056,7 +4060,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
+      <c r="A16" s="108"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -4113,7 +4117,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
+      <c r="A17" s="108"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -4170,7 +4174,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="108" t="s">
         <v>96</v>
       </c>
       <c r="B18" s="37" t="s">
@@ -4229,7 +4233,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="62"/>
+      <c r="A19" s="108"/>
       <c r="B19" s="37" t="s">
         <v>1</v>
       </c>
@@ -4286,7 +4290,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="62"/>
+      <c r="A20" s="108"/>
       <c r="B20" s="37" t="s">
         <v>2</v>
       </c>
@@ -4343,7 +4347,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
+      <c r="A21" s="108"/>
       <c r="B21" s="37" t="s">
         <v>3</v>
       </c>
@@ -4400,7 +4404,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
+      <c r="A22" s="108"/>
       <c r="B22" s="37" t="s">
         <v>4</v>
       </c>
@@ -4457,7 +4461,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="62"/>
+      <c r="A23" s="108"/>
       <c r="B23" s="37" t="s">
         <v>5</v>
       </c>
@@ -4514,7 +4518,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="62"/>
+      <c r="A24" s="108"/>
       <c r="B24" s="37" t="s">
         <v>6</v>
       </c>
@@ -4571,7 +4575,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="62"/>
+      <c r="A25" s="108"/>
       <c r="B25" s="37" t="s">
         <v>7</v>
       </c>
@@ -4628,7 +4632,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="62"/>
+      <c r="A26" s="108"/>
       <c r="B26" s="37" t="s">
         <v>8</v>
       </c>
@@ -4685,7 +4689,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="62"/>
+      <c r="A27" s="108"/>
       <c r="B27" s="37" t="s">
         <v>9</v>
       </c>
@@ -4742,7 +4746,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="62"/>
+      <c r="A28" s="108"/>
       <c r="B28" s="37" t="s">
         <v>10</v>
       </c>
@@ -4799,7 +4803,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="62"/>
+      <c r="A29" s="108"/>
       <c r="B29" s="37" t="s">
         <v>11</v>
       </c>
@@ -4856,7 +4860,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="62"/>
+      <c r="A30" s="108"/>
       <c r="B30" s="37" t="s">
         <v>12</v>
       </c>
@@ -4913,7 +4917,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="62"/>
+      <c r="A31" s="108"/>
       <c r="B31" s="37" t="s">
         <v>13</v>
       </c>
@@ -4970,7 +4974,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="62"/>
+      <c r="A32" s="108"/>
       <c r="B32" s="37" t="s">
         <v>14</v>
       </c>
@@ -5027,7 +5031,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="62"/>
+      <c r="A33" s="108"/>
       <c r="B33" s="37" t="s">
         <v>15</v>
       </c>
@@ -5084,7 +5088,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="62" t="s">
+      <c r="A34" s="108" t="s">
         <v>101</v>
       </c>
       <c r="B34" s="61" t="s">
@@ -5143,7 +5147,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="62"/>
+      <c r="A35" s="108"/>
       <c r="B35" s="61" t="s">
         <v>1</v>
       </c>
@@ -5200,7 +5204,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="62"/>
+      <c r="A36" s="108"/>
       <c r="B36" s="61" t="s">
         <v>2</v>
       </c>
@@ -5257,7 +5261,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="62"/>
+      <c r="A37" s="108"/>
       <c r="B37" s="61" t="s">
         <v>3</v>
       </c>
@@ -5314,7 +5318,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="62"/>
+      <c r="A38" s="108"/>
       <c r="B38" s="61" t="s">
         <v>4</v>
       </c>
@@ -5371,7 +5375,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="62"/>
+      <c r="A39" s="108"/>
       <c r="B39" s="61" t="s">
         <v>5</v>
       </c>
@@ -5428,7 +5432,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="62"/>
+      <c r="A40" s="108"/>
       <c r="B40" s="61" t="s">
         <v>6</v>
       </c>
@@ -5485,7 +5489,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="62"/>
+      <c r="A41" s="108"/>
       <c r="B41" s="61" t="s">
         <v>7</v>
       </c>
@@ -5542,7 +5546,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="62"/>
+      <c r="A42" s="108"/>
       <c r="B42" s="61" t="s">
         <v>8</v>
       </c>
@@ -5599,7 +5603,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="62"/>
+      <c r="A43" s="108"/>
       <c r="B43" s="61" t="s">
         <v>9</v>
       </c>
@@ -5656,7 +5660,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="62"/>
+      <c r="A44" s="108"/>
       <c r="B44" s="61" t="s">
         <v>10</v>
       </c>
@@ -5713,7 +5717,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="62"/>
+      <c r="A45" s="108"/>
       <c r="B45" s="61" t="s">
         <v>11</v>
       </c>
@@ -5770,7 +5774,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="62"/>
+      <c r="A46" s="108"/>
       <c r="B46" s="61" t="s">
         <v>12</v>
       </c>
@@ -5827,7 +5831,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="62"/>
+      <c r="A47" s="108"/>
       <c r="B47" s="61" t="s">
         <v>13</v>
       </c>
@@ -5884,7 +5888,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="62"/>
+      <c r="A48" s="108"/>
       <c r="B48" s="61" t="s">
         <v>14</v>
       </c>
@@ -5941,7 +5945,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="62"/>
+      <c r="A49" s="108"/>
       <c r="B49" s="61" t="s">
         <v>15</v>
       </c>
@@ -5998,7 +6002,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="62" t="s">
+      <c r="A50" s="108" t="s">
         <v>102</v>
       </c>
       <c r="B50" s="61" t="s">
@@ -6057,7 +6061,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="62"/>
+      <c r="A51" s="108"/>
       <c r="B51" s="61" t="s">
         <v>1</v>
       </c>
@@ -6114,7 +6118,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="62"/>
+      <c r="A52" s="108"/>
       <c r="B52" s="61" t="s">
         <v>2</v>
       </c>
@@ -6171,7 +6175,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="62"/>
+      <c r="A53" s="108"/>
       <c r="B53" s="61" t="s">
         <v>3</v>
       </c>
@@ -6228,7 +6232,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="62"/>
+      <c r="A54" s="108"/>
       <c r="B54" s="61" t="s">
         <v>4</v>
       </c>
@@ -6285,7 +6289,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="62"/>
+      <c r="A55" s="108"/>
       <c r="B55" s="61" t="s">
         <v>5</v>
       </c>
@@ -6342,7 +6346,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="62"/>
+      <c r="A56" s="108"/>
       <c r="B56" s="61" t="s">
         <v>6</v>
       </c>
@@ -6399,7 +6403,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="62"/>
+      <c r="A57" s="108"/>
       <c r="B57" s="61" t="s">
         <v>7</v>
       </c>
@@ -6456,7 +6460,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="62"/>
+      <c r="A58" s="108"/>
       <c r="B58" s="61" t="s">
         <v>8</v>
       </c>
@@ -6513,7 +6517,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="62"/>
+      <c r="A59" s="108"/>
       <c r="B59" s="61" t="s">
         <v>9</v>
       </c>
@@ -6570,7 +6574,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="62"/>
+      <c r="A60" s="108"/>
       <c r="B60" s="61" t="s">
         <v>10</v>
       </c>
@@ -6627,7 +6631,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="62"/>
+      <c r="A61" s="108"/>
       <c r="B61" s="61" t="s">
         <v>11</v>
       </c>
@@ -6684,7 +6688,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="62"/>
+      <c r="A62" s="108"/>
       <c r="B62" s="61" t="s">
         <v>12</v>
       </c>
@@ -6741,7 +6745,7 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="62"/>
+      <c r="A63" s="108"/>
       <c r="B63" s="61" t="s">
         <v>13</v>
       </c>
@@ -6798,7 +6802,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="62"/>
+      <c r="A64" s="108"/>
       <c r="B64" s="61" t="s">
         <v>14</v>
       </c>
@@ -6855,7 +6859,7 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="62"/>
+      <c r="A65" s="108"/>
       <c r="B65" s="61" t="s">
         <v>15</v>
       </c>
@@ -6912,7 +6916,7 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="62" t="s">
+      <c r="A66" s="108" t="s">
         <v>103</v>
       </c>
       <c r="B66" s="61" t="s">
@@ -6971,7 +6975,7 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="62"/>
+      <c r="A67" s="108"/>
       <c r="B67" s="61" t="s">
         <v>1</v>
       </c>
@@ -7028,7 +7032,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="62"/>
+      <c r="A68" s="108"/>
       <c r="B68" s="61" t="s">
         <v>2</v>
       </c>
@@ -7085,7 +7089,7 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="62"/>
+      <c r="A69" s="108"/>
       <c r="B69" s="61" t="s">
         <v>3</v>
       </c>
@@ -7142,7 +7146,7 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="62"/>
+      <c r="A70" s="108"/>
       <c r="B70" s="61" t="s">
         <v>4</v>
       </c>
@@ -7199,7 +7203,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="62"/>
+      <c r="A71" s="108"/>
       <c r="B71" s="61" t="s">
         <v>5</v>
       </c>
@@ -7256,7 +7260,7 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="62"/>
+      <c r="A72" s="108"/>
       <c r="B72" s="61" t="s">
         <v>6</v>
       </c>
@@ -7313,7 +7317,7 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="62"/>
+      <c r="A73" s="108"/>
       <c r="B73" s="61" t="s">
         <v>7</v>
       </c>
@@ -7370,7 +7374,7 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="62"/>
+      <c r="A74" s="108"/>
       <c r="B74" s="61" t="s">
         <v>8</v>
       </c>
@@ -7427,7 +7431,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="62"/>
+      <c r="A75" s="108"/>
       <c r="B75" s="61" t="s">
         <v>9</v>
       </c>
@@ -7484,7 +7488,7 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="62"/>
+      <c r="A76" s="108"/>
       <c r="B76" s="61" t="s">
         <v>10</v>
       </c>
@@ -7541,7 +7545,7 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="62"/>
+      <c r="A77" s="108"/>
       <c r="B77" s="61" t="s">
         <v>11</v>
       </c>
@@ -7598,7 +7602,7 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="62"/>
+      <c r="A78" s="108"/>
       <c r="B78" s="61" t="s">
         <v>12</v>
       </c>
@@ -7655,7 +7659,7 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="62"/>
+      <c r="A79" s="108"/>
       <c r="B79" s="61" t="s">
         <v>13</v>
       </c>
@@ -7712,7 +7716,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="62"/>
+      <c r="A80" s="108"/>
       <c r="B80" s="61" t="s">
         <v>14</v>
       </c>
@@ -7769,7 +7773,7 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="62"/>
+      <c r="A81" s="108"/>
       <c r="B81" s="61" t="s">
         <v>15</v>
       </c>
@@ -7826,7 +7830,7 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="62" t="s">
+      <c r="A82" s="108" t="s">
         <v>104</v>
       </c>
       <c r="B82" s="61" t="s">
@@ -7885,7 +7889,7 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="62"/>
+      <c r="A83" s="108"/>
       <c r="B83" s="61" t="s">
         <v>1</v>
       </c>
@@ -7942,7 +7946,7 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="62"/>
+      <c r="A84" s="108"/>
       <c r="B84" s="61" t="s">
         <v>2</v>
       </c>
@@ -7999,7 +8003,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="62"/>
+      <c r="A85" s="108"/>
       <c r="B85" s="61" t="s">
         <v>3</v>
       </c>
@@ -8056,7 +8060,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="62"/>
+      <c r="A86" s="108"/>
       <c r="B86" s="61" t="s">
         <v>4</v>
       </c>
@@ -8113,7 +8117,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="62"/>
+      <c r="A87" s="108"/>
       <c r="B87" s="61" t="s">
         <v>5</v>
       </c>
@@ -8170,7 +8174,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="62"/>
+      <c r="A88" s="108"/>
       <c r="B88" s="61" t="s">
         <v>6</v>
       </c>
@@ -8227,7 +8231,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" s="62"/>
+      <c r="A89" s="108"/>
       <c r="B89" s="61" t="s">
         <v>7</v>
       </c>
@@ -8284,7 +8288,7 @@
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="62"/>
+      <c r="A90" s="108"/>
       <c r="B90" s="61" t="s">
         <v>8</v>
       </c>
@@ -8341,7 +8345,7 @@
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="62"/>
+      <c r="A91" s="108"/>
       <c r="B91" s="61" t="s">
         <v>9</v>
       </c>
@@ -8398,7 +8402,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="62"/>
+      <c r="A92" s="108"/>
       <c r="B92" s="61" t="s">
         <v>10</v>
       </c>
@@ -8455,7 +8459,7 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="62"/>
+      <c r="A93" s="108"/>
       <c r="B93" s="61" t="s">
         <v>11</v>
       </c>
@@ -8512,7 +8516,7 @@
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="62"/>
+      <c r="A94" s="108"/>
       <c r="B94" s="61" t="s">
         <v>12</v>
       </c>
@@ -8569,7 +8573,7 @@
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="62"/>
+      <c r="A95" s="108"/>
       <c r="B95" s="61" t="s">
         <v>13</v>
       </c>
@@ -8626,7 +8630,7 @@
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="62"/>
+      <c r="A96" s="108"/>
       <c r="B96" s="61" t="s">
         <v>14</v>
       </c>
@@ -8683,7 +8687,7 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="62"/>
+      <c r="A97" s="108"/>
       <c r="B97" s="61" t="s">
         <v>15</v>
       </c>
@@ -8740,7 +8744,7 @@
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="62" t="s">
+      <c r="A98" s="108" t="s">
         <v>105</v>
       </c>
       <c r="B98" s="61" t="s">
@@ -8799,7 +8803,7 @@
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="62"/>
+      <c r="A99" s="108"/>
       <c r="B99" s="61" t="s">
         <v>1</v>
       </c>
@@ -8856,7 +8860,7 @@
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="62"/>
+      <c r="A100" s="108"/>
       <c r="B100" s="61" t="s">
         <v>2</v>
       </c>
@@ -8913,7 +8917,7 @@
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="62"/>
+      <c r="A101" s="108"/>
       <c r="B101" s="61" t="s">
         <v>3</v>
       </c>
@@ -8970,7 +8974,7 @@
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="62"/>
+      <c r="A102" s="108"/>
       <c r="B102" s="61" t="s">
         <v>4</v>
       </c>
@@ -9027,7 +9031,7 @@
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="62"/>
+      <c r="A103" s="108"/>
       <c r="B103" s="61" t="s">
         <v>5</v>
       </c>
@@ -9084,7 +9088,7 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="62"/>
+      <c r="A104" s="108"/>
       <c r="B104" s="61" t="s">
         <v>6</v>
       </c>
@@ -9141,7 +9145,7 @@
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" s="62"/>
+      <c r="A105" s="108"/>
       <c r="B105" s="61" t="s">
         <v>7</v>
       </c>
@@ -9198,7 +9202,7 @@
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="62"/>
+      <c r="A106" s="108"/>
       <c r="B106" s="61" t="s">
         <v>8</v>
       </c>
@@ -9255,7 +9259,7 @@
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="62"/>
+      <c r="A107" s="108"/>
       <c r="B107" s="61" t="s">
         <v>9</v>
       </c>
@@ -9312,7 +9316,7 @@
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="62"/>
+      <c r="A108" s="108"/>
       <c r="B108" s="61" t="s">
         <v>10</v>
       </c>
@@ -9369,7 +9373,7 @@
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="62"/>
+      <c r="A109" s="108"/>
       <c r="B109" s="61" t="s">
         <v>11</v>
       </c>
@@ -9426,7 +9430,7 @@
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="62"/>
+      <c r="A110" s="108"/>
       <c r="B110" s="61" t="s">
         <v>12</v>
       </c>
@@ -9483,7 +9487,7 @@
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A111" s="62"/>
+      <c r="A111" s="108"/>
       <c r="B111" s="61" t="s">
         <v>13</v>
       </c>
@@ -9540,7 +9544,7 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A112" s="62"/>
+      <c r="A112" s="108"/>
       <c r="B112" s="61" t="s">
         <v>14</v>
       </c>
@@ -9597,7 +9601,7 @@
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A113" s="62"/>
+      <c r="A113" s="108"/>
       <c r="B113" s="61" t="s">
         <v>15</v>
       </c>
@@ -9740,7 +9744,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="108" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -9799,7 +9803,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
+      <c r="A3" s="108"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -9856,7 +9860,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
+      <c r="A4" s="108"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -9913,7 +9917,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
+      <c r="A5" s="108"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -9970,7 +9974,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
+      <c r="A6" s="108"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -10027,7 +10031,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
+      <c r="A7" s="108"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -10084,7 +10088,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
+      <c r="A8" s="108"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -10141,7 +10145,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
+      <c r="A9" s="108"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -10198,7 +10202,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
+      <c r="A10" s="108"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -10255,7 +10259,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
+      <c r="A11" s="108"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -10312,7 +10316,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
+      <c r="A12" s="108"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -10369,7 +10373,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
+      <c r="A13" s="108"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
@@ -10426,7 +10430,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
+      <c r="A14" s="108"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
@@ -10483,7 +10487,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
+      <c r="A15" s="108"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
@@ -10540,7 +10544,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
+      <c r="A16" s="108"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -10597,7 +10601,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
+      <c r="A17" s="108"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -10654,7 +10658,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="108" t="s">
         <v>96</v>
       </c>
       <c r="B18" s="37" t="s">
@@ -10713,7 +10717,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="62"/>
+      <c r="A19" s="108"/>
       <c r="B19" s="37" t="s">
         <v>1</v>
       </c>
@@ -10770,7 +10774,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="62"/>
+      <c r="A20" s="108"/>
       <c r="B20" s="37" t="s">
         <v>2</v>
       </c>
@@ -10827,7 +10831,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
+      <c r="A21" s="108"/>
       <c r="B21" s="37" t="s">
         <v>3</v>
       </c>
@@ -10884,7 +10888,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
+      <c r="A22" s="108"/>
       <c r="B22" s="37" t="s">
         <v>4</v>
       </c>
@@ -10941,7 +10945,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="62"/>
+      <c r="A23" s="108"/>
       <c r="B23" s="37" t="s">
         <v>5</v>
       </c>
@@ -10998,7 +11002,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="62"/>
+      <c r="A24" s="108"/>
       <c r="B24" s="37" t="s">
         <v>6</v>
       </c>
@@ -11055,7 +11059,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="62"/>
+      <c r="A25" s="108"/>
       <c r="B25" s="37" t="s">
         <v>7</v>
       </c>
@@ -11112,7 +11116,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="62"/>
+      <c r="A26" s="108"/>
       <c r="B26" s="37" t="s">
         <v>8</v>
       </c>
@@ -11169,7 +11173,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="62"/>
+      <c r="A27" s="108"/>
       <c r="B27" s="37" t="s">
         <v>9</v>
       </c>
@@ -11226,7 +11230,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="62"/>
+      <c r="A28" s="108"/>
       <c r="B28" s="37" t="s">
         <v>10</v>
       </c>
@@ -11283,7 +11287,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="62"/>
+      <c r="A29" s="108"/>
       <c r="B29" s="37" t="s">
         <v>11</v>
       </c>
@@ -11340,7 +11344,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="62"/>
+      <c r="A30" s="108"/>
       <c r="B30" s="37" t="s">
         <v>12</v>
       </c>
@@ -11397,7 +11401,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="62"/>
+      <c r="A31" s="108"/>
       <c r="B31" s="37" t="s">
         <v>13</v>
       </c>
@@ -11454,7 +11458,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="62"/>
+      <c r="A32" s="108"/>
       <c r="B32" s="37" t="s">
         <v>14</v>
       </c>
@@ -11511,7 +11515,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="62"/>
+      <c r="A33" s="108"/>
       <c r="B33" s="37" t="s">
         <v>15</v>
       </c>
@@ -11568,7 +11572,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="62" t="s">
+      <c r="A34" s="108" t="s">
         <v>101</v>
       </c>
       <c r="B34" s="61" t="s">
@@ -11627,7 +11631,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="62"/>
+      <c r="A35" s="108"/>
       <c r="B35" s="61" t="s">
         <v>1</v>
       </c>
@@ -11684,7 +11688,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="62"/>
+      <c r="A36" s="108"/>
       <c r="B36" s="61" t="s">
         <v>2</v>
       </c>
@@ -11741,7 +11745,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="62"/>
+      <c r="A37" s="108"/>
       <c r="B37" s="61" t="s">
         <v>3</v>
       </c>
@@ -11798,7 +11802,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="62"/>
+      <c r="A38" s="108"/>
       <c r="B38" s="61" t="s">
         <v>4</v>
       </c>
@@ -11855,7 +11859,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="62"/>
+      <c r="A39" s="108"/>
       <c r="B39" s="61" t="s">
         <v>5</v>
       </c>
@@ -11912,7 +11916,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="62"/>
+      <c r="A40" s="108"/>
       <c r="B40" s="61" t="s">
         <v>6</v>
       </c>
@@ -11969,7 +11973,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="62"/>
+      <c r="A41" s="108"/>
       <c r="B41" s="61" t="s">
         <v>7</v>
       </c>
@@ -12026,7 +12030,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="62"/>
+      <c r="A42" s="108"/>
       <c r="B42" s="61" t="s">
         <v>8</v>
       </c>
@@ -12083,7 +12087,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="62"/>
+      <c r="A43" s="108"/>
       <c r="B43" s="61" t="s">
         <v>9</v>
       </c>
@@ -12140,7 +12144,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="62"/>
+      <c r="A44" s="108"/>
       <c r="B44" s="61" t="s">
         <v>10</v>
       </c>
@@ -12197,7 +12201,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="62"/>
+      <c r="A45" s="108"/>
       <c r="B45" s="61" t="s">
         <v>11</v>
       </c>
@@ -12254,7 +12258,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="62"/>
+      <c r="A46" s="108"/>
       <c r="B46" s="61" t="s">
         <v>12</v>
       </c>
@@ -12311,7 +12315,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="62"/>
+      <c r="A47" s="108"/>
       <c r="B47" s="61" t="s">
         <v>13</v>
       </c>
@@ -12368,7 +12372,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="62"/>
+      <c r="A48" s="108"/>
       <c r="B48" s="61" t="s">
         <v>14</v>
       </c>
@@ -12425,7 +12429,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="62"/>
+      <c r="A49" s="108"/>
       <c r="B49" s="61" t="s">
         <v>15</v>
       </c>
@@ -12482,7 +12486,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="62" t="s">
+      <c r="A50" s="108" t="s">
         <v>102</v>
       </c>
       <c r="B50" s="61" t="s">
@@ -12541,7 +12545,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="62"/>
+      <c r="A51" s="108"/>
       <c r="B51" s="61" t="s">
         <v>1</v>
       </c>
@@ -12598,7 +12602,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="62"/>
+      <c r="A52" s="108"/>
       <c r="B52" s="61" t="s">
         <v>2</v>
       </c>
@@ -12655,7 +12659,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="62"/>
+      <c r="A53" s="108"/>
       <c r="B53" s="61" t="s">
         <v>3</v>
       </c>
@@ -12712,7 +12716,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="62"/>
+      <c r="A54" s="108"/>
       <c r="B54" s="61" t="s">
         <v>4</v>
       </c>
@@ -12769,7 +12773,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="62"/>
+      <c r="A55" s="108"/>
       <c r="B55" s="61" t="s">
         <v>5</v>
       </c>
@@ -12826,7 +12830,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="62"/>
+      <c r="A56" s="108"/>
       <c r="B56" s="61" t="s">
         <v>6</v>
       </c>
@@ -12883,7 +12887,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="62"/>
+      <c r="A57" s="108"/>
       <c r="B57" s="61" t="s">
         <v>7</v>
       </c>
@@ -12940,7 +12944,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="62"/>
+      <c r="A58" s="108"/>
       <c r="B58" s="61" t="s">
         <v>8</v>
       </c>
@@ -12997,7 +13001,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="62"/>
+      <c r="A59" s="108"/>
       <c r="B59" s="61" t="s">
         <v>9</v>
       </c>
@@ -13054,7 +13058,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="62"/>
+      <c r="A60" s="108"/>
       <c r="B60" s="61" t="s">
         <v>10</v>
       </c>
@@ -13111,7 +13115,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="62"/>
+      <c r="A61" s="108"/>
       <c r="B61" s="61" t="s">
         <v>11</v>
       </c>
@@ -13168,7 +13172,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="62"/>
+      <c r="A62" s="108"/>
       <c r="B62" s="61" t="s">
         <v>12</v>
       </c>
@@ -13225,7 +13229,7 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="62"/>
+      <c r="A63" s="108"/>
       <c r="B63" s="61" t="s">
         <v>13</v>
       </c>
@@ -13282,7 +13286,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="62"/>
+      <c r="A64" s="108"/>
       <c r="B64" s="61" t="s">
         <v>14</v>
       </c>
@@ -13339,7 +13343,7 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="62"/>
+      <c r="A65" s="108"/>
       <c r="B65" s="61" t="s">
         <v>15</v>
       </c>
@@ -13396,7 +13400,7 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="62" t="s">
+      <c r="A66" s="108" t="s">
         <v>103</v>
       </c>
       <c r="B66" s="61" t="s">
@@ -13455,7 +13459,7 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="62"/>
+      <c r="A67" s="108"/>
       <c r="B67" s="61" t="s">
         <v>1</v>
       </c>
@@ -13512,7 +13516,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="62"/>
+      <c r="A68" s="108"/>
       <c r="B68" s="61" t="s">
         <v>2</v>
       </c>
@@ -13569,7 +13573,7 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="62"/>
+      <c r="A69" s="108"/>
       <c r="B69" s="61" t="s">
         <v>3</v>
       </c>
@@ -13626,7 +13630,7 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="62"/>
+      <c r="A70" s="108"/>
       <c r="B70" s="61" t="s">
         <v>4</v>
       </c>
@@ -13683,7 +13687,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="62"/>
+      <c r="A71" s="108"/>
       <c r="B71" s="61" t="s">
         <v>5</v>
       </c>
@@ -13740,7 +13744,7 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="62"/>
+      <c r="A72" s="108"/>
       <c r="B72" s="61" t="s">
         <v>6</v>
       </c>
@@ -13797,7 +13801,7 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="62"/>
+      <c r="A73" s="108"/>
       <c r="B73" s="61" t="s">
         <v>7</v>
       </c>
@@ -13854,7 +13858,7 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="62"/>
+      <c r="A74" s="108"/>
       <c r="B74" s="61" t="s">
         <v>8</v>
       </c>
@@ -13911,7 +13915,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="62"/>
+      <c r="A75" s="108"/>
       <c r="B75" s="61" t="s">
         <v>9</v>
       </c>
@@ -13968,7 +13972,7 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="62"/>
+      <c r="A76" s="108"/>
       <c r="B76" s="61" t="s">
         <v>10</v>
       </c>
@@ -14025,7 +14029,7 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="62"/>
+      <c r="A77" s="108"/>
       <c r="B77" s="61" t="s">
         <v>11</v>
       </c>
@@ -14082,7 +14086,7 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="62"/>
+      <c r="A78" s="108"/>
       <c r="B78" s="61" t="s">
         <v>12</v>
       </c>
@@ -14139,7 +14143,7 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="62"/>
+      <c r="A79" s="108"/>
       <c r="B79" s="61" t="s">
         <v>13</v>
       </c>
@@ -14196,7 +14200,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="62"/>
+      <c r="A80" s="108"/>
       <c r="B80" s="61" t="s">
         <v>14</v>
       </c>
@@ -14253,7 +14257,7 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="62"/>
+      <c r="A81" s="108"/>
       <c r="B81" s="61" t="s">
         <v>15</v>
       </c>
@@ -14310,7 +14314,7 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="62" t="s">
+      <c r="A82" s="108" t="s">
         <v>104</v>
       </c>
       <c r="B82" s="61" t="s">
@@ -14369,7 +14373,7 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="62"/>
+      <c r="A83" s="108"/>
       <c r="B83" s="61" t="s">
         <v>1</v>
       </c>
@@ -14426,7 +14430,7 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="62"/>
+      <c r="A84" s="108"/>
       <c r="B84" s="61" t="s">
         <v>2</v>
       </c>
@@ -14483,7 +14487,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="62"/>
+      <c r="A85" s="108"/>
       <c r="B85" s="61" t="s">
         <v>3</v>
       </c>
@@ -14540,7 +14544,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="62"/>
+      <c r="A86" s="108"/>
       <c r="B86" s="61" t="s">
         <v>4</v>
       </c>
@@ -14597,7 +14601,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="62"/>
+      <c r="A87" s="108"/>
       <c r="B87" s="61" t="s">
         <v>5</v>
       </c>
@@ -14654,7 +14658,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="62"/>
+      <c r="A88" s="108"/>
       <c r="B88" s="61" t="s">
         <v>6</v>
       </c>
@@ -14711,7 +14715,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" s="62"/>
+      <c r="A89" s="108"/>
       <c r="B89" s="61" t="s">
         <v>7</v>
       </c>
@@ -14768,7 +14772,7 @@
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="62"/>
+      <c r="A90" s="108"/>
       <c r="B90" s="61" t="s">
         <v>8</v>
       </c>
@@ -14825,7 +14829,7 @@
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="62"/>
+      <c r="A91" s="108"/>
       <c r="B91" s="61" t="s">
         <v>9</v>
       </c>
@@ -14882,7 +14886,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="62"/>
+      <c r="A92" s="108"/>
       <c r="B92" s="61" t="s">
         <v>10</v>
       </c>
@@ -14939,7 +14943,7 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="62"/>
+      <c r="A93" s="108"/>
       <c r="B93" s="61" t="s">
         <v>11</v>
       </c>
@@ -14996,7 +15000,7 @@
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="62"/>
+      <c r="A94" s="108"/>
       <c r="B94" s="61" t="s">
         <v>12</v>
       </c>
@@ -15053,7 +15057,7 @@
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="62"/>
+      <c r="A95" s="108"/>
       <c r="B95" s="61" t="s">
         <v>13</v>
       </c>
@@ -15110,7 +15114,7 @@
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="62"/>
+      <c r="A96" s="108"/>
       <c r="B96" s="61" t="s">
         <v>14</v>
       </c>
@@ -15167,7 +15171,7 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="62"/>
+      <c r="A97" s="108"/>
       <c r="B97" s="61" t="s">
         <v>15</v>
       </c>
@@ -15224,7 +15228,7 @@
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="62" t="s">
+      <c r="A98" s="108" t="s">
         <v>105</v>
       </c>
       <c r="B98" s="61" t="s">
@@ -15283,7 +15287,7 @@
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="62"/>
+      <c r="A99" s="108"/>
       <c r="B99" s="61" t="s">
         <v>1</v>
       </c>
@@ -15340,7 +15344,7 @@
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="62"/>
+      <c r="A100" s="108"/>
       <c r="B100" s="61" t="s">
         <v>2</v>
       </c>
@@ -15397,7 +15401,7 @@
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="62"/>
+      <c r="A101" s="108"/>
       <c r="B101" s="61" t="s">
         <v>3</v>
       </c>
@@ -15454,7 +15458,7 @@
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="62"/>
+      <c r="A102" s="108"/>
       <c r="B102" s="61" t="s">
         <v>4</v>
       </c>
@@ -15511,7 +15515,7 @@
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="62"/>
+      <c r="A103" s="108"/>
       <c r="B103" s="61" t="s">
         <v>5</v>
       </c>
@@ -15568,7 +15572,7 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="62"/>
+      <c r="A104" s="108"/>
       <c r="B104" s="61" t="s">
         <v>6</v>
       </c>
@@ -15625,7 +15629,7 @@
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" s="62"/>
+      <c r="A105" s="108"/>
       <c r="B105" s="61" t="s">
         <v>7</v>
       </c>
@@ -15682,7 +15686,7 @@
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="62"/>
+      <c r="A106" s="108"/>
       <c r="B106" s="61" t="s">
         <v>8</v>
       </c>
@@ -15739,7 +15743,7 @@
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="62"/>
+      <c r="A107" s="108"/>
       <c r="B107" s="61" t="s">
         <v>9</v>
       </c>
@@ -15796,7 +15800,7 @@
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="62"/>
+      <c r="A108" s="108"/>
       <c r="B108" s="61" t="s">
         <v>10</v>
       </c>
@@ -15853,7 +15857,7 @@
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="62"/>
+      <c r="A109" s="108"/>
       <c r="B109" s="61" t="s">
         <v>11</v>
       </c>
@@ -15910,7 +15914,7 @@
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="62"/>
+      <c r="A110" s="108"/>
       <c r="B110" s="61" t="s">
         <v>12</v>
       </c>
@@ -15967,7 +15971,7 @@
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A111" s="62"/>
+      <c r="A111" s="108"/>
       <c r="B111" s="61" t="s">
         <v>13</v>
       </c>
@@ -16024,7 +16028,7 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A112" s="62"/>
+      <c r="A112" s="108"/>
       <c r="B112" s="61" t="s">
         <v>14</v>
       </c>
@@ -16081,7 +16085,7 @@
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A113" s="62"/>
+      <c r="A113" s="108"/>
       <c r="B113" s="61" t="s">
         <v>15</v>
       </c>
@@ -16224,7 +16228,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="108" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -16283,7 +16287,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
+      <c r="A3" s="108"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -16340,7 +16344,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
+      <c r="A4" s="108"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -16397,7 +16401,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
+      <c r="A5" s="108"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -16454,7 +16458,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
+      <c r="A6" s="108"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -16511,7 +16515,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
+      <c r="A7" s="108"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -16568,7 +16572,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
+      <c r="A8" s="108"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -16625,7 +16629,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
+      <c r="A9" s="108"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -16682,7 +16686,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
+      <c r="A10" s="108"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -16739,7 +16743,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
+      <c r="A11" s="108"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -16796,7 +16800,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
+      <c r="A12" s="108"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -16853,7 +16857,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
+      <c r="A13" s="108"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
@@ -16910,7 +16914,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
+      <c r="A14" s="108"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
@@ -16967,7 +16971,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
+      <c r="A15" s="108"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
@@ -17024,7 +17028,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
+      <c r="A16" s="108"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -17081,7 +17085,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
+      <c r="A17" s="108"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -17138,7 +17142,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="108" t="s">
         <v>96</v>
       </c>
       <c r="B18" s="37" t="s">
@@ -17197,7 +17201,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="62"/>
+      <c r="A19" s="108"/>
       <c r="B19" s="37" t="s">
         <v>1</v>
       </c>
@@ -17254,7 +17258,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="62"/>
+      <c r="A20" s="108"/>
       <c r="B20" s="37" t="s">
         <v>2</v>
       </c>
@@ -17311,7 +17315,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
+      <c r="A21" s="108"/>
       <c r="B21" s="37" t="s">
         <v>3</v>
       </c>
@@ -17368,7 +17372,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
+      <c r="A22" s="108"/>
       <c r="B22" s="37" t="s">
         <v>4</v>
       </c>
@@ -17425,7 +17429,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="62"/>
+      <c r="A23" s="108"/>
       <c r="B23" s="37" t="s">
         <v>5</v>
       </c>
@@ -17482,7 +17486,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="62"/>
+      <c r="A24" s="108"/>
       <c r="B24" s="37" t="s">
         <v>6</v>
       </c>
@@ -17539,7 +17543,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="62"/>
+      <c r="A25" s="108"/>
       <c r="B25" s="37" t="s">
         <v>7</v>
       </c>
@@ -17596,7 +17600,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="62"/>
+      <c r="A26" s="108"/>
       <c r="B26" s="37" t="s">
         <v>8</v>
       </c>
@@ -17653,7 +17657,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="62"/>
+      <c r="A27" s="108"/>
       <c r="B27" s="37" t="s">
         <v>9</v>
       </c>
@@ -17710,7 +17714,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="62"/>
+      <c r="A28" s="108"/>
       <c r="B28" s="37" t="s">
         <v>10</v>
       </c>
@@ -17767,7 +17771,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="62"/>
+      <c r="A29" s="108"/>
       <c r="B29" s="37" t="s">
         <v>11</v>
       </c>
@@ -17824,7 +17828,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="62"/>
+      <c r="A30" s="108"/>
       <c r="B30" s="37" t="s">
         <v>12</v>
       </c>
@@ -17881,7 +17885,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="62"/>
+      <c r="A31" s="108"/>
       <c r="B31" s="37" t="s">
         <v>13</v>
       </c>
@@ -17938,7 +17942,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="62"/>
+      <c r="A32" s="108"/>
       <c r="B32" s="37" t="s">
         <v>14</v>
       </c>
@@ -17995,7 +17999,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="62"/>
+      <c r="A33" s="108"/>
       <c r="B33" s="37" t="s">
         <v>15</v>
       </c>
@@ -18052,7 +18056,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="62" t="s">
+      <c r="A34" s="108" t="s">
         <v>101</v>
       </c>
       <c r="B34" s="61" t="s">
@@ -18111,7 +18115,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="62"/>
+      <c r="A35" s="108"/>
       <c r="B35" s="61" t="s">
         <v>1</v>
       </c>
@@ -18168,7 +18172,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="62"/>
+      <c r="A36" s="108"/>
       <c r="B36" s="61" t="s">
         <v>2</v>
       </c>
@@ -18225,7 +18229,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="62"/>
+      <c r="A37" s="108"/>
       <c r="B37" s="61" t="s">
         <v>3</v>
       </c>
@@ -18282,7 +18286,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="62"/>
+      <c r="A38" s="108"/>
       <c r="B38" s="61" t="s">
         <v>4</v>
       </c>
@@ -18339,7 +18343,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="62"/>
+      <c r="A39" s="108"/>
       <c r="B39" s="61" t="s">
         <v>5</v>
       </c>
@@ -18396,7 +18400,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="62"/>
+      <c r="A40" s="108"/>
       <c r="B40" s="61" t="s">
         <v>6</v>
       </c>
@@ -18453,7 +18457,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="62"/>
+      <c r="A41" s="108"/>
       <c r="B41" s="61" t="s">
         <v>7</v>
       </c>
@@ -18510,7 +18514,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="62"/>
+      <c r="A42" s="108"/>
       <c r="B42" s="61" t="s">
         <v>8</v>
       </c>
@@ -18567,7 +18571,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="62"/>
+      <c r="A43" s="108"/>
       <c r="B43" s="61" t="s">
         <v>9</v>
       </c>
@@ -18624,7 +18628,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="62"/>
+      <c r="A44" s="108"/>
       <c r="B44" s="61" t="s">
         <v>10</v>
       </c>
@@ -18681,7 +18685,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="62"/>
+      <c r="A45" s="108"/>
       <c r="B45" s="61" t="s">
         <v>11</v>
       </c>
@@ -18738,7 +18742,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="62"/>
+      <c r="A46" s="108"/>
       <c r="B46" s="61" t="s">
         <v>12</v>
       </c>
@@ -18795,7 +18799,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="62"/>
+      <c r="A47" s="108"/>
       <c r="B47" s="61" t="s">
         <v>13</v>
       </c>
@@ -18852,7 +18856,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="62"/>
+      <c r="A48" s="108"/>
       <c r="B48" s="61" t="s">
         <v>14</v>
       </c>
@@ -18909,7 +18913,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="62"/>
+      <c r="A49" s="108"/>
       <c r="B49" s="61" t="s">
         <v>15</v>
       </c>
@@ -18966,7 +18970,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="62" t="s">
+      <c r="A50" s="108" t="s">
         <v>102</v>
       </c>
       <c r="B50" s="61" t="s">
@@ -19025,7 +19029,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="62"/>
+      <c r="A51" s="108"/>
       <c r="B51" s="61" t="s">
         <v>1</v>
       </c>
@@ -19082,7 +19086,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="62"/>
+      <c r="A52" s="108"/>
       <c r="B52" s="61" t="s">
         <v>2</v>
       </c>
@@ -19139,7 +19143,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="62"/>
+      <c r="A53" s="108"/>
       <c r="B53" s="61" t="s">
         <v>3</v>
       </c>
@@ -19196,7 +19200,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="62"/>
+      <c r="A54" s="108"/>
       <c r="B54" s="61" t="s">
         <v>4</v>
       </c>
@@ -19253,7 +19257,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="62"/>
+      <c r="A55" s="108"/>
       <c r="B55" s="61" t="s">
         <v>5</v>
       </c>
@@ -19310,7 +19314,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="62"/>
+      <c r="A56" s="108"/>
       <c r="B56" s="61" t="s">
         <v>6</v>
       </c>
@@ -19367,7 +19371,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="62"/>
+      <c r="A57" s="108"/>
       <c r="B57" s="61" t="s">
         <v>7</v>
       </c>
@@ -19424,7 +19428,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="62"/>
+      <c r="A58" s="108"/>
       <c r="B58" s="61" t="s">
         <v>8</v>
       </c>
@@ -19481,7 +19485,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="62"/>
+      <c r="A59" s="108"/>
       <c r="B59" s="61" t="s">
         <v>9</v>
       </c>
@@ -19538,7 +19542,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="62"/>
+      <c r="A60" s="108"/>
       <c r="B60" s="61" t="s">
         <v>10</v>
       </c>
@@ -19595,7 +19599,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="62"/>
+      <c r="A61" s="108"/>
       <c r="B61" s="61" t="s">
         <v>11</v>
       </c>
@@ -19652,7 +19656,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="62"/>
+      <c r="A62" s="108"/>
       <c r="B62" s="61" t="s">
         <v>12</v>
       </c>
@@ -19709,7 +19713,7 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="62"/>
+      <c r="A63" s="108"/>
       <c r="B63" s="61" t="s">
         <v>13</v>
       </c>
@@ -19766,7 +19770,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="62"/>
+      <c r="A64" s="108"/>
       <c r="B64" s="61" t="s">
         <v>14</v>
       </c>
@@ -19823,7 +19827,7 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="62"/>
+      <c r="A65" s="108"/>
       <c r="B65" s="61" t="s">
         <v>15</v>
       </c>
@@ -19880,7 +19884,7 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="62" t="s">
+      <c r="A66" s="108" t="s">
         <v>103</v>
       </c>
       <c r="B66" s="61" t="s">
@@ -19939,7 +19943,7 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="62"/>
+      <c r="A67" s="108"/>
       <c r="B67" s="61" t="s">
         <v>1</v>
       </c>
@@ -19996,7 +20000,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="62"/>
+      <c r="A68" s="108"/>
       <c r="B68" s="61" t="s">
         <v>2</v>
       </c>
@@ -20053,7 +20057,7 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="62"/>
+      <c r="A69" s="108"/>
       <c r="B69" s="61" t="s">
         <v>3</v>
       </c>
@@ -20110,7 +20114,7 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="62"/>
+      <c r="A70" s="108"/>
       <c r="B70" s="61" t="s">
         <v>4</v>
       </c>
@@ -20167,7 +20171,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="62"/>
+      <c r="A71" s="108"/>
       <c r="B71" s="61" t="s">
         <v>5</v>
       </c>
@@ -20224,7 +20228,7 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="62"/>
+      <c r="A72" s="108"/>
       <c r="B72" s="61" t="s">
         <v>6</v>
       </c>
@@ -20281,7 +20285,7 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="62"/>
+      <c r="A73" s="108"/>
       <c r="B73" s="61" t="s">
         <v>7</v>
       </c>
@@ -20338,7 +20342,7 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="62"/>
+      <c r="A74" s="108"/>
       <c r="B74" s="61" t="s">
         <v>8</v>
       </c>
@@ -20395,7 +20399,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="62"/>
+      <c r="A75" s="108"/>
       <c r="B75" s="61" t="s">
         <v>9</v>
       </c>
@@ -20452,7 +20456,7 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="62"/>
+      <c r="A76" s="108"/>
       <c r="B76" s="61" t="s">
         <v>10</v>
       </c>
@@ -20509,7 +20513,7 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="62"/>
+      <c r="A77" s="108"/>
       <c r="B77" s="61" t="s">
         <v>11</v>
       </c>
@@ -20566,7 +20570,7 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="62"/>
+      <c r="A78" s="108"/>
       <c r="B78" s="61" t="s">
         <v>12</v>
       </c>
@@ -20623,7 +20627,7 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="62"/>
+      <c r="A79" s="108"/>
       <c r="B79" s="61" t="s">
         <v>13</v>
       </c>
@@ -20680,7 +20684,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="62"/>
+      <c r="A80" s="108"/>
       <c r="B80" s="61" t="s">
         <v>14</v>
       </c>
@@ -20737,7 +20741,7 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="62"/>
+      <c r="A81" s="108"/>
       <c r="B81" s="61" t="s">
         <v>15</v>
       </c>
@@ -20794,7 +20798,7 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="62" t="s">
+      <c r="A82" s="108" t="s">
         <v>104</v>
       </c>
       <c r="B82" s="61" t="s">
@@ -20853,7 +20857,7 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="62"/>
+      <c r="A83" s="108"/>
       <c r="B83" s="61" t="s">
         <v>1</v>
       </c>
@@ -20910,7 +20914,7 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="62"/>
+      <c r="A84" s="108"/>
       <c r="B84" s="61" t="s">
         <v>2</v>
       </c>
@@ -20967,7 +20971,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="62"/>
+      <c r="A85" s="108"/>
       <c r="B85" s="61" t="s">
         <v>3</v>
       </c>
@@ -21024,7 +21028,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="62"/>
+      <c r="A86" s="108"/>
       <c r="B86" s="61" t="s">
         <v>4</v>
       </c>
@@ -21081,7 +21085,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="62"/>
+      <c r="A87" s="108"/>
       <c r="B87" s="61" t="s">
         <v>5</v>
       </c>
@@ -21138,7 +21142,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="62"/>
+      <c r="A88" s="108"/>
       <c r="B88" s="61" t="s">
         <v>6</v>
       </c>
@@ -21195,7 +21199,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" s="62"/>
+      <c r="A89" s="108"/>
       <c r="B89" s="61" t="s">
         <v>7</v>
       </c>
@@ -21252,7 +21256,7 @@
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="62"/>
+      <c r="A90" s="108"/>
       <c r="B90" s="61" t="s">
         <v>8</v>
       </c>
@@ -21309,7 +21313,7 @@
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="62"/>
+      <c r="A91" s="108"/>
       <c r="B91" s="61" t="s">
         <v>9</v>
       </c>
@@ -21366,7 +21370,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="62"/>
+      <c r="A92" s="108"/>
       <c r="B92" s="61" t="s">
         <v>10</v>
       </c>
@@ -21423,7 +21427,7 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="62"/>
+      <c r="A93" s="108"/>
       <c r="B93" s="61" t="s">
         <v>11</v>
       </c>
@@ -21480,7 +21484,7 @@
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="62"/>
+      <c r="A94" s="108"/>
       <c r="B94" s="61" t="s">
         <v>12</v>
       </c>
@@ -21537,7 +21541,7 @@
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="62"/>
+      <c r="A95" s="108"/>
       <c r="B95" s="61" t="s">
         <v>13</v>
       </c>
@@ -21594,7 +21598,7 @@
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="62"/>
+      <c r="A96" s="108"/>
       <c r="B96" s="61" t="s">
         <v>14</v>
       </c>
@@ -21651,7 +21655,7 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="62"/>
+      <c r="A97" s="108"/>
       <c r="B97" s="61" t="s">
         <v>15</v>
       </c>
@@ -21708,7 +21712,7 @@
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="62" t="s">
+      <c r="A98" s="108" t="s">
         <v>105</v>
       </c>
       <c r="B98" s="61" t="s">
@@ -21767,7 +21771,7 @@
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="62"/>
+      <c r="A99" s="108"/>
       <c r="B99" s="61" t="s">
         <v>1</v>
       </c>
@@ -21824,7 +21828,7 @@
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="62"/>
+      <c r="A100" s="108"/>
       <c r="B100" s="61" t="s">
         <v>2</v>
       </c>
@@ -21881,7 +21885,7 @@
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="62"/>
+      <c r="A101" s="108"/>
       <c r="B101" s="61" t="s">
         <v>3</v>
       </c>
@@ -21938,7 +21942,7 @@
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="62"/>
+      <c r="A102" s="108"/>
       <c r="B102" s="61" t="s">
         <v>4</v>
       </c>
@@ -21995,7 +21999,7 @@
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="62"/>
+      <c r="A103" s="108"/>
       <c r="B103" s="61" t="s">
         <v>5</v>
       </c>
@@ -22052,7 +22056,7 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="62"/>
+      <c r="A104" s="108"/>
       <c r="B104" s="61" t="s">
         <v>6</v>
       </c>
@@ -22109,7 +22113,7 @@
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" s="62"/>
+      <c r="A105" s="108"/>
       <c r="B105" s="61" t="s">
         <v>7</v>
       </c>
@@ -22166,7 +22170,7 @@
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="62"/>
+      <c r="A106" s="108"/>
       <c r="B106" s="61" t="s">
         <v>8</v>
       </c>
@@ -22223,7 +22227,7 @@
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="62"/>
+      <c r="A107" s="108"/>
       <c r="B107" s="61" t="s">
         <v>9</v>
       </c>
@@ -22280,7 +22284,7 @@
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="62"/>
+      <c r="A108" s="108"/>
       <c r="B108" s="61" t="s">
         <v>10</v>
       </c>
@@ -22337,7 +22341,7 @@
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="62"/>
+      <c r="A109" s="108"/>
       <c r="B109" s="61" t="s">
         <v>11</v>
       </c>
@@ -22394,7 +22398,7 @@
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="62"/>
+      <c r="A110" s="108"/>
       <c r="B110" s="61" t="s">
         <v>12</v>
       </c>
@@ -22451,7 +22455,7 @@
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A111" s="62"/>
+      <c r="A111" s="108"/>
       <c r="B111" s="61" t="s">
         <v>13</v>
       </c>
@@ -22508,7 +22512,7 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A112" s="62"/>
+      <c r="A112" s="108"/>
       <c r="B112" s="61" t="s">
         <v>14</v>
       </c>
@@ -22565,7 +22569,7 @@
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A113" s="62"/>
+      <c r="A113" s="108"/>
       <c r="B113" s="61" t="s">
         <v>15</v>
       </c>
@@ -22708,7 +22712,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="108" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -22767,7 +22771,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
+      <c r="A3" s="108"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -22824,7 +22828,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
+      <c r="A4" s="108"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -22881,7 +22885,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
+      <c r="A5" s="108"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -22938,7 +22942,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
+      <c r="A6" s="108"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -22995,7 +22999,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
+      <c r="A7" s="108"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -23052,7 +23056,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
+      <c r="A8" s="108"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -23109,7 +23113,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
+      <c r="A9" s="108"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -23166,7 +23170,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
+      <c r="A10" s="108"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -23223,7 +23227,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
+      <c r="A11" s="108"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -23280,7 +23284,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
+      <c r="A12" s="108"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -23337,7 +23341,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
+      <c r="A13" s="108"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
@@ -23394,7 +23398,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
+      <c r="A14" s="108"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
@@ -23451,7 +23455,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
+      <c r="A15" s="108"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
@@ -23508,7 +23512,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
+      <c r="A16" s="108"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -23565,7 +23569,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
+      <c r="A17" s="108"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -23622,7 +23626,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="108" t="s">
         <v>96</v>
       </c>
       <c r="B18" s="37" t="s">
@@ -23681,7 +23685,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="62"/>
+      <c r="A19" s="108"/>
       <c r="B19" s="37" t="s">
         <v>1</v>
       </c>
@@ -23738,7 +23742,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="62"/>
+      <c r="A20" s="108"/>
       <c r="B20" s="37" t="s">
         <v>2</v>
       </c>
@@ -23795,7 +23799,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
+      <c r="A21" s="108"/>
       <c r="B21" s="37" t="s">
         <v>3</v>
       </c>
@@ -23852,7 +23856,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
+      <c r="A22" s="108"/>
       <c r="B22" s="37" t="s">
         <v>4</v>
       </c>
@@ -23909,7 +23913,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="62"/>
+      <c r="A23" s="108"/>
       <c r="B23" s="37" t="s">
         <v>5</v>
       </c>
@@ -23966,7 +23970,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="62"/>
+      <c r="A24" s="108"/>
       <c r="B24" s="37" t="s">
         <v>6</v>
       </c>
@@ -24023,7 +24027,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="62"/>
+      <c r="A25" s="108"/>
       <c r="B25" s="37" t="s">
         <v>7</v>
       </c>
@@ -24080,7 +24084,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="62"/>
+      <c r="A26" s="108"/>
       <c r="B26" s="37" t="s">
         <v>8</v>
       </c>
@@ -24137,7 +24141,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="62"/>
+      <c r="A27" s="108"/>
       <c r="B27" s="37" t="s">
         <v>9</v>
       </c>
@@ -24194,7 +24198,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="62"/>
+      <c r="A28" s="108"/>
       <c r="B28" s="37" t="s">
         <v>10</v>
       </c>
@@ -24251,7 +24255,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="62"/>
+      <c r="A29" s="108"/>
       <c r="B29" s="37" t="s">
         <v>11</v>
       </c>
@@ -24308,7 +24312,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="62"/>
+      <c r="A30" s="108"/>
       <c r="B30" s="37" t="s">
         <v>12</v>
       </c>
@@ -24365,7 +24369,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="62"/>
+      <c r="A31" s="108"/>
       <c r="B31" s="37" t="s">
         <v>13</v>
       </c>
@@ -24422,7 +24426,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="62"/>
+      <c r="A32" s="108"/>
       <c r="B32" s="37" t="s">
         <v>14</v>
       </c>
@@ -24479,7 +24483,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="62"/>
+      <c r="A33" s="108"/>
       <c r="B33" s="37" t="s">
         <v>15</v>
       </c>
@@ -24536,7 +24540,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="62" t="s">
+      <c r="A34" s="108" t="s">
         <v>101</v>
       </c>
       <c r="B34" s="61" t="s">
@@ -24595,7 +24599,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="62"/>
+      <c r="A35" s="108"/>
       <c r="B35" s="61" t="s">
         <v>1</v>
       </c>
@@ -24652,7 +24656,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="62"/>
+      <c r="A36" s="108"/>
       <c r="B36" s="61" t="s">
         <v>2</v>
       </c>
@@ -24709,7 +24713,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="62"/>
+      <c r="A37" s="108"/>
       <c r="B37" s="61" t="s">
         <v>3</v>
       </c>
@@ -24766,7 +24770,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="62"/>
+      <c r="A38" s="108"/>
       <c r="B38" s="61" t="s">
         <v>4</v>
       </c>
@@ -24823,7 +24827,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="62"/>
+      <c r="A39" s="108"/>
       <c r="B39" s="61" t="s">
         <v>5</v>
       </c>
@@ -24880,7 +24884,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="62"/>
+      <c r="A40" s="108"/>
       <c r="B40" s="61" t="s">
         <v>6</v>
       </c>
@@ -24937,7 +24941,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="62"/>
+      <c r="A41" s="108"/>
       <c r="B41" s="61" t="s">
         <v>7</v>
       </c>
@@ -24994,7 +24998,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="62"/>
+      <c r="A42" s="108"/>
       <c r="B42" s="61" t="s">
         <v>8</v>
       </c>
@@ -25051,7 +25055,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="62"/>
+      <c r="A43" s="108"/>
       <c r="B43" s="61" t="s">
         <v>9</v>
       </c>
@@ -25108,7 +25112,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="62"/>
+      <c r="A44" s="108"/>
       <c r="B44" s="61" t="s">
         <v>10</v>
       </c>
@@ -25165,7 +25169,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="62"/>
+      <c r="A45" s="108"/>
       <c r="B45" s="61" t="s">
         <v>11</v>
       </c>
@@ -25222,7 +25226,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="62"/>
+      <c r="A46" s="108"/>
       <c r="B46" s="61" t="s">
         <v>12</v>
       </c>
@@ -25279,7 +25283,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="62"/>
+      <c r="A47" s="108"/>
       <c r="B47" s="61" t="s">
         <v>13</v>
       </c>
@@ -25336,7 +25340,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="62"/>
+      <c r="A48" s="108"/>
       <c r="B48" s="61" t="s">
         <v>14</v>
       </c>
@@ -25393,7 +25397,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="62"/>
+      <c r="A49" s="108"/>
       <c r="B49" s="61" t="s">
         <v>15</v>
       </c>
@@ -25450,7 +25454,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="62" t="s">
+      <c r="A50" s="108" t="s">
         <v>102</v>
       </c>
       <c r="B50" s="61" t="s">
@@ -25509,7 +25513,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="62"/>
+      <c r="A51" s="108"/>
       <c r="B51" s="61" t="s">
         <v>1</v>
       </c>
@@ -25566,7 +25570,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="62"/>
+      <c r="A52" s="108"/>
       <c r="B52" s="61" t="s">
         <v>2</v>
       </c>
@@ -25623,7 +25627,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="62"/>
+      <c r="A53" s="108"/>
       <c r="B53" s="61" t="s">
         <v>3</v>
       </c>
@@ -25680,7 +25684,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="62"/>
+      <c r="A54" s="108"/>
       <c r="B54" s="61" t="s">
         <v>4</v>
       </c>
@@ -25737,7 +25741,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="62"/>
+      <c r="A55" s="108"/>
       <c r="B55" s="61" t="s">
         <v>5</v>
       </c>
@@ -25794,7 +25798,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="62"/>
+      <c r="A56" s="108"/>
       <c r="B56" s="61" t="s">
         <v>6</v>
       </c>
@@ -25851,7 +25855,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="62"/>
+      <c r="A57" s="108"/>
       <c r="B57" s="61" t="s">
         <v>7</v>
       </c>
@@ -25908,7 +25912,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="62"/>
+      <c r="A58" s="108"/>
       <c r="B58" s="61" t="s">
         <v>8</v>
       </c>
@@ -25965,7 +25969,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="62"/>
+      <c r="A59" s="108"/>
       <c r="B59" s="61" t="s">
         <v>9</v>
       </c>
@@ -26022,7 +26026,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="62"/>
+      <c r="A60" s="108"/>
       <c r="B60" s="61" t="s">
         <v>10</v>
       </c>
@@ -26079,7 +26083,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="62"/>
+      <c r="A61" s="108"/>
       <c r="B61" s="61" t="s">
         <v>11</v>
       </c>
@@ -26136,7 +26140,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="62"/>
+      <c r="A62" s="108"/>
       <c r="B62" s="61" t="s">
         <v>12</v>
       </c>
@@ -26193,7 +26197,7 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="62"/>
+      <c r="A63" s="108"/>
       <c r="B63" s="61" t="s">
         <v>13</v>
       </c>
@@ -26250,7 +26254,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="62"/>
+      <c r="A64" s="108"/>
       <c r="B64" s="61" t="s">
         <v>14</v>
       </c>
@@ -26307,7 +26311,7 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="62"/>
+      <c r="A65" s="108"/>
       <c r="B65" s="61" t="s">
         <v>15</v>
       </c>
@@ -26364,7 +26368,7 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="62" t="s">
+      <c r="A66" s="108" t="s">
         <v>103</v>
       </c>
       <c r="B66" s="61" t="s">
@@ -26423,7 +26427,7 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="62"/>
+      <c r="A67" s="108"/>
       <c r="B67" s="61" t="s">
         <v>1</v>
       </c>
@@ -26480,7 +26484,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="62"/>
+      <c r="A68" s="108"/>
       <c r="B68" s="61" t="s">
         <v>2</v>
       </c>
@@ -26537,7 +26541,7 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="62"/>
+      <c r="A69" s="108"/>
       <c r="B69" s="61" t="s">
         <v>3</v>
       </c>
@@ -26594,7 +26598,7 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="62"/>
+      <c r="A70" s="108"/>
       <c r="B70" s="61" t="s">
         <v>4</v>
       </c>
@@ -26651,7 +26655,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="62"/>
+      <c r="A71" s="108"/>
       <c r="B71" s="61" t="s">
         <v>5</v>
       </c>
@@ -26708,7 +26712,7 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="62"/>
+      <c r="A72" s="108"/>
       <c r="B72" s="61" t="s">
         <v>6</v>
       </c>
@@ -26765,7 +26769,7 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="62"/>
+      <c r="A73" s="108"/>
       <c r="B73" s="61" t="s">
         <v>7</v>
       </c>
@@ -26822,7 +26826,7 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="62"/>
+      <c r="A74" s="108"/>
       <c r="B74" s="61" t="s">
         <v>8</v>
       </c>
@@ -26879,7 +26883,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="62"/>
+      <c r="A75" s="108"/>
       <c r="B75" s="61" t="s">
         <v>9</v>
       </c>
@@ -26936,7 +26940,7 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="62"/>
+      <c r="A76" s="108"/>
       <c r="B76" s="61" t="s">
         <v>10</v>
       </c>
@@ -26993,7 +26997,7 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="62"/>
+      <c r="A77" s="108"/>
       <c r="B77" s="61" t="s">
         <v>11</v>
       </c>
@@ -27050,7 +27054,7 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="62"/>
+      <c r="A78" s="108"/>
       <c r="B78" s="61" t="s">
         <v>12</v>
       </c>
@@ -27107,7 +27111,7 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="62"/>
+      <c r="A79" s="108"/>
       <c r="B79" s="61" t="s">
         <v>13</v>
       </c>
@@ -27164,7 +27168,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="62"/>
+      <c r="A80" s="108"/>
       <c r="B80" s="61" t="s">
         <v>14</v>
       </c>
@@ -27221,7 +27225,7 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="62"/>
+      <c r="A81" s="108"/>
       <c r="B81" s="61" t="s">
         <v>15</v>
       </c>
@@ -27278,7 +27282,7 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="62" t="s">
+      <c r="A82" s="108" t="s">
         <v>104</v>
       </c>
       <c r="B82" s="61" t="s">
@@ -27337,7 +27341,7 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="62"/>
+      <c r="A83" s="108"/>
       <c r="B83" s="61" t="s">
         <v>1</v>
       </c>
@@ -27394,7 +27398,7 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="62"/>
+      <c r="A84" s="108"/>
       <c r="B84" s="61" t="s">
         <v>2</v>
       </c>
@@ -27451,7 +27455,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="62"/>
+      <c r="A85" s="108"/>
       <c r="B85" s="61" t="s">
         <v>3</v>
       </c>
@@ -27508,7 +27512,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="62"/>
+      <c r="A86" s="108"/>
       <c r="B86" s="61" t="s">
         <v>4</v>
       </c>
@@ -27565,7 +27569,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="62"/>
+      <c r="A87" s="108"/>
       <c r="B87" s="61" t="s">
         <v>5</v>
       </c>
@@ -27622,7 +27626,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="62"/>
+      <c r="A88" s="108"/>
       <c r="B88" s="61" t="s">
         <v>6</v>
       </c>
@@ -27679,7 +27683,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" s="62"/>
+      <c r="A89" s="108"/>
       <c r="B89" s="61" t="s">
         <v>7</v>
       </c>
@@ -27736,7 +27740,7 @@
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="62"/>
+      <c r="A90" s="108"/>
       <c r="B90" s="61" t="s">
         <v>8</v>
       </c>
@@ -27793,7 +27797,7 @@
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="62"/>
+      <c r="A91" s="108"/>
       <c r="B91" s="61" t="s">
         <v>9</v>
       </c>
@@ -27850,7 +27854,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="62"/>
+      <c r="A92" s="108"/>
       <c r="B92" s="61" t="s">
         <v>10</v>
       </c>
@@ -27907,7 +27911,7 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="62"/>
+      <c r="A93" s="108"/>
       <c r="B93" s="61" t="s">
         <v>11</v>
       </c>
@@ -27964,7 +27968,7 @@
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="62"/>
+      <c r="A94" s="108"/>
       <c r="B94" s="61" t="s">
         <v>12</v>
       </c>
@@ -28021,7 +28025,7 @@
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="62"/>
+      <c r="A95" s="108"/>
       <c r="B95" s="61" t="s">
         <v>13</v>
       </c>
@@ -28078,7 +28082,7 @@
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="62"/>
+      <c r="A96" s="108"/>
       <c r="B96" s="61" t="s">
         <v>14</v>
       </c>
@@ -28135,7 +28139,7 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="62"/>
+      <c r="A97" s="108"/>
       <c r="B97" s="61" t="s">
         <v>15</v>
       </c>
@@ -28192,7 +28196,7 @@
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="62" t="s">
+      <c r="A98" s="108" t="s">
         <v>105</v>
       </c>
       <c r="B98" s="61" t="s">
@@ -28251,7 +28255,7 @@
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="62"/>
+      <c r="A99" s="108"/>
       <c r="B99" s="61" t="s">
         <v>1</v>
       </c>
@@ -28308,7 +28312,7 @@
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="62"/>
+      <c r="A100" s="108"/>
       <c r="B100" s="61" t="s">
         <v>2</v>
       </c>
@@ -28365,7 +28369,7 @@
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="62"/>
+      <c r="A101" s="108"/>
       <c r="B101" s="61" t="s">
         <v>3</v>
       </c>
@@ -28422,7 +28426,7 @@
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="62"/>
+      <c r="A102" s="108"/>
       <c r="B102" s="61" t="s">
         <v>4</v>
       </c>
@@ -28479,7 +28483,7 @@
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="62"/>
+      <c r="A103" s="108"/>
       <c r="B103" s="61" t="s">
         <v>5</v>
       </c>
@@ -28536,7 +28540,7 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="62"/>
+      <c r="A104" s="108"/>
       <c r="B104" s="61" t="s">
         <v>6</v>
       </c>
@@ -28593,7 +28597,7 @@
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" s="62"/>
+      <c r="A105" s="108"/>
       <c r="B105" s="61" t="s">
         <v>7</v>
       </c>
@@ -28650,7 +28654,7 @@
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="62"/>
+      <c r="A106" s="108"/>
       <c r="B106" s="61" t="s">
         <v>8</v>
       </c>
@@ -28707,7 +28711,7 @@
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="62"/>
+      <c r="A107" s="108"/>
       <c r="B107" s="61" t="s">
         <v>9</v>
       </c>
@@ -28764,7 +28768,7 @@
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="62"/>
+      <c r="A108" s="108"/>
       <c r="B108" s="61" t="s">
         <v>10</v>
       </c>
@@ -28821,7 +28825,7 @@
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="62"/>
+      <c r="A109" s="108"/>
       <c r="B109" s="61" t="s">
         <v>11</v>
       </c>
@@ -28878,7 +28882,7 @@
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="62"/>
+      <c r="A110" s="108"/>
       <c r="B110" s="61" t="s">
         <v>12</v>
       </c>
@@ -28935,7 +28939,7 @@
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A111" s="62"/>
+      <c r="A111" s="108"/>
       <c r="B111" s="61" t="s">
         <v>13</v>
       </c>
@@ -28992,7 +28996,7 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A112" s="62"/>
+      <c r="A112" s="108"/>
       <c r="B112" s="61" t="s">
         <v>14</v>
       </c>
@@ -29049,7 +29053,7 @@
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A113" s="62"/>
+      <c r="A113" s="108"/>
       <c r="B113" s="61" t="s">
         <v>15</v>
       </c>
@@ -29208,117 +29212,117 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="71">
+      <c r="B4" s="63">
         <v>33.200000000000003</v>
       </c>
-      <c r="C4" s="71">
+      <c r="C4" s="63">
         <v>30.2</v>
       </c>
-      <c r="D4" s="71">
+      <c r="D4" s="63">
         <v>14.9</v>
       </c>
-      <c r="E4" s="71">
+      <c r="E4" s="63">
         <v>9.0236861478605075</v>
       </c>
-      <c r="F4" s="71">
+      <c r="F4" s="63">
         <v>9.0236861478605075</v>
       </c>
-      <c r="G4" s="71">
+      <c r="G4" s="63">
         <v>3.6526277042789821</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="71">
+      <c r="B5" s="63">
         <v>33.700000000000003</v>
       </c>
-      <c r="C5" s="71">
+      <c r="C5" s="63">
         <v>30.2</v>
       </c>
-      <c r="D5" s="71">
+      <c r="D5" s="63">
         <v>15.4</v>
       </c>
-      <c r="E5" s="71">
+      <c r="E5" s="63">
         <v>8.6494318836635298</v>
       </c>
-      <c r="F5" s="71">
+      <c r="F5" s="63">
         <v>8.6494318836635298</v>
       </c>
-      <c r="G5" s="71">
+      <c r="G5" s="63">
         <v>3.5011362326729416</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="71">
+      <c r="B6" s="63">
         <v>45.7</v>
       </c>
-      <c r="C6" s="71">
+      <c r="C6" s="63">
         <v>29.6</v>
       </c>
-      <c r="D6" s="71">
+      <c r="D6" s="63">
         <v>12.1</v>
       </c>
-      <c r="E6" s="71">
+      <c r="E6" s="63">
         <v>5.2395596987577147</v>
       </c>
-      <c r="F6" s="71">
+      <c r="F6" s="63">
         <v>5.2395596987577147</v>
       </c>
-      <c r="G6" s="71">
+      <c r="G6" s="63">
         <v>2.1208806024845703</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="71">
+      <c r="B7" s="63">
         <v>44.8</v>
       </c>
-      <c r="C7" s="71">
+      <c r="C7" s="63">
         <v>31.5</v>
       </c>
-      <c r="D7" s="71">
+      <c r="D7" s="63">
         <v>11.7</v>
       </c>
-      <c r="E7" s="71">
+      <c r="E7" s="63">
         <v>5.031640663092726</v>
       </c>
-      <c r="F7" s="71">
+      <c r="F7" s="63">
         <v>5.031640663092726</v>
       </c>
-      <c r="G7" s="71">
+      <c r="G7" s="63">
         <v>2.0367186738145477</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="71">
+      <c r="B8" s="63">
         <v>31.6</v>
       </c>
-      <c r="C8" s="71">
+      <c r="C8" s="63">
         <v>33.200000000000003</v>
       </c>
-      <c r="D8" s="71">
+      <c r="D8" s="63">
         <v>15.2</v>
       </c>
-      <c r="E8" s="71">
+      <c r="E8" s="63">
         <v>8.3167614265995482</v>
       </c>
-      <c r="F8" s="71">
+      <c r="F8" s="63">
         <v>8.3167614265995482</v>
       </c>
-      <c r="G8" s="71">
+      <c r="G8" s="63">
         <v>3.3664771468009054</v>
       </c>
     </row>
@@ -29332,10 +29336,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29401,1497 +29405,1501 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="112" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="75">
+      <c r="D2" s="66">
         <v>0.2</v>
       </c>
-      <c r="E2" s="76">
-        <v>1</v>
-      </c>
-      <c r="F2" s="76">
-        <v>1</v>
-      </c>
-      <c r="G2" s="76">
-        <v>1</v>
-      </c>
-      <c r="H2" s="76">
-        <v>1</v>
-      </c>
-      <c r="I2" s="76">
-        <v>1</v>
-      </c>
-      <c r="J2" s="76">
-        <v>0</v>
-      </c>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
+      <c r="E2" s="67">
+        <v>1</v>
+      </c>
+      <c r="F2" s="67">
+        <v>1</v>
+      </c>
+      <c r="G2" s="67">
+        <v>1</v>
+      </c>
+      <c r="H2" s="67">
+        <v>1</v>
+      </c>
+      <c r="I2" s="67">
+        <v>1</v>
+      </c>
+      <c r="J2" s="67">
+        <v>0</v>
+      </c>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
       <c r="M2" s="50">
         <v>43902</v>
       </c>
-      <c r="N2" s="77">
+      <c r="N2" s="68">
         <v>43906</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
-      <c r="B3" s="79" t="s">
+      <c r="A3" s="113"/>
+      <c r="B3" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="81">
+      <c r="D3" s="71">
         <v>0.2</v>
       </c>
-      <c r="E3" s="80">
-        <v>1</v>
-      </c>
-      <c r="F3" s="80">
-        <v>1</v>
-      </c>
-      <c r="G3" s="80">
-        <v>1</v>
-      </c>
-      <c r="H3" s="80">
-        <v>1</v>
-      </c>
-      <c r="I3" s="80">
-        <v>1</v>
-      </c>
-      <c r="J3" s="80">
-        <v>0</v>
-      </c>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="82">
+      <c r="E3" s="70">
+        <v>1</v>
+      </c>
+      <c r="F3" s="70">
+        <v>1</v>
+      </c>
+      <c r="G3" s="70">
+        <v>1</v>
+      </c>
+      <c r="H3" s="70">
+        <v>1</v>
+      </c>
+      <c r="I3" s="70">
+        <v>1</v>
+      </c>
+      <c r="J3" s="70">
+        <v>0</v>
+      </c>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="72">
         <v>43906</v>
       </c>
-      <c r="N3" s="82">
+      <c r="N3" s="72">
         <v>43951</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="113"/>
+      <c r="B4" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="81"/>
-      <c r="E4" s="84">
-        <v>1</v>
-      </c>
-      <c r="F4" s="80">
-        <v>1</v>
-      </c>
-      <c r="G4" s="80">
-        <v>1</v>
-      </c>
-      <c r="H4" s="80">
-        <v>1</v>
-      </c>
-      <c r="I4" s="80">
-        <v>1</v>
-      </c>
-      <c r="J4" s="80">
-        <v>0</v>
-      </c>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="74">
+        <v>1</v>
+      </c>
+      <c r="F4" s="70">
+        <v>1</v>
+      </c>
+      <c r="G4" s="70">
+        <v>1</v>
+      </c>
+      <c r="H4" s="70">
+        <v>1</v>
+      </c>
+      <c r="I4" s="70">
+        <v>1</v>
+      </c>
+      <c r="J4" s="70">
+        <v>0</v>
+      </c>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
-      <c r="B5" s="79" t="s">
+      <c r="A5" s="113"/>
+      <c r="B5" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="81">
+      <c r="D5" s="71">
         <v>0.5</v>
       </c>
-      <c r="E5" s="84">
-        <v>1</v>
-      </c>
-      <c r="F5" s="80">
-        <v>1</v>
-      </c>
-      <c r="G5" s="80">
-        <v>1</v>
-      </c>
-      <c r="H5" s="80">
-        <v>1</v>
-      </c>
-      <c r="I5" s="80">
-        <v>1</v>
-      </c>
-      <c r="J5" s="80">
-        <v>0</v>
-      </c>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="82">
+      <c r="E5" s="74">
+        <v>1</v>
+      </c>
+      <c r="F5" s="70">
+        <v>1</v>
+      </c>
+      <c r="G5" s="70">
+        <v>1</v>
+      </c>
+      <c r="H5" s="70">
+        <v>1</v>
+      </c>
+      <c r="I5" s="70">
+        <v>1</v>
+      </c>
+      <c r="J5" s="70">
+        <v>0</v>
+      </c>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="72">
         <v>43951</v>
       </c>
-      <c r="N5" s="82">
+      <c r="N5" s="72">
         <v>43998</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="78"/>
-      <c r="B6" s="79" t="s">
+      <c r="A6" s="113"/>
+      <c r="B6" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="81">
+      <c r="D6" s="71">
         <v>0.6</v>
       </c>
-      <c r="E6" s="80">
-        <v>1</v>
-      </c>
-      <c r="F6" s="80">
-        <v>1</v>
-      </c>
-      <c r="G6" s="80">
-        <v>1</v>
-      </c>
-      <c r="H6" s="80">
-        <v>1</v>
-      </c>
-      <c r="I6" s="80">
-        <v>1</v>
-      </c>
-      <c r="J6" s="80">
-        <v>0</v>
-      </c>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="82">
+      <c r="E6" s="70">
+        <v>1</v>
+      </c>
+      <c r="F6" s="70">
+        <v>1</v>
+      </c>
+      <c r="G6" s="70">
+        <v>1</v>
+      </c>
+      <c r="H6" s="70">
+        <v>1</v>
+      </c>
+      <c r="I6" s="70">
+        <v>1</v>
+      </c>
+      <c r="J6" s="70">
+        <v>0</v>
+      </c>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="72">
         <v>43998</v>
       </c>
-      <c r="N6" s="82"/>
+      <c r="N6" s="72"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
-      <c r="B7" s="79" t="s">
+      <c r="A7" s="113"/>
+      <c r="B7" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="81">
+      <c r="D7" s="71">
         <v>0.9</v>
       </c>
-      <c r="E7" s="80">
-        <v>1</v>
-      </c>
-      <c r="F7" s="80">
-        <v>1</v>
-      </c>
-      <c r="G7" s="80">
-        <v>1</v>
-      </c>
-      <c r="H7" s="80">
-        <v>1</v>
-      </c>
-      <c r="I7" s="80">
-        <v>1</v>
-      </c>
-      <c r="J7" s="80">
-        <v>0</v>
-      </c>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
+      <c r="E7" s="70">
+        <v>1</v>
+      </c>
+      <c r="F7" s="70">
+        <v>1</v>
+      </c>
+      <c r="G7" s="70">
+        <v>1</v>
+      </c>
+      <c r="H7" s="70">
+        <v>1</v>
+      </c>
+      <c r="I7" s="70">
+        <v>1</v>
+      </c>
+      <c r="J7" s="70">
+        <v>0</v>
+      </c>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="86"/>
-      <c r="B8" s="87" t="s">
+      <c r="A8" s="114"/>
+      <c r="B8" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="89"/>
-      <c r="E8" s="90">
-        <v>1</v>
-      </c>
-      <c r="F8" s="91">
-        <v>1</v>
-      </c>
-      <c r="G8" s="91">
-        <v>1</v>
-      </c>
-      <c r="H8" s="91">
-        <v>1</v>
-      </c>
-      <c r="I8" s="91">
-        <v>1</v>
-      </c>
-      <c r="J8" s="91">
-        <v>0</v>
-      </c>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="79">
+        <v>1</v>
+      </c>
+      <c r="F8" s="80">
+        <v>1</v>
+      </c>
+      <c r="G8" s="80">
+        <v>1</v>
+      </c>
+      <c r="H8" s="80">
+        <v>1</v>
+      </c>
+      <c r="I8" s="80">
+        <v>1</v>
+      </c>
+      <c r="J8" s="80">
+        <v>0</v>
+      </c>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
       <c r="M8" s="53"/>
       <c r="N8" s="52"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="115" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="C9" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="97">
+      <c r="D9" s="85">
         <v>0.6</v>
       </c>
-      <c r="E9" s="98">
-        <v>1</v>
-      </c>
-      <c r="F9" s="98">
-        <v>1</v>
-      </c>
-      <c r="G9" s="98">
-        <v>1</v>
-      </c>
-      <c r="H9" s="98">
-        <v>1</v>
-      </c>
-      <c r="I9" s="98">
-        <v>1</v>
-      </c>
-      <c r="J9" s="98">
-        <v>0</v>
-      </c>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="99">
+      <c r="E9" s="86">
+        <v>1</v>
+      </c>
+      <c r="F9" s="86">
+        <v>1</v>
+      </c>
+      <c r="G9" s="86">
+        <v>1</v>
+      </c>
+      <c r="H9" s="86">
+        <v>1</v>
+      </c>
+      <c r="I9" s="86">
+        <v>1</v>
+      </c>
+      <c r="J9" s="86">
+        <v>0</v>
+      </c>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="87">
         <v>43895</v>
       </c>
-      <c r="N9" s="100">
+      <c r="N9" s="88">
         <v>43920</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="101"/>
-      <c r="B10" s="102" t="s">
+      <c r="A10" s="116"/>
+      <c r="B10" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="103" t="s">
+      <c r="C10" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="104">
+      <c r="D10" s="91">
         <v>0.35</v>
       </c>
-      <c r="E10" s="103">
-        <v>1</v>
-      </c>
-      <c r="F10" s="103">
-        <v>1</v>
-      </c>
-      <c r="G10" s="103">
-        <v>1</v>
-      </c>
-      <c r="H10" s="103">
-        <v>1</v>
-      </c>
-      <c r="I10" s="103">
-        <v>1</v>
-      </c>
-      <c r="J10" s="103">
-        <v>0</v>
-      </c>
-      <c r="K10" s="103"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="105">
+      <c r="E10" s="90">
+        <v>1</v>
+      </c>
+      <c r="F10" s="90">
+        <v>1</v>
+      </c>
+      <c r="G10" s="90">
+        <v>1</v>
+      </c>
+      <c r="H10" s="90">
+        <v>1</v>
+      </c>
+      <c r="I10" s="90">
+        <v>1</v>
+      </c>
+      <c r="J10" s="90">
+        <v>0</v>
+      </c>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="92">
         <v>43920</v>
       </c>
-      <c r="N10" s="105">
+      <c r="N10" s="92">
         <v>43966</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="101"/>
-      <c r="B11" s="102" t="s">
+      <c r="A11" s="116"/>
+      <c r="B11" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="106" t="s">
+      <c r="C11" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="104"/>
-      <c r="E11" s="107">
-        <v>1</v>
-      </c>
-      <c r="F11" s="103">
-        <v>1</v>
-      </c>
-      <c r="G11" s="103">
-        <v>1</v>
-      </c>
-      <c r="H11" s="103">
-        <v>1</v>
-      </c>
-      <c r="I11" s="103">
-        <v>1</v>
-      </c>
-      <c r="J11" s="103">
-        <v>0</v>
-      </c>
-      <c r="K11" s="103"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="105"/>
-      <c r="N11" s="105"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="94">
+        <v>1</v>
+      </c>
+      <c r="F11" s="90">
+        <v>1</v>
+      </c>
+      <c r="G11" s="90">
+        <v>1</v>
+      </c>
+      <c r="H11" s="90">
+        <v>1</v>
+      </c>
+      <c r="I11" s="90">
+        <v>1</v>
+      </c>
+      <c r="J11" s="90">
+        <v>0</v>
+      </c>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="101"/>
-      <c r="B12" s="102" t="s">
+      <c r="A12" s="116"/>
+      <c r="B12" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="104">
+      <c r="D12" s="91">
         <v>0.6</v>
       </c>
-      <c r="E12" s="107">
-        <v>1</v>
-      </c>
-      <c r="F12" s="103">
-        <v>1</v>
-      </c>
-      <c r="G12" s="103">
-        <v>1</v>
-      </c>
-      <c r="H12" s="103">
-        <v>1</v>
-      </c>
-      <c r="I12" s="103">
-        <v>1</v>
-      </c>
-      <c r="J12" s="103">
-        <v>0</v>
-      </c>
-      <c r="K12" s="103"/>
-      <c r="L12" s="103"/>
-      <c r="M12" s="105">
+      <c r="E12" s="94">
+        <v>1</v>
+      </c>
+      <c r="F12" s="90">
+        <v>1</v>
+      </c>
+      <c r="G12" s="90">
+        <v>1</v>
+      </c>
+      <c r="H12" s="90">
+        <v>1</v>
+      </c>
+      <c r="I12" s="90">
+        <v>1</v>
+      </c>
+      <c r="J12" s="90">
+        <v>0</v>
+      </c>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="92">
         <v>43966</v>
       </c>
-      <c r="N12" s="105">
+      <c r="N12" s="92">
         <v>44001</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="101"/>
-      <c r="B13" s="102" t="s">
+      <c r="A13" s="116"/>
+      <c r="B13" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="103" t="s">
+      <c r="C13" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="104">
+      <c r="D13" s="91">
         <v>0.7</v>
       </c>
-      <c r="E13" s="103">
-        <v>1</v>
-      </c>
-      <c r="F13" s="103">
-        <v>1</v>
-      </c>
-      <c r="G13" s="103">
-        <v>1</v>
-      </c>
-      <c r="H13" s="103">
-        <v>1</v>
-      </c>
-      <c r="I13" s="103">
-        <v>1</v>
-      </c>
-      <c r="J13" s="103">
-        <v>0</v>
-      </c>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="105">
+      <c r="E13" s="90">
+        <v>1</v>
+      </c>
+      <c r="F13" s="90">
+        <v>1</v>
+      </c>
+      <c r="G13" s="90">
+        <v>1</v>
+      </c>
+      <c r="H13" s="90">
+        <v>1</v>
+      </c>
+      <c r="I13" s="90">
+        <v>1</v>
+      </c>
+      <c r="J13" s="90">
+        <v>0</v>
+      </c>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="92">
         <v>44001</v>
       </c>
-      <c r="N13" s="105"/>
+      <c r="N13" s="92"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="101"/>
-      <c r="B14" s="102" t="s">
+      <c r="A14" s="116"/>
+      <c r="B14" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="106" t="s">
+      <c r="C14" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="104">
+      <c r="D14" s="91">
         <v>0.8</v>
       </c>
-      <c r="E14" s="103">
-        <v>1</v>
-      </c>
-      <c r="F14" s="103">
-        <v>1</v>
-      </c>
-      <c r="G14" s="103">
-        <v>1</v>
-      </c>
-      <c r="H14" s="103">
-        <v>1</v>
-      </c>
-      <c r="I14" s="103">
-        <v>1</v>
-      </c>
-      <c r="J14" s="103">
-        <v>0</v>
-      </c>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="105"/>
-      <c r="N14" s="105"/>
+      <c r="E14" s="90">
+        <v>1</v>
+      </c>
+      <c r="F14" s="90">
+        <v>1</v>
+      </c>
+      <c r="G14" s="90">
+        <v>1</v>
+      </c>
+      <c r="H14" s="90">
+        <v>1</v>
+      </c>
+      <c r="I14" s="90">
+        <v>1</v>
+      </c>
+      <c r="J14" s="90">
+        <v>0</v>
+      </c>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="108"/>
-      <c r="B15" s="109" t="s">
+      <c r="A15" s="117"/>
+      <c r="B15" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="110" t="s">
+      <c r="C15" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="111">
+      <c r="D15" s="97">
         <v>0.9</v>
       </c>
-      <c r="E15" s="112">
-        <v>1</v>
-      </c>
-      <c r="F15" s="113">
-        <v>1</v>
-      </c>
-      <c r="G15" s="113">
-        <v>1</v>
-      </c>
-      <c r="H15" s="113">
-        <v>1</v>
-      </c>
-      <c r="I15" s="113">
-        <v>1</v>
-      </c>
-      <c r="J15" s="113">
-        <v>0</v>
-      </c>
-      <c r="K15" s="113"/>
-      <c r="L15" s="113"/>
-      <c r="M15" s="114"/>
-      <c r="N15" s="115"/>
+      <c r="E15" s="98">
+        <v>1</v>
+      </c>
+      <c r="F15" s="99">
+        <v>1</v>
+      </c>
+      <c r="G15" s="99">
+        <v>1</v>
+      </c>
+      <c r="H15" s="99">
+        <v>1</v>
+      </c>
+      <c r="I15" s="99">
+        <v>1</v>
+      </c>
+      <c r="J15" s="99">
+        <v>0</v>
+      </c>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="100"/>
+      <c r="N15" s="101"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="75">
-        <v>0.8</v>
-      </c>
-      <c r="E16" s="76">
-        <v>1</v>
-      </c>
-      <c r="F16" s="76">
-        <v>1</v>
-      </c>
-      <c r="G16" s="76">
-        <v>1</v>
-      </c>
-      <c r="H16" s="76">
-        <v>1</v>
-      </c>
-      <c r="I16" s="76">
-        <v>1</v>
-      </c>
-      <c r="J16" s="76">
-        <v>0</v>
-      </c>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
+      <c r="D16" s="66">
+        <v>0.6</v>
+      </c>
+      <c r="E16" s="67">
+        <v>1</v>
+      </c>
+      <c r="F16" s="67">
+        <v>1</v>
+      </c>
+      <c r="G16" s="67">
+        <v>1</v>
+      </c>
+      <c r="H16" s="67">
+        <v>1</v>
+      </c>
+      <c r="I16" s="67">
+        <v>1</v>
+      </c>
+      <c r="J16" s="67">
+        <v>0</v>
+      </c>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
       <c r="M16" s="50">
         <v>43903</v>
       </c>
-      <c r="N16" s="77">
+      <c r="N16" s="68">
         <v>43906</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="78"/>
-      <c r="B17" s="79" t="s">
+      <c r="A17" s="113"/>
+      <c r="B17" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="81">
+      <c r="D17" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="E17" s="70">
+        <v>1</v>
+      </c>
+      <c r="F17" s="70">
+        <v>1</v>
+      </c>
+      <c r="G17" s="70">
+        <v>1</v>
+      </c>
+      <c r="H17" s="70">
+        <v>1</v>
+      </c>
+      <c r="I17" s="70">
+        <v>1</v>
+      </c>
+      <c r="J17" s="70">
+        <v>0</v>
+      </c>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="72">
+        <v>43906</v>
+      </c>
+      <c r="N17" s="72">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="113"/>
+      <c r="B18" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="71">
+        <v>0.15</v>
+      </c>
+      <c r="E18" s="74">
+        <v>1</v>
+      </c>
+      <c r="F18" s="70">
+        <v>1</v>
+      </c>
+      <c r="G18" s="70">
+        <v>1</v>
+      </c>
+      <c r="H18" s="70">
+        <v>1</v>
+      </c>
+      <c r="I18" s="70">
+        <v>1</v>
+      </c>
+      <c r="J18" s="70">
+        <v>0</v>
+      </c>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="72">
+        <v>43911</v>
+      </c>
+      <c r="N18" s="72">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="113"/>
+      <c r="B19" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="71">
+        <v>0.2</v>
+      </c>
+      <c r="E19" s="74">
+        <v>1</v>
+      </c>
+      <c r="F19" s="70">
+        <v>1</v>
+      </c>
+      <c r="G19" s="70">
+        <v>1</v>
+      </c>
+      <c r="H19" s="70">
+        <v>1</v>
+      </c>
+      <c r="I19" s="70">
+        <v>1</v>
+      </c>
+      <c r="J19" s="70">
+        <v>0</v>
+      </c>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="72">
+        <v>43952</v>
+      </c>
+      <c r="N19" s="72">
+        <v>43985</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="113"/>
+      <c r="B20" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="71">
+        <v>0.25</v>
+      </c>
+      <c r="E20" s="70">
+        <v>1</v>
+      </c>
+      <c r="F20" s="70">
+        <v>1</v>
+      </c>
+      <c r="G20" s="70">
+        <v>1</v>
+      </c>
+      <c r="H20" s="70">
+        <v>1</v>
+      </c>
+      <c r="I20" s="70">
+        <v>1</v>
+      </c>
+      <c r="J20" s="70">
+        <v>0</v>
+      </c>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="72">
+        <v>43985</v>
+      </c>
+      <c r="N20" s="72">
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="113"/>
+      <c r="B21" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="E21" s="74">
+        <v>1</v>
+      </c>
+      <c r="F21" s="70">
+        <v>1</v>
+      </c>
+      <c r="G21" s="70">
+        <v>1</v>
+      </c>
+      <c r="H21" s="70">
+        <v>1</v>
+      </c>
+      <c r="I21" s="70">
+        <v>1</v>
+      </c>
+      <c r="J21" s="70">
+        <v>0</v>
+      </c>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="72">
+        <v>44008</v>
+      </c>
+      <c r="N21" s="75"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="113"/>
+      <c r="B22" s="122" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="71">
         <v>0.4</v>
       </c>
-      <c r="E17" s="80">
-        <v>1</v>
-      </c>
-      <c r="F17" s="80">
-        <v>1</v>
-      </c>
-      <c r="G17" s="80">
-        <v>1</v>
-      </c>
-      <c r="H17" s="80">
-        <v>1</v>
-      </c>
-      <c r="I17" s="80">
-        <v>1</v>
-      </c>
-      <c r="J17" s="80">
-        <v>0</v>
-      </c>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="82">
+      <c r="E22" s="74">
+        <v>1</v>
+      </c>
+      <c r="F22" s="123">
+        <v>1</v>
+      </c>
+      <c r="G22" s="123">
+        <v>1</v>
+      </c>
+      <c r="H22" s="123">
+        <v>1</v>
+      </c>
+      <c r="I22" s="123">
+        <v>1</v>
+      </c>
+      <c r="J22" s="123">
+        <v>0</v>
+      </c>
+      <c r="K22" s="123"/>
+      <c r="L22" s="123"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="75"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="114"/>
+      <c r="B23" s="76" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="79">
+        <v>1</v>
+      </c>
+      <c r="F23" s="80">
+        <v>1</v>
+      </c>
+      <c r="G23" s="80">
+        <v>1</v>
+      </c>
+      <c r="H23" s="80">
+        <v>1</v>
+      </c>
+      <c r="I23" s="80">
+        <v>1</v>
+      </c>
+      <c r="J23" s="80">
+        <v>0</v>
+      </c>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="52"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="109" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="E24" s="20">
+        <v>1</v>
+      </c>
+      <c r="F24" s="20">
+        <v>1</v>
+      </c>
+      <c r="G24" s="20">
+        <v>1</v>
+      </c>
+      <c r="H24" s="20">
+        <v>1</v>
+      </c>
+      <c r="I24" s="20">
+        <v>1</v>
+      </c>
+      <c r="J24" s="20">
+        <v>0</v>
+      </c>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="21">
+        <v>43903</v>
+      </c>
+      <c r="N24" s="41">
         <v>43906</v>
       </c>
-      <c r="N17" s="82">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="78"/>
-      <c r="B18" s="79" t="s">
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="110"/>
+      <c r="B25" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="M25" s="43">
+        <v>43906</v>
+      </c>
+      <c r="N25" s="43">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="110"/>
+      <c r="B26" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="83" t="s">
+      <c r="C26" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="81">
-        <v>0.22</v>
-      </c>
-      <c r="E18" s="84">
-        <v>1</v>
-      </c>
-      <c r="F18" s="80">
-        <v>1</v>
-      </c>
-      <c r="G18" s="80">
-        <v>1</v>
-      </c>
-      <c r="H18" s="80">
-        <v>1</v>
-      </c>
-      <c r="I18" s="80">
-        <v>1</v>
-      </c>
-      <c r="J18" s="80">
-        <v>0</v>
-      </c>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="82">
-        <v>43911</v>
-      </c>
-      <c r="N18" s="82">
-        <v>43952</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="78"/>
-      <c r="B19" s="79" t="s">
+      <c r="D26" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="E26" s="9">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="M26" s="43">
+        <v>43913</v>
+      </c>
+      <c r="N26" s="43">
+        <v>43958</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="110"/>
+      <c r="B27" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="80" t="s">
+      <c r="C27" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="81">
-        <v>0.25</v>
-      </c>
-      <c r="E19" s="84">
-        <v>1</v>
-      </c>
-      <c r="F19" s="80">
-        <v>1</v>
-      </c>
-      <c r="G19" s="80">
-        <v>1</v>
-      </c>
-      <c r="H19" s="80">
-        <v>1</v>
-      </c>
-      <c r="I19" s="80">
-        <v>1</v>
-      </c>
-      <c r="J19" s="80">
-        <v>0</v>
-      </c>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="82">
-        <v>43952</v>
-      </c>
-      <c r="N19" s="82">
+      <c r="D27" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="E27" s="9">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="M27" s="43">
+        <v>43958</v>
+      </c>
+      <c r="N27" s="43">
         <v>43983</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="78"/>
-      <c r="B20" s="79" t="s">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="110"/>
+      <c r="B28" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="83" t="s">
+      <c r="C28" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="81">
+      <c r="D28" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="M28" s="43">
+        <v>43983</v>
+      </c>
+      <c r="N28" s="43">
+        <v>43990</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="110"/>
+      <c r="B29" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="9">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="M29" s="43">
+        <v>43990</v>
+      </c>
+      <c r="N29" s="35"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="110"/>
+      <c r="B30" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="E30" s="9">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="M30" s="43"/>
+      <c r="N30" s="81"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="111"/>
+      <c r="B31" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="112" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="66">
+        <v>0.6</v>
+      </c>
+      <c r="E32" s="67">
+        <v>1</v>
+      </c>
+      <c r="F32" s="67">
+        <v>1</v>
+      </c>
+      <c r="G32" s="67">
+        <v>1</v>
+      </c>
+      <c r="H32" s="67">
+        <v>1</v>
+      </c>
+      <c r="I32" s="67">
+        <v>1</v>
+      </c>
+      <c r="J32" s="67">
+        <v>0</v>
+      </c>
+      <c r="K32" s="67"/>
+      <c r="L32" s="67"/>
+      <c r="M32" s="50">
+        <v>43903</v>
+      </c>
+      <c r="N32" s="68">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="113"/>
+      <c r="B33" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="71">
+        <v>0.2</v>
+      </c>
+      <c r="E33" s="70">
+        <v>1</v>
+      </c>
+      <c r="F33" s="70">
+        <v>1</v>
+      </c>
+      <c r="G33" s="70">
+        <v>1</v>
+      </c>
+      <c r="H33" s="70">
+        <v>1</v>
+      </c>
+      <c r="I33" s="70">
+        <v>1</v>
+      </c>
+      <c r="J33" s="70">
+        <v>0</v>
+      </c>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="72">
+        <v>43906</v>
+      </c>
+      <c r="N33" s="72">
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="113"/>
+      <c r="B34" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="E34" s="74">
+        <v>1</v>
+      </c>
+      <c r="F34" s="70">
+        <v>1</v>
+      </c>
+      <c r="G34" s="70">
+        <v>1</v>
+      </c>
+      <c r="H34" s="70">
+        <v>1</v>
+      </c>
+      <c r="I34" s="70">
+        <v>1</v>
+      </c>
+      <c r="J34" s="70">
+        <v>0</v>
+      </c>
+      <c r="K34" s="70"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="72">
+        <v>43912</v>
+      </c>
+      <c r="N34" s="72">
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="113"/>
+      <c r="B35" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="71">
         <v>0.3</v>
       </c>
-      <c r="E20" s="80">
-        <v>1</v>
-      </c>
-      <c r="F20" s="80">
-        <v>1</v>
-      </c>
-      <c r="G20" s="80">
-        <v>1</v>
-      </c>
-      <c r="H20" s="80">
-        <v>1</v>
-      </c>
-      <c r="I20" s="80">
-        <v>1</v>
-      </c>
-      <c r="J20" s="80">
-        <v>0</v>
-      </c>
-      <c r="K20" s="80"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="82">
-        <v>43983</v>
-      </c>
-      <c r="N20" s="82"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="78"/>
-      <c r="B21" s="79" t="s">
+      <c r="E35" s="74">
+        <v>1</v>
+      </c>
+      <c r="F35" s="70">
+        <v>1</v>
+      </c>
+      <c r="G35" s="70">
+        <v>1</v>
+      </c>
+      <c r="H35" s="70">
+        <v>1</v>
+      </c>
+      <c r="I35" s="70">
+        <v>1</v>
+      </c>
+      <c r="J35" s="70">
+        <v>0</v>
+      </c>
+      <c r="K35" s="70"/>
+      <c r="L35" s="70"/>
+      <c r="M35" s="72">
+        <v>43966</v>
+      </c>
+      <c r="N35" s="72">
+        <v>43995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="113"/>
+      <c r="B36" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="71">
+        <v>0.4</v>
+      </c>
+      <c r="E36" s="70">
+        <v>1</v>
+      </c>
+      <c r="F36" s="70">
+        <v>1</v>
+      </c>
+      <c r="G36" s="70">
+        <v>1</v>
+      </c>
+      <c r="H36" s="70">
+        <v>1</v>
+      </c>
+      <c r="I36" s="70">
+        <v>1</v>
+      </c>
+      <c r="J36" s="70">
+        <v>0</v>
+      </c>
+      <c r="K36" s="70"/>
+      <c r="L36" s="70"/>
+      <c r="M36" s="72">
+        <v>43995</v>
+      </c>
+      <c r="N36" s="72"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="113"/>
+      <c r="B37" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="83" t="s">
+      <c r="C37" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="81">
+      <c r="D37" s="71">
         <v>0.5</v>
       </c>
-      <c r="E21" s="84">
-        <v>1</v>
-      </c>
-      <c r="F21" s="80">
-        <v>1</v>
-      </c>
-      <c r="G21" s="80">
-        <v>1</v>
-      </c>
-      <c r="H21" s="80">
-        <v>1</v>
-      </c>
-      <c r="I21" s="80">
-        <v>1</v>
-      </c>
-      <c r="J21" s="80">
-        <v>0</v>
-      </c>
-      <c r="K21" s="80"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="85"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="86"/>
-      <c r="B22" s="87" t="s">
+      <c r="E37" s="70">
+        <v>1</v>
+      </c>
+      <c r="F37" s="70">
+        <v>1</v>
+      </c>
+      <c r="G37" s="70">
+        <v>1</v>
+      </c>
+      <c r="H37" s="70">
+        <v>1</v>
+      </c>
+      <c r="I37" s="70">
+        <v>1</v>
+      </c>
+      <c r="J37" s="70">
+        <v>0</v>
+      </c>
+      <c r="K37" s="70"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="72"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="113"/>
+      <c r="B38" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="88" t="s">
+      <c r="C38" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="89">
+      <c r="D38" s="71">
         <v>0.6</v>
       </c>
-      <c r="E22" s="90">
-        <v>1</v>
-      </c>
-      <c r="F22" s="91">
-        <v>1</v>
-      </c>
-      <c r="G22" s="91">
-        <v>1</v>
-      </c>
-      <c r="H22" s="91">
-        <v>1</v>
-      </c>
-      <c r="I22" s="91">
-        <v>1</v>
-      </c>
-      <c r="J22" s="91">
-        <v>0</v>
-      </c>
-      <c r="K22" s="91"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="52"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" s="39" t="s">
+      <c r="E38" s="74">
+        <v>1</v>
+      </c>
+      <c r="F38" s="70">
+        <v>1</v>
+      </c>
+      <c r="G38" s="70">
+        <v>1</v>
+      </c>
+      <c r="H38" s="70">
+        <v>1</v>
+      </c>
+      <c r="I38" s="70">
+        <v>1</v>
+      </c>
+      <c r="J38" s="70">
+        <v>0</v>
+      </c>
+      <c r="K38" s="70"/>
+      <c r="L38" s="70"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="75"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="109" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C39" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="31">
-        <v>0.95</v>
-      </c>
-      <c r="E23" s="20">
-        <v>1</v>
-      </c>
-      <c r="F23" s="20">
-        <v>1</v>
-      </c>
-      <c r="G23" s="20">
-        <v>1</v>
-      </c>
-      <c r="H23" s="20">
-        <v>1</v>
-      </c>
-      <c r="I23" s="20">
-        <v>1</v>
-      </c>
-      <c r="J23" s="20">
-        <v>0</v>
-      </c>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="21">
-        <v>43903</v>
-      </c>
-      <c r="N23" s="41">
-        <v>43906</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="64"/>
-      <c r="B24" s="42" t="s">
+      <c r="D39" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="E39" s="20">
+        <v>1</v>
+      </c>
+      <c r="F39" s="20">
+        <v>1</v>
+      </c>
+      <c r="G39" s="20">
+        <v>1</v>
+      </c>
+      <c r="H39" s="20">
+        <v>1</v>
+      </c>
+      <c r="I39" s="20">
+        <v>1</v>
+      </c>
+      <c r="J39" s="20">
+        <v>0</v>
+      </c>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="21">
+        <v>43902</v>
+      </c>
+      <c r="N39" s="41">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="110"/>
+      <c r="B40" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C40" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="M24" s="43">
-        <v>43906</v>
-      </c>
-      <c r="N24" s="43">
-        <v>43913</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="64"/>
-      <c r="B25" s="42" t="s">
+      <c r="D40" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="M40" s="43">
+        <v>43907</v>
+      </c>
+      <c r="N40" s="43">
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="110"/>
+      <c r="B41" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D41" s="19">
         <v>0.1</v>
       </c>
-      <c r="E25" s="9">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="M25" s="43">
-        <v>43913</v>
-      </c>
-      <c r="N25" s="43">
-        <v>43958</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="64"/>
-      <c r="B26" s="42" t="s">
+      <c r="E41" s="9">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="M41" s="43">
+        <v>43912</v>
+      </c>
+      <c r="N41" s="43">
+        <v>43990</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="110"/>
+      <c r="B42" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C42" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="19">
-        <v>0.15</v>
-      </c>
-      <c r="E26" s="9">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="M26" s="43">
-        <v>43958</v>
-      </c>
-      <c r="N26" s="43">
-        <v>43983</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="64"/>
-      <c r="B27" s="42" t="s">
+      <c r="D42" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="E42" s="9">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="M42" s="43">
+        <v>43990</v>
+      </c>
+      <c r="N42" s="43">
+        <v>44004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="110"/>
+      <c r="B43" s="42" t="s">
         <v>86</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="M27" s="43">
-        <v>43983</v>
-      </c>
-      <c r="N27" s="43">
-        <v>43990</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="64"/>
-      <c r="B28" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="E28" s="9">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="M28" s="43">
-        <v>43990</v>
-      </c>
-      <c r="N28" s="35"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="64"/>
-      <c r="B29" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="19">
-        <v>0.6</v>
-      </c>
-      <c r="E29" s="9">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="M29" s="43"/>
-      <c r="N29" s="92"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="65"/>
-      <c r="B30" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="72" t="s">
-        <v>103</v>
-      </c>
-      <c r="B31" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="75">
-        <v>0.6</v>
-      </c>
-      <c r="E31" s="76">
-        <v>1</v>
-      </c>
-      <c r="F31" s="76">
-        <v>1</v>
-      </c>
-      <c r="G31" s="76">
-        <v>1</v>
-      </c>
-      <c r="H31" s="76">
-        <v>1</v>
-      </c>
-      <c r="I31" s="76">
-        <v>1</v>
-      </c>
-      <c r="J31" s="76">
-        <v>0</v>
-      </c>
-      <c r="K31" s="76"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="50">
-        <v>43903</v>
-      </c>
-      <c r="N31" s="77">
-        <v>43906</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="78"/>
-      <c r="B32" s="79" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="81">
-        <v>0.3</v>
-      </c>
-      <c r="E32" s="80">
-        <v>1</v>
-      </c>
-      <c r="F32" s="80">
-        <v>1</v>
-      </c>
-      <c r="G32" s="80">
-        <v>1</v>
-      </c>
-      <c r="H32" s="80">
-        <v>1</v>
-      </c>
-      <c r="I32" s="80">
-        <v>1</v>
-      </c>
-      <c r="J32" s="80">
-        <v>0</v>
-      </c>
-      <c r="K32" s="80"/>
-      <c r="L32" s="80"/>
-      <c r="M32" s="82">
-        <v>43906</v>
-      </c>
-      <c r="N32" s="82">
-        <v>43912</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="78"/>
-      <c r="B33" s="79" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="81">
-        <v>0.105</v>
-      </c>
-      <c r="E33" s="84">
-        <v>1</v>
-      </c>
-      <c r="F33" s="80">
-        <v>1</v>
-      </c>
-      <c r="G33" s="80">
-        <v>1</v>
-      </c>
-      <c r="H33" s="80">
-        <v>1</v>
-      </c>
-      <c r="I33" s="80">
-        <v>1</v>
-      </c>
-      <c r="J33" s="80">
-        <v>0</v>
-      </c>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="82">
-        <v>43912</v>
-      </c>
-      <c r="N33" s="82">
-        <v>43966</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="78"/>
-      <c r="B34" s="79" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="80" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="81">
-        <v>0.15</v>
-      </c>
-      <c r="E34" s="84">
-        <v>1</v>
-      </c>
-      <c r="F34" s="80">
-        <v>1</v>
-      </c>
-      <c r="G34" s="80">
-        <v>1</v>
-      </c>
-      <c r="H34" s="80">
-        <v>1</v>
-      </c>
-      <c r="I34" s="80">
-        <v>1</v>
-      </c>
-      <c r="J34" s="80">
-        <v>0</v>
-      </c>
-      <c r="K34" s="80"/>
-      <c r="L34" s="80"/>
-      <c r="M34" s="82">
-        <v>43966</v>
-      </c>
-      <c r="N34" s="82">
-        <v>43995</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="78"/>
-      <c r="B35" s="79" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="83" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" s="81">
-        <v>0.35</v>
-      </c>
-      <c r="E35" s="80">
-        <v>1</v>
-      </c>
-      <c r="F35" s="80">
-        <v>1</v>
-      </c>
-      <c r="G35" s="80">
-        <v>1</v>
-      </c>
-      <c r="H35" s="80">
-        <v>1</v>
-      </c>
-      <c r="I35" s="80">
-        <v>1</v>
-      </c>
-      <c r="J35" s="80">
-        <v>0</v>
-      </c>
-      <c r="K35" s="80"/>
-      <c r="L35" s="80"/>
-      <c r="M35" s="82">
-        <v>43995</v>
-      </c>
-      <c r="N35" s="82"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="78"/>
-      <c r="B36" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" s="81">
-        <v>0.45</v>
-      </c>
-      <c r="E36" s="80">
-        <v>1</v>
-      </c>
-      <c r="F36" s="80">
-        <v>1</v>
-      </c>
-      <c r="G36" s="80">
-        <v>1</v>
-      </c>
-      <c r="H36" s="80">
-        <v>1</v>
-      </c>
-      <c r="I36" s="80">
-        <v>1</v>
-      </c>
-      <c r="J36" s="80">
-        <v>0</v>
-      </c>
-      <c r="K36" s="80"/>
-      <c r="L36" s="80"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="82"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="78"/>
-      <c r="B37" s="79" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" s="81">
-        <v>0.65</v>
-      </c>
-      <c r="E37" s="84">
-        <v>1</v>
-      </c>
-      <c r="F37" s="80">
-        <v>1</v>
-      </c>
-      <c r="G37" s="80">
-        <v>1</v>
-      </c>
-      <c r="H37" s="80">
-        <v>1</v>
-      </c>
-      <c r="I37" s="80">
-        <v>1</v>
-      </c>
-      <c r="J37" s="80">
-        <v>0</v>
-      </c>
-      <c r="K37" s="80"/>
-      <c r="L37" s="80"/>
-      <c r="M37" s="82"/>
-      <c r="N37" s="85"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="63" t="s">
-        <v>104</v>
-      </c>
-      <c r="B38" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="31">
-        <v>0.8</v>
-      </c>
-      <c r="E38" s="20">
-        <v>1</v>
-      </c>
-      <c r="F38" s="20">
-        <v>1</v>
-      </c>
-      <c r="G38" s="20">
-        <v>1</v>
-      </c>
-      <c r="H38" s="20">
-        <v>1</v>
-      </c>
-      <c r="I38" s="20">
-        <v>1</v>
-      </c>
-      <c r="J38" s="20">
-        <v>0</v>
-      </c>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="21">
-        <v>43902</v>
-      </c>
-      <c r="N38" s="41">
-        <v>43907</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="64"/>
-      <c r="B39" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="M39" s="43">
-        <v>43907</v>
-      </c>
-      <c r="N39" s="43">
-        <v>43912</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="64"/>
-      <c r="B40" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="E40" s="9">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="M40" s="43">
-        <v>43912</v>
-      </c>
-      <c r="N40" s="43">
-        <v>43990</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="64"/>
-      <c r="B41" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="19">
-        <v>0.13</v>
-      </c>
-      <c r="E41" s="9">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="M41" s="43">
-        <v>43990</v>
-      </c>
-      <c r="N41" s="43">
-        <v>44004</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="64"/>
-      <c r="B42" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" s="19">
-        <v>0.23</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="M42" s="43">
-        <v>44004</v>
-      </c>
-      <c r="N42" s="35"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="64"/>
-      <c r="B43" s="42" t="s">
-        <v>88</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>87</v>
       </c>
       <c r="D43" s="19">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -30911,310 +30919,344 @@
       <c r="J43">
         <v>0</v>
       </c>
-      <c r="M43" s="43"/>
-      <c r="N43" s="43"/>
+      <c r="M43" s="43">
+        <v>44004</v>
+      </c>
+      <c r="N43" s="35"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="65"/>
-      <c r="B44" s="44" t="s">
+      <c r="A44" s="110"/>
+      <c r="B44" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="111"/>
+      <c r="B45" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="45" t="s">
+      <c r="C45" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="D44" s="32">
-        <v>0.43</v>
-      </c>
-      <c r="E44" s="46">
-        <v>1</v>
-      </c>
-      <c r="F44" s="18">
-        <v>1</v>
-      </c>
-      <c r="G44" s="18">
-        <v>1</v>
-      </c>
-      <c r="H44" s="18">
-        <v>1</v>
-      </c>
-      <c r="I44" s="18">
-        <v>1</v>
-      </c>
-      <c r="J44" s="18">
-        <v>0</v>
-      </c>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="23"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="72" t="s">
+      <c r="D45" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="E45" s="46">
+        <v>1</v>
+      </c>
+      <c r="F45" s="18">
+        <v>1</v>
+      </c>
+      <c r="G45" s="18">
+        <v>1</v>
+      </c>
+      <c r="H45" s="18">
+        <v>1</v>
+      </c>
+      <c r="I45" s="18">
+        <v>1</v>
+      </c>
+      <c r="J45" s="18">
+        <v>0</v>
+      </c>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="23"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="112" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="73" t="s">
+      <c r="B46" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="74" t="s">
+      <c r="C46" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="D45" s="75">
+      <c r="D46" s="66">
         <v>0.8</v>
       </c>
-      <c r="E45" s="76">
-        <v>1</v>
-      </c>
-      <c r="F45" s="76">
-        <v>1</v>
-      </c>
-      <c r="G45" s="76">
-        <v>1</v>
-      </c>
-      <c r="H45" s="76">
-        <v>1</v>
-      </c>
-      <c r="I45" s="76">
-        <v>1</v>
-      </c>
-      <c r="J45" s="76">
-        <v>0</v>
-      </c>
-      <c r="K45" s="76"/>
-      <c r="L45" s="76"/>
-      <c r="M45" s="50">
+      <c r="E46" s="67">
+        <v>1</v>
+      </c>
+      <c r="F46" s="67">
+        <v>1</v>
+      </c>
+      <c r="G46" s="67">
+        <v>1</v>
+      </c>
+      <c r="H46" s="67">
+        <v>1</v>
+      </c>
+      <c r="I46" s="67">
+        <v>1</v>
+      </c>
+      <c r="J46" s="67">
+        <v>0</v>
+      </c>
+      <c r="K46" s="67"/>
+      <c r="L46" s="67"/>
+      <c r="M46" s="50">
         <v>43902</v>
       </c>
-      <c r="N45" s="77">
+      <c r="N46" s="68">
         <v>43906</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="78"/>
-      <c r="B46" s="79" t="s">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="113"/>
+      <c r="B47" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="80" t="s">
+      <c r="C47" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="81">
+      <c r="D47" s="71">
         <v>0.5</v>
       </c>
-      <c r="E46" s="80">
-        <v>1</v>
-      </c>
-      <c r="F46" s="80">
-        <v>1</v>
-      </c>
-      <c r="G46" s="80">
-        <v>1</v>
-      </c>
-      <c r="H46" s="80">
-        <v>1</v>
-      </c>
-      <c r="I46" s="80">
-        <v>1</v>
-      </c>
-      <c r="J46" s="80">
-        <v>0</v>
-      </c>
-      <c r="K46" s="80"/>
-      <c r="L46" s="80"/>
-      <c r="M46" s="82">
+      <c r="E47" s="70">
+        <v>1</v>
+      </c>
+      <c r="F47" s="70">
+        <v>1</v>
+      </c>
+      <c r="G47" s="70">
+        <v>1</v>
+      </c>
+      <c r="H47" s="70">
+        <v>1</v>
+      </c>
+      <c r="I47" s="70">
+        <v>1</v>
+      </c>
+      <c r="J47" s="70">
+        <v>0</v>
+      </c>
+      <c r="K47" s="70"/>
+      <c r="L47" s="70"/>
+      <c r="M47" s="72">
         <v>43906</v>
       </c>
-      <c r="N46" s="82">
+      <c r="N47" s="72">
         <v>43913</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="78"/>
-      <c r="B47" s="79" t="s">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="113"/>
+      <c r="B48" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="C47" s="83" t="s">
+      <c r="C48" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="81">
+      <c r="D48" s="71">
         <v>0.216</v>
       </c>
-      <c r="E47" s="84">
-        <v>1</v>
-      </c>
-      <c r="F47" s="80">
-        <v>1</v>
-      </c>
-      <c r="G47" s="80">
-        <v>1</v>
-      </c>
-      <c r="H47" s="80">
-        <v>1</v>
-      </c>
-      <c r="I47" s="80">
-        <v>1</v>
-      </c>
-      <c r="J47" s="80">
-        <v>0</v>
-      </c>
-      <c r="K47" s="80"/>
-      <c r="L47" s="80"/>
-      <c r="M47" s="82">
+      <c r="E48" s="74">
+        <v>1</v>
+      </c>
+      <c r="F48" s="70">
+        <v>1</v>
+      </c>
+      <c r="G48" s="70">
+        <v>1</v>
+      </c>
+      <c r="H48" s="70">
+        <v>1</v>
+      </c>
+      <c r="I48" s="70">
+        <v>1</v>
+      </c>
+      <c r="J48" s="70">
+        <v>0</v>
+      </c>
+      <c r="K48" s="70"/>
+      <c r="L48" s="70"/>
+      <c r="M48" s="72">
         <v>43913</v>
       </c>
-      <c r="N47" s="82">
+      <c r="N48" s="72">
         <v>43971</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="78"/>
-      <c r="B48" s="79" t="s">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="113"/>
+      <c r="B49" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="80" t="s">
+      <c r="C49" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="D48" s="81">
+      <c r="D49" s="71">
         <v>0.3</v>
       </c>
-      <c r="E48" s="84">
-        <v>1</v>
-      </c>
-      <c r="F48" s="80">
-        <v>1</v>
-      </c>
-      <c r="G48" s="80">
-        <v>1</v>
-      </c>
-      <c r="H48" s="80">
-        <v>1</v>
-      </c>
-      <c r="I48" s="80">
-        <v>1</v>
-      </c>
-      <c r="J48" s="80">
-        <v>0</v>
-      </c>
-      <c r="K48" s="80"/>
-      <c r="L48" s="80"/>
-      <c r="M48" s="82">
+      <c r="E49" s="74">
+        <v>1</v>
+      </c>
+      <c r="F49" s="70">
+        <v>1</v>
+      </c>
+      <c r="G49" s="70">
+        <v>1</v>
+      </c>
+      <c r="H49" s="70">
+        <v>1</v>
+      </c>
+      <c r="I49" s="70">
+        <v>1</v>
+      </c>
+      <c r="J49" s="70">
+        <v>0</v>
+      </c>
+      <c r="K49" s="70"/>
+      <c r="L49" s="70"/>
+      <c r="M49" s="72">
         <v>43971</v>
       </c>
-      <c r="N48" s="82">
+      <c r="N49" s="72">
         <v>43999</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="78"/>
-      <c r="B49" s="79" t="s">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="113"/>
+      <c r="B50" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="C49" s="83" t="s">
+      <c r="C50" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="D49" s="81">
+      <c r="D50" s="71">
         <v>0.35</v>
       </c>
-      <c r="E49" s="80">
-        <v>1</v>
-      </c>
-      <c r="F49" s="80">
-        <v>1</v>
-      </c>
-      <c r="G49" s="80">
-        <v>1</v>
-      </c>
-      <c r="H49" s="80">
-        <v>1</v>
-      </c>
-      <c r="I49" s="80">
-        <v>1</v>
-      </c>
-      <c r="J49" s="80">
-        <v>0</v>
-      </c>
-      <c r="K49" s="80"/>
-      <c r="L49" s="80"/>
-      <c r="M49" s="82">
+      <c r="E50" s="70">
+        <v>1</v>
+      </c>
+      <c r="F50" s="70">
+        <v>1</v>
+      </c>
+      <c r="G50" s="70">
+        <v>1</v>
+      </c>
+      <c r="H50" s="70">
+        <v>1</v>
+      </c>
+      <c r="I50" s="70">
+        <v>1</v>
+      </c>
+      <c r="J50" s="70">
+        <v>0</v>
+      </c>
+      <c r="K50" s="70"/>
+      <c r="L50" s="70"/>
+      <c r="M50" s="72">
         <v>43999</v>
       </c>
-      <c r="N49" s="82"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="78"/>
-      <c r="B50" s="79" t="s">
+      <c r="N50" s="72"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="113"/>
+      <c r="B51" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="83" t="s">
+      <c r="C51" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="D50" s="81">
+      <c r="D51" s="71">
         <v>0.8</v>
       </c>
-      <c r="E50" s="80">
-        <v>1</v>
-      </c>
-      <c r="F50" s="80">
-        <v>1</v>
-      </c>
-      <c r="G50" s="80">
-        <v>1</v>
-      </c>
-      <c r="H50" s="80">
-        <v>1</v>
-      </c>
-      <c r="I50" s="80">
-        <v>1</v>
-      </c>
-      <c r="J50" s="80">
-        <v>0</v>
-      </c>
-      <c r="K50" s="80"/>
-      <c r="L50" s="80"/>
-      <c r="M50" s="82"/>
-      <c r="N50" s="82"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="86"/>
-      <c r="B51" s="87" t="s">
+      <c r="E51" s="70">
+        <v>1</v>
+      </c>
+      <c r="F51" s="70">
+        <v>1</v>
+      </c>
+      <c r="G51" s="70">
+        <v>1</v>
+      </c>
+      <c r="H51" s="70">
+        <v>1</v>
+      </c>
+      <c r="I51" s="70">
+        <v>1</v>
+      </c>
+      <c r="J51" s="70">
+        <v>0</v>
+      </c>
+      <c r="K51" s="70"/>
+      <c r="L51" s="70"/>
+      <c r="M51" s="72"/>
+      <c r="N51" s="72"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="114"/>
+      <c r="B52" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="C51" s="88" t="s">
+      <c r="C52" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="D51" s="89">
+      <c r="D52" s="78">
         <v>0.8</v>
       </c>
-      <c r="E51" s="90">
-        <v>1</v>
-      </c>
-      <c r="F51" s="91">
-        <v>1</v>
-      </c>
-      <c r="G51" s="91">
-        <v>1</v>
-      </c>
-      <c r="H51" s="91">
-        <v>1</v>
-      </c>
-      <c r="I51" s="91">
-        <v>1</v>
-      </c>
-      <c r="J51" s="91">
-        <v>0</v>
-      </c>
-      <c r="K51" s="91"/>
-      <c r="L51" s="91"/>
-      <c r="M51" s="93"/>
-      <c r="N51" s="52"/>
+      <c r="E52" s="79">
+        <v>1</v>
+      </c>
+      <c r="F52" s="80">
+        <v>1</v>
+      </c>
+      <c r="G52" s="80">
+        <v>1</v>
+      </c>
+      <c r="H52" s="80">
+        <v>1</v>
+      </c>
+      <c r="I52" s="80">
+        <v>1</v>
+      </c>
+      <c r="J52" s="80">
+        <v>0</v>
+      </c>
+      <c r="K52" s="80"/>
+      <c r="L52" s="80"/>
+      <c r="M52" s="82"/>
+      <c r="N52" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="A46:A52"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="A32:A38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -31229,7 +31271,7 @@
   <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31464,7 +31506,7 @@
         <v>43886</v>
       </c>
       <c r="C4" s="2">
-        <v>44105</v>
+        <v>44258</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -31512,7 +31554,7 @@
         <v>1000</v>
       </c>
       <c r="S4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T4">
         <v>1</v>
@@ -31535,7 +31577,7 @@
         <v>43886</v>
       </c>
       <c r="C5" s="2">
-        <v>44105</v>
+        <v>44259</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -31606,7 +31648,7 @@
         <v>43886</v>
       </c>
       <c r="C6" s="2">
-        <v>44105</v>
+        <v>44260</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -31678,7 +31720,7 @@
         <v>43881</v>
       </c>
       <c r="C7" s="2">
-        <v>44105</v>
+        <v>44261</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -31750,7 +31792,7 @@
         <v>43905</v>
       </c>
       <c r="C8" s="2">
-        <v>44105</v>
+        <v>44262</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -31872,7 +31914,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="120" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="47" t="s">
@@ -31897,7 +31939,7 @@
       <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
+      <c r="A3" s="121"/>
       <c r="B3" s="51" t="s">
         <v>94</v>
       </c>
@@ -31916,7 +31958,7 @@
       <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="118" t="s">
         <v>96</v>
       </c>
       <c r="B4" s="54" t="s">
@@ -31941,7 +31983,7 @@
       <c r="I4" s="55"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="119"/>
       <c r="B5" s="58" t="s">
         <v>94</v>
       </c>
@@ -31960,7 +32002,7 @@
       <c r="I5" s="59"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="120" t="s">
         <v>101</v>
       </c>
       <c r="B6" s="47" t="s">
@@ -31985,7 +32027,7 @@
       <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="67"/>
+      <c r="A7" s="121"/>
       <c r="B7" s="51" t="s">
         <v>94</v>
       </c>
@@ -32004,7 +32046,7 @@
       <c r="I7" s="52"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="118" t="s">
         <v>102</v>
       </c>
       <c r="B8" s="54" t="s">
@@ -32029,7 +32071,7 @@
       <c r="I8" s="55"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="69"/>
+      <c r="A9" s="119"/>
       <c r="B9" s="58" t="s">
         <v>94</v>
       </c>
@@ -32048,7 +32090,7 @@
       <c r="I9" s="59"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="120" t="s">
         <v>103</v>
       </c>
       <c r="B10" s="47" t="s">
@@ -32073,7 +32115,7 @@
       <c r="I10" s="48"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
+      <c r="A11" s="121"/>
       <c r="B11" s="51" t="s">
         <v>94</v>
       </c>
@@ -32092,7 +32134,7 @@
       <c r="I11" s="52"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="118" t="s">
         <v>104</v>
       </c>
       <c r="B12" s="54" t="s">
@@ -32117,7 +32159,7 @@
       <c r="I12" s="55"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="69"/>
+      <c r="A13" s="119"/>
       <c r="B13" s="58" t="s">
         <v>94</v>
       </c>
@@ -32136,7 +32178,7 @@
       <c r="I13" s="59"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="120" t="s">
         <v>105</v>
       </c>
       <c r="B14" s="47" t="s">
@@ -32161,7 +32203,7 @@
       <c r="I14" s="48"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
+      <c r="A15" s="121"/>
       <c r="B15" s="51" t="s">
         <v>94</v>
       </c>
@@ -32317,162 +32359,162 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="102" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="117">
+      <c r="B4" s="103">
         <v>3</v>
       </c>
-      <c r="C4" s="71">
-        <v>1</v>
-      </c>
-      <c r="D4" s="71">
-        <v>1</v>
-      </c>
-      <c r="E4" s="71">
-        <v>1</v>
-      </c>
-      <c r="F4" s="71">
-        <v>0</v>
-      </c>
-      <c r="G4" s="71">
+      <c r="C4" s="63">
+        <v>1</v>
+      </c>
+      <c r="D4" s="63">
+        <v>1</v>
+      </c>
+      <c r="E4" s="63">
+        <v>1</v>
+      </c>
+      <c r="F4" s="63">
+        <v>0</v>
+      </c>
+      <c r="G4" s="63">
         <v>110</v>
       </c>
-      <c r="H4" s="71" t="s">
+      <c r="H4" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="71">
-        <v>1</v>
-      </c>
-      <c r="J4" s="118">
+      <c r="I4" s="63">
+        <v>1</v>
+      </c>
+      <c r="J4" s="104">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="117">
+      <c r="B5" s="103">
         <v>3</v>
       </c>
-      <c r="C5" s="71">
-        <v>1</v>
-      </c>
-      <c r="D5" s="71">
-        <v>1</v>
-      </c>
-      <c r="E5" s="71">
-        <v>1</v>
-      </c>
-      <c r="F5" s="71">
-        <v>0</v>
-      </c>
-      <c r="G5" s="71">
+      <c r="C5" s="63">
+        <v>1</v>
+      </c>
+      <c r="D5" s="63">
+        <v>1</v>
+      </c>
+      <c r="E5" s="63">
+        <v>1</v>
+      </c>
+      <c r="F5" s="63">
+        <v>0</v>
+      </c>
+      <c r="G5" s="63">
         <v>110</v>
       </c>
-      <c r="H5" s="71" t="s">
+      <c r="H5" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="71">
-        <v>1</v>
-      </c>
-      <c r="J5" s="118">
+      <c r="I5" s="63">
+        <v>1</v>
+      </c>
+      <c r="J5" s="104">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="117">
+      <c r="B6" s="103">
         <v>3</v>
       </c>
-      <c r="C6" s="71">
-        <v>1</v>
-      </c>
-      <c r="D6" s="71">
-        <v>1</v>
-      </c>
-      <c r="E6" s="71">
-        <v>1</v>
-      </c>
-      <c r="F6" s="71">
-        <v>0</v>
-      </c>
-      <c r="G6" s="71">
+      <c r="C6" s="63">
+        <v>1</v>
+      </c>
+      <c r="D6" s="63">
+        <v>1</v>
+      </c>
+      <c r="E6" s="63">
+        <v>1</v>
+      </c>
+      <c r="F6" s="63">
+        <v>0</v>
+      </c>
+      <c r="G6" s="63">
         <v>110</v>
       </c>
-      <c r="H6" s="71" t="s">
+      <c r="H6" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="71">
-        <v>1</v>
-      </c>
-      <c r="J6" s="118">
+      <c r="I6" s="63">
+        <v>1</v>
+      </c>
+      <c r="J6" s="104">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="117">
+      <c r="B7" s="103">
         <v>3</v>
       </c>
-      <c r="C7" s="71">
-        <v>1</v>
-      </c>
-      <c r="D7" s="71">
-        <v>1</v>
-      </c>
-      <c r="E7" s="71">
-        <v>1</v>
-      </c>
-      <c r="F7" s="71">
-        <v>0</v>
-      </c>
-      <c r="G7" s="71">
+      <c r="C7" s="63">
+        <v>1</v>
+      </c>
+      <c r="D7" s="63">
+        <v>1</v>
+      </c>
+      <c r="E7" s="63">
+        <v>1</v>
+      </c>
+      <c r="F7" s="63">
+        <v>0</v>
+      </c>
+      <c r="G7" s="63">
         <v>110</v>
       </c>
-      <c r="H7" s="71" t="s">
+      <c r="H7" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="71">
-        <v>1</v>
-      </c>
-      <c r="J7" s="118">
+      <c r="I7" s="63">
+        <v>1</v>
+      </c>
+      <c r="J7" s="104">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="117">
+      <c r="B8" s="103">
         <v>3</v>
       </c>
-      <c r="C8" s="71">
-        <v>1</v>
-      </c>
-      <c r="D8" s="71">
-        <v>1</v>
-      </c>
-      <c r="E8" s="71">
-        <v>1</v>
-      </c>
-      <c r="F8" s="71">
-        <v>0</v>
-      </c>
-      <c r="G8" s="71">
+      <c r="C8" s="63">
+        <v>1</v>
+      </c>
+      <c r="D8" s="63">
+        <v>1</v>
+      </c>
+      <c r="E8" s="63">
+        <v>1</v>
+      </c>
+      <c r="F8" s="63">
+        <v>0</v>
+      </c>
+      <c r="G8" s="63">
         <v>110</v>
       </c>
-      <c r="H8" s="71" t="s">
+      <c r="H8" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="71">
-        <v>1</v>
-      </c>
-      <c r="J8" s="118">
+      <c r="I8" s="63">
+        <v>1</v>
+      </c>
+      <c r="J8" s="104">
         <v>1</v>
       </c>
     </row>
@@ -32603,162 +32645,162 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="102" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="119">
+      <c r="B4" s="105">
         <v>4</v>
       </c>
-      <c r="C4" s="120">
+      <c r="C4" s="106">
         <v>0.1</v>
       </c>
-      <c r="D4" s="120">
-        <v>0</v>
-      </c>
-      <c r="E4" s="120">
-        <v>1</v>
-      </c>
-      <c r="F4" s="120">
-        <v>0</v>
-      </c>
-      <c r="G4" s="120">
+      <c r="D4" s="106">
+        <v>0</v>
+      </c>
+      <c r="E4" s="106">
+        <v>1</v>
+      </c>
+      <c r="F4" s="106">
+        <v>0</v>
+      </c>
+      <c r="G4" s="106">
         <v>110</v>
       </c>
-      <c r="H4" s="120" t="s">
+      <c r="H4" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="120">
-        <v>0</v>
-      </c>
-      <c r="J4" s="121">
+      <c r="I4" s="106">
+        <v>0</v>
+      </c>
+      <c r="J4" s="107">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="119">
+      <c r="B5" s="105">
         <v>4</v>
       </c>
-      <c r="C5" s="120">
+      <c r="C5" s="106">
         <v>0.1</v>
       </c>
-      <c r="D5" s="120">
-        <v>0</v>
-      </c>
-      <c r="E5" s="120">
-        <v>1</v>
-      </c>
-      <c r="F5" s="120">
-        <v>0</v>
-      </c>
-      <c r="G5" s="120">
+      <c r="D5" s="106">
+        <v>0</v>
+      </c>
+      <c r="E5" s="106">
+        <v>1</v>
+      </c>
+      <c r="F5" s="106">
+        <v>0</v>
+      </c>
+      <c r="G5" s="106">
         <v>110</v>
       </c>
-      <c r="H5" s="120" t="s">
+      <c r="H5" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="120">
-        <v>0</v>
-      </c>
-      <c r="J5" s="121">
+      <c r="I5" s="106">
+        <v>0</v>
+      </c>
+      <c r="J5" s="107">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="119">
+      <c r="B6" s="105">
         <v>4</v>
       </c>
-      <c r="C6" s="120">
+      <c r="C6" s="106">
         <v>0.1</v>
       </c>
-      <c r="D6" s="120">
-        <v>0</v>
-      </c>
-      <c r="E6" s="120">
-        <v>1</v>
-      </c>
-      <c r="F6" s="120">
-        <v>0</v>
-      </c>
-      <c r="G6" s="120">
+      <c r="D6" s="106">
+        <v>0</v>
+      </c>
+      <c r="E6" s="106">
+        <v>1</v>
+      </c>
+      <c r="F6" s="106">
+        <v>0</v>
+      </c>
+      <c r="G6" s="106">
         <v>110</v>
       </c>
-      <c r="H6" s="120" t="s">
+      <c r="H6" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="120">
-        <v>0</v>
-      </c>
-      <c r="J6" s="121">
+      <c r="I6" s="106">
+        <v>0</v>
+      </c>
+      <c r="J6" s="107">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="119">
+      <c r="B7" s="105">
         <v>4</v>
       </c>
-      <c r="C7" s="120">
+      <c r="C7" s="106">
         <v>0.1</v>
       </c>
-      <c r="D7" s="120">
-        <v>0</v>
-      </c>
-      <c r="E7" s="120">
-        <v>1</v>
-      </c>
-      <c r="F7" s="120">
-        <v>0</v>
-      </c>
-      <c r="G7" s="120">
+      <c r="D7" s="106">
+        <v>0</v>
+      </c>
+      <c r="E7" s="106">
+        <v>1</v>
+      </c>
+      <c r="F7" s="106">
+        <v>0</v>
+      </c>
+      <c r="G7" s="106">
         <v>110</v>
       </c>
-      <c r="H7" s="120" t="s">
+      <c r="H7" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="120">
-        <v>0</v>
-      </c>
-      <c r="J7" s="121">
+      <c r="I7" s="106">
+        <v>0</v>
+      </c>
+      <c r="J7" s="107">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="119">
+      <c r="B8" s="105">
         <v>4</v>
       </c>
-      <c r="C8" s="120">
+      <c r="C8" s="106">
         <v>0.1</v>
       </c>
-      <c r="D8" s="120">
-        <v>0</v>
-      </c>
-      <c r="E8" s="120">
-        <v>1</v>
-      </c>
-      <c r="F8" s="120">
-        <v>0</v>
-      </c>
-      <c r="G8" s="120">
+      <c r="D8" s="106">
+        <v>0</v>
+      </c>
+      <c r="E8" s="106">
+        <v>1</v>
+      </c>
+      <c r="F8" s="106">
+        <v>0</v>
+      </c>
+      <c r="G8" s="106">
         <v>110</v>
       </c>
-      <c r="H8" s="120" t="s">
+      <c r="H8" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="120">
-        <v>0</v>
-      </c>
-      <c r="J8" s="121">
+      <c r="I8" s="106">
+        <v>0</v>
+      </c>
+      <c r="J8" s="107">
         <v>20</v>
       </c>
     </row>
@@ -32888,162 +32930,162 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="102" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="119">
+      <c r="B4" s="105">
         <v>3</v>
       </c>
-      <c r="C4" s="120">
+      <c r="C4" s="106">
         <v>0.5</v>
       </c>
-      <c r="D4" s="120">
-        <v>0</v>
-      </c>
-      <c r="E4" s="120">
-        <v>1</v>
-      </c>
-      <c r="F4" s="120">
+      <c r="D4" s="106">
+        <v>0</v>
+      </c>
+      <c r="E4" s="106">
+        <v>1</v>
+      </c>
+      <c r="F4" s="106">
         <v>18</v>
       </c>
-      <c r="G4" s="120">
+      <c r="G4" s="106">
         <v>65</v>
       </c>
-      <c r="H4" s="120" t="s">
+      <c r="H4" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="120">
+      <c r="I4" s="106">
         <v>0.5</v>
       </c>
-      <c r="J4" s="121">
+      <c r="J4" s="107">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="119">
+      <c r="B5" s="105">
         <v>3</v>
       </c>
-      <c r="C5" s="120">
+      <c r="C5" s="106">
         <v>0.5</v>
       </c>
-      <c r="D5" s="120">
-        <v>0</v>
-      </c>
-      <c r="E5" s="120">
-        <v>1</v>
-      </c>
-      <c r="F5" s="120">
+      <c r="D5" s="106">
+        <v>0</v>
+      </c>
+      <c r="E5" s="106">
+        <v>1</v>
+      </c>
+      <c r="F5" s="106">
         <v>18</v>
       </c>
-      <c r="G5" s="120">
+      <c r="G5" s="106">
         <v>65</v>
       </c>
-      <c r="H5" s="120" t="s">
+      <c r="H5" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="120">
+      <c r="I5" s="106">
         <v>0.5</v>
       </c>
-      <c r="J5" s="121">
+      <c r="J5" s="107">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="119">
+      <c r="B6" s="105">
         <v>3</v>
       </c>
-      <c r="C6" s="120">
+      <c r="C6" s="106">
         <v>0.5</v>
       </c>
-      <c r="D6" s="120">
-        <v>0</v>
-      </c>
-      <c r="E6" s="120">
-        <v>1</v>
-      </c>
-      <c r="F6" s="120">
+      <c r="D6" s="106">
+        <v>0</v>
+      </c>
+      <c r="E6" s="106">
+        <v>1</v>
+      </c>
+      <c r="F6" s="106">
         <v>18</v>
       </c>
-      <c r="G6" s="120">
+      <c r="G6" s="106">
         <v>65</v>
       </c>
-      <c r="H6" s="120" t="s">
+      <c r="H6" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="120">
+      <c r="I6" s="106">
         <v>0.5</v>
       </c>
-      <c r="J6" s="121">
+      <c r="J6" s="107">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="119">
+      <c r="B7" s="105">
         <v>3</v>
       </c>
-      <c r="C7" s="120">
+      <c r="C7" s="106">
         <v>0.5</v>
       </c>
-      <c r="D7" s="120">
-        <v>0</v>
-      </c>
-      <c r="E7" s="120">
-        <v>1</v>
-      </c>
-      <c r="F7" s="120">
+      <c r="D7" s="106">
+        <v>0</v>
+      </c>
+      <c r="E7" s="106">
+        <v>1</v>
+      </c>
+      <c r="F7" s="106">
         <v>18</v>
       </c>
-      <c r="G7" s="120">
+      <c r="G7" s="106">
         <v>65</v>
       </c>
-      <c r="H7" s="120" t="s">
+      <c r="H7" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="120">
+      <c r="I7" s="106">
         <v>0.5</v>
       </c>
-      <c r="J7" s="121">
+      <c r="J7" s="107">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="119">
+      <c r="B8" s="105">
         <v>3</v>
       </c>
-      <c r="C8" s="120">
+      <c r="C8" s="106">
         <v>0.5</v>
       </c>
-      <c r="D8" s="120">
-        <v>0</v>
-      </c>
-      <c r="E8" s="120">
-        <v>1</v>
-      </c>
-      <c r="F8" s="120">
+      <c r="D8" s="106">
+        <v>0</v>
+      </c>
+      <c r="E8" s="106">
+        <v>1</v>
+      </c>
+      <c r="F8" s="106">
         <v>18</v>
       </c>
-      <c r="G8" s="120">
+      <c r="G8" s="106">
         <v>65</v>
       </c>
-      <c r="H8" s="120" t="s">
+      <c r="H8" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="120">
+      <c r="I8" s="106">
         <v>0.5</v>
       </c>
-      <c r="J8" s="121">
+      <c r="J8" s="107">
         <v>2</v>
       </c>
     </row>
@@ -33174,162 +33216,162 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="117">
+      <c r="B4" s="103">
         <v>18</v>
       </c>
-      <c r="C4" s="71">
+      <c r="C4" s="63">
         <v>0.5</v>
       </c>
-      <c r="D4" s="71">
-        <v>0</v>
-      </c>
-      <c r="E4" s="71">
-        <v>1</v>
-      </c>
-      <c r="F4" s="71">
+      <c r="D4" s="63">
+        <v>0</v>
+      </c>
+      <c r="E4" s="63">
+        <v>1</v>
+      </c>
+      <c r="F4" s="63">
         <v>5</v>
       </c>
-      <c r="G4" s="71">
+      <c r="G4" s="63">
         <v>18</v>
       </c>
-      <c r="H4" s="71" t="s">
+      <c r="H4" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="71">
+      <c r="I4" s="63">
         <v>0.8</v>
       </c>
-      <c r="J4" s="118">
+      <c r="J4" s="104">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="117">
+      <c r="B5" s="103">
         <v>18</v>
       </c>
-      <c r="C5" s="71">
+      <c r="C5" s="63">
         <v>0.5</v>
       </c>
-      <c r="D5" s="71">
-        <v>0</v>
-      </c>
-      <c r="E5" s="71">
-        <v>1</v>
-      </c>
-      <c r="F5" s="71">
+      <c r="D5" s="63">
+        <v>0</v>
+      </c>
+      <c r="E5" s="63">
+        <v>1</v>
+      </c>
+      <c r="F5" s="63">
         <v>5</v>
       </c>
-      <c r="G5" s="71">
+      <c r="G5" s="63">
         <v>18</v>
       </c>
-      <c r="H5" s="71" t="s">
+      <c r="H5" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="71">
+      <c r="I5" s="63">
         <v>0.8</v>
       </c>
-      <c r="J5" s="118">
+      <c r="J5" s="104">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="117">
+      <c r="B6" s="103">
         <v>18</v>
       </c>
-      <c r="C6" s="71">
+      <c r="C6" s="63">
         <v>0.5</v>
       </c>
-      <c r="D6" s="71">
-        <v>0</v>
-      </c>
-      <c r="E6" s="71">
-        <v>1</v>
-      </c>
-      <c r="F6" s="71">
+      <c r="D6" s="63">
+        <v>0</v>
+      </c>
+      <c r="E6" s="63">
+        <v>1</v>
+      </c>
+      <c r="F6" s="63">
         <v>5</v>
       </c>
-      <c r="G6" s="71">
+      <c r="G6" s="63">
         <v>18</v>
       </c>
-      <c r="H6" s="71" t="s">
+      <c r="H6" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="71">
+      <c r="I6" s="63">
         <v>0.8</v>
       </c>
-      <c r="J6" s="118">
+      <c r="J6" s="104">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="117">
+      <c r="B7" s="103">
         <v>18</v>
       </c>
-      <c r="C7" s="71">
+      <c r="C7" s="63">
         <v>0.5</v>
       </c>
-      <c r="D7" s="71">
-        <v>0</v>
-      </c>
-      <c r="E7" s="71">
-        <v>1</v>
-      </c>
-      <c r="F7" s="71">
+      <c r="D7" s="63">
+        <v>0</v>
+      </c>
+      <c r="E7" s="63">
+        <v>1</v>
+      </c>
+      <c r="F7" s="63">
         <v>5</v>
       </c>
-      <c r="G7" s="71">
+      <c r="G7" s="63">
         <v>18</v>
       </c>
-      <c r="H7" s="71" t="s">
+      <c r="H7" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="71">
+      <c r="I7" s="63">
         <v>0.8</v>
       </c>
-      <c r="J7" s="118">
+      <c r="J7" s="104">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="117">
+      <c r="B8" s="103">
         <v>18</v>
       </c>
-      <c r="C8" s="71">
+      <c r="C8" s="63">
         <v>0.5</v>
       </c>
-      <c r="D8" s="71">
-        <v>0</v>
-      </c>
-      <c r="E8" s="71">
-        <v>1</v>
-      </c>
-      <c r="F8" s="71">
+      <c r="D8" s="63">
+        <v>0</v>
+      </c>
+      <c r="E8" s="63">
+        <v>1</v>
+      </c>
+      <c r="F8" s="63">
         <v>5</v>
       </c>
-      <c r="G8" s="71">
+      <c r="G8" s="63">
         <v>18</v>
       </c>
-      <c r="H8" s="71" t="s">
+      <c r="H8" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="71">
+      <c r="I8" s="63">
         <v>0.8</v>
       </c>
-      <c r="J8" s="118">
+      <c r="J8" s="104">
         <v>2</v>
       </c>
     </row>

--- a/data/input_data_US_group2.xlsx
+++ b/data/input_data_US_group2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BD42D4-55D8-47F6-8AAE-6C5C3706B237}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E83CB8-162F-4E5D-ACAB-4475DF3115B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age_sex" sheetId="1" r:id="rId1"/>
@@ -29338,8 +29338,8 @@
   </sheetPr>
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31001,7 +31001,7 @@
         <v>79</v>
       </c>
       <c r="D46" s="66">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E46" s="67">
         <v>1</v>
@@ -31039,7 +31039,7 @@
         <v>81</v>
       </c>
       <c r="D47" s="71">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="E47" s="70">
         <v>1</v>
@@ -31077,7 +31077,7 @@
         <v>83</v>
       </c>
       <c r="D48" s="71">
-        <v>0.216</v>
+        <v>0.1</v>
       </c>
       <c r="E48" s="74">
         <v>1</v>
@@ -31115,7 +31115,7 @@
         <v>107</v>
       </c>
       <c r="D49" s="71">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E49" s="74">
         <v>1</v>
@@ -31153,7 +31153,7 @@
         <v>108</v>
       </c>
       <c r="D50" s="71">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="E50" s="70">
         <v>1</v>
@@ -31189,7 +31189,7 @@
         <v>64</v>
       </c>
       <c r="D51" s="71">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E51" s="70">
         <v>1</v>
@@ -31223,7 +31223,7 @@
         <v>64</v>
       </c>
       <c r="D52" s="78">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E52" s="79">
         <v>1</v>
@@ -31270,8 +31270,8 @@
   </sheetPr>
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31835,10 +31835,13 @@
         <v>60</v>
       </c>
       <c r="Q8">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="R8">
         <v>1000</v>
+      </c>
+      <c r="S8">
+        <v>30</v>
       </c>
       <c r="T8">
         <v>1</v>

--- a/data/input_data_US_group2.xlsx
+++ b/data/input_data_US_group2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\GitHub\covasim-australia\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BD42D4-55D8-47F6-8AAE-6C5C3706B237}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83A7059-AC39-42A2-B495-D3FD5093042B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="839" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age_sex" sheetId="1" r:id="rId1"/>
@@ -27,14 +27,12 @@
     <sheet name="contact matrices-work" sheetId="9" r:id="rId12"/>
     <sheet name="contact matrices-other" sheetId="10" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -49,10 +47,19 @@
   <commentList>
     <comment ref="R1" authorId="0" shapeId="0" xr:uid="{7833F806-E614-7449-968E-2A674530B08E}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Only used if the the new_tests column of the epi data is incorrectly specified</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -68,18 +75,36 @@
   <commentList>
     <comment ref="E1" authorId="0" shapeId="0" xr:uid="{045AFF27-0FD9-CB4D-9BD3-D86131B19BD5}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The time to trace contacts, applied to all targeted layers for this policy</t>
+        </r>
       </text>
     </comment>
     <comment ref="G1" authorId="1" shapeId="0" xr:uid="{32492FBF-3FB7-D547-8467-90931EBEF8B7}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The days on which the coverage changes</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -984,6 +1009,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1026,10 +1055,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1402,13 +1427,13 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1467,8 +1492,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="108" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="110" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="36" t="s">
@@ -1527,8 +1552,8 @@
         <v>522367</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="108"/>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="110"/>
       <c r="B3" s="36" t="s">
         <v>20</v>
       </c>
@@ -1585,8 +1610,8 @@
         <v>500366</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="108" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="110" t="s">
         <v>90</v>
       </c>
       <c r="B4" s="36" t="s">
@@ -1661,8 +1686,8 @@
         <v>1022733</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="108"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="110"/>
       <c r="B5" s="36" t="s">
         <v>21</v>
       </c>
@@ -1735,8 +1760,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="108" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="110" t="s">
         <v>96</v>
       </c>
       <c r="B6" s="37" t="s">
@@ -1795,8 +1820,8 @@
         <v>307086</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="108"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="110"/>
       <c r="B7" s="37" t="s">
         <v>20</v>
       </c>
@@ -1853,8 +1878,8 @@
         <v>276445</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="108" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="110" t="s">
         <v>96</v>
       </c>
       <c r="B8" s="37" t="s">
@@ -1929,8 +1954,8 @@
         <v>583531</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="108"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="110"/>
       <c r="B9" s="37" t="s">
         <v>21</v>
       </c>
@@ -2003,8 +2028,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="108" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="110" t="s">
         <v>101</v>
       </c>
       <c r="B10" s="61" t="s">
@@ -2062,8 +2087,8 @@
         <v>2658903</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="108"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="110"/>
       <c r="B11" s="61" t="s">
         <v>20</v>
       </c>
@@ -2119,8 +2144,8 @@
         <v>2550308</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="108" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="110" t="s">
         <v>101</v>
       </c>
       <c r="B12" s="61" t="s">
@@ -2178,8 +2203,8 @@
         <v>5209211</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="108"/>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="110"/>
       <c r="B13" s="61" t="s">
         <v>21</v>
       </c>
@@ -2235,8 +2260,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="108" t="s">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="110" t="s">
         <v>102</v>
       </c>
       <c r="B14" s="61" t="s">
@@ -2294,8 +2319,8 @@
         <v>1029728</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="108"/>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="110"/>
       <c r="B15" s="61" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2376,8 @@
         <v>968185</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="108" t="s">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="110" t="s">
         <v>102</v>
       </c>
       <c r="B16" s="61" t="s">
@@ -2410,8 +2435,8 @@
         <v>1997913</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="108"/>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="110"/>
       <c r="B17" s="61" t="s">
         <v>21</v>
       </c>
@@ -2467,8 +2492,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="108" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="110" t="s">
         <v>103</v>
       </c>
       <c r="B18" s="61" t="s">
@@ -2526,8 +2551,8 @@
         <v>5154</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="108"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="110"/>
       <c r="B19" s="61" t="s">
         <v>20</v>
       </c>
@@ -2583,8 +2608,8 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="108" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="110" t="s">
         <v>103</v>
       </c>
       <c r="B20" s="61" t="s">
@@ -2642,8 +2667,8 @@
         <v>7838</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="108"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="110"/>
       <c r="B21" s="61" t="s">
         <v>21</v>
       </c>
@@ -2699,8 +2724,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="108" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="110" t="s">
         <v>104</v>
       </c>
       <c r="B22" s="61" t="s">
@@ -2758,8 +2783,8 @@
         <v>9529195</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="108"/>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="110"/>
       <c r="B23" s="61" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2840,8 @@
         <v>9185858</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="108" t="s">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="110" t="s">
         <v>104</v>
       </c>
       <c r="B24" s="61" t="s">
@@ -2874,8 +2899,8 @@
         <v>18715053</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="108"/>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="110"/>
       <c r="B25" s="61" t="s">
         <v>21</v>
       </c>
@@ -2931,8 +2956,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="108" t="s">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="110" t="s">
         <v>105</v>
       </c>
       <c r="B26" s="61" t="s">
@@ -2990,8 +3015,8 @@
         <v>419544</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="108"/>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="110"/>
       <c r="B27" s="61" t="s">
         <v>20</v>
       </c>
@@ -3047,8 +3072,8 @@
         <v>399459</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="108" t="s">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="110" t="s">
         <v>105</v>
       </c>
       <c r="B28" s="61" t="s">
@@ -3106,8 +3131,8 @@
         <v>819003</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="108"/>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="110"/>
       <c r="B29" s="61" t="s">
         <v>21</v>
       </c>
@@ -3165,11 +3190,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
@@ -3179,6 +3199,11 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3195,12 +3220,12 @@
       <selection activeCell="A34" sqref="A34:S113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -3259,8 +3284,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="108" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="110" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3318,8 +3343,8 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="108"/>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="110"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3375,8 +3400,8 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="108"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="110"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3432,8 +3457,8 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="108"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="110"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3489,8 +3514,8 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="108"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="110"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3546,8 +3571,8 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="108"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="110"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3603,8 +3628,8 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="108"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="110"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3660,8 +3685,8 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="108"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="110"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3717,8 +3742,8 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="108"/>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="110"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -3774,8 +3799,8 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="108"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="110"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -3831,8 +3856,8 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="108"/>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="110"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -3888,8 +3913,8 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="108"/>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="110"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3945,8 +3970,8 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="108"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="110"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
@@ -4002,8 +4027,8 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="108"/>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="110"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
@@ -4059,8 +4084,8 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="108"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="110"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -4116,8 +4141,8 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="108"/>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="110"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -4173,8 +4198,8 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="108" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="110" t="s">
         <v>96</v>
       </c>
       <c r="B18" s="37" t="s">
@@ -4232,8 +4257,8 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="108"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="110"/>
       <c r="B19" s="37" t="s">
         <v>1</v>
       </c>
@@ -4289,8 +4314,8 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="108"/>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="110"/>
       <c r="B20" s="37" t="s">
         <v>2</v>
       </c>
@@ -4346,8 +4371,8 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="108"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="110"/>
       <c r="B21" s="37" t="s">
         <v>3</v>
       </c>
@@ -4403,8 +4428,8 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="108"/>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="110"/>
       <c r="B22" s="37" t="s">
         <v>4</v>
       </c>
@@ -4460,8 +4485,8 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="108"/>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="110"/>
       <c r="B23" s="37" t="s">
         <v>5</v>
       </c>
@@ -4517,8 +4542,8 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="108"/>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="110"/>
       <c r="B24" s="37" t="s">
         <v>6</v>
       </c>
@@ -4574,8 +4599,8 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="108"/>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="110"/>
       <c r="B25" s="37" t="s">
         <v>7</v>
       </c>
@@ -4631,8 +4656,8 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="108"/>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="110"/>
       <c r="B26" s="37" t="s">
         <v>8</v>
       </c>
@@ -4688,8 +4713,8 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="108"/>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="110"/>
       <c r="B27" s="37" t="s">
         <v>9</v>
       </c>
@@ -4745,8 +4770,8 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="108"/>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="110"/>
       <c r="B28" s="37" t="s">
         <v>10</v>
       </c>
@@ -4802,8 +4827,8 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="108"/>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="110"/>
       <c r="B29" s="37" t="s">
         <v>11</v>
       </c>
@@ -4859,8 +4884,8 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="108"/>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="110"/>
       <c r="B30" s="37" t="s">
         <v>12</v>
       </c>
@@ -4916,8 +4941,8 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="108"/>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="110"/>
       <c r="B31" s="37" t="s">
         <v>13</v>
       </c>
@@ -4973,8 +4998,8 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="108"/>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="110"/>
       <c r="B32" s="37" t="s">
         <v>14</v>
       </c>
@@ -5030,8 +5055,8 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="108"/>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="110"/>
       <c r="B33" s="37" t="s">
         <v>15</v>
       </c>
@@ -5087,8 +5112,8 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="108" t="s">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" s="110" t="s">
         <v>101</v>
       </c>
       <c r="B34" s="61" t="s">
@@ -5146,8 +5171,8 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="108"/>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" s="110"/>
       <c r="B35" s="61" t="s">
         <v>1</v>
       </c>
@@ -5203,8 +5228,8 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="108"/>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36" s="110"/>
       <c r="B36" s="61" t="s">
         <v>2</v>
       </c>
@@ -5260,8 +5285,8 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="108"/>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" s="110"/>
       <c r="B37" s="61" t="s">
         <v>3</v>
       </c>
@@ -5317,8 +5342,8 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="108"/>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="110"/>
       <c r="B38" s="61" t="s">
         <v>4</v>
       </c>
@@ -5374,8 +5399,8 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="108"/>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A39" s="110"/>
       <c r="B39" s="61" t="s">
         <v>5</v>
       </c>
@@ -5431,8 +5456,8 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="108"/>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" s="110"/>
       <c r="B40" s="61" t="s">
         <v>6</v>
       </c>
@@ -5488,8 +5513,8 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="108"/>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A41" s="110"/>
       <c r="B41" s="61" t="s">
         <v>7</v>
       </c>
@@ -5545,8 +5570,8 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="108"/>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42" s="110"/>
       <c r="B42" s="61" t="s">
         <v>8</v>
       </c>
@@ -5602,8 +5627,8 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="108"/>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A43" s="110"/>
       <c r="B43" s="61" t="s">
         <v>9</v>
       </c>
@@ -5659,8 +5684,8 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="108"/>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A44" s="110"/>
       <c r="B44" s="61" t="s">
         <v>10</v>
       </c>
@@ -5716,8 +5741,8 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="108"/>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A45" s="110"/>
       <c r="B45" s="61" t="s">
         <v>11</v>
       </c>
@@ -5773,8 +5798,8 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="108"/>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A46" s="110"/>
       <c r="B46" s="61" t="s">
         <v>12</v>
       </c>
@@ -5830,8 +5855,8 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="108"/>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A47" s="110"/>
       <c r="B47" s="61" t="s">
         <v>13</v>
       </c>
@@ -5887,8 +5912,8 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="108"/>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A48" s="110"/>
       <c r="B48" s="61" t="s">
         <v>14</v>
       </c>
@@ -5944,8 +5969,8 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="108"/>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A49" s="110"/>
       <c r="B49" s="61" t="s">
         <v>15</v>
       </c>
@@ -6001,8 +6026,8 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="108" t="s">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A50" s="110" t="s">
         <v>102</v>
       </c>
       <c r="B50" s="61" t="s">
@@ -6060,8 +6085,8 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="108"/>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A51" s="110"/>
       <c r="B51" s="61" t="s">
         <v>1</v>
       </c>
@@ -6117,8 +6142,8 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="108"/>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A52" s="110"/>
       <c r="B52" s="61" t="s">
         <v>2</v>
       </c>
@@ -6174,8 +6199,8 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="108"/>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A53" s="110"/>
       <c r="B53" s="61" t="s">
         <v>3</v>
       </c>
@@ -6231,8 +6256,8 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="108"/>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A54" s="110"/>
       <c r="B54" s="61" t="s">
         <v>4</v>
       </c>
@@ -6288,8 +6313,8 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="108"/>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A55" s="110"/>
       <c r="B55" s="61" t="s">
         <v>5</v>
       </c>
@@ -6345,8 +6370,8 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="108"/>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A56" s="110"/>
       <c r="B56" s="61" t="s">
         <v>6</v>
       </c>
@@ -6402,8 +6427,8 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="108"/>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A57" s="110"/>
       <c r="B57" s="61" t="s">
         <v>7</v>
       </c>
@@ -6459,8 +6484,8 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="108"/>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A58" s="110"/>
       <c r="B58" s="61" t="s">
         <v>8</v>
       </c>
@@ -6516,8 +6541,8 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="108"/>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A59" s="110"/>
       <c r="B59" s="61" t="s">
         <v>9</v>
       </c>
@@ -6573,8 +6598,8 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="108"/>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A60" s="110"/>
       <c r="B60" s="61" t="s">
         <v>10</v>
       </c>
@@ -6630,8 +6655,8 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="108"/>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A61" s="110"/>
       <c r="B61" s="61" t="s">
         <v>11</v>
       </c>
@@ -6687,8 +6712,8 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="108"/>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A62" s="110"/>
       <c r="B62" s="61" t="s">
         <v>12</v>
       </c>
@@ -6744,8 +6769,8 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="108"/>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A63" s="110"/>
       <c r="B63" s="61" t="s">
         <v>13</v>
       </c>
@@ -6801,8 +6826,8 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="108"/>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A64" s="110"/>
       <c r="B64" s="61" t="s">
         <v>14</v>
       </c>
@@ -6858,8 +6883,8 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="108"/>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A65" s="110"/>
       <c r="B65" s="61" t="s">
         <v>15</v>
       </c>
@@ -6915,8 +6940,8 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="108" t="s">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A66" s="110" t="s">
         <v>103</v>
       </c>
       <c r="B66" s="61" t="s">
@@ -6974,8 +6999,8 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="108"/>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A67" s="110"/>
       <c r="B67" s="61" t="s">
         <v>1</v>
       </c>
@@ -7031,8 +7056,8 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="108"/>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A68" s="110"/>
       <c r="B68" s="61" t="s">
         <v>2</v>
       </c>
@@ -7088,8 +7113,8 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="108"/>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A69" s="110"/>
       <c r="B69" s="61" t="s">
         <v>3</v>
       </c>
@@ -7145,8 +7170,8 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="108"/>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A70" s="110"/>
       <c r="B70" s="61" t="s">
         <v>4</v>
       </c>
@@ -7202,8 +7227,8 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="108"/>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A71" s="110"/>
       <c r="B71" s="61" t="s">
         <v>5</v>
       </c>
@@ -7259,8 +7284,8 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="108"/>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A72" s="110"/>
       <c r="B72" s="61" t="s">
         <v>6</v>
       </c>
@@ -7316,8 +7341,8 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="108"/>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A73" s="110"/>
       <c r="B73" s="61" t="s">
         <v>7</v>
       </c>
@@ -7373,8 +7398,8 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="108"/>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A74" s="110"/>
       <c r="B74" s="61" t="s">
         <v>8</v>
       </c>
@@ -7430,8 +7455,8 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="108"/>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A75" s="110"/>
       <c r="B75" s="61" t="s">
         <v>9</v>
       </c>
@@ -7487,8 +7512,8 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="108"/>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A76" s="110"/>
       <c r="B76" s="61" t="s">
         <v>10</v>
       </c>
@@ -7544,8 +7569,8 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="108"/>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A77" s="110"/>
       <c r="B77" s="61" t="s">
         <v>11</v>
       </c>
@@ -7601,8 +7626,8 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="108"/>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A78" s="110"/>
       <c r="B78" s="61" t="s">
         <v>12</v>
       </c>
@@ -7658,8 +7683,8 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="108"/>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A79" s="110"/>
       <c r="B79" s="61" t="s">
         <v>13</v>
       </c>
@@ -7715,8 +7740,8 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="108"/>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A80" s="110"/>
       <c r="B80" s="61" t="s">
         <v>14</v>
       </c>
@@ -7772,8 +7797,8 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="108"/>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A81" s="110"/>
       <c r="B81" s="61" t="s">
         <v>15</v>
       </c>
@@ -7829,8 +7854,8 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="108" t="s">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A82" s="110" t="s">
         <v>104</v>
       </c>
       <c r="B82" s="61" t="s">
@@ -7888,8 +7913,8 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="108"/>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A83" s="110"/>
       <c r="B83" s="61" t="s">
         <v>1</v>
       </c>
@@ -7945,8 +7970,8 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="108"/>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A84" s="110"/>
       <c r="B84" s="61" t="s">
         <v>2</v>
       </c>
@@ -8002,8 +8027,8 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="108"/>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A85" s="110"/>
       <c r="B85" s="61" t="s">
         <v>3</v>
       </c>
@@ -8059,8 +8084,8 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="108"/>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A86" s="110"/>
       <c r="B86" s="61" t="s">
         <v>4</v>
       </c>
@@ -8116,8 +8141,8 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="108"/>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A87" s="110"/>
       <c r="B87" s="61" t="s">
         <v>5</v>
       </c>
@@ -8173,8 +8198,8 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="108"/>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A88" s="110"/>
       <c r="B88" s="61" t="s">
         <v>6</v>
       </c>
@@ -8230,8 +8255,8 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" s="108"/>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A89" s="110"/>
       <c r="B89" s="61" t="s">
         <v>7</v>
       </c>
@@ -8287,8 +8312,8 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="108"/>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A90" s="110"/>
       <c r="B90" s="61" t="s">
         <v>8</v>
       </c>
@@ -8344,8 +8369,8 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="108"/>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A91" s="110"/>
       <c r="B91" s="61" t="s">
         <v>9</v>
       </c>
@@ -8401,8 +8426,8 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="108"/>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A92" s="110"/>
       <c r="B92" s="61" t="s">
         <v>10</v>
       </c>
@@ -8458,8 +8483,8 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="108"/>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A93" s="110"/>
       <c r="B93" s="61" t="s">
         <v>11</v>
       </c>
@@ -8515,8 +8540,8 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="108"/>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A94" s="110"/>
       <c r="B94" s="61" t="s">
         <v>12</v>
       </c>
@@ -8572,8 +8597,8 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="108"/>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A95" s="110"/>
       <c r="B95" s="61" t="s">
         <v>13</v>
       </c>
@@ -8629,8 +8654,8 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="108"/>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A96" s="110"/>
       <c r="B96" s="61" t="s">
         <v>14</v>
       </c>
@@ -8686,8 +8711,8 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="108"/>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A97" s="110"/>
       <c r="B97" s="61" t="s">
         <v>15</v>
       </c>
@@ -8743,8 +8768,8 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="108" t="s">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A98" s="110" t="s">
         <v>105</v>
       </c>
       <c r="B98" s="61" t="s">
@@ -8802,8 +8827,8 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="108"/>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A99" s="110"/>
       <c r="B99" s="61" t="s">
         <v>1</v>
       </c>
@@ -8859,8 +8884,8 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="108"/>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A100" s="110"/>
       <c r="B100" s="61" t="s">
         <v>2</v>
       </c>
@@ -8916,8 +8941,8 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="108"/>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A101" s="110"/>
       <c r="B101" s="61" t="s">
         <v>3</v>
       </c>
@@ -8973,8 +8998,8 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="108"/>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A102" s="110"/>
       <c r="B102" s="61" t="s">
         <v>4</v>
       </c>
@@ -9030,8 +9055,8 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="108"/>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A103" s="110"/>
       <c r="B103" s="61" t="s">
         <v>5</v>
       </c>
@@ -9087,8 +9112,8 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="108"/>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A104" s="110"/>
       <c r="B104" s="61" t="s">
         <v>6</v>
       </c>
@@ -9144,8 +9169,8 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" s="108"/>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A105" s="110"/>
       <c r="B105" s="61" t="s">
         <v>7</v>
       </c>
@@ -9201,8 +9226,8 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="108"/>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A106" s="110"/>
       <c r="B106" s="61" t="s">
         <v>8</v>
       </c>
@@ -9258,8 +9283,8 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="108"/>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A107" s="110"/>
       <c r="B107" s="61" t="s">
         <v>9</v>
       </c>
@@ -9315,8 +9340,8 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="108"/>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A108" s="110"/>
       <c r="B108" s="61" t="s">
         <v>10</v>
       </c>
@@ -9372,8 +9397,8 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="108"/>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A109" s="110"/>
       <c r="B109" s="61" t="s">
         <v>11</v>
       </c>
@@ -9429,8 +9454,8 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="108"/>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A110" s="110"/>
       <c r="B110" s="61" t="s">
         <v>12</v>
       </c>
@@ -9486,8 +9511,8 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A111" s="108"/>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A111" s="110"/>
       <c r="B111" s="61" t="s">
         <v>13</v>
       </c>
@@ -9543,8 +9568,8 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A112" s="108"/>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A112" s="110"/>
       <c r="B112" s="61" t="s">
         <v>14</v>
       </c>
@@ -9600,8 +9625,8 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A113" s="108"/>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A113" s="110"/>
       <c r="B113" s="61" t="s">
         <v>15</v>
       </c>
@@ -9682,9 +9707,9 @@
       <selection activeCell="A34" sqref="A34:S113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -9743,8 +9768,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="108" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="110" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -9802,8 +9827,8 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="108"/>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="110"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -9859,8 +9884,8 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="108"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="110"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -9916,8 +9941,8 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="108"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="110"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -9973,8 +9998,8 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="108"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="110"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -10030,8 +10055,8 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="108"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="110"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -10087,8 +10112,8 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="108"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="110"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -10144,8 +10169,8 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="108"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="110"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -10201,8 +10226,8 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="108"/>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="110"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -10258,8 +10283,8 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="108"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="110"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -10315,8 +10340,8 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="108"/>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="110"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -10372,8 +10397,8 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="108"/>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="110"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
@@ -10429,8 +10454,8 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="108"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="110"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
@@ -10486,8 +10511,8 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="108"/>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="110"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
@@ -10543,8 +10568,8 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="108"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="110"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -10600,8 +10625,8 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="108"/>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="110"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -10657,8 +10682,8 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="108" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="110" t="s">
         <v>96</v>
       </c>
       <c r="B18" s="37" t="s">
@@ -10716,8 +10741,8 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="108"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="110"/>
       <c r="B19" s="37" t="s">
         <v>1</v>
       </c>
@@ -10773,8 +10798,8 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="108"/>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="110"/>
       <c r="B20" s="37" t="s">
         <v>2</v>
       </c>
@@ -10830,8 +10855,8 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="108"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="110"/>
       <c r="B21" s="37" t="s">
         <v>3</v>
       </c>
@@ -10887,8 +10912,8 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="108"/>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="110"/>
       <c r="B22" s="37" t="s">
         <v>4</v>
       </c>
@@ -10944,8 +10969,8 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="108"/>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="110"/>
       <c r="B23" s="37" t="s">
         <v>5</v>
       </c>
@@ -11001,8 +11026,8 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="108"/>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="110"/>
       <c r="B24" s="37" t="s">
         <v>6</v>
       </c>
@@ -11058,8 +11083,8 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="108"/>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="110"/>
       <c r="B25" s="37" t="s">
         <v>7</v>
       </c>
@@ -11115,8 +11140,8 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="108"/>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="110"/>
       <c r="B26" s="37" t="s">
         <v>8</v>
       </c>
@@ -11172,8 +11197,8 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="108"/>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="110"/>
       <c r="B27" s="37" t="s">
         <v>9</v>
       </c>
@@ -11229,8 +11254,8 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="108"/>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="110"/>
       <c r="B28" s="37" t="s">
         <v>10</v>
       </c>
@@ -11286,8 +11311,8 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="108"/>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="110"/>
       <c r="B29" s="37" t="s">
         <v>11</v>
       </c>
@@ -11343,8 +11368,8 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="108"/>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="110"/>
       <c r="B30" s="37" t="s">
         <v>12</v>
       </c>
@@ -11400,8 +11425,8 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="108"/>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="110"/>
       <c r="B31" s="37" t="s">
         <v>13</v>
       </c>
@@ -11457,8 +11482,8 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="108"/>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="110"/>
       <c r="B32" s="37" t="s">
         <v>14</v>
       </c>
@@ -11514,8 +11539,8 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="108"/>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="110"/>
       <c r="B33" s="37" t="s">
         <v>15</v>
       </c>
@@ -11571,8 +11596,8 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="108" t="s">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" s="110" t="s">
         <v>101</v>
       </c>
       <c r="B34" s="61" t="s">
@@ -11630,8 +11655,8 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="108"/>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" s="110"/>
       <c r="B35" s="61" t="s">
         <v>1</v>
       </c>
@@ -11687,8 +11712,8 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="108"/>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36" s="110"/>
       <c r="B36" s="61" t="s">
         <v>2</v>
       </c>
@@ -11744,8 +11769,8 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="108"/>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" s="110"/>
       <c r="B37" s="61" t="s">
         <v>3</v>
       </c>
@@ -11801,8 +11826,8 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="108"/>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="110"/>
       <c r="B38" s="61" t="s">
         <v>4</v>
       </c>
@@ -11858,8 +11883,8 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="108"/>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A39" s="110"/>
       <c r="B39" s="61" t="s">
         <v>5</v>
       </c>
@@ -11915,8 +11940,8 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="108"/>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" s="110"/>
       <c r="B40" s="61" t="s">
         <v>6</v>
       </c>
@@ -11972,8 +11997,8 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="108"/>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A41" s="110"/>
       <c r="B41" s="61" t="s">
         <v>7</v>
       </c>
@@ -12029,8 +12054,8 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="108"/>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42" s="110"/>
       <c r="B42" s="61" t="s">
         <v>8</v>
       </c>
@@ -12086,8 +12111,8 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="108"/>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A43" s="110"/>
       <c r="B43" s="61" t="s">
         <v>9</v>
       </c>
@@ -12143,8 +12168,8 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="108"/>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A44" s="110"/>
       <c r="B44" s="61" t="s">
         <v>10</v>
       </c>
@@ -12200,8 +12225,8 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="108"/>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A45" s="110"/>
       <c r="B45" s="61" t="s">
         <v>11</v>
       </c>
@@ -12257,8 +12282,8 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="108"/>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A46" s="110"/>
       <c r="B46" s="61" t="s">
         <v>12</v>
       </c>
@@ -12314,8 +12339,8 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="108"/>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A47" s="110"/>
       <c r="B47" s="61" t="s">
         <v>13</v>
       </c>
@@ -12371,8 +12396,8 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="108"/>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A48" s="110"/>
       <c r="B48" s="61" t="s">
         <v>14</v>
       </c>
@@ -12428,8 +12453,8 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="108"/>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A49" s="110"/>
       <c r="B49" s="61" t="s">
         <v>15</v>
       </c>
@@ -12485,8 +12510,8 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="108" t="s">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A50" s="110" t="s">
         <v>102</v>
       </c>
       <c r="B50" s="61" t="s">
@@ -12544,8 +12569,8 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="108"/>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A51" s="110"/>
       <c r="B51" s="61" t="s">
         <v>1</v>
       </c>
@@ -12601,8 +12626,8 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="108"/>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A52" s="110"/>
       <c r="B52" s="61" t="s">
         <v>2</v>
       </c>
@@ -12658,8 +12683,8 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="108"/>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A53" s="110"/>
       <c r="B53" s="61" t="s">
         <v>3</v>
       </c>
@@ -12715,8 +12740,8 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="108"/>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A54" s="110"/>
       <c r="B54" s="61" t="s">
         <v>4</v>
       </c>
@@ -12772,8 +12797,8 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="108"/>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A55" s="110"/>
       <c r="B55" s="61" t="s">
         <v>5</v>
       </c>
@@ -12829,8 +12854,8 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="108"/>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A56" s="110"/>
       <c r="B56" s="61" t="s">
         <v>6</v>
       </c>
@@ -12886,8 +12911,8 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="108"/>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A57" s="110"/>
       <c r="B57" s="61" t="s">
         <v>7</v>
       </c>
@@ -12943,8 +12968,8 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="108"/>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A58" s="110"/>
       <c r="B58" s="61" t="s">
         <v>8</v>
       </c>
@@ -13000,8 +13025,8 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="108"/>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A59" s="110"/>
       <c r="B59" s="61" t="s">
         <v>9</v>
       </c>
@@ -13057,8 +13082,8 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="108"/>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A60" s="110"/>
       <c r="B60" s="61" t="s">
         <v>10</v>
       </c>
@@ -13114,8 +13139,8 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="108"/>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A61" s="110"/>
       <c r="B61" s="61" t="s">
         <v>11</v>
       </c>
@@ -13171,8 +13196,8 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="108"/>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A62" s="110"/>
       <c r="B62" s="61" t="s">
         <v>12</v>
       </c>
@@ -13228,8 +13253,8 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="108"/>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A63" s="110"/>
       <c r="B63" s="61" t="s">
         <v>13</v>
       </c>
@@ -13285,8 +13310,8 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="108"/>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A64" s="110"/>
       <c r="B64" s="61" t="s">
         <v>14</v>
       </c>
@@ -13342,8 +13367,8 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="108"/>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A65" s="110"/>
       <c r="B65" s="61" t="s">
         <v>15</v>
       </c>
@@ -13399,8 +13424,8 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="108" t="s">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A66" s="110" t="s">
         <v>103</v>
       </c>
       <c r="B66" s="61" t="s">
@@ -13458,8 +13483,8 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="108"/>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A67" s="110"/>
       <c r="B67" s="61" t="s">
         <v>1</v>
       </c>
@@ -13515,8 +13540,8 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="108"/>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A68" s="110"/>
       <c r="B68" s="61" t="s">
         <v>2</v>
       </c>
@@ -13572,8 +13597,8 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="108"/>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A69" s="110"/>
       <c r="B69" s="61" t="s">
         <v>3</v>
       </c>
@@ -13629,8 +13654,8 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="108"/>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A70" s="110"/>
       <c r="B70" s="61" t="s">
         <v>4</v>
       </c>
@@ -13686,8 +13711,8 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="108"/>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A71" s="110"/>
       <c r="B71" s="61" t="s">
         <v>5</v>
       </c>
@@ -13743,8 +13768,8 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="108"/>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A72" s="110"/>
       <c r="B72" s="61" t="s">
         <v>6</v>
       </c>
@@ -13800,8 +13825,8 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="108"/>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A73" s="110"/>
       <c r="B73" s="61" t="s">
         <v>7</v>
       </c>
@@ -13857,8 +13882,8 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="108"/>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A74" s="110"/>
       <c r="B74" s="61" t="s">
         <v>8</v>
       </c>
@@ -13914,8 +13939,8 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="108"/>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A75" s="110"/>
       <c r="B75" s="61" t="s">
         <v>9</v>
       </c>
@@ -13971,8 +13996,8 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="108"/>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A76" s="110"/>
       <c r="B76" s="61" t="s">
         <v>10</v>
       </c>
@@ -14028,8 +14053,8 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="108"/>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A77" s="110"/>
       <c r="B77" s="61" t="s">
         <v>11</v>
       </c>
@@ -14085,8 +14110,8 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="108"/>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A78" s="110"/>
       <c r="B78" s="61" t="s">
         <v>12</v>
       </c>
@@ -14142,8 +14167,8 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="108"/>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A79" s="110"/>
       <c r="B79" s="61" t="s">
         <v>13</v>
       </c>
@@ -14199,8 +14224,8 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="108"/>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A80" s="110"/>
       <c r="B80" s="61" t="s">
         <v>14</v>
       </c>
@@ -14256,8 +14281,8 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="108"/>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A81" s="110"/>
       <c r="B81" s="61" t="s">
         <v>15</v>
       </c>
@@ -14313,8 +14338,8 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="108" t="s">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A82" s="110" t="s">
         <v>104</v>
       </c>
       <c r="B82" s="61" t="s">
@@ -14372,8 +14397,8 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="108"/>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A83" s="110"/>
       <c r="B83" s="61" t="s">
         <v>1</v>
       </c>
@@ -14429,8 +14454,8 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="108"/>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A84" s="110"/>
       <c r="B84" s="61" t="s">
         <v>2</v>
       </c>
@@ -14486,8 +14511,8 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="108"/>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A85" s="110"/>
       <c r="B85" s="61" t="s">
         <v>3</v>
       </c>
@@ -14543,8 +14568,8 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="108"/>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A86" s="110"/>
       <c r="B86" s="61" t="s">
         <v>4</v>
       </c>
@@ -14600,8 +14625,8 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="108"/>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A87" s="110"/>
       <c r="B87" s="61" t="s">
         <v>5</v>
       </c>
@@ -14657,8 +14682,8 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="108"/>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A88" s="110"/>
       <c r="B88" s="61" t="s">
         <v>6</v>
       </c>
@@ -14714,8 +14739,8 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" s="108"/>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A89" s="110"/>
       <c r="B89" s="61" t="s">
         <v>7</v>
       </c>
@@ -14771,8 +14796,8 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="108"/>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A90" s="110"/>
       <c r="B90" s="61" t="s">
         <v>8</v>
       </c>
@@ -14828,8 +14853,8 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="108"/>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A91" s="110"/>
       <c r="B91" s="61" t="s">
         <v>9</v>
       </c>
@@ -14885,8 +14910,8 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="108"/>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A92" s="110"/>
       <c r="B92" s="61" t="s">
         <v>10</v>
       </c>
@@ -14942,8 +14967,8 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="108"/>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A93" s="110"/>
       <c r="B93" s="61" t="s">
         <v>11</v>
       </c>
@@ -14999,8 +15024,8 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="108"/>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A94" s="110"/>
       <c r="B94" s="61" t="s">
         <v>12</v>
       </c>
@@ -15056,8 +15081,8 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="108"/>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A95" s="110"/>
       <c r="B95" s="61" t="s">
         <v>13</v>
       </c>
@@ -15113,8 +15138,8 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="108"/>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A96" s="110"/>
       <c r="B96" s="61" t="s">
         <v>14</v>
       </c>
@@ -15170,8 +15195,8 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="108"/>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A97" s="110"/>
       <c r="B97" s="61" t="s">
         <v>15</v>
       </c>
@@ -15227,8 +15252,8 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="108" t="s">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A98" s="110" t="s">
         <v>105</v>
       </c>
       <c r="B98" s="61" t="s">
@@ -15286,8 +15311,8 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="108"/>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A99" s="110"/>
       <c r="B99" s="61" t="s">
         <v>1</v>
       </c>
@@ -15343,8 +15368,8 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="108"/>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A100" s="110"/>
       <c r="B100" s="61" t="s">
         <v>2</v>
       </c>
@@ -15400,8 +15425,8 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="108"/>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A101" s="110"/>
       <c r="B101" s="61" t="s">
         <v>3</v>
       </c>
@@ -15457,8 +15482,8 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="108"/>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A102" s="110"/>
       <c r="B102" s="61" t="s">
         <v>4</v>
       </c>
@@ -15514,8 +15539,8 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="108"/>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A103" s="110"/>
       <c r="B103" s="61" t="s">
         <v>5</v>
       </c>
@@ -15571,8 +15596,8 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="108"/>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A104" s="110"/>
       <c r="B104" s="61" t="s">
         <v>6</v>
       </c>
@@ -15628,8 +15653,8 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" s="108"/>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A105" s="110"/>
       <c r="B105" s="61" t="s">
         <v>7</v>
       </c>
@@ -15685,8 +15710,8 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="108"/>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A106" s="110"/>
       <c r="B106" s="61" t="s">
         <v>8</v>
       </c>
@@ -15742,8 +15767,8 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="108"/>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A107" s="110"/>
       <c r="B107" s="61" t="s">
         <v>9</v>
       </c>
@@ -15799,8 +15824,8 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="108"/>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A108" s="110"/>
       <c r="B108" s="61" t="s">
         <v>10</v>
       </c>
@@ -15856,8 +15881,8 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="108"/>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A109" s="110"/>
       <c r="B109" s="61" t="s">
         <v>11</v>
       </c>
@@ -15913,8 +15938,8 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="108"/>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A110" s="110"/>
       <c r="B110" s="61" t="s">
         <v>12</v>
       </c>
@@ -15970,8 +15995,8 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A111" s="108"/>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A111" s="110"/>
       <c r="B111" s="61" t="s">
         <v>13</v>
       </c>
@@ -16027,8 +16052,8 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A112" s="108"/>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A112" s="110"/>
       <c r="B112" s="61" t="s">
         <v>14</v>
       </c>
@@ -16084,8 +16109,8 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A113" s="108"/>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A113" s="110"/>
       <c r="B113" s="61" t="s">
         <v>15</v>
       </c>
@@ -16166,9 +16191,9 @@
       <selection activeCell="A34" sqref="A34:S113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -16227,8 +16252,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="108" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="110" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -16286,8 +16311,8 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="108"/>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="110"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -16343,8 +16368,8 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="108"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="110"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -16400,8 +16425,8 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="108"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="110"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -16457,8 +16482,8 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="108"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="110"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -16514,8 +16539,8 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="108"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="110"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -16571,8 +16596,8 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="108"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="110"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -16628,8 +16653,8 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="108"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="110"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -16685,8 +16710,8 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="108"/>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="110"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -16742,8 +16767,8 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="108"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="110"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -16799,8 +16824,8 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="108"/>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="110"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -16856,8 +16881,8 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="108"/>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="110"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
@@ -16913,8 +16938,8 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="108"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="110"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
@@ -16970,8 +16995,8 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="108"/>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="110"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
@@ -17027,8 +17052,8 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="108"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="110"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -17084,8 +17109,8 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="108"/>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="110"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -17141,8 +17166,8 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="108" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="110" t="s">
         <v>96</v>
       </c>
       <c r="B18" s="37" t="s">
@@ -17200,8 +17225,8 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="108"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="110"/>
       <c r="B19" s="37" t="s">
         <v>1</v>
       </c>
@@ -17257,8 +17282,8 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="108"/>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="110"/>
       <c r="B20" s="37" t="s">
         <v>2</v>
       </c>
@@ -17314,8 +17339,8 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="108"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="110"/>
       <c r="B21" s="37" t="s">
         <v>3</v>
       </c>
@@ -17371,8 +17396,8 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="108"/>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="110"/>
       <c r="B22" s="37" t="s">
         <v>4</v>
       </c>
@@ -17428,8 +17453,8 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="108"/>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="110"/>
       <c r="B23" s="37" t="s">
         <v>5</v>
       </c>
@@ -17485,8 +17510,8 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="108"/>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="110"/>
       <c r="B24" s="37" t="s">
         <v>6</v>
       </c>
@@ -17542,8 +17567,8 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="108"/>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="110"/>
       <c r="B25" s="37" t="s">
         <v>7</v>
       </c>
@@ -17599,8 +17624,8 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="108"/>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="110"/>
       <c r="B26" s="37" t="s">
         <v>8</v>
       </c>
@@ -17656,8 +17681,8 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="108"/>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="110"/>
       <c r="B27" s="37" t="s">
         <v>9</v>
       </c>
@@ -17713,8 +17738,8 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="108"/>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="110"/>
       <c r="B28" s="37" t="s">
         <v>10</v>
       </c>
@@ -17770,8 +17795,8 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="108"/>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="110"/>
       <c r="B29" s="37" t="s">
         <v>11</v>
       </c>
@@ -17827,8 +17852,8 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="108"/>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="110"/>
       <c r="B30" s="37" t="s">
         <v>12</v>
       </c>
@@ -17884,8 +17909,8 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="108"/>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="110"/>
       <c r="B31" s="37" t="s">
         <v>13</v>
       </c>
@@ -17941,8 +17966,8 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="108"/>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="110"/>
       <c r="B32" s="37" t="s">
         <v>14</v>
       </c>
@@ -17998,8 +18023,8 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="108"/>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="110"/>
       <c r="B33" s="37" t="s">
         <v>15</v>
       </c>
@@ -18055,8 +18080,8 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="108" t="s">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" s="110" t="s">
         <v>101</v>
       </c>
       <c r="B34" s="61" t="s">
@@ -18114,8 +18139,8 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="108"/>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" s="110"/>
       <c r="B35" s="61" t="s">
         <v>1</v>
       </c>
@@ -18171,8 +18196,8 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="108"/>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36" s="110"/>
       <c r="B36" s="61" t="s">
         <v>2</v>
       </c>
@@ -18228,8 +18253,8 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="108"/>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" s="110"/>
       <c r="B37" s="61" t="s">
         <v>3</v>
       </c>
@@ -18285,8 +18310,8 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="108"/>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="110"/>
       <c r="B38" s="61" t="s">
         <v>4</v>
       </c>
@@ -18342,8 +18367,8 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="108"/>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A39" s="110"/>
       <c r="B39" s="61" t="s">
         <v>5</v>
       </c>
@@ -18399,8 +18424,8 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="108"/>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" s="110"/>
       <c r="B40" s="61" t="s">
         <v>6</v>
       </c>
@@ -18456,8 +18481,8 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="108"/>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A41" s="110"/>
       <c r="B41" s="61" t="s">
         <v>7</v>
       </c>
@@ -18513,8 +18538,8 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="108"/>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42" s="110"/>
       <c r="B42" s="61" t="s">
         <v>8</v>
       </c>
@@ -18570,8 +18595,8 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="108"/>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A43" s="110"/>
       <c r="B43" s="61" t="s">
         <v>9</v>
       </c>
@@ -18627,8 +18652,8 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="108"/>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A44" s="110"/>
       <c r="B44" s="61" t="s">
         <v>10</v>
       </c>
@@ -18684,8 +18709,8 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="108"/>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A45" s="110"/>
       <c r="B45" s="61" t="s">
         <v>11</v>
       </c>
@@ -18741,8 +18766,8 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="108"/>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A46" s="110"/>
       <c r="B46" s="61" t="s">
         <v>12</v>
       </c>
@@ -18798,8 +18823,8 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="108"/>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A47" s="110"/>
       <c r="B47" s="61" t="s">
         <v>13</v>
       </c>
@@ -18855,8 +18880,8 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="108"/>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A48" s="110"/>
       <c r="B48" s="61" t="s">
         <v>14</v>
       </c>
@@ -18912,8 +18937,8 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="108"/>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A49" s="110"/>
       <c r="B49" s="61" t="s">
         <v>15</v>
       </c>
@@ -18969,8 +18994,8 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="108" t="s">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A50" s="110" t="s">
         <v>102</v>
       </c>
       <c r="B50" s="61" t="s">
@@ -19028,8 +19053,8 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="108"/>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A51" s="110"/>
       <c r="B51" s="61" t="s">
         <v>1</v>
       </c>
@@ -19085,8 +19110,8 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="108"/>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A52" s="110"/>
       <c r="B52" s="61" t="s">
         <v>2</v>
       </c>
@@ -19142,8 +19167,8 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="108"/>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A53" s="110"/>
       <c r="B53" s="61" t="s">
         <v>3</v>
       </c>
@@ -19199,8 +19224,8 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="108"/>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A54" s="110"/>
       <c r="B54" s="61" t="s">
         <v>4</v>
       </c>
@@ -19256,8 +19281,8 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="108"/>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A55" s="110"/>
       <c r="B55" s="61" t="s">
         <v>5</v>
       </c>
@@ -19313,8 +19338,8 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="108"/>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A56" s="110"/>
       <c r="B56" s="61" t="s">
         <v>6</v>
       </c>
@@ -19370,8 +19395,8 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="108"/>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A57" s="110"/>
       <c r="B57" s="61" t="s">
         <v>7</v>
       </c>
@@ -19427,8 +19452,8 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="108"/>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A58" s="110"/>
       <c r="B58" s="61" t="s">
         <v>8</v>
       </c>
@@ -19484,8 +19509,8 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="108"/>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A59" s="110"/>
       <c r="B59" s="61" t="s">
         <v>9</v>
       </c>
@@ -19541,8 +19566,8 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="108"/>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A60" s="110"/>
       <c r="B60" s="61" t="s">
         <v>10</v>
       </c>
@@ -19598,8 +19623,8 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="108"/>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A61" s="110"/>
       <c r="B61" s="61" t="s">
         <v>11</v>
       </c>
@@ -19655,8 +19680,8 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="108"/>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A62" s="110"/>
       <c r="B62" s="61" t="s">
         <v>12</v>
       </c>
@@ -19712,8 +19737,8 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="108"/>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A63" s="110"/>
       <c r="B63" s="61" t="s">
         <v>13</v>
       </c>
@@ -19769,8 +19794,8 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="108"/>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A64" s="110"/>
       <c r="B64" s="61" t="s">
         <v>14</v>
       </c>
@@ -19826,8 +19851,8 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="108"/>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A65" s="110"/>
       <c r="B65" s="61" t="s">
         <v>15</v>
       </c>
@@ -19883,8 +19908,8 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="108" t="s">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A66" s="110" t="s">
         <v>103</v>
       </c>
       <c r="B66" s="61" t="s">
@@ -19942,8 +19967,8 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="108"/>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A67" s="110"/>
       <c r="B67" s="61" t="s">
         <v>1</v>
       </c>
@@ -19999,8 +20024,8 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="108"/>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A68" s="110"/>
       <c r="B68" s="61" t="s">
         <v>2</v>
       </c>
@@ -20056,8 +20081,8 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="108"/>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A69" s="110"/>
       <c r="B69" s="61" t="s">
         <v>3</v>
       </c>
@@ -20113,8 +20138,8 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="108"/>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A70" s="110"/>
       <c r="B70" s="61" t="s">
         <v>4</v>
       </c>
@@ -20170,8 +20195,8 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="108"/>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A71" s="110"/>
       <c r="B71" s="61" t="s">
         <v>5</v>
       </c>
@@ -20227,8 +20252,8 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="108"/>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A72" s="110"/>
       <c r="B72" s="61" t="s">
         <v>6</v>
       </c>
@@ -20284,8 +20309,8 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="108"/>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A73" s="110"/>
       <c r="B73" s="61" t="s">
         <v>7</v>
       </c>
@@ -20341,8 +20366,8 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="108"/>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A74" s="110"/>
       <c r="B74" s="61" t="s">
         <v>8</v>
       </c>
@@ -20398,8 +20423,8 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="108"/>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A75" s="110"/>
       <c r="B75" s="61" t="s">
         <v>9</v>
       </c>
@@ -20455,8 +20480,8 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="108"/>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A76" s="110"/>
       <c r="B76" s="61" t="s">
         <v>10</v>
       </c>
@@ -20512,8 +20537,8 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="108"/>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A77" s="110"/>
       <c r="B77" s="61" t="s">
         <v>11</v>
       </c>
@@ -20569,8 +20594,8 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="108"/>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A78" s="110"/>
       <c r="B78" s="61" t="s">
         <v>12</v>
       </c>
@@ -20626,8 +20651,8 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="108"/>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A79" s="110"/>
       <c r="B79" s="61" t="s">
         <v>13</v>
       </c>
@@ -20683,8 +20708,8 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="108"/>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A80" s="110"/>
       <c r="B80" s="61" t="s">
         <v>14</v>
       </c>
@@ -20740,8 +20765,8 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="108"/>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A81" s="110"/>
       <c r="B81" s="61" t="s">
         <v>15</v>
       </c>
@@ -20797,8 +20822,8 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="108" t="s">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A82" s="110" t="s">
         <v>104</v>
       </c>
       <c r="B82" s="61" t="s">
@@ -20856,8 +20881,8 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="108"/>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A83" s="110"/>
       <c r="B83" s="61" t="s">
         <v>1</v>
       </c>
@@ -20913,8 +20938,8 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="108"/>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A84" s="110"/>
       <c r="B84" s="61" t="s">
         <v>2</v>
       </c>
@@ -20970,8 +20995,8 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="108"/>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A85" s="110"/>
       <c r="B85" s="61" t="s">
         <v>3</v>
       </c>
@@ -21027,8 +21052,8 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="108"/>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A86" s="110"/>
       <c r="B86" s="61" t="s">
         <v>4</v>
       </c>
@@ -21084,8 +21109,8 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="108"/>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A87" s="110"/>
       <c r="B87" s="61" t="s">
         <v>5</v>
       </c>
@@ -21141,8 +21166,8 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="108"/>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A88" s="110"/>
       <c r="B88" s="61" t="s">
         <v>6</v>
       </c>
@@ -21198,8 +21223,8 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" s="108"/>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A89" s="110"/>
       <c r="B89" s="61" t="s">
         <v>7</v>
       </c>
@@ -21255,8 +21280,8 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="108"/>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A90" s="110"/>
       <c r="B90" s="61" t="s">
         <v>8</v>
       </c>
@@ -21312,8 +21337,8 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="108"/>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A91" s="110"/>
       <c r="B91" s="61" t="s">
         <v>9</v>
       </c>
@@ -21369,8 +21394,8 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="108"/>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A92" s="110"/>
       <c r="B92" s="61" t="s">
         <v>10</v>
       </c>
@@ -21426,8 +21451,8 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="108"/>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A93" s="110"/>
       <c r="B93" s="61" t="s">
         <v>11</v>
       </c>
@@ -21483,8 +21508,8 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="108"/>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A94" s="110"/>
       <c r="B94" s="61" t="s">
         <v>12</v>
       </c>
@@ -21540,8 +21565,8 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="108"/>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A95" s="110"/>
       <c r="B95" s="61" t="s">
         <v>13</v>
       </c>
@@ -21597,8 +21622,8 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="108"/>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A96" s="110"/>
       <c r="B96" s="61" t="s">
         <v>14</v>
       </c>
@@ -21654,8 +21679,8 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="108"/>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A97" s="110"/>
       <c r="B97" s="61" t="s">
         <v>15</v>
       </c>
@@ -21711,8 +21736,8 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="108" t="s">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A98" s="110" t="s">
         <v>105</v>
       </c>
       <c r="B98" s="61" t="s">
@@ -21770,8 +21795,8 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="108"/>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A99" s="110"/>
       <c r="B99" s="61" t="s">
         <v>1</v>
       </c>
@@ -21827,8 +21852,8 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="108"/>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A100" s="110"/>
       <c r="B100" s="61" t="s">
         <v>2</v>
       </c>
@@ -21884,8 +21909,8 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="108"/>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A101" s="110"/>
       <c r="B101" s="61" t="s">
         <v>3</v>
       </c>
@@ -21941,8 +21966,8 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="108"/>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A102" s="110"/>
       <c r="B102" s="61" t="s">
         <v>4</v>
       </c>
@@ -21998,8 +22023,8 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="108"/>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A103" s="110"/>
       <c r="B103" s="61" t="s">
         <v>5</v>
       </c>
@@ -22055,8 +22080,8 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="108"/>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A104" s="110"/>
       <c r="B104" s="61" t="s">
         <v>6</v>
       </c>
@@ -22112,8 +22137,8 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" s="108"/>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A105" s="110"/>
       <c r="B105" s="61" t="s">
         <v>7</v>
       </c>
@@ -22169,8 +22194,8 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="108"/>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A106" s="110"/>
       <c r="B106" s="61" t="s">
         <v>8</v>
       </c>
@@ -22226,8 +22251,8 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="108"/>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A107" s="110"/>
       <c r="B107" s="61" t="s">
         <v>9</v>
       </c>
@@ -22283,8 +22308,8 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="108"/>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A108" s="110"/>
       <c r="B108" s="61" t="s">
         <v>10</v>
       </c>
@@ -22340,8 +22365,8 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="108"/>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A109" s="110"/>
       <c r="B109" s="61" t="s">
         <v>11</v>
       </c>
@@ -22397,8 +22422,8 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="108"/>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A110" s="110"/>
       <c r="B110" s="61" t="s">
         <v>12</v>
       </c>
@@ -22454,8 +22479,8 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A111" s="108"/>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A111" s="110"/>
       <c r="B111" s="61" t="s">
         <v>13</v>
       </c>
@@ -22511,8 +22536,8 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A112" s="108"/>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A112" s="110"/>
       <c r="B112" s="61" t="s">
         <v>14</v>
       </c>
@@ -22568,8 +22593,8 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A113" s="108"/>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A113" s="110"/>
       <c r="B113" s="61" t="s">
         <v>15</v>
       </c>
@@ -22650,9 +22675,9 @@
       <selection activeCell="A34" sqref="A34:S113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -22711,8 +22736,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="108" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="110" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -22770,8 +22795,8 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="108"/>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="110"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -22827,8 +22852,8 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="108"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="110"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -22884,8 +22909,8 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="108"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="110"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -22941,8 +22966,8 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="108"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="110"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -22998,8 +23023,8 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="108"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="110"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -23055,8 +23080,8 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="108"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="110"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -23112,8 +23137,8 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="108"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="110"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -23169,8 +23194,8 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="108"/>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="110"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -23226,8 +23251,8 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="108"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="110"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -23283,8 +23308,8 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="108"/>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="110"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -23340,8 +23365,8 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="108"/>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="110"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
@@ -23397,8 +23422,8 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="108"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="110"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
@@ -23454,8 +23479,8 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="108"/>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="110"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
@@ -23511,8 +23536,8 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="108"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="110"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -23568,8 +23593,8 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="108"/>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="110"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -23625,8 +23650,8 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="108" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="110" t="s">
         <v>96</v>
       </c>
       <c r="B18" s="37" t="s">
@@ -23684,8 +23709,8 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="108"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="110"/>
       <c r="B19" s="37" t="s">
         <v>1</v>
       </c>
@@ -23741,8 +23766,8 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="108"/>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="110"/>
       <c r="B20" s="37" t="s">
         <v>2</v>
       </c>
@@ -23798,8 +23823,8 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="108"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="110"/>
       <c r="B21" s="37" t="s">
         <v>3</v>
       </c>
@@ -23855,8 +23880,8 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="108"/>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="110"/>
       <c r="B22" s="37" t="s">
         <v>4</v>
       </c>
@@ -23912,8 +23937,8 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="108"/>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="110"/>
       <c r="B23" s="37" t="s">
         <v>5</v>
       </c>
@@ -23969,8 +23994,8 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="108"/>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="110"/>
       <c r="B24" s="37" t="s">
         <v>6</v>
       </c>
@@ -24026,8 +24051,8 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="108"/>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="110"/>
       <c r="B25" s="37" t="s">
         <v>7</v>
       </c>
@@ -24083,8 +24108,8 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="108"/>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="110"/>
       <c r="B26" s="37" t="s">
         <v>8</v>
       </c>
@@ -24140,8 +24165,8 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="108"/>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="110"/>
       <c r="B27" s="37" t="s">
         <v>9</v>
       </c>
@@ -24197,8 +24222,8 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="108"/>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="110"/>
       <c r="B28" s="37" t="s">
         <v>10</v>
       </c>
@@ -24254,8 +24279,8 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="108"/>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="110"/>
       <c r="B29" s="37" t="s">
         <v>11</v>
       </c>
@@ -24311,8 +24336,8 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="108"/>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="110"/>
       <c r="B30" s="37" t="s">
         <v>12</v>
       </c>
@@ -24368,8 +24393,8 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="108"/>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="110"/>
       <c r="B31" s="37" t="s">
         <v>13</v>
       </c>
@@ -24425,8 +24450,8 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="108"/>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="110"/>
       <c r="B32" s="37" t="s">
         <v>14</v>
       </c>
@@ -24482,8 +24507,8 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="108"/>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="110"/>
       <c r="B33" s="37" t="s">
         <v>15</v>
       </c>
@@ -24539,8 +24564,8 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="108" t="s">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" s="110" t="s">
         <v>101</v>
       </c>
       <c r="B34" s="61" t="s">
@@ -24598,8 +24623,8 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="108"/>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" s="110"/>
       <c r="B35" s="61" t="s">
         <v>1</v>
       </c>
@@ -24655,8 +24680,8 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="108"/>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36" s="110"/>
       <c r="B36" s="61" t="s">
         <v>2</v>
       </c>
@@ -24712,8 +24737,8 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="108"/>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" s="110"/>
       <c r="B37" s="61" t="s">
         <v>3</v>
       </c>
@@ -24769,8 +24794,8 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="108"/>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="110"/>
       <c r="B38" s="61" t="s">
         <v>4</v>
       </c>
@@ -24826,8 +24851,8 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="108"/>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A39" s="110"/>
       <c r="B39" s="61" t="s">
         <v>5</v>
       </c>
@@ -24883,8 +24908,8 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="108"/>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" s="110"/>
       <c r="B40" s="61" t="s">
         <v>6</v>
       </c>
@@ -24940,8 +24965,8 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="108"/>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A41" s="110"/>
       <c r="B41" s="61" t="s">
         <v>7</v>
       </c>
@@ -24997,8 +25022,8 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="108"/>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42" s="110"/>
       <c r="B42" s="61" t="s">
         <v>8</v>
       </c>
@@ -25054,8 +25079,8 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="108"/>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A43" s="110"/>
       <c r="B43" s="61" t="s">
         <v>9</v>
       </c>
@@ -25111,8 +25136,8 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="108"/>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A44" s="110"/>
       <c r="B44" s="61" t="s">
         <v>10</v>
       </c>
@@ -25168,8 +25193,8 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="108"/>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A45" s="110"/>
       <c r="B45" s="61" t="s">
         <v>11</v>
       </c>
@@ -25225,8 +25250,8 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="108"/>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A46" s="110"/>
       <c r="B46" s="61" t="s">
         <v>12</v>
       </c>
@@ -25282,8 +25307,8 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="108"/>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A47" s="110"/>
       <c r="B47" s="61" t="s">
         <v>13</v>
       </c>
@@ -25339,8 +25364,8 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="108"/>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A48" s="110"/>
       <c r="B48" s="61" t="s">
         <v>14</v>
       </c>
@@ -25396,8 +25421,8 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="108"/>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A49" s="110"/>
       <c r="B49" s="61" t="s">
         <v>15</v>
       </c>
@@ -25453,8 +25478,8 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="108" t="s">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A50" s="110" t="s">
         <v>102</v>
       </c>
       <c r="B50" s="61" t="s">
@@ -25512,8 +25537,8 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="108"/>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A51" s="110"/>
       <c r="B51" s="61" t="s">
         <v>1</v>
       </c>
@@ -25569,8 +25594,8 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="108"/>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A52" s="110"/>
       <c r="B52" s="61" t="s">
         <v>2</v>
       </c>
@@ -25626,8 +25651,8 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="108"/>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A53" s="110"/>
       <c r="B53" s="61" t="s">
         <v>3</v>
       </c>
@@ -25683,8 +25708,8 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="108"/>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A54" s="110"/>
       <c r="B54" s="61" t="s">
         <v>4</v>
       </c>
@@ -25740,8 +25765,8 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="108"/>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A55" s="110"/>
       <c r="B55" s="61" t="s">
         <v>5</v>
       </c>
@@ -25797,8 +25822,8 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="108"/>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A56" s="110"/>
       <c r="B56" s="61" t="s">
         <v>6</v>
       </c>
@@ -25854,8 +25879,8 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="108"/>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A57" s="110"/>
       <c r="B57" s="61" t="s">
         <v>7</v>
       </c>
@@ -25911,8 +25936,8 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="108"/>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A58" s="110"/>
       <c r="B58" s="61" t="s">
         <v>8</v>
       </c>
@@ -25968,8 +25993,8 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="108"/>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A59" s="110"/>
       <c r="B59" s="61" t="s">
         <v>9</v>
       </c>
@@ -26025,8 +26050,8 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="108"/>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A60" s="110"/>
       <c r="B60" s="61" t="s">
         <v>10</v>
       </c>
@@ -26082,8 +26107,8 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="108"/>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A61" s="110"/>
       <c r="B61" s="61" t="s">
         <v>11</v>
       </c>
@@ -26139,8 +26164,8 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="108"/>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A62" s="110"/>
       <c r="B62" s="61" t="s">
         <v>12</v>
       </c>
@@ -26196,8 +26221,8 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="108"/>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A63" s="110"/>
       <c r="B63" s="61" t="s">
         <v>13</v>
       </c>
@@ -26253,8 +26278,8 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="108"/>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A64" s="110"/>
       <c r="B64" s="61" t="s">
         <v>14</v>
       </c>
@@ -26310,8 +26335,8 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="108"/>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A65" s="110"/>
       <c r="B65" s="61" t="s">
         <v>15</v>
       </c>
@@ -26367,8 +26392,8 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="108" t="s">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A66" s="110" t="s">
         <v>103</v>
       </c>
       <c r="B66" s="61" t="s">
@@ -26426,8 +26451,8 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="108"/>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A67" s="110"/>
       <c r="B67" s="61" t="s">
         <v>1</v>
       </c>
@@ -26483,8 +26508,8 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="108"/>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A68" s="110"/>
       <c r="B68" s="61" t="s">
         <v>2</v>
       </c>
@@ -26540,8 +26565,8 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="108"/>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A69" s="110"/>
       <c r="B69" s="61" t="s">
         <v>3</v>
       </c>
@@ -26597,8 +26622,8 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="108"/>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A70" s="110"/>
       <c r="B70" s="61" t="s">
         <v>4</v>
       </c>
@@ -26654,8 +26679,8 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="108"/>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A71" s="110"/>
       <c r="B71" s="61" t="s">
         <v>5</v>
       </c>
@@ -26711,8 +26736,8 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="108"/>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A72" s="110"/>
       <c r="B72" s="61" t="s">
         <v>6</v>
       </c>
@@ -26768,8 +26793,8 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="108"/>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A73" s="110"/>
       <c r="B73" s="61" t="s">
         <v>7</v>
       </c>
@@ -26825,8 +26850,8 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="108"/>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A74" s="110"/>
       <c r="B74" s="61" t="s">
         <v>8</v>
       </c>
@@ -26882,8 +26907,8 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="108"/>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A75" s="110"/>
       <c r="B75" s="61" t="s">
         <v>9</v>
       </c>
@@ -26939,8 +26964,8 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="108"/>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A76" s="110"/>
       <c r="B76" s="61" t="s">
         <v>10</v>
       </c>
@@ -26996,8 +27021,8 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="108"/>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A77" s="110"/>
       <c r="B77" s="61" t="s">
         <v>11</v>
       </c>
@@ -27053,8 +27078,8 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="108"/>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A78" s="110"/>
       <c r="B78" s="61" t="s">
         <v>12</v>
       </c>
@@ -27110,8 +27135,8 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="108"/>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A79" s="110"/>
       <c r="B79" s="61" t="s">
         <v>13</v>
       </c>
@@ -27167,8 +27192,8 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="108"/>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A80" s="110"/>
       <c r="B80" s="61" t="s">
         <v>14</v>
       </c>
@@ -27224,8 +27249,8 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="108"/>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A81" s="110"/>
       <c r="B81" s="61" t="s">
         <v>15</v>
       </c>
@@ -27281,8 +27306,8 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="108" t="s">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A82" s="110" t="s">
         <v>104</v>
       </c>
       <c r="B82" s="61" t="s">
@@ -27340,8 +27365,8 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="108"/>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A83" s="110"/>
       <c r="B83" s="61" t="s">
         <v>1</v>
       </c>
@@ -27397,8 +27422,8 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="108"/>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A84" s="110"/>
       <c r="B84" s="61" t="s">
         <v>2</v>
       </c>
@@ -27454,8 +27479,8 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="108"/>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A85" s="110"/>
       <c r="B85" s="61" t="s">
         <v>3</v>
       </c>
@@ -27511,8 +27536,8 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="108"/>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A86" s="110"/>
       <c r="B86" s="61" t="s">
         <v>4</v>
       </c>
@@ -27568,8 +27593,8 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="108"/>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A87" s="110"/>
       <c r="B87" s="61" t="s">
         <v>5</v>
       </c>
@@ -27625,8 +27650,8 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="108"/>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A88" s="110"/>
       <c r="B88" s="61" t="s">
         <v>6</v>
       </c>
@@ -27682,8 +27707,8 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" s="108"/>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A89" s="110"/>
       <c r="B89" s="61" t="s">
         <v>7</v>
       </c>
@@ -27739,8 +27764,8 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="108"/>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A90" s="110"/>
       <c r="B90" s="61" t="s">
         <v>8</v>
       </c>
@@ -27796,8 +27821,8 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="108"/>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A91" s="110"/>
       <c r="B91" s="61" t="s">
         <v>9</v>
       </c>
@@ -27853,8 +27878,8 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="108"/>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A92" s="110"/>
       <c r="B92" s="61" t="s">
         <v>10</v>
       </c>
@@ -27910,8 +27935,8 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="108"/>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A93" s="110"/>
       <c r="B93" s="61" t="s">
         <v>11</v>
       </c>
@@ -27967,8 +27992,8 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="108"/>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A94" s="110"/>
       <c r="B94" s="61" t="s">
         <v>12</v>
       </c>
@@ -28024,8 +28049,8 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="108"/>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A95" s="110"/>
       <c r="B95" s="61" t="s">
         <v>13</v>
       </c>
@@ -28081,8 +28106,8 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="108"/>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A96" s="110"/>
       <c r="B96" s="61" t="s">
         <v>14</v>
       </c>
@@ -28138,8 +28163,8 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="108"/>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A97" s="110"/>
       <c r="B97" s="61" t="s">
         <v>15</v>
       </c>
@@ -28195,8 +28220,8 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="108" t="s">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A98" s="110" t="s">
         <v>105</v>
       </c>
       <c r="B98" s="61" t="s">
@@ -28254,8 +28279,8 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="108"/>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A99" s="110"/>
       <c r="B99" s="61" t="s">
         <v>1</v>
       </c>
@@ -28311,8 +28336,8 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="108"/>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A100" s="110"/>
       <c r="B100" s="61" t="s">
         <v>2</v>
       </c>
@@ -28368,8 +28393,8 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="108"/>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A101" s="110"/>
       <c r="B101" s="61" t="s">
         <v>3</v>
       </c>
@@ -28425,8 +28450,8 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="108"/>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A102" s="110"/>
       <c r="B102" s="61" t="s">
         <v>4</v>
       </c>
@@ -28482,8 +28507,8 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="108"/>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A103" s="110"/>
       <c r="B103" s="61" t="s">
         <v>5</v>
       </c>
@@ -28539,8 +28564,8 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="108"/>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A104" s="110"/>
       <c r="B104" s="61" t="s">
         <v>6</v>
       </c>
@@ -28596,8 +28621,8 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" s="108"/>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A105" s="110"/>
       <c r="B105" s="61" t="s">
         <v>7</v>
       </c>
@@ -28653,8 +28678,8 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="108"/>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A106" s="110"/>
       <c r="B106" s="61" t="s">
         <v>8</v>
       </c>
@@ -28710,8 +28735,8 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="108"/>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A107" s="110"/>
       <c r="B107" s="61" t="s">
         <v>9</v>
       </c>
@@ -28767,8 +28792,8 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="108"/>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A108" s="110"/>
       <c r="B108" s="61" t="s">
         <v>10</v>
       </c>
@@ -28824,8 +28849,8 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="108"/>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A109" s="110"/>
       <c r="B109" s="61" t="s">
         <v>11</v>
       </c>
@@ -28881,8 +28906,8 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="108"/>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A110" s="110"/>
       <c r="B110" s="61" t="s">
         <v>12</v>
       </c>
@@ -28938,8 +28963,8 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A111" s="108"/>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A111" s="110"/>
       <c r="B111" s="61" t="s">
         <v>13</v>
       </c>
@@ -28995,8 +29020,8 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A112" s="108"/>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A112" s="110"/>
       <c r="B112" s="61" t="s">
         <v>14</v>
       </c>
@@ -29052,8 +29077,8 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A113" s="108"/>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A113" s="110"/>
       <c r="B113" s="61" t="s">
         <v>15</v>
       </c>
@@ -29134,12 +29159,12 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -29162,7 +29187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -29185,7 +29210,7 @@
         <v>3.0298294321208146</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -29211,7 +29236,7 @@
         <v>2.7100141031747289</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="62" t="s">
         <v>101</v>
       </c>
@@ -29234,7 +29259,7 @@
         <v>3.6526277042789821</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="62" t="s">
         <v>102</v>
       </c>
@@ -29257,7 +29282,7 @@
         <v>3.5011362326729416</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="62" t="s">
         <v>103</v>
       </c>
@@ -29280,7 +29305,7 @@
         <v>2.1208806024845703</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="62" t="s">
         <v>104</v>
       </c>
@@ -29303,7 +29328,7 @@
         <v>2.0367186738145477</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="62" t="s">
         <v>105</v>
       </c>
@@ -29338,29 +29363,29 @@
   </sheetPr>
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="19" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>17</v>
       </c>
@@ -29404,8 +29429,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="114" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="64" t="s">
@@ -29444,8 +29469,8 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="113"/>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="115"/>
       <c r="B3" s="69" t="s">
         <v>80</v>
       </c>
@@ -29482,8 +29507,8 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="113"/>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="115"/>
       <c r="B4" s="69" t="s">
         <v>82</v>
       </c>
@@ -29514,8 +29539,8 @@
       <c r="M4" s="72"/>
       <c r="N4" s="72"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="113"/>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="115"/>
       <c r="B5" s="69" t="s">
         <v>84</v>
       </c>
@@ -29552,8 +29577,8 @@
         <v>43998</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="113"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="115"/>
       <c r="B6" s="69" t="s">
         <v>86</v>
       </c>
@@ -29588,8 +29613,8 @@
       </c>
       <c r="N6" s="72"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="113"/>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="115"/>
       <c r="B7" s="69" t="s">
         <v>88</v>
       </c>
@@ -29622,8 +29647,8 @@
       <c r="M7" s="72"/>
       <c r="N7" s="72"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="114"/>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="116"/>
       <c r="B8" s="76" t="s">
         <v>89</v>
       </c>
@@ -29654,8 +29679,8 @@
       <c r="M8" s="53"/>
       <c r="N8" s="52"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="115" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="117" t="s">
         <v>96</v>
       </c>
       <c r="B9" s="83" t="s">
@@ -29694,8 +29719,8 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="116"/>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="118"/>
       <c r="B10" s="89" t="s">
         <v>80</v>
       </c>
@@ -29732,8 +29757,8 @@
         <v>43966</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="116"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="118"/>
       <c r="B11" s="89" t="s">
         <v>82</v>
       </c>
@@ -29764,8 +29789,8 @@
       <c r="M11" s="92"/>
       <c r="N11" s="92"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="116"/>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="118"/>
       <c r="B12" s="89" t="s">
         <v>84</v>
       </c>
@@ -29802,8 +29827,8 @@
         <v>44001</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="116"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="118"/>
       <c r="B13" s="89" t="s">
         <v>86</v>
       </c>
@@ -29838,8 +29863,8 @@
       </c>
       <c r="N13" s="92"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="116"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="118"/>
       <c r="B14" s="89" t="s">
         <v>88</v>
       </c>
@@ -29872,8 +29897,8 @@
       <c r="M14" s="92"/>
       <c r="N14" s="92"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="117"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="119"/>
       <c r="B15" s="95" t="s">
         <v>89</v>
       </c>
@@ -29906,8 +29931,8 @@
       <c r="M15" s="100"/>
       <c r="N15" s="101"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="112" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="114" t="s">
         <v>101</v>
       </c>
       <c r="B16" s="64" t="s">
@@ -29946,8 +29971,8 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="113"/>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="115"/>
       <c r="B17" s="69" t="s">
         <v>80</v>
       </c>
@@ -29984,8 +30009,8 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="113"/>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="115"/>
       <c r="B18" s="69" t="s">
         <v>82</v>
       </c>
@@ -30022,8 +30047,8 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="113"/>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="115"/>
       <c r="B19" s="69" t="s">
         <v>84</v>
       </c>
@@ -30060,8 +30085,8 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="113"/>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="115"/>
       <c r="B20" s="69" t="s">
         <v>86</v>
       </c>
@@ -30098,8 +30123,8 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="113"/>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="115"/>
       <c r="B21" s="69" t="s">
         <v>88</v>
       </c>
@@ -30134,9 +30159,9 @@
       </c>
       <c r="N21" s="75"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="113"/>
-      <c r="B22" s="122" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="115"/>
+      <c r="B22" s="108" t="s">
         <v>89</v>
       </c>
       <c r="C22" s="73" t="s">
@@ -30148,28 +30173,28 @@
       <c r="E22" s="74">
         <v>1</v>
       </c>
-      <c r="F22" s="123">
-        <v>1</v>
-      </c>
-      <c r="G22" s="123">
-        <v>1</v>
-      </c>
-      <c r="H22" s="123">
-        <v>1</v>
-      </c>
-      <c r="I22" s="123">
-        <v>1</v>
-      </c>
-      <c r="J22" s="123">
-        <v>0</v>
-      </c>
-      <c r="K22" s="123"/>
-      <c r="L22" s="123"/>
+      <c r="F22" s="109">
+        <v>1</v>
+      </c>
+      <c r="G22" s="109">
+        <v>1</v>
+      </c>
+      <c r="H22" s="109">
+        <v>1</v>
+      </c>
+      <c r="I22" s="109">
+        <v>1</v>
+      </c>
+      <c r="J22" s="109">
+        <v>0</v>
+      </c>
+      <c r="K22" s="109"/>
+      <c r="L22" s="109"/>
       <c r="M22" s="72"/>
       <c r="N22" s="75"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="114"/>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="116"/>
       <c r="B23" s="76" t="s">
         <v>106</v>
       </c>
@@ -30202,8 +30227,8 @@
       <c r="M23" s="72"/>
       <c r="N23" s="52"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="109" t="s">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="111" t="s">
         <v>102</v>
       </c>
       <c r="B24" s="39" t="s">
@@ -30242,8 +30267,8 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="110"/>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="112"/>
       <c r="B25" s="42" t="s">
         <v>80</v>
       </c>
@@ -30278,8 +30303,8 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="110"/>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="112"/>
       <c r="B26" s="42" t="s">
         <v>82</v>
       </c>
@@ -30314,8 +30339,8 @@
         <v>43958</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="110"/>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="112"/>
       <c r="B27" s="42" t="s">
         <v>84</v>
       </c>
@@ -30350,8 +30375,8 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="110"/>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="112"/>
       <c r="B28" s="42" t="s">
         <v>86</v>
       </c>
@@ -30386,8 +30411,8 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="110"/>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="112"/>
       <c r="B29" s="42" t="s">
         <v>88</v>
       </c>
@@ -30420,8 +30445,8 @@
       </c>
       <c r="N29" s="35"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="110"/>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="112"/>
       <c r="B30" s="42" t="s">
         <v>89</v>
       </c>
@@ -30452,8 +30477,8 @@
       <c r="M30" s="43"/>
       <c r="N30" s="81"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="111"/>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="113"/>
       <c r="B31" s="42" t="s">
         <v>106</v>
       </c>
@@ -30484,8 +30509,8 @@
       <c r="M31" s="43"/>
       <c r="N31" s="43"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="112" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="114" t="s">
         <v>103</v>
       </c>
       <c r="B32" s="64" t="s">
@@ -30524,8 +30549,8 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="113"/>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="115"/>
       <c r="B33" s="69" t="s">
         <v>80</v>
       </c>
@@ -30562,8 +30587,8 @@
         <v>43912</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="113"/>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="115"/>
       <c r="B34" s="69" t="s">
         <v>82</v>
       </c>
@@ -30600,8 +30625,8 @@
         <v>43966</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="113"/>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="115"/>
       <c r="B35" s="69" t="s">
         <v>84</v>
       </c>
@@ -30638,8 +30663,8 @@
         <v>43995</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="113"/>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="115"/>
       <c r="B36" s="69" t="s">
         <v>86</v>
       </c>
@@ -30674,8 +30699,8 @@
       </c>
       <c r="N36" s="72"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="113"/>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="115"/>
       <c r="B37" s="69" t="s">
         <v>88</v>
       </c>
@@ -30708,8 +30733,8 @@
       <c r="M37" s="72"/>
       <c r="N37" s="72"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="113"/>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="115"/>
       <c r="B38" s="69" t="s">
         <v>89</v>
       </c>
@@ -30742,8 +30767,8 @@
       <c r="M38" s="72"/>
       <c r="N38" s="75"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="109" t="s">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="111" t="s">
         <v>104</v>
       </c>
       <c r="B39" s="39" t="s">
@@ -30782,8 +30807,8 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="110"/>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="112"/>
       <c r="B40" s="42" t="s">
         <v>80</v>
       </c>
@@ -30818,8 +30843,8 @@
         <v>43912</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="110"/>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="112"/>
       <c r="B41" s="42" t="s">
         <v>82</v>
       </c>
@@ -30854,8 +30879,8 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="110"/>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="112"/>
       <c r="B42" s="42" t="s">
         <v>84</v>
       </c>
@@ -30890,8 +30915,8 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="110"/>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="112"/>
       <c r="B43" s="42" t="s">
         <v>86</v>
       </c>
@@ -30924,8 +30949,8 @@
       </c>
       <c r="N43" s="35"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="110"/>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="112"/>
       <c r="B44" s="42" t="s">
         <v>88</v>
       </c>
@@ -30956,8 +30981,8 @@
       <c r="M44" s="43"/>
       <c r="N44" s="43"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="111"/>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="113"/>
       <c r="B45" s="44" t="s">
         <v>89</v>
       </c>
@@ -30990,8 +31015,8 @@
       <c r="M45" s="22"/>
       <c r="N45" s="23"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="112" t="s">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="114" t="s">
         <v>105</v>
       </c>
       <c r="B46" s="64" t="s">
@@ -31030,8 +31055,8 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="113"/>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="115"/>
       <c r="B47" s="69" t="s">
         <v>80</v>
       </c>
@@ -31068,8 +31093,8 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="113"/>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="115"/>
       <c r="B48" s="69" t="s">
         <v>82</v>
       </c>
@@ -31106,8 +31131,8 @@
         <v>43971</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="113"/>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="115"/>
       <c r="B49" s="69" t="s">
         <v>84</v>
       </c>
@@ -31144,8 +31169,8 @@
         <v>43999</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="113"/>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="115"/>
       <c r="B50" s="69" t="s">
         <v>86</v>
       </c>
@@ -31180,8 +31205,8 @@
       </c>
       <c r="N50" s="72"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="113"/>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="115"/>
       <c r="B51" s="69" t="s">
         <v>88</v>
       </c>
@@ -31214,8 +31239,8 @@
       <c r="M51" s="72"/>
       <c r="N51" s="72"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="114"/>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="116"/>
       <c r="B52" s="76" t="s">
         <v>89</v>
       </c>
@@ -31270,20 +31295,20 @@
   </sheetPr>
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -31354,7 +31379,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -31426,7 +31451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -31498,7 +31523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="61" t="s">
         <v>101</v>
       </c>
@@ -31569,7 +31594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="61" t="s">
         <v>102</v>
       </c>
@@ -31640,7 +31665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="61" t="s">
         <v>103</v>
       </c>
@@ -31712,7 +31737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="61" t="s">
         <v>104</v>
       </c>
@@ -31763,7 +31788,7 @@
         <v>60</v>
       </c>
       <c r="Q7">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="R7">
         <v>1000</v>
@@ -31784,7 +31809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="61" t="s">
         <v>105</v>
       </c>
@@ -31871,20 +31896,20 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="33" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>17</v>
       </c>
@@ -31913,8 +31938,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="120" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="122" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="47" t="s">
@@ -31938,8 +31963,8 @@
       <c r="H2" s="50"/>
       <c r="I2" s="48"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="121"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="123"/>
       <c r="B3" s="51" t="s">
         <v>94</v>
       </c>
@@ -31957,8 +31982,8 @@
       <c r="H3" s="53"/>
       <c r="I3" s="52"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="120" t="s">
         <v>96</v>
       </c>
       <c r="B4" s="54" t="s">
@@ -31982,8 +32007,8 @@
       <c r="H4" s="57"/>
       <c r="I4" s="55"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="119"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="121"/>
       <c r="B5" s="58" t="s">
         <v>94</v>
       </c>
@@ -32001,8 +32026,8 @@
       <c r="H5" s="60"/>
       <c r="I5" s="59"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="120" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="122" t="s">
         <v>101</v>
       </c>
       <c r="B6" s="47" t="s">
@@ -32026,8 +32051,8 @@
       <c r="H6" s="50"/>
       <c r="I6" s="48"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="121"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="123"/>
       <c r="B7" s="51" t="s">
         <v>94</v>
       </c>
@@ -32045,8 +32070,8 @@
       <c r="H7" s="53"/>
       <c r="I7" s="52"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="118" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="120" t="s">
         <v>102</v>
       </c>
       <c r="B8" s="54" t="s">
@@ -32070,8 +32095,8 @@
       <c r="H8" s="57"/>
       <c r="I8" s="55"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="119"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="121"/>
       <c r="B9" s="58" t="s">
         <v>94</v>
       </c>
@@ -32089,8 +32114,8 @@
       <c r="H9" s="60"/>
       <c r="I9" s="59"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="120" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="122" t="s">
         <v>103</v>
       </c>
       <c r="B10" s="47" t="s">
@@ -32114,8 +32139,8 @@
       <c r="H10" s="50"/>
       <c r="I10" s="48"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="121"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="123"/>
       <c r="B11" s="51" t="s">
         <v>94</v>
       </c>
@@ -32133,8 +32158,8 @@
       <c r="H11" s="53"/>
       <c r="I11" s="52"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="118" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="120" t="s">
         <v>104</v>
       </c>
       <c r="B12" s="54" t="s">
@@ -32158,8 +32183,8 @@
       <c r="H12" s="57"/>
       <c r="I12" s="55"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="119"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="121"/>
       <c r="B13" s="58" t="s">
         <v>94</v>
       </c>
@@ -32177,8 +32202,8 @@
       <c r="H13" s="60"/>
       <c r="I13" s="59"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="120" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="122" t="s">
         <v>105</v>
       </c>
       <c r="B14" s="47" t="s">
@@ -32202,8 +32227,8 @@
       <c r="H14" s="50"/>
       <c r="I14" s="48"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="121"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="123"/>
       <c r="B15" s="51" t="s">
         <v>94</v>
       </c>
@@ -32248,21 +32273,21 @@
       <selection activeCell="A4" sqref="A4:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -32294,7 +32319,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -32326,7 +32351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -32358,7 +32383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="102" t="s">
         <v>101</v>
       </c>
@@ -32390,7 +32415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="102" t="s">
         <v>102</v>
       </c>
@@ -32422,7 +32447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="102" t="s">
         <v>103</v>
       </c>
@@ -32454,7 +32479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="102" t="s">
         <v>104</v>
       </c>
@@ -32486,7 +32511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="102" t="s">
         <v>105</v>
       </c>
@@ -32535,20 +32560,20 @@
       <selection activeCell="A4" sqref="A4:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -32580,7 +32605,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -32612,7 +32637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -32644,7 +32669,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="102" t="s">
         <v>101</v>
       </c>
@@ -32676,7 +32701,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="102" t="s">
         <v>102</v>
       </c>
@@ -32708,7 +32733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="102" t="s">
         <v>103</v>
       </c>
@@ -32740,7 +32765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="102" t="s">
         <v>104</v>
       </c>
@@ -32772,7 +32797,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="102" t="s">
         <v>105</v>
       </c>
@@ -32820,20 +32845,20 @@
       <selection activeCell="A4" sqref="A4:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -32865,7 +32890,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -32897,7 +32922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -32929,7 +32954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="102" t="s">
         <v>101</v>
       </c>
@@ -32961,7 +32986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="102" t="s">
         <v>102</v>
       </c>
@@ -32993,7 +33018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="102" t="s">
         <v>103</v>
       </c>
@@ -33025,7 +33050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="102" t="s">
         <v>104</v>
       </c>
@@ -33057,7 +33082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="102" t="s">
         <v>105</v>
       </c>
@@ -33105,21 +33130,21 @@
       <selection activeCell="A4" sqref="A4:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="5"/>
-    <col min="9" max="9" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="5"/>
+    <col min="9" max="9" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
@@ -33151,7 +33176,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -33183,7 +33208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -33215,7 +33240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="62" t="s">
         <v>101</v>
       </c>
@@ -33247,7 +33272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="62" t="s">
         <v>102</v>
       </c>
@@ -33279,7 +33304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="102" t="s">
         <v>103</v>
       </c>
@@ -33311,7 +33336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="102" t="s">
         <v>104</v>
       </c>
@@ -33343,7 +33368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="102" t="s">
         <v>105</v>
       </c>

--- a/data/input_data_US_group2.xlsx
+++ b/data/input_data_US_group2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\covasim-australia\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom.walsh\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83A7059-AC39-42A2-B495-D3FD5093042B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F944F4E-9CDB-42F3-B9A1-B2E518C249DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="839" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="839" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age_sex" sheetId="1" r:id="rId1"/>
@@ -1427,13 +1427,13 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="110" t="s">
         <v>90</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>522367</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="110"/>
       <c r="B3" s="36" t="s">
         <v>20</v>
@@ -1610,7 +1610,7 @@
         <v>500366</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="110" t="s">
         <v>90</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>1022733</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="110"/>
       <c r="B5" s="36" t="s">
         <v>21</v>
@@ -1760,7 +1760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="110" t="s">
         <v>96</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>307086</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="110"/>
       <c r="B7" s="37" t="s">
         <v>20</v>
@@ -1878,7 +1878,7 @@
         <v>276445</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="110" t="s">
         <v>96</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>583531</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="110"/>
       <c r="B9" s="37" t="s">
         <v>21</v>
@@ -2028,7 +2028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="110" t="s">
         <v>101</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>2658903</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="110"/>
       <c r="B11" s="61" t="s">
         <v>20</v>
@@ -2144,7 +2144,7 @@
         <v>2550308</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="110" t="s">
         <v>101</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>5209211</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="110"/>
       <c r="B13" s="61" t="s">
         <v>21</v>
@@ -2260,7 +2260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="110" t="s">
         <v>102</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>1029728</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="110"/>
       <c r="B15" s="61" t="s">
         <v>20</v>
@@ -2376,7 +2376,7 @@
         <v>968185</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="110" t="s">
         <v>102</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>1997913</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="110"/>
       <c r="B17" s="61" t="s">
         <v>21</v>
@@ -2492,7 +2492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="110" t="s">
         <v>103</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>5154</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="110"/>
       <c r="B19" s="61" t="s">
         <v>20</v>
@@ -2608,7 +2608,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="110" t="s">
         <v>103</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>7838</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="110"/>
       <c r="B21" s="61" t="s">
         <v>21</v>
@@ -2724,7 +2724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="110" t="s">
         <v>104</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>9529195</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="110"/>
       <c r="B23" s="61" t="s">
         <v>20</v>
@@ -2840,7 +2840,7 @@
         <v>9185858</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="110" t="s">
         <v>104</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>18715053</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="110"/>
       <c r="B25" s="61" t="s">
         <v>21</v>
@@ -2956,7 +2956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="110" t="s">
         <v>105</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>419544</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="110"/>
       <c r="B27" s="61" t="s">
         <v>20</v>
@@ -3072,7 +3072,7 @@
         <v>399459</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="110" t="s">
         <v>105</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>819003</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="110"/>
       <c r="B29" s="61" t="s">
         <v>21</v>
@@ -3220,12 +3220,12 @@
       <selection activeCell="A34" sqref="A34:S113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="110" t="s">
         <v>90</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="110"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -3400,7 +3400,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="110"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -3457,7 +3457,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="110"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -3514,7 +3514,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="110"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -3571,7 +3571,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="110"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -3628,7 +3628,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="110"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -3685,7 +3685,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="110"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -3742,7 +3742,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="110"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -3799,7 +3799,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="110"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -3856,7 +3856,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="110"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -3913,7 +3913,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="110"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -3970,7 +3970,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="110"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -4027,7 +4027,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="110"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -4084,7 +4084,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="110"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -4141,7 +4141,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="110"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -4198,7 +4198,7 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="110" t="s">
         <v>96</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="110"/>
       <c r="B19" s="37" t="s">
         <v>1</v>
@@ -4314,7 +4314,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="110"/>
       <c r="B20" s="37" t="s">
         <v>2</v>
@@ -4371,7 +4371,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="110"/>
       <c r="B21" s="37" t="s">
         <v>3</v>
@@ -4428,7 +4428,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="110"/>
       <c r="B22" s="37" t="s">
         <v>4</v>
@@ -4485,7 +4485,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="110"/>
       <c r="B23" s="37" t="s">
         <v>5</v>
@@ -4542,7 +4542,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="110"/>
       <c r="B24" s="37" t="s">
         <v>6</v>
@@ -4599,7 +4599,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="110"/>
       <c r="B25" s="37" t="s">
         <v>7</v>
@@ -4656,7 +4656,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="110"/>
       <c r="B26" s="37" t="s">
         <v>8</v>
@@ -4713,7 +4713,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="110"/>
       <c r="B27" s="37" t="s">
         <v>9</v>
@@ -4770,7 +4770,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="110"/>
       <c r="B28" s="37" t="s">
         <v>10</v>
@@ -4827,7 +4827,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="110"/>
       <c r="B29" s="37" t="s">
         <v>11</v>
@@ -4884,7 +4884,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="110"/>
       <c r="B30" s="37" t="s">
         <v>12</v>
@@ -4941,7 +4941,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="110"/>
       <c r="B31" s="37" t="s">
         <v>13</v>
@@ -4998,7 +4998,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="110"/>
       <c r="B32" s="37" t="s">
         <v>14</v>
@@ -5055,7 +5055,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="110"/>
       <c r="B33" s="37" t="s">
         <v>15</v>
@@ -5112,7 +5112,7 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="110" t="s">
         <v>101</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="110"/>
       <c r="B35" s="61" t="s">
         <v>1</v>
@@ -5228,7 +5228,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="110"/>
       <c r="B36" s="61" t="s">
         <v>2</v>
@@ -5285,7 +5285,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="110"/>
       <c r="B37" s="61" t="s">
         <v>3</v>
@@ -5342,7 +5342,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="110"/>
       <c r="B38" s="61" t="s">
         <v>4</v>
@@ -5399,7 +5399,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="110"/>
       <c r="B39" s="61" t="s">
         <v>5</v>
@@ -5456,7 +5456,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="110"/>
       <c r="B40" s="61" t="s">
         <v>6</v>
@@ -5513,7 +5513,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="110"/>
       <c r="B41" s="61" t="s">
         <v>7</v>
@@ -5570,7 +5570,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="110"/>
       <c r="B42" s="61" t="s">
         <v>8</v>
@@ -5627,7 +5627,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="110"/>
       <c r="B43" s="61" t="s">
         <v>9</v>
@@ -5684,7 +5684,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="110"/>
       <c r="B44" s="61" t="s">
         <v>10</v>
@@ -5741,7 +5741,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="110"/>
       <c r="B45" s="61" t="s">
         <v>11</v>
@@ -5798,7 +5798,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="110"/>
       <c r="B46" s="61" t="s">
         <v>12</v>
@@ -5855,7 +5855,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="110"/>
       <c r="B47" s="61" t="s">
         <v>13</v>
@@ -5912,7 +5912,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="110"/>
       <c r="B48" s="61" t="s">
         <v>14</v>
@@ -5969,7 +5969,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="110"/>
       <c r="B49" s="61" t="s">
         <v>15</v>
@@ -6026,7 +6026,7 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="110" t="s">
         <v>102</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="110"/>
       <c r="B51" s="61" t="s">
         <v>1</v>
@@ -6142,7 +6142,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="110"/>
       <c r="B52" s="61" t="s">
         <v>2</v>
@@ -6199,7 +6199,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="110"/>
       <c r="B53" s="61" t="s">
         <v>3</v>
@@ -6256,7 +6256,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="110"/>
       <c r="B54" s="61" t="s">
         <v>4</v>
@@ -6313,7 +6313,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="110"/>
       <c r="B55" s="61" t="s">
         <v>5</v>
@@ -6370,7 +6370,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="110"/>
       <c r="B56" s="61" t="s">
         <v>6</v>
@@ -6427,7 +6427,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="110"/>
       <c r="B57" s="61" t="s">
         <v>7</v>
@@ -6484,7 +6484,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="110"/>
       <c r="B58" s="61" t="s">
         <v>8</v>
@@ -6541,7 +6541,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="110"/>
       <c r="B59" s="61" t="s">
         <v>9</v>
@@ -6598,7 +6598,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="110"/>
       <c r="B60" s="61" t="s">
         <v>10</v>
@@ -6655,7 +6655,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="110"/>
       <c r="B61" s="61" t="s">
         <v>11</v>
@@ -6712,7 +6712,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="110"/>
       <c r="B62" s="61" t="s">
         <v>12</v>
@@ -6769,7 +6769,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="110"/>
       <c r="B63" s="61" t="s">
         <v>13</v>
@@ -6826,7 +6826,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="110"/>
       <c r="B64" s="61" t="s">
         <v>14</v>
@@ -6883,7 +6883,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="110"/>
       <c r="B65" s="61" t="s">
         <v>15</v>
@@ -6940,7 +6940,7 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="110" t="s">
         <v>103</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="110"/>
       <c r="B67" s="61" t="s">
         <v>1</v>
@@ -7056,7 +7056,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="110"/>
       <c r="B68" s="61" t="s">
         <v>2</v>
@@ -7113,7 +7113,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="110"/>
       <c r="B69" s="61" t="s">
         <v>3</v>
@@ -7170,7 +7170,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="110"/>
       <c r="B70" s="61" t="s">
         <v>4</v>
@@ -7227,7 +7227,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="110"/>
       <c r="B71" s="61" t="s">
         <v>5</v>
@@ -7284,7 +7284,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="110"/>
       <c r="B72" s="61" t="s">
         <v>6</v>
@@ -7341,7 +7341,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="110"/>
       <c r="B73" s="61" t="s">
         <v>7</v>
@@ -7398,7 +7398,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="110"/>
       <c r="B74" s="61" t="s">
         <v>8</v>
@@ -7455,7 +7455,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="110"/>
       <c r="B75" s="61" t="s">
         <v>9</v>
@@ -7512,7 +7512,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="110"/>
       <c r="B76" s="61" t="s">
         <v>10</v>
@@ -7569,7 +7569,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="110"/>
       <c r="B77" s="61" t="s">
         <v>11</v>
@@ -7626,7 +7626,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="110"/>
       <c r="B78" s="61" t="s">
         <v>12</v>
@@ -7683,7 +7683,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="110"/>
       <c r="B79" s="61" t="s">
         <v>13</v>
@@ -7740,7 +7740,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="110"/>
       <c r="B80" s="61" t="s">
         <v>14</v>
@@ -7797,7 +7797,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="110"/>
       <c r="B81" s="61" t="s">
         <v>15</v>
@@ -7854,7 +7854,7 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="110" t="s">
         <v>104</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="110"/>
       <c r="B83" s="61" t="s">
         <v>1</v>
@@ -7970,7 +7970,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="110"/>
       <c r="B84" s="61" t="s">
         <v>2</v>
@@ -8027,7 +8027,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="110"/>
       <c r="B85" s="61" t="s">
         <v>3</v>
@@ -8084,7 +8084,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="110"/>
       <c r="B86" s="61" t="s">
         <v>4</v>
@@ -8141,7 +8141,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="110"/>
       <c r="B87" s="61" t="s">
         <v>5</v>
@@ -8198,7 +8198,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="110"/>
       <c r="B88" s="61" t="s">
         <v>6</v>
@@ -8255,7 +8255,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="110"/>
       <c r="B89" s="61" t="s">
         <v>7</v>
@@ -8312,7 +8312,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="110"/>
       <c r="B90" s="61" t="s">
         <v>8</v>
@@ -8369,7 +8369,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="110"/>
       <c r="B91" s="61" t="s">
         <v>9</v>
@@ -8426,7 +8426,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="110"/>
       <c r="B92" s="61" t="s">
         <v>10</v>
@@ -8483,7 +8483,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="110"/>
       <c r="B93" s="61" t="s">
         <v>11</v>
@@ -8540,7 +8540,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="110"/>
       <c r="B94" s="61" t="s">
         <v>12</v>
@@ -8597,7 +8597,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="110"/>
       <c r="B95" s="61" t="s">
         <v>13</v>
@@ -8654,7 +8654,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="110"/>
       <c r="B96" s="61" t="s">
         <v>14</v>
@@ -8711,7 +8711,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="110"/>
       <c r="B97" s="61" t="s">
         <v>15</v>
@@ -8768,7 +8768,7 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="110" t="s">
         <v>105</v>
       </c>
@@ -8827,7 +8827,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="110"/>
       <c r="B99" s="61" t="s">
         <v>1</v>
@@ -8884,7 +8884,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="110"/>
       <c r="B100" s="61" t="s">
         <v>2</v>
@@ -8941,7 +8941,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="110"/>
       <c r="B101" s="61" t="s">
         <v>3</v>
@@ -8998,7 +8998,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="110"/>
       <c r="B102" s="61" t="s">
         <v>4</v>
@@ -9055,7 +9055,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="110"/>
       <c r="B103" s="61" t="s">
         <v>5</v>
@@ -9112,7 +9112,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="110"/>
       <c r="B104" s="61" t="s">
         <v>6</v>
@@ -9169,7 +9169,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="110"/>
       <c r="B105" s="61" t="s">
         <v>7</v>
@@ -9226,7 +9226,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="110"/>
       <c r="B106" s="61" t="s">
         <v>8</v>
@@ -9283,7 +9283,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="110"/>
       <c r="B107" s="61" t="s">
         <v>9</v>
@@ -9340,7 +9340,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="110"/>
       <c r="B108" s="61" t="s">
         <v>10</v>
@@ -9397,7 +9397,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="110"/>
       <c r="B109" s="61" t="s">
         <v>11</v>
@@ -9454,7 +9454,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="110"/>
       <c r="B110" s="61" t="s">
         <v>12</v>
@@ -9511,7 +9511,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="110"/>
       <c r="B111" s="61" t="s">
         <v>13</v>
@@ -9568,7 +9568,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="110"/>
       <c r="B112" s="61" t="s">
         <v>14</v>
@@ -9625,7 +9625,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="110"/>
       <c r="B113" s="61" t="s">
         <v>15</v>
@@ -9707,9 +9707,9 @@
       <selection activeCell="A34" sqref="A34:S113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -9768,7 +9768,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="110" t="s">
         <v>90</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="110"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -9884,7 +9884,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="110"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -9941,7 +9941,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="110"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -9998,7 +9998,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="110"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -10055,7 +10055,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="110"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -10112,7 +10112,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="110"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -10169,7 +10169,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="110"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -10226,7 +10226,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="110"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -10283,7 +10283,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="110"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -10340,7 +10340,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="110"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -10397,7 +10397,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="110"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -10454,7 +10454,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="110"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -10511,7 +10511,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="110"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -10568,7 +10568,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="110"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -10625,7 +10625,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="110"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -10682,7 +10682,7 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="110" t="s">
         <v>96</v>
       </c>
@@ -10741,7 +10741,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="110"/>
       <c r="B19" s="37" t="s">
         <v>1</v>
@@ -10798,7 +10798,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="110"/>
       <c r="B20" s="37" t="s">
         <v>2</v>
@@ -10855,7 +10855,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="110"/>
       <c r="B21" s="37" t="s">
         <v>3</v>
@@ -10912,7 +10912,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="110"/>
       <c r="B22" s="37" t="s">
         <v>4</v>
@@ -10969,7 +10969,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="110"/>
       <c r="B23" s="37" t="s">
         <v>5</v>
@@ -11026,7 +11026,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="110"/>
       <c r="B24" s="37" t="s">
         <v>6</v>
@@ -11083,7 +11083,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="110"/>
       <c r="B25" s="37" t="s">
         <v>7</v>
@@ -11140,7 +11140,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="110"/>
       <c r="B26" s="37" t="s">
         <v>8</v>
@@ -11197,7 +11197,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="110"/>
       <c r="B27" s="37" t="s">
         <v>9</v>
@@ -11254,7 +11254,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="110"/>
       <c r="B28" s="37" t="s">
         <v>10</v>
@@ -11311,7 +11311,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="110"/>
       <c r="B29" s="37" t="s">
         <v>11</v>
@@ -11368,7 +11368,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="110"/>
       <c r="B30" s="37" t="s">
         <v>12</v>
@@ -11425,7 +11425,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="110"/>
       <c r="B31" s="37" t="s">
         <v>13</v>
@@ -11482,7 +11482,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="110"/>
       <c r="B32" s="37" t="s">
         <v>14</v>
@@ -11539,7 +11539,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="110"/>
       <c r="B33" s="37" t="s">
         <v>15</v>
@@ -11596,7 +11596,7 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="110" t="s">
         <v>101</v>
       </c>
@@ -11655,7 +11655,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="110"/>
       <c r="B35" s="61" t="s">
         <v>1</v>
@@ -11712,7 +11712,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="110"/>
       <c r="B36" s="61" t="s">
         <v>2</v>
@@ -11769,7 +11769,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="110"/>
       <c r="B37" s="61" t="s">
         <v>3</v>
@@ -11826,7 +11826,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="110"/>
       <c r="B38" s="61" t="s">
         <v>4</v>
@@ -11883,7 +11883,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="110"/>
       <c r="B39" s="61" t="s">
         <v>5</v>
@@ -11940,7 +11940,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="110"/>
       <c r="B40" s="61" t="s">
         <v>6</v>
@@ -11997,7 +11997,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="110"/>
       <c r="B41" s="61" t="s">
         <v>7</v>
@@ -12054,7 +12054,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="110"/>
       <c r="B42" s="61" t="s">
         <v>8</v>
@@ -12111,7 +12111,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="110"/>
       <c r="B43" s="61" t="s">
         <v>9</v>
@@ -12168,7 +12168,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="110"/>
       <c r="B44" s="61" t="s">
         <v>10</v>
@@ -12225,7 +12225,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="110"/>
       <c r="B45" s="61" t="s">
         <v>11</v>
@@ -12282,7 +12282,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="110"/>
       <c r="B46" s="61" t="s">
         <v>12</v>
@@ -12339,7 +12339,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="110"/>
       <c r="B47" s="61" t="s">
         <v>13</v>
@@ -12396,7 +12396,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="110"/>
       <c r="B48" s="61" t="s">
         <v>14</v>
@@ -12453,7 +12453,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="110"/>
       <c r="B49" s="61" t="s">
         <v>15</v>
@@ -12510,7 +12510,7 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="110" t="s">
         <v>102</v>
       </c>
@@ -12569,7 +12569,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="110"/>
       <c r="B51" s="61" t="s">
         <v>1</v>
@@ -12626,7 +12626,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="110"/>
       <c r="B52" s="61" t="s">
         <v>2</v>
@@ -12683,7 +12683,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="110"/>
       <c r="B53" s="61" t="s">
         <v>3</v>
@@ -12740,7 +12740,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="110"/>
       <c r="B54" s="61" t="s">
         <v>4</v>
@@ -12797,7 +12797,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="110"/>
       <c r="B55" s="61" t="s">
         <v>5</v>
@@ -12854,7 +12854,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="110"/>
       <c r="B56" s="61" t="s">
         <v>6</v>
@@ -12911,7 +12911,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="110"/>
       <c r="B57" s="61" t="s">
         <v>7</v>
@@ -12968,7 +12968,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="110"/>
       <c r="B58" s="61" t="s">
         <v>8</v>
@@ -13025,7 +13025,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="110"/>
       <c r="B59" s="61" t="s">
         <v>9</v>
@@ -13082,7 +13082,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="110"/>
       <c r="B60" s="61" t="s">
         <v>10</v>
@@ -13139,7 +13139,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="110"/>
       <c r="B61" s="61" t="s">
         <v>11</v>
@@ -13196,7 +13196,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="110"/>
       <c r="B62" s="61" t="s">
         <v>12</v>
@@ -13253,7 +13253,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="110"/>
       <c r="B63" s="61" t="s">
         <v>13</v>
@@ -13310,7 +13310,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="110"/>
       <c r="B64" s="61" t="s">
         <v>14</v>
@@ -13367,7 +13367,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="110"/>
       <c r="B65" s="61" t="s">
         <v>15</v>
@@ -13424,7 +13424,7 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="110" t="s">
         <v>103</v>
       </c>
@@ -13483,7 +13483,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="110"/>
       <c r="B67" s="61" t="s">
         <v>1</v>
@@ -13540,7 +13540,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="110"/>
       <c r="B68" s="61" t="s">
         <v>2</v>
@@ -13597,7 +13597,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="110"/>
       <c r="B69" s="61" t="s">
         <v>3</v>
@@ -13654,7 +13654,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="110"/>
       <c r="B70" s="61" t="s">
         <v>4</v>
@@ -13711,7 +13711,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="110"/>
       <c r="B71" s="61" t="s">
         <v>5</v>
@@ -13768,7 +13768,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="110"/>
       <c r="B72" s="61" t="s">
         <v>6</v>
@@ -13825,7 +13825,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="110"/>
       <c r="B73" s="61" t="s">
         <v>7</v>
@@ -13882,7 +13882,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="110"/>
       <c r="B74" s="61" t="s">
         <v>8</v>
@@ -13939,7 +13939,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="110"/>
       <c r="B75" s="61" t="s">
         <v>9</v>
@@ -13996,7 +13996,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="110"/>
       <c r="B76" s="61" t="s">
         <v>10</v>
@@ -14053,7 +14053,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="110"/>
       <c r="B77" s="61" t="s">
         <v>11</v>
@@ -14110,7 +14110,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="110"/>
       <c r="B78" s="61" t="s">
         <v>12</v>
@@ -14167,7 +14167,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="110"/>
       <c r="B79" s="61" t="s">
         <v>13</v>
@@ -14224,7 +14224,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="110"/>
       <c r="B80" s="61" t="s">
         <v>14</v>
@@ -14281,7 +14281,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="110"/>
       <c r="B81" s="61" t="s">
         <v>15</v>
@@ -14338,7 +14338,7 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="110" t="s">
         <v>104</v>
       </c>
@@ -14397,7 +14397,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="110"/>
       <c r="B83" s="61" t="s">
         <v>1</v>
@@ -14454,7 +14454,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="110"/>
       <c r="B84" s="61" t="s">
         <v>2</v>
@@ -14511,7 +14511,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="110"/>
       <c r="B85" s="61" t="s">
         <v>3</v>
@@ -14568,7 +14568,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="110"/>
       <c r="B86" s="61" t="s">
         <v>4</v>
@@ -14625,7 +14625,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="110"/>
       <c r="B87" s="61" t="s">
         <v>5</v>
@@ -14682,7 +14682,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="110"/>
       <c r="B88" s="61" t="s">
         <v>6</v>
@@ -14739,7 +14739,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="110"/>
       <c r="B89" s="61" t="s">
         <v>7</v>
@@ -14796,7 +14796,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="110"/>
       <c r="B90" s="61" t="s">
         <v>8</v>
@@ -14853,7 +14853,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="110"/>
       <c r="B91" s="61" t="s">
         <v>9</v>
@@ -14910,7 +14910,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="110"/>
       <c r="B92" s="61" t="s">
         <v>10</v>
@@ -14967,7 +14967,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="110"/>
       <c r="B93" s="61" t="s">
         <v>11</v>
@@ -15024,7 +15024,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="110"/>
       <c r="B94" s="61" t="s">
         <v>12</v>
@@ -15081,7 +15081,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="110"/>
       <c r="B95" s="61" t="s">
         <v>13</v>
@@ -15138,7 +15138,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="110"/>
       <c r="B96" s="61" t="s">
         <v>14</v>
@@ -15195,7 +15195,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="110"/>
       <c r="B97" s="61" t="s">
         <v>15</v>
@@ -15252,7 +15252,7 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="110" t="s">
         <v>105</v>
       </c>
@@ -15311,7 +15311,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="110"/>
       <c r="B99" s="61" t="s">
         <v>1</v>
@@ -15368,7 +15368,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="110"/>
       <c r="B100" s="61" t="s">
         <v>2</v>
@@ -15425,7 +15425,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="110"/>
       <c r="B101" s="61" t="s">
         <v>3</v>
@@ -15482,7 +15482,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="110"/>
       <c r="B102" s="61" t="s">
         <v>4</v>
@@ -15539,7 +15539,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="110"/>
       <c r="B103" s="61" t="s">
         <v>5</v>
@@ -15596,7 +15596,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="110"/>
       <c r="B104" s="61" t="s">
         <v>6</v>
@@ -15653,7 +15653,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="110"/>
       <c r="B105" s="61" t="s">
         <v>7</v>
@@ -15710,7 +15710,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="110"/>
       <c r="B106" s="61" t="s">
         <v>8</v>
@@ -15767,7 +15767,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="110"/>
       <c r="B107" s="61" t="s">
         <v>9</v>
@@ -15824,7 +15824,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="110"/>
       <c r="B108" s="61" t="s">
         <v>10</v>
@@ -15881,7 +15881,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="110"/>
       <c r="B109" s="61" t="s">
         <v>11</v>
@@ -15938,7 +15938,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="110"/>
       <c r="B110" s="61" t="s">
         <v>12</v>
@@ -15995,7 +15995,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="110"/>
       <c r="B111" s="61" t="s">
         <v>13</v>
@@ -16052,7 +16052,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="110"/>
       <c r="B112" s="61" t="s">
         <v>14</v>
@@ -16109,7 +16109,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="110"/>
       <c r="B113" s="61" t="s">
         <v>15</v>
@@ -16191,9 +16191,9 @@
       <selection activeCell="A34" sqref="A34:S113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -16252,7 +16252,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="110" t="s">
         <v>90</v>
       </c>
@@ -16311,7 +16311,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="110"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -16368,7 +16368,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="110"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -16425,7 +16425,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="110"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -16482,7 +16482,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="110"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -16539,7 +16539,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="110"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -16596,7 +16596,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="110"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -16653,7 +16653,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="110"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -16710,7 +16710,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="110"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -16767,7 +16767,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="110"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -16824,7 +16824,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="110"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -16881,7 +16881,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="110"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -16938,7 +16938,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="110"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -16995,7 +16995,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="110"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -17052,7 +17052,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="110"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -17109,7 +17109,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="110"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -17166,7 +17166,7 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="110" t="s">
         <v>96</v>
       </c>
@@ -17225,7 +17225,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="110"/>
       <c r="B19" s="37" t="s">
         <v>1</v>
@@ -17282,7 +17282,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="110"/>
       <c r="B20" s="37" t="s">
         <v>2</v>
@@ -17339,7 +17339,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="110"/>
       <c r="B21" s="37" t="s">
         <v>3</v>
@@ -17396,7 +17396,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="110"/>
       <c r="B22" s="37" t="s">
         <v>4</v>
@@ -17453,7 +17453,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="110"/>
       <c r="B23" s="37" t="s">
         <v>5</v>
@@ -17510,7 +17510,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="110"/>
       <c r="B24" s="37" t="s">
         <v>6</v>
@@ -17567,7 +17567,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="110"/>
       <c r="B25" s="37" t="s">
         <v>7</v>
@@ -17624,7 +17624,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="110"/>
       <c r="B26" s="37" t="s">
         <v>8</v>
@@ -17681,7 +17681,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="110"/>
       <c r="B27" s="37" t="s">
         <v>9</v>
@@ -17738,7 +17738,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="110"/>
       <c r="B28" s="37" t="s">
         <v>10</v>
@@ -17795,7 +17795,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="110"/>
       <c r="B29" s="37" t="s">
         <v>11</v>
@@ -17852,7 +17852,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="110"/>
       <c r="B30" s="37" t="s">
         <v>12</v>
@@ -17909,7 +17909,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="110"/>
       <c r="B31" s="37" t="s">
         <v>13</v>
@@ -17966,7 +17966,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="110"/>
       <c r="B32" s="37" t="s">
         <v>14</v>
@@ -18023,7 +18023,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="110"/>
       <c r="B33" s="37" t="s">
         <v>15</v>
@@ -18080,7 +18080,7 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="110" t="s">
         <v>101</v>
       </c>
@@ -18139,7 +18139,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="110"/>
       <c r="B35" s="61" t="s">
         <v>1</v>
@@ -18196,7 +18196,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="110"/>
       <c r="B36" s="61" t="s">
         <v>2</v>
@@ -18253,7 +18253,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="110"/>
       <c r="B37" s="61" t="s">
         <v>3</v>
@@ -18310,7 +18310,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="110"/>
       <c r="B38" s="61" t="s">
         <v>4</v>
@@ -18367,7 +18367,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="110"/>
       <c r="B39" s="61" t="s">
         <v>5</v>
@@ -18424,7 +18424,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="110"/>
       <c r="B40" s="61" t="s">
         <v>6</v>
@@ -18481,7 +18481,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="110"/>
       <c r="B41" s="61" t="s">
         <v>7</v>
@@ -18538,7 +18538,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="110"/>
       <c r="B42" s="61" t="s">
         <v>8</v>
@@ -18595,7 +18595,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="110"/>
       <c r="B43" s="61" t="s">
         <v>9</v>
@@ -18652,7 +18652,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="110"/>
       <c r="B44" s="61" t="s">
         <v>10</v>
@@ -18709,7 +18709,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="110"/>
       <c r="B45" s="61" t="s">
         <v>11</v>
@@ -18766,7 +18766,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="110"/>
       <c r="B46" s="61" t="s">
         <v>12</v>
@@ -18823,7 +18823,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="110"/>
       <c r="B47" s="61" t="s">
         <v>13</v>
@@ -18880,7 +18880,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="110"/>
       <c r="B48" s="61" t="s">
         <v>14</v>
@@ -18937,7 +18937,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="110"/>
       <c r="B49" s="61" t="s">
         <v>15</v>
@@ -18994,7 +18994,7 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="110" t="s">
         <v>102</v>
       </c>
@@ -19053,7 +19053,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="110"/>
       <c r="B51" s="61" t="s">
         <v>1</v>
@@ -19110,7 +19110,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="110"/>
       <c r="B52" s="61" t="s">
         <v>2</v>
@@ -19167,7 +19167,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="110"/>
       <c r="B53" s="61" t="s">
         <v>3</v>
@@ -19224,7 +19224,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="110"/>
       <c r="B54" s="61" t="s">
         <v>4</v>
@@ -19281,7 +19281,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="110"/>
       <c r="B55" s="61" t="s">
         <v>5</v>
@@ -19338,7 +19338,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="110"/>
       <c r="B56" s="61" t="s">
         <v>6</v>
@@ -19395,7 +19395,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="110"/>
       <c r="B57" s="61" t="s">
         <v>7</v>
@@ -19452,7 +19452,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="110"/>
       <c r="B58" s="61" t="s">
         <v>8</v>
@@ -19509,7 +19509,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="110"/>
       <c r="B59" s="61" t="s">
         <v>9</v>
@@ -19566,7 +19566,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="110"/>
       <c r="B60" s="61" t="s">
         <v>10</v>
@@ -19623,7 +19623,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="110"/>
       <c r="B61" s="61" t="s">
         <v>11</v>
@@ -19680,7 +19680,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="110"/>
       <c r="B62" s="61" t="s">
         <v>12</v>
@@ -19737,7 +19737,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="110"/>
       <c r="B63" s="61" t="s">
         <v>13</v>
@@ -19794,7 +19794,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="110"/>
       <c r="B64" s="61" t="s">
         <v>14</v>
@@ -19851,7 +19851,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="110"/>
       <c r="B65" s="61" t="s">
         <v>15</v>
@@ -19908,7 +19908,7 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="110" t="s">
         <v>103</v>
       </c>
@@ -19967,7 +19967,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="110"/>
       <c r="B67" s="61" t="s">
         <v>1</v>
@@ -20024,7 +20024,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="110"/>
       <c r="B68" s="61" t="s">
         <v>2</v>
@@ -20081,7 +20081,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="110"/>
       <c r="B69" s="61" t="s">
         <v>3</v>
@@ -20138,7 +20138,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="110"/>
       <c r="B70" s="61" t="s">
         <v>4</v>
@@ -20195,7 +20195,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="110"/>
       <c r="B71" s="61" t="s">
         <v>5</v>
@@ -20252,7 +20252,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="110"/>
       <c r="B72" s="61" t="s">
         <v>6</v>
@@ -20309,7 +20309,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="110"/>
       <c r="B73" s="61" t="s">
         <v>7</v>
@@ -20366,7 +20366,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="110"/>
       <c r="B74" s="61" t="s">
         <v>8</v>
@@ -20423,7 +20423,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="110"/>
       <c r="B75" s="61" t="s">
         <v>9</v>
@@ -20480,7 +20480,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="110"/>
       <c r="B76" s="61" t="s">
         <v>10</v>
@@ -20537,7 +20537,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="110"/>
       <c r="B77" s="61" t="s">
         <v>11</v>
@@ -20594,7 +20594,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="110"/>
       <c r="B78" s="61" t="s">
         <v>12</v>
@@ -20651,7 +20651,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="110"/>
       <c r="B79" s="61" t="s">
         <v>13</v>
@@ -20708,7 +20708,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="110"/>
       <c r="B80" s="61" t="s">
         <v>14</v>
@@ -20765,7 +20765,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="110"/>
       <c r="B81" s="61" t="s">
         <v>15</v>
@@ -20822,7 +20822,7 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="110" t="s">
         <v>104</v>
       </c>
@@ -20881,7 +20881,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="110"/>
       <c r="B83" s="61" t="s">
         <v>1</v>
@@ -20938,7 +20938,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="110"/>
       <c r="B84" s="61" t="s">
         <v>2</v>
@@ -20995,7 +20995,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="110"/>
       <c r="B85" s="61" t="s">
         <v>3</v>
@@ -21052,7 +21052,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="110"/>
       <c r="B86" s="61" t="s">
         <v>4</v>
@@ -21109,7 +21109,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="110"/>
       <c r="B87" s="61" t="s">
         <v>5</v>
@@ -21166,7 +21166,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="110"/>
       <c r="B88" s="61" t="s">
         <v>6</v>
@@ -21223,7 +21223,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="110"/>
       <c r="B89" s="61" t="s">
         <v>7</v>
@@ -21280,7 +21280,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="110"/>
       <c r="B90" s="61" t="s">
         <v>8</v>
@@ -21337,7 +21337,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="110"/>
       <c r="B91" s="61" t="s">
         <v>9</v>
@@ -21394,7 +21394,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="110"/>
       <c r="B92" s="61" t="s">
         <v>10</v>
@@ -21451,7 +21451,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="110"/>
       <c r="B93" s="61" t="s">
         <v>11</v>
@@ -21508,7 +21508,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="110"/>
       <c r="B94" s="61" t="s">
         <v>12</v>
@@ -21565,7 +21565,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="110"/>
       <c r="B95" s="61" t="s">
         <v>13</v>
@@ -21622,7 +21622,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="110"/>
       <c r="B96" s="61" t="s">
         <v>14</v>
@@ -21679,7 +21679,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="110"/>
       <c r="B97" s="61" t="s">
         <v>15</v>
@@ -21736,7 +21736,7 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="110" t="s">
         <v>105</v>
       </c>
@@ -21795,7 +21795,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="110"/>
       <c r="B99" s="61" t="s">
         <v>1</v>
@@ -21852,7 +21852,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="110"/>
       <c r="B100" s="61" t="s">
         <v>2</v>
@@ -21909,7 +21909,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="110"/>
       <c r="B101" s="61" t="s">
         <v>3</v>
@@ -21966,7 +21966,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="110"/>
       <c r="B102" s="61" t="s">
         <v>4</v>
@@ -22023,7 +22023,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="110"/>
       <c r="B103" s="61" t="s">
         <v>5</v>
@@ -22080,7 +22080,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="110"/>
       <c r="B104" s="61" t="s">
         <v>6</v>
@@ -22137,7 +22137,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="110"/>
       <c r="B105" s="61" t="s">
         <v>7</v>
@@ -22194,7 +22194,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="110"/>
       <c r="B106" s="61" t="s">
         <v>8</v>
@@ -22251,7 +22251,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="110"/>
       <c r="B107" s="61" t="s">
         <v>9</v>
@@ -22308,7 +22308,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="110"/>
       <c r="B108" s="61" t="s">
         <v>10</v>
@@ -22365,7 +22365,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="110"/>
       <c r="B109" s="61" t="s">
         <v>11</v>
@@ -22422,7 +22422,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="110"/>
       <c r="B110" s="61" t="s">
         <v>12</v>
@@ -22479,7 +22479,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="110"/>
       <c r="B111" s="61" t="s">
         <v>13</v>
@@ -22536,7 +22536,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="110"/>
       <c r="B112" s="61" t="s">
         <v>14</v>
@@ -22593,7 +22593,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="110"/>
       <c r="B113" s="61" t="s">
         <v>15</v>
@@ -22675,9 +22675,9 @@
       <selection activeCell="A34" sqref="A34:S113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -22736,7 +22736,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="110" t="s">
         <v>90</v>
       </c>
@@ -22795,7 +22795,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="110"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -22852,7 +22852,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="110"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -22909,7 +22909,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="110"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -22966,7 +22966,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="110"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -23023,7 +23023,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="110"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -23080,7 +23080,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="110"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -23137,7 +23137,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="110"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -23194,7 +23194,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="110"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -23251,7 +23251,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="110"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -23308,7 +23308,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="110"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -23365,7 +23365,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="110"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -23422,7 +23422,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="110"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -23479,7 +23479,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="110"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -23536,7 +23536,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="110"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -23593,7 +23593,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="110"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -23650,7 +23650,7 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="110" t="s">
         <v>96</v>
       </c>
@@ -23709,7 +23709,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="110"/>
       <c r="B19" s="37" t="s">
         <v>1</v>
@@ -23766,7 +23766,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="110"/>
       <c r="B20" s="37" t="s">
         <v>2</v>
@@ -23823,7 +23823,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="110"/>
       <c r="B21" s="37" t="s">
         <v>3</v>
@@ -23880,7 +23880,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="110"/>
       <c r="B22" s="37" t="s">
         <v>4</v>
@@ -23937,7 +23937,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="110"/>
       <c r="B23" s="37" t="s">
         <v>5</v>
@@ -23994,7 +23994,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="110"/>
       <c r="B24" s="37" t="s">
         <v>6</v>
@@ -24051,7 +24051,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="110"/>
       <c r="B25" s="37" t="s">
         <v>7</v>
@@ -24108,7 +24108,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="110"/>
       <c r="B26" s="37" t="s">
         <v>8</v>
@@ -24165,7 +24165,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="110"/>
       <c r="B27" s="37" t="s">
         <v>9</v>
@@ -24222,7 +24222,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="110"/>
       <c r="B28" s="37" t="s">
         <v>10</v>
@@ -24279,7 +24279,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="110"/>
       <c r="B29" s="37" t="s">
         <v>11</v>
@@ -24336,7 +24336,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="110"/>
       <c r="B30" s="37" t="s">
         <v>12</v>
@@ -24393,7 +24393,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="110"/>
       <c r="B31" s="37" t="s">
         <v>13</v>
@@ -24450,7 +24450,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="110"/>
       <c r="B32" s="37" t="s">
         <v>14</v>
@@ -24507,7 +24507,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="110"/>
       <c r="B33" s="37" t="s">
         <v>15</v>
@@ -24564,7 +24564,7 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="110" t="s">
         <v>101</v>
       </c>
@@ -24623,7 +24623,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="110"/>
       <c r="B35" s="61" t="s">
         <v>1</v>
@@ -24680,7 +24680,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="110"/>
       <c r="B36" s="61" t="s">
         <v>2</v>
@@ -24737,7 +24737,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="110"/>
       <c r="B37" s="61" t="s">
         <v>3</v>
@@ -24794,7 +24794,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="110"/>
       <c r="B38" s="61" t="s">
         <v>4</v>
@@ -24851,7 +24851,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="110"/>
       <c r="B39" s="61" t="s">
         <v>5</v>
@@ -24908,7 +24908,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="110"/>
       <c r="B40" s="61" t="s">
         <v>6</v>
@@ -24965,7 +24965,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="110"/>
       <c r="B41" s="61" t="s">
         <v>7</v>
@@ -25022,7 +25022,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="110"/>
       <c r="B42" s="61" t="s">
         <v>8</v>
@@ -25079,7 +25079,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="110"/>
       <c r="B43" s="61" t="s">
         <v>9</v>
@@ -25136,7 +25136,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="110"/>
       <c r="B44" s="61" t="s">
         <v>10</v>
@@ -25193,7 +25193,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="110"/>
       <c r="B45" s="61" t="s">
         <v>11</v>
@@ -25250,7 +25250,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="110"/>
       <c r="B46" s="61" t="s">
         <v>12</v>
@@ -25307,7 +25307,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="110"/>
       <c r="B47" s="61" t="s">
         <v>13</v>
@@ -25364,7 +25364,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="110"/>
       <c r="B48" s="61" t="s">
         <v>14</v>
@@ -25421,7 +25421,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="110"/>
       <c r="B49" s="61" t="s">
         <v>15</v>
@@ -25478,7 +25478,7 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="110" t="s">
         <v>102</v>
       </c>
@@ -25537,7 +25537,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="110"/>
       <c r="B51" s="61" t="s">
         <v>1</v>
@@ -25594,7 +25594,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="110"/>
       <c r="B52" s="61" t="s">
         <v>2</v>
@@ -25651,7 +25651,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="110"/>
       <c r="B53" s="61" t="s">
         <v>3</v>
@@ -25708,7 +25708,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="110"/>
       <c r="B54" s="61" t="s">
         <v>4</v>
@@ -25765,7 +25765,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="110"/>
       <c r="B55" s="61" t="s">
         <v>5</v>
@@ -25822,7 +25822,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="110"/>
       <c r="B56" s="61" t="s">
         <v>6</v>
@@ -25879,7 +25879,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="110"/>
       <c r="B57" s="61" t="s">
         <v>7</v>
@@ -25936,7 +25936,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="110"/>
       <c r="B58" s="61" t="s">
         <v>8</v>
@@ -25993,7 +25993,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="110"/>
       <c r="B59" s="61" t="s">
         <v>9</v>
@@ -26050,7 +26050,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="110"/>
       <c r="B60" s="61" t="s">
         <v>10</v>
@@ -26107,7 +26107,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="110"/>
       <c r="B61" s="61" t="s">
         <v>11</v>
@@ -26164,7 +26164,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="110"/>
       <c r="B62" s="61" t="s">
         <v>12</v>
@@ -26221,7 +26221,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="110"/>
       <c r="B63" s="61" t="s">
         <v>13</v>
@@ -26278,7 +26278,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="110"/>
       <c r="B64" s="61" t="s">
         <v>14</v>
@@ -26335,7 +26335,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="110"/>
       <c r="B65" s="61" t="s">
         <v>15</v>
@@ -26392,7 +26392,7 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="110" t="s">
         <v>103</v>
       </c>
@@ -26451,7 +26451,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="110"/>
       <c r="B67" s="61" t="s">
         <v>1</v>
@@ -26508,7 +26508,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="110"/>
       <c r="B68" s="61" t="s">
         <v>2</v>
@@ -26565,7 +26565,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="110"/>
       <c r="B69" s="61" t="s">
         <v>3</v>
@@ -26622,7 +26622,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="110"/>
       <c r="B70" s="61" t="s">
         <v>4</v>
@@ -26679,7 +26679,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="110"/>
       <c r="B71" s="61" t="s">
         <v>5</v>
@@ -26736,7 +26736,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="110"/>
       <c r="B72" s="61" t="s">
         <v>6</v>
@@ -26793,7 +26793,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="110"/>
       <c r="B73" s="61" t="s">
         <v>7</v>
@@ -26850,7 +26850,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="110"/>
       <c r="B74" s="61" t="s">
         <v>8</v>
@@ -26907,7 +26907,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="110"/>
       <c r="B75" s="61" t="s">
         <v>9</v>
@@ -26964,7 +26964,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="110"/>
       <c r="B76" s="61" t="s">
         <v>10</v>
@@ -27021,7 +27021,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="110"/>
       <c r="B77" s="61" t="s">
         <v>11</v>
@@ -27078,7 +27078,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="110"/>
       <c r="B78" s="61" t="s">
         <v>12</v>
@@ -27135,7 +27135,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="110"/>
       <c r="B79" s="61" t="s">
         <v>13</v>
@@ -27192,7 +27192,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="110"/>
       <c r="B80" s="61" t="s">
         <v>14</v>
@@ -27249,7 +27249,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="110"/>
       <c r="B81" s="61" t="s">
         <v>15</v>
@@ -27306,7 +27306,7 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="110" t="s">
         <v>104</v>
       </c>
@@ -27365,7 +27365,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="110"/>
       <c r="B83" s="61" t="s">
         <v>1</v>
@@ -27422,7 +27422,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="110"/>
       <c r="B84" s="61" t="s">
         <v>2</v>
@@ -27479,7 +27479,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="110"/>
       <c r="B85" s="61" t="s">
         <v>3</v>
@@ -27536,7 +27536,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="110"/>
       <c r="B86" s="61" t="s">
         <v>4</v>
@@ -27593,7 +27593,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="110"/>
       <c r="B87" s="61" t="s">
         <v>5</v>
@@ -27650,7 +27650,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="110"/>
       <c r="B88" s="61" t="s">
         <v>6</v>
@@ -27707,7 +27707,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="110"/>
       <c r="B89" s="61" t="s">
         <v>7</v>
@@ -27764,7 +27764,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="110"/>
       <c r="B90" s="61" t="s">
         <v>8</v>
@@ -27821,7 +27821,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="110"/>
       <c r="B91" s="61" t="s">
         <v>9</v>
@@ -27878,7 +27878,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="110"/>
       <c r="B92" s="61" t="s">
         <v>10</v>
@@ -27935,7 +27935,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="110"/>
       <c r="B93" s="61" t="s">
         <v>11</v>
@@ -27992,7 +27992,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="110"/>
       <c r="B94" s="61" t="s">
         <v>12</v>
@@ -28049,7 +28049,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="110"/>
       <c r="B95" s="61" t="s">
         <v>13</v>
@@ -28106,7 +28106,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="110"/>
       <c r="B96" s="61" t="s">
         <v>14</v>
@@ -28163,7 +28163,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="110"/>
       <c r="B97" s="61" t="s">
         <v>15</v>
@@ -28220,7 +28220,7 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="110" t="s">
         <v>105</v>
       </c>
@@ -28279,7 +28279,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="110"/>
       <c r="B99" s="61" t="s">
         <v>1</v>
@@ -28336,7 +28336,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="110"/>
       <c r="B100" s="61" t="s">
         <v>2</v>
@@ -28393,7 +28393,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="110"/>
       <c r="B101" s="61" t="s">
         <v>3</v>
@@ -28450,7 +28450,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="110"/>
       <c r="B102" s="61" t="s">
         <v>4</v>
@@ -28507,7 +28507,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="110"/>
       <c r="B103" s="61" t="s">
         <v>5</v>
@@ -28564,7 +28564,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="110"/>
       <c r="B104" s="61" t="s">
         <v>6</v>
@@ -28621,7 +28621,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="110"/>
       <c r="B105" s="61" t="s">
         <v>7</v>
@@ -28678,7 +28678,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="110"/>
       <c r="B106" s="61" t="s">
         <v>8</v>
@@ -28735,7 +28735,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="110"/>
       <c r="B107" s="61" t="s">
         <v>9</v>
@@ -28792,7 +28792,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="110"/>
       <c r="B108" s="61" t="s">
         <v>10</v>
@@ -28849,7 +28849,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="110"/>
       <c r="B109" s="61" t="s">
         <v>11</v>
@@ -28906,7 +28906,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="110"/>
       <c r="B110" s="61" t="s">
         <v>12</v>
@@ -28963,7 +28963,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="110"/>
       <c r="B111" s="61" t="s">
         <v>13</v>
@@ -29020,7 +29020,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="110"/>
       <c r="B112" s="61" t="s">
         <v>14</v>
@@ -29077,7 +29077,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="110"/>
       <c r="B113" s="61" t="s">
         <v>15</v>
@@ -29159,12 +29159,12 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -29187,7 +29187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -29210,7 +29210,7 @@
         <v>3.0298294321208146</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -29236,7 +29236,7 @@
         <v>2.7100141031747289</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
         <v>101</v>
       </c>
@@ -29259,7 +29259,7 @@
         <v>3.6526277042789821</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
         <v>102</v>
       </c>
@@ -29282,7 +29282,7 @@
         <v>3.5011362326729416</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="62" t="s">
         <v>103</v>
       </c>
@@ -29305,7 +29305,7 @@
         <v>2.1208806024845703</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="62" t="s">
         <v>104</v>
       </c>
@@ -29328,7 +29328,7 @@
         <v>2.0367186738145477</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="62" t="s">
         <v>105</v>
       </c>
@@ -29363,29 +29363,29 @@
   </sheetPr>
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>17</v>
       </c>
@@ -29429,7 +29429,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="114" t="s">
         <v>90</v>
       </c>
@@ -29469,7 +29469,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="115"/>
       <c r="B3" s="69" t="s">
         <v>80</v>
@@ -29507,7 +29507,7 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="115"/>
       <c r="B4" s="69" t="s">
         <v>82</v>
@@ -29539,7 +29539,7 @@
       <c r="M4" s="72"/>
       <c r="N4" s="72"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="115"/>
       <c r="B5" s="69" t="s">
         <v>84</v>
@@ -29577,7 +29577,7 @@
         <v>43998</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="115"/>
       <c r="B6" s="69" t="s">
         <v>86</v>
@@ -29613,7 +29613,7 @@
       </c>
       <c r="N6" s="72"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="115"/>
       <c r="B7" s="69" t="s">
         <v>88</v>
@@ -29647,7 +29647,7 @@
       <c r="M7" s="72"/>
       <c r="N7" s="72"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="116"/>
       <c r="B8" s="76" t="s">
         <v>89</v>
@@ -29679,7 +29679,7 @@
       <c r="M8" s="53"/>
       <c r="N8" s="52"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="117" t="s">
         <v>96</v>
       </c>
@@ -29719,7 +29719,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="118"/>
       <c r="B10" s="89" t="s">
         <v>80</v>
@@ -29757,7 +29757,7 @@
         <v>43966</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="118"/>
       <c r="B11" s="89" t="s">
         <v>82</v>
@@ -29789,7 +29789,7 @@
       <c r="M11" s="92"/>
       <c r="N11" s="92"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="118"/>
       <c r="B12" s="89" t="s">
         <v>84</v>
@@ -29827,7 +29827,7 @@
         <v>44001</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="118"/>
       <c r="B13" s="89" t="s">
         <v>86</v>
@@ -29863,7 +29863,7 @@
       </c>
       <c r="N13" s="92"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="118"/>
       <c r="B14" s="89" t="s">
         <v>88</v>
@@ -29897,7 +29897,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="92"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="119"/>
       <c r="B15" s="95" t="s">
         <v>89</v>
@@ -29931,7 +29931,7 @@
       <c r="M15" s="100"/>
       <c r="N15" s="101"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="114" t="s">
         <v>101</v>
       </c>
@@ -29971,7 +29971,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="115"/>
       <c r="B17" s="69" t="s">
         <v>80</v>
@@ -30009,7 +30009,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="115"/>
       <c r="B18" s="69" t="s">
         <v>82</v>
@@ -30047,7 +30047,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="115"/>
       <c r="B19" s="69" t="s">
         <v>84</v>
@@ -30085,7 +30085,7 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="115"/>
       <c r="B20" s="69" t="s">
         <v>86</v>
@@ -30123,7 +30123,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="115"/>
       <c r="B21" s="69" t="s">
         <v>88</v>
@@ -30159,7 +30159,7 @@
       </c>
       <c r="N21" s="75"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="115"/>
       <c r="B22" s="108" t="s">
         <v>89</v>
@@ -30193,7 +30193,7 @@
       <c r="M22" s="72"/>
       <c r="N22" s="75"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="116"/>
       <c r="B23" s="76" t="s">
         <v>106</v>
@@ -30227,7 +30227,7 @@
       <c r="M23" s="72"/>
       <c r="N23" s="52"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="111" t="s">
         <v>102</v>
       </c>
@@ -30267,7 +30267,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="112"/>
       <c r="B25" s="42" t="s">
         <v>80</v>
@@ -30303,7 +30303,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="112"/>
       <c r="B26" s="42" t="s">
         <v>82</v>
@@ -30339,7 +30339,7 @@
         <v>43958</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="112"/>
       <c r="B27" s="42" t="s">
         <v>84</v>
@@ -30375,7 +30375,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="112"/>
       <c r="B28" s="42" t="s">
         <v>86</v>
@@ -30411,7 +30411,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="112"/>
       <c r="B29" s="42" t="s">
         <v>88</v>
@@ -30445,7 +30445,7 @@
       </c>
       <c r="N29" s="35"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="112"/>
       <c r="B30" s="42" t="s">
         <v>89</v>
@@ -30477,7 +30477,7 @@
       <c r="M30" s="43"/>
       <c r="N30" s="81"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="113"/>
       <c r="B31" s="42" t="s">
         <v>106</v>
@@ -30509,7 +30509,7 @@
       <c r="M31" s="43"/>
       <c r="N31" s="43"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="114" t="s">
         <v>103</v>
       </c>
@@ -30549,7 +30549,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="115"/>
       <c r="B33" s="69" t="s">
         <v>80</v>
@@ -30587,7 +30587,7 @@
         <v>43912</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="115"/>
       <c r="B34" s="69" t="s">
         <v>82</v>
@@ -30625,7 +30625,7 @@
         <v>43966</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="115"/>
       <c r="B35" s="69" t="s">
         <v>84</v>
@@ -30663,7 +30663,7 @@
         <v>43995</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="115"/>
       <c r="B36" s="69" t="s">
         <v>86</v>
@@ -30699,7 +30699,7 @@
       </c>
       <c r="N36" s="72"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="115"/>
       <c r="B37" s="69" t="s">
         <v>88</v>
@@ -30733,7 +30733,7 @@
       <c r="M37" s="72"/>
       <c r="N37" s="72"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="115"/>
       <c r="B38" s="69" t="s">
         <v>89</v>
@@ -30767,7 +30767,7 @@
       <c r="M38" s="72"/>
       <c r="N38" s="75"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="111" t="s">
         <v>104</v>
       </c>
@@ -30807,7 +30807,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="112"/>
       <c r="B40" s="42" t="s">
         <v>80</v>
@@ -30843,7 +30843,7 @@
         <v>43912</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="112"/>
       <c r="B41" s="42" t="s">
         <v>82</v>
@@ -30879,7 +30879,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="112"/>
       <c r="B42" s="42" t="s">
         <v>84</v>
@@ -30915,7 +30915,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="112"/>
       <c r="B43" s="42" t="s">
         <v>86</v>
@@ -30949,7 +30949,7 @@
       </c>
       <c r="N43" s="35"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="112"/>
       <c r="B44" s="42" t="s">
         <v>88</v>
@@ -30981,7 +30981,7 @@
       <c r="M44" s="43"/>
       <c r="N44" s="43"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="113"/>
       <c r="B45" s="44" t="s">
         <v>89</v>
@@ -31015,7 +31015,7 @@
       <c r="M45" s="22"/>
       <c r="N45" s="23"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="114" t="s">
         <v>105</v>
       </c>
@@ -31055,7 +31055,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="115"/>
       <c r="B47" s="69" t="s">
         <v>80</v>
@@ -31093,7 +31093,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="115"/>
       <c r="B48" s="69" t="s">
         <v>82</v>
@@ -31131,7 +31131,7 @@
         <v>43971</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="115"/>
       <c r="B49" s="69" t="s">
         <v>84</v>
@@ -31169,7 +31169,7 @@
         <v>43999</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="115"/>
       <c r="B50" s="69" t="s">
         <v>86</v>
@@ -31205,7 +31205,7 @@
       </c>
       <c r="N50" s="72"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="115"/>
       <c r="B51" s="69" t="s">
         <v>88</v>
@@ -31239,7 +31239,7 @@
       <c r="M51" s="72"/>
       <c r="N51" s="72"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="116"/>
       <c r="B52" s="76" t="s">
         <v>89</v>
@@ -31295,20 +31295,20 @@
   </sheetPr>
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -31379,7 +31379,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -31451,7 +31451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -31523,7 +31523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="61" t="s">
         <v>101</v>
       </c>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
         <v>102</v>
       </c>
@@ -31665,7 +31665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
         <v>103</v>
       </c>
@@ -31737,7 +31737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="61" t="s">
         <v>104</v>
       </c>
@@ -31809,7 +31809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
         <v>105</v>
       </c>
@@ -31864,6 +31864,9 @@
       </c>
       <c r="R8">
         <v>1000</v>
+      </c>
+      <c r="S8">
+        <v>100</v>
       </c>
       <c r="T8">
         <v>1</v>
@@ -31896,20 +31899,20 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="33" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>17</v>
       </c>
@@ -31938,7 +31941,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="122" t="s">
         <v>90</v>
       </c>
@@ -31963,7 +31966,7 @@
       <c r="H2" s="50"/>
       <c r="I2" s="48"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="123"/>
       <c r="B3" s="51" t="s">
         <v>94</v>
@@ -31982,7 +31985,7 @@
       <c r="H3" s="53"/>
       <c r="I3" s="52"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="120" t="s">
         <v>96</v>
       </c>
@@ -32007,7 +32010,7 @@
       <c r="H4" s="57"/>
       <c r="I4" s="55"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="121"/>
       <c r="B5" s="58" t="s">
         <v>94</v>
@@ -32026,7 +32029,7 @@
       <c r="H5" s="60"/>
       <c r="I5" s="59"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="122" t="s">
         <v>101</v>
       </c>
@@ -32051,7 +32054,7 @@
       <c r="H6" s="50"/>
       <c r="I6" s="48"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="123"/>
       <c r="B7" s="51" t="s">
         <v>94</v>
@@ -32070,7 +32073,7 @@
       <c r="H7" s="53"/>
       <c r="I7" s="52"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="120" t="s">
         <v>102</v>
       </c>
@@ -32095,7 +32098,7 @@
       <c r="H8" s="57"/>
       <c r="I8" s="55"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="121"/>
       <c r="B9" s="58" t="s">
         <v>94</v>
@@ -32114,7 +32117,7 @@
       <c r="H9" s="60"/>
       <c r="I9" s="59"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="122" t="s">
         <v>103</v>
       </c>
@@ -32139,7 +32142,7 @@
       <c r="H10" s="50"/>
       <c r="I10" s="48"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="123"/>
       <c r="B11" s="51" t="s">
         <v>94</v>
@@ -32158,7 +32161,7 @@
       <c r="H11" s="53"/>
       <c r="I11" s="52"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="120" t="s">
         <v>104</v>
       </c>
@@ -32183,7 +32186,7 @@
       <c r="H12" s="57"/>
       <c r="I12" s="55"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="121"/>
       <c r="B13" s="58" t="s">
         <v>94</v>
@@ -32202,7 +32205,7 @@
       <c r="H13" s="60"/>
       <c r="I13" s="59"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="122" t="s">
         <v>105</v>
       </c>
@@ -32227,7 +32230,7 @@
       <c r="H14" s="50"/>
       <c r="I14" s="48"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="123"/>
       <c r="B15" s="51" t="s">
         <v>94</v>
@@ -32273,21 +32276,21 @@
       <selection activeCell="A4" sqref="A4:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -32319,7 +32322,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -32351,7 +32354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -32383,7 +32386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
         <v>101</v>
       </c>
@@ -32415,7 +32418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="102" t="s">
         <v>102</v>
       </c>
@@ -32447,7 +32450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
         <v>103</v>
       </c>
@@ -32479,7 +32482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="102" t="s">
         <v>104</v>
       </c>
@@ -32511,7 +32514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
         <v>105</v>
       </c>
@@ -32560,20 +32563,20 @@
       <selection activeCell="A4" sqref="A4:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -32605,7 +32608,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -32637,7 +32640,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -32669,7 +32672,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
         <v>101</v>
       </c>
@@ -32701,7 +32704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="102" t="s">
         <v>102</v>
       </c>
@@ -32733,7 +32736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
         <v>103</v>
       </c>
@@ -32765,7 +32768,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="102" t="s">
         <v>104</v>
       </c>
@@ -32797,7 +32800,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
         <v>105</v>
       </c>
@@ -32845,20 +32848,20 @@
       <selection activeCell="A4" sqref="A4:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -32890,7 +32893,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -32922,7 +32925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -32954,7 +32957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
         <v>101</v>
       </c>
@@ -32986,7 +32989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="102" t="s">
         <v>102</v>
       </c>
@@ -33018,7 +33021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
         <v>103</v>
       </c>
@@ -33050,7 +33053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="102" t="s">
         <v>104</v>
       </c>
@@ -33082,7 +33085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
         <v>105</v>
       </c>
@@ -33130,21 +33133,21 @@
       <selection activeCell="A4" sqref="A4:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="5"/>
-    <col min="9" max="9" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="5"/>
+    <col min="9" max="9" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
@@ -33176,7 +33179,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -33208,7 +33211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -33240,7 +33243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
         <v>101</v>
       </c>
@@ -33272,7 +33275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
         <v>102</v>
       </c>
@@ -33304,7 +33307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
         <v>103</v>
       </c>
@@ -33336,7 +33339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="102" t="s">
         <v>104</v>
       </c>
@@ -33368,7 +33371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
         <v>105</v>
       </c>

--- a/data/input_data_US_group2.xlsx
+++ b/data/input_data_US_group2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\covasim-australia\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83A7059-AC39-42A2-B495-D3FD5093042B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52AAEF6-54F8-4F02-BB3C-B419ED5149E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="839" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age_sex" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,14 @@
     <sheet name="contact matrices-work" sheetId="9" r:id="rId12"/>
     <sheet name="contact matrices-other" sheetId="10" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -47,19 +49,10 @@
   <commentList>
     <comment ref="R1" authorId="0" shapeId="0" xr:uid="{7833F806-E614-7449-968E-2A674530B08E}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Only used if the the new_tests column of the epi data is incorrectly specified</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -75,36 +68,18 @@
   <commentList>
     <comment ref="E1" authorId="0" shapeId="0" xr:uid="{045AFF27-0FD9-CB4D-9BD3-D86131B19BD5}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The time to trace contacts, applied to all targeted layers for this policy</t>
-        </r>
       </text>
     </comment>
     <comment ref="G1" authorId="1" shapeId="0" xr:uid="{32492FBF-3FB7-D547-8467-90931EBEF8B7}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The days on which the coverage changes</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -1427,13 +1402,13 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1492,7 +1467,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="110" t="s">
         <v>90</v>
       </c>
@@ -1552,7 +1527,7 @@
         <v>522367</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="110"/>
       <c r="B3" s="36" t="s">
         <v>20</v>
@@ -1610,7 +1585,7 @@
         <v>500366</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="110" t="s">
         <v>90</v>
       </c>
@@ -1686,7 +1661,7 @@
         <v>1022733</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="110"/>
       <c r="B5" s="36" t="s">
         <v>21</v>
@@ -1760,7 +1735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="110" t="s">
         <v>96</v>
       </c>
@@ -1820,7 +1795,7 @@
         <v>307086</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="110"/>
       <c r="B7" s="37" t="s">
         <v>20</v>
@@ -1878,7 +1853,7 @@
         <v>276445</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="110" t="s">
         <v>96</v>
       </c>
@@ -1954,7 +1929,7 @@
         <v>583531</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="110"/>
       <c r="B9" s="37" t="s">
         <v>21</v>
@@ -2028,7 +2003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="110" t="s">
         <v>101</v>
       </c>
@@ -2087,7 +2062,7 @@
         <v>2658903</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="110"/>
       <c r="B11" s="61" t="s">
         <v>20</v>
@@ -2144,7 +2119,7 @@
         <v>2550308</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="110" t="s">
         <v>101</v>
       </c>
@@ -2203,7 +2178,7 @@
         <v>5209211</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="110"/>
       <c r="B13" s="61" t="s">
         <v>21</v>
@@ -2260,7 +2235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="110" t="s">
         <v>102</v>
       </c>
@@ -2319,7 +2294,7 @@
         <v>1029728</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="110"/>
       <c r="B15" s="61" t="s">
         <v>20</v>
@@ -2376,7 +2351,7 @@
         <v>968185</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="110" t="s">
         <v>102</v>
       </c>
@@ -2435,7 +2410,7 @@
         <v>1997913</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="110"/>
       <c r="B17" s="61" t="s">
         <v>21</v>
@@ -2492,7 +2467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="110" t="s">
         <v>103</v>
       </c>
@@ -2551,7 +2526,7 @@
         <v>5154</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="110"/>
       <c r="B19" s="61" t="s">
         <v>20</v>
@@ -2608,7 +2583,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="110" t="s">
         <v>103</v>
       </c>
@@ -2667,7 +2642,7 @@
         <v>7838</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="110"/>
       <c r="B21" s="61" t="s">
         <v>21</v>
@@ -2724,7 +2699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="110" t="s">
         <v>104</v>
       </c>
@@ -2783,7 +2758,7 @@
         <v>9529195</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="110"/>
       <c r="B23" s="61" t="s">
         <v>20</v>
@@ -2840,7 +2815,7 @@
         <v>9185858</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="110" t="s">
         <v>104</v>
       </c>
@@ -2899,7 +2874,7 @@
         <v>18715053</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="110"/>
       <c r="B25" s="61" t="s">
         <v>21</v>
@@ -2956,7 +2931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="110" t="s">
         <v>105</v>
       </c>
@@ -3015,7 +2990,7 @@
         <v>419544</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="110"/>
       <c r="B27" s="61" t="s">
         <v>20</v>
@@ -3072,7 +3047,7 @@
         <v>399459</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="110" t="s">
         <v>105</v>
       </c>
@@ -3131,7 +3106,7 @@
         <v>819003</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="110"/>
       <c r="B29" s="61" t="s">
         <v>21</v>
@@ -3190,6 +3165,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
@@ -3199,11 +3179,6 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3220,12 +3195,12 @@
       <selection activeCell="A34" sqref="A34:S113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -3284,7 +3259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="110" t="s">
         <v>90</v>
       </c>
@@ -3343,7 +3318,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="110"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -3400,7 +3375,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="110"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -3457,7 +3432,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="110"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -3514,7 +3489,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="110"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -3571,7 +3546,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="110"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -3628,7 +3603,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="110"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -3685,7 +3660,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="110"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -3742,7 +3717,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="110"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -3799,7 +3774,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="110"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -3856,7 +3831,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="110"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -3913,7 +3888,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="110"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -3970,7 +3945,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="110"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -4027,7 +4002,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="110"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -4084,7 +4059,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="110"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -4141,7 +4116,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="110"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -4198,7 +4173,7 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="110" t="s">
         <v>96</v>
       </c>
@@ -4257,7 +4232,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="110"/>
       <c r="B19" s="37" t="s">
         <v>1</v>
@@ -4314,7 +4289,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="110"/>
       <c r="B20" s="37" t="s">
         <v>2</v>
@@ -4371,7 +4346,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="110"/>
       <c r="B21" s="37" t="s">
         <v>3</v>
@@ -4428,7 +4403,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="110"/>
       <c r="B22" s="37" t="s">
         <v>4</v>
@@ -4485,7 +4460,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="110"/>
       <c r="B23" s="37" t="s">
         <v>5</v>
@@ -4542,7 +4517,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="110"/>
       <c r="B24" s="37" t="s">
         <v>6</v>
@@ -4599,7 +4574,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="110"/>
       <c r="B25" s="37" t="s">
         <v>7</v>
@@ -4656,7 +4631,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="110"/>
       <c r="B26" s="37" t="s">
         <v>8</v>
@@ -4713,7 +4688,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="110"/>
       <c r="B27" s="37" t="s">
         <v>9</v>
@@ -4770,7 +4745,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="110"/>
       <c r="B28" s="37" t="s">
         <v>10</v>
@@ -4827,7 +4802,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="110"/>
       <c r="B29" s="37" t="s">
         <v>11</v>
@@ -4884,7 +4859,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="110"/>
       <c r="B30" s="37" t="s">
         <v>12</v>
@@ -4941,7 +4916,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="110"/>
       <c r="B31" s="37" t="s">
         <v>13</v>
@@ -4998,7 +4973,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="110"/>
       <c r="B32" s="37" t="s">
         <v>14</v>
@@ -5055,7 +5030,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="110"/>
       <c r="B33" s="37" t="s">
         <v>15</v>
@@ -5112,7 +5087,7 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="110" t="s">
         <v>101</v>
       </c>
@@ -5171,7 +5146,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="110"/>
       <c r="B35" s="61" t="s">
         <v>1</v>
@@ -5228,7 +5203,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="110"/>
       <c r="B36" s="61" t="s">
         <v>2</v>
@@ -5285,7 +5260,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="110"/>
       <c r="B37" s="61" t="s">
         <v>3</v>
@@ -5342,7 +5317,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="110"/>
       <c r="B38" s="61" t="s">
         <v>4</v>
@@ -5399,7 +5374,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="110"/>
       <c r="B39" s="61" t="s">
         <v>5</v>
@@ -5456,7 +5431,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="110"/>
       <c r="B40" s="61" t="s">
         <v>6</v>
@@ -5513,7 +5488,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="110"/>
       <c r="B41" s="61" t="s">
         <v>7</v>
@@ -5570,7 +5545,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="110"/>
       <c r="B42" s="61" t="s">
         <v>8</v>
@@ -5627,7 +5602,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="110"/>
       <c r="B43" s="61" t="s">
         <v>9</v>
@@ -5684,7 +5659,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="110"/>
       <c r="B44" s="61" t="s">
         <v>10</v>
@@ -5741,7 +5716,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="110"/>
       <c r="B45" s="61" t="s">
         <v>11</v>
@@ -5798,7 +5773,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="110"/>
       <c r="B46" s="61" t="s">
         <v>12</v>
@@ -5855,7 +5830,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="110"/>
       <c r="B47" s="61" t="s">
         <v>13</v>
@@ -5912,7 +5887,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="110"/>
       <c r="B48" s="61" t="s">
         <v>14</v>
@@ -5969,7 +5944,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="110"/>
       <c r="B49" s="61" t="s">
         <v>15</v>
@@ -6026,7 +6001,7 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="110" t="s">
         <v>102</v>
       </c>
@@ -6085,7 +6060,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="110"/>
       <c r="B51" s="61" t="s">
         <v>1</v>
@@ -6142,7 +6117,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="110"/>
       <c r="B52" s="61" t="s">
         <v>2</v>
@@ -6199,7 +6174,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="110"/>
       <c r="B53" s="61" t="s">
         <v>3</v>
@@ -6256,7 +6231,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="110"/>
       <c r="B54" s="61" t="s">
         <v>4</v>
@@ -6313,7 +6288,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="110"/>
       <c r="B55" s="61" t="s">
         <v>5</v>
@@ -6370,7 +6345,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="110"/>
       <c r="B56" s="61" t="s">
         <v>6</v>
@@ -6427,7 +6402,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="110"/>
       <c r="B57" s="61" t="s">
         <v>7</v>
@@ -6484,7 +6459,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="110"/>
       <c r="B58" s="61" t="s">
         <v>8</v>
@@ -6541,7 +6516,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="110"/>
       <c r="B59" s="61" t="s">
         <v>9</v>
@@ -6598,7 +6573,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="110"/>
       <c r="B60" s="61" t="s">
         <v>10</v>
@@ -6655,7 +6630,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="110"/>
       <c r="B61" s="61" t="s">
         <v>11</v>
@@ -6712,7 +6687,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="110"/>
       <c r="B62" s="61" t="s">
         <v>12</v>
@@ -6769,7 +6744,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="110"/>
       <c r="B63" s="61" t="s">
         <v>13</v>
@@ -6826,7 +6801,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="110"/>
       <c r="B64" s="61" t="s">
         <v>14</v>
@@ -6883,7 +6858,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="110"/>
       <c r="B65" s="61" t="s">
         <v>15</v>
@@ -6940,7 +6915,7 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="110" t="s">
         <v>103</v>
       </c>
@@ -6999,7 +6974,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="110"/>
       <c r="B67" s="61" t="s">
         <v>1</v>
@@ -7056,7 +7031,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="110"/>
       <c r="B68" s="61" t="s">
         <v>2</v>
@@ -7113,7 +7088,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="110"/>
       <c r="B69" s="61" t="s">
         <v>3</v>
@@ -7170,7 +7145,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="110"/>
       <c r="B70" s="61" t="s">
         <v>4</v>
@@ -7227,7 +7202,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="110"/>
       <c r="B71" s="61" t="s">
         <v>5</v>
@@ -7284,7 +7259,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="110"/>
       <c r="B72" s="61" t="s">
         <v>6</v>
@@ -7341,7 +7316,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="110"/>
       <c r="B73" s="61" t="s">
         <v>7</v>
@@ -7398,7 +7373,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="110"/>
       <c r="B74" s="61" t="s">
         <v>8</v>
@@ -7455,7 +7430,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="110"/>
       <c r="B75" s="61" t="s">
         <v>9</v>
@@ -7512,7 +7487,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="110"/>
       <c r="B76" s="61" t="s">
         <v>10</v>
@@ -7569,7 +7544,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="110"/>
       <c r="B77" s="61" t="s">
         <v>11</v>
@@ -7626,7 +7601,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="110"/>
       <c r="B78" s="61" t="s">
         <v>12</v>
@@ -7683,7 +7658,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="110"/>
       <c r="B79" s="61" t="s">
         <v>13</v>
@@ -7740,7 +7715,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="110"/>
       <c r="B80" s="61" t="s">
         <v>14</v>
@@ -7797,7 +7772,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="110"/>
       <c r="B81" s="61" t="s">
         <v>15</v>
@@ -7854,7 +7829,7 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="110" t="s">
         <v>104</v>
       </c>
@@ -7913,7 +7888,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="110"/>
       <c r="B83" s="61" t="s">
         <v>1</v>
@@ -7970,7 +7945,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="110"/>
       <c r="B84" s="61" t="s">
         <v>2</v>
@@ -8027,7 +8002,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="110"/>
       <c r="B85" s="61" t="s">
         <v>3</v>
@@ -8084,7 +8059,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="110"/>
       <c r="B86" s="61" t="s">
         <v>4</v>
@@ -8141,7 +8116,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="110"/>
       <c r="B87" s="61" t="s">
         <v>5</v>
@@ -8198,7 +8173,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="110"/>
       <c r="B88" s="61" t="s">
         <v>6</v>
@@ -8255,7 +8230,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="110"/>
       <c r="B89" s="61" t="s">
         <v>7</v>
@@ -8312,7 +8287,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="110"/>
       <c r="B90" s="61" t="s">
         <v>8</v>
@@ -8369,7 +8344,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="110"/>
       <c r="B91" s="61" t="s">
         <v>9</v>
@@ -8426,7 +8401,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="110"/>
       <c r="B92" s="61" t="s">
         <v>10</v>
@@ -8483,7 +8458,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="110"/>
       <c r="B93" s="61" t="s">
         <v>11</v>
@@ -8540,7 +8515,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="110"/>
       <c r="B94" s="61" t="s">
         <v>12</v>
@@ -8597,7 +8572,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="110"/>
       <c r="B95" s="61" t="s">
         <v>13</v>
@@ -8654,7 +8629,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="110"/>
       <c r="B96" s="61" t="s">
         <v>14</v>
@@ -8711,7 +8686,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="110"/>
       <c r="B97" s="61" t="s">
         <v>15</v>
@@ -8768,7 +8743,7 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="110" t="s">
         <v>105</v>
       </c>
@@ -8827,7 +8802,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="110"/>
       <c r="B99" s="61" t="s">
         <v>1</v>
@@ -8884,7 +8859,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="110"/>
       <c r="B100" s="61" t="s">
         <v>2</v>
@@ -8941,7 +8916,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="110"/>
       <c r="B101" s="61" t="s">
         <v>3</v>
@@ -8998,7 +8973,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="110"/>
       <c r="B102" s="61" t="s">
         <v>4</v>
@@ -9055,7 +9030,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="110"/>
       <c r="B103" s="61" t="s">
         <v>5</v>
@@ -9112,7 +9087,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="110"/>
       <c r="B104" s="61" t="s">
         <v>6</v>
@@ -9169,7 +9144,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="110"/>
       <c r="B105" s="61" t="s">
         <v>7</v>
@@ -9226,7 +9201,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="110"/>
       <c r="B106" s="61" t="s">
         <v>8</v>
@@ -9283,7 +9258,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="110"/>
       <c r="B107" s="61" t="s">
         <v>9</v>
@@ -9340,7 +9315,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="110"/>
       <c r="B108" s="61" t="s">
         <v>10</v>
@@ -9397,7 +9372,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="110"/>
       <c r="B109" s="61" t="s">
         <v>11</v>
@@ -9454,7 +9429,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="110"/>
       <c r="B110" s="61" t="s">
         <v>12</v>
@@ -9511,7 +9486,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="110"/>
       <c r="B111" s="61" t="s">
         <v>13</v>
@@ -9568,7 +9543,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="110"/>
       <c r="B112" s="61" t="s">
         <v>14</v>
@@ -9625,7 +9600,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="110"/>
       <c r="B113" s="61" t="s">
         <v>15</v>
@@ -9707,9 +9682,9 @@
       <selection activeCell="A34" sqref="A34:S113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -9768,7 +9743,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="110" t="s">
         <v>90</v>
       </c>
@@ -9827,7 +9802,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="110"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -9884,7 +9859,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="110"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -9941,7 +9916,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="110"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -9998,7 +9973,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="110"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -10055,7 +10030,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="110"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -10112,7 +10087,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="110"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -10169,7 +10144,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="110"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -10226,7 +10201,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="110"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -10283,7 +10258,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="110"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -10340,7 +10315,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="110"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -10397,7 +10372,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="110"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -10454,7 +10429,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="110"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -10511,7 +10486,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="110"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -10568,7 +10543,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="110"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -10625,7 +10600,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="110"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -10682,7 +10657,7 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="110" t="s">
         <v>96</v>
       </c>
@@ -10741,7 +10716,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="110"/>
       <c r="B19" s="37" t="s">
         <v>1</v>
@@ -10798,7 +10773,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="110"/>
       <c r="B20" s="37" t="s">
         <v>2</v>
@@ -10855,7 +10830,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="110"/>
       <c r="B21" s="37" t="s">
         <v>3</v>
@@ -10912,7 +10887,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="110"/>
       <c r="B22" s="37" t="s">
         <v>4</v>
@@ -10969,7 +10944,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="110"/>
       <c r="B23" s="37" t="s">
         <v>5</v>
@@ -11026,7 +11001,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="110"/>
       <c r="B24" s="37" t="s">
         <v>6</v>
@@ -11083,7 +11058,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="110"/>
       <c r="B25" s="37" t="s">
         <v>7</v>
@@ -11140,7 +11115,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="110"/>
       <c r="B26" s="37" t="s">
         <v>8</v>
@@ -11197,7 +11172,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="110"/>
       <c r="B27" s="37" t="s">
         <v>9</v>
@@ -11254,7 +11229,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="110"/>
       <c r="B28" s="37" t="s">
         <v>10</v>
@@ -11311,7 +11286,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="110"/>
       <c r="B29" s="37" t="s">
         <v>11</v>
@@ -11368,7 +11343,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="110"/>
       <c r="B30" s="37" t="s">
         <v>12</v>
@@ -11425,7 +11400,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="110"/>
       <c r="B31" s="37" t="s">
         <v>13</v>
@@ -11482,7 +11457,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="110"/>
       <c r="B32" s="37" t="s">
         <v>14</v>
@@ -11539,7 +11514,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="110"/>
       <c r="B33" s="37" t="s">
         <v>15</v>
@@ -11596,7 +11571,7 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="110" t="s">
         <v>101</v>
       </c>
@@ -11655,7 +11630,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="110"/>
       <c r="B35" s="61" t="s">
         <v>1</v>
@@ -11712,7 +11687,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="110"/>
       <c r="B36" s="61" t="s">
         <v>2</v>
@@ -11769,7 +11744,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="110"/>
       <c r="B37" s="61" t="s">
         <v>3</v>
@@ -11826,7 +11801,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="110"/>
       <c r="B38" s="61" t="s">
         <v>4</v>
@@ -11883,7 +11858,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="110"/>
       <c r="B39" s="61" t="s">
         <v>5</v>
@@ -11940,7 +11915,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="110"/>
       <c r="B40" s="61" t="s">
         <v>6</v>
@@ -11997,7 +11972,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="110"/>
       <c r="B41" s="61" t="s">
         <v>7</v>
@@ -12054,7 +12029,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="110"/>
       <c r="B42" s="61" t="s">
         <v>8</v>
@@ -12111,7 +12086,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="110"/>
       <c r="B43" s="61" t="s">
         <v>9</v>
@@ -12168,7 +12143,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="110"/>
       <c r="B44" s="61" t="s">
         <v>10</v>
@@ -12225,7 +12200,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="110"/>
       <c r="B45" s="61" t="s">
         <v>11</v>
@@ -12282,7 +12257,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="110"/>
       <c r="B46" s="61" t="s">
         <v>12</v>
@@ -12339,7 +12314,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="110"/>
       <c r="B47" s="61" t="s">
         <v>13</v>
@@ -12396,7 +12371,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="110"/>
       <c r="B48" s="61" t="s">
         <v>14</v>
@@ -12453,7 +12428,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="110"/>
       <c r="B49" s="61" t="s">
         <v>15</v>
@@ -12510,7 +12485,7 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="110" t="s">
         <v>102</v>
       </c>
@@ -12569,7 +12544,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="110"/>
       <c r="B51" s="61" t="s">
         <v>1</v>
@@ -12626,7 +12601,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="110"/>
       <c r="B52" s="61" t="s">
         <v>2</v>
@@ -12683,7 +12658,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="110"/>
       <c r="B53" s="61" t="s">
         <v>3</v>
@@ -12740,7 +12715,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="110"/>
       <c r="B54" s="61" t="s">
         <v>4</v>
@@ -12797,7 +12772,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="110"/>
       <c r="B55" s="61" t="s">
         <v>5</v>
@@ -12854,7 +12829,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="110"/>
       <c r="B56" s="61" t="s">
         <v>6</v>
@@ -12911,7 +12886,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="110"/>
       <c r="B57" s="61" t="s">
         <v>7</v>
@@ -12968,7 +12943,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="110"/>
       <c r="B58" s="61" t="s">
         <v>8</v>
@@ -13025,7 +13000,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="110"/>
       <c r="B59" s="61" t="s">
         <v>9</v>
@@ -13082,7 +13057,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="110"/>
       <c r="B60" s="61" t="s">
         <v>10</v>
@@ -13139,7 +13114,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="110"/>
       <c r="B61" s="61" t="s">
         <v>11</v>
@@ -13196,7 +13171,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="110"/>
       <c r="B62" s="61" t="s">
         <v>12</v>
@@ -13253,7 +13228,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="110"/>
       <c r="B63" s="61" t="s">
         <v>13</v>
@@ -13310,7 +13285,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="110"/>
       <c r="B64" s="61" t="s">
         <v>14</v>
@@ -13367,7 +13342,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="110"/>
       <c r="B65" s="61" t="s">
         <v>15</v>
@@ -13424,7 +13399,7 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="110" t="s">
         <v>103</v>
       </c>
@@ -13483,7 +13458,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="110"/>
       <c r="B67" s="61" t="s">
         <v>1</v>
@@ -13540,7 +13515,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="110"/>
       <c r="B68" s="61" t="s">
         <v>2</v>
@@ -13597,7 +13572,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="110"/>
       <c r="B69" s="61" t="s">
         <v>3</v>
@@ -13654,7 +13629,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="110"/>
       <c r="B70" s="61" t="s">
         <v>4</v>
@@ -13711,7 +13686,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="110"/>
       <c r="B71" s="61" t="s">
         <v>5</v>
@@ -13768,7 +13743,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="110"/>
       <c r="B72" s="61" t="s">
         <v>6</v>
@@ -13825,7 +13800,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="110"/>
       <c r="B73" s="61" t="s">
         <v>7</v>
@@ -13882,7 +13857,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="110"/>
       <c r="B74" s="61" t="s">
         <v>8</v>
@@ -13939,7 +13914,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="110"/>
       <c r="B75" s="61" t="s">
         <v>9</v>
@@ -13996,7 +13971,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="110"/>
       <c r="B76" s="61" t="s">
         <v>10</v>
@@ -14053,7 +14028,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="110"/>
       <c r="B77" s="61" t="s">
         <v>11</v>
@@ -14110,7 +14085,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="110"/>
       <c r="B78" s="61" t="s">
         <v>12</v>
@@ -14167,7 +14142,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="110"/>
       <c r="B79" s="61" t="s">
         <v>13</v>
@@ -14224,7 +14199,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="110"/>
       <c r="B80" s="61" t="s">
         <v>14</v>
@@ -14281,7 +14256,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="110"/>
       <c r="B81" s="61" t="s">
         <v>15</v>
@@ -14338,7 +14313,7 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="110" t="s">
         <v>104</v>
       </c>
@@ -14397,7 +14372,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="110"/>
       <c r="B83" s="61" t="s">
         <v>1</v>
@@ -14454,7 +14429,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="110"/>
       <c r="B84" s="61" t="s">
         <v>2</v>
@@ -14511,7 +14486,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="110"/>
       <c r="B85" s="61" t="s">
         <v>3</v>
@@ -14568,7 +14543,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="110"/>
       <c r="B86" s="61" t="s">
         <v>4</v>
@@ -14625,7 +14600,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="110"/>
       <c r="B87" s="61" t="s">
         <v>5</v>
@@ -14682,7 +14657,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="110"/>
       <c r="B88" s="61" t="s">
         <v>6</v>
@@ -14739,7 +14714,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="110"/>
       <c r="B89" s="61" t="s">
         <v>7</v>
@@ -14796,7 +14771,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="110"/>
       <c r="B90" s="61" t="s">
         <v>8</v>
@@ -14853,7 +14828,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="110"/>
       <c r="B91" s="61" t="s">
         <v>9</v>
@@ -14910,7 +14885,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="110"/>
       <c r="B92" s="61" t="s">
         <v>10</v>
@@ -14967,7 +14942,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="110"/>
       <c r="B93" s="61" t="s">
         <v>11</v>
@@ -15024,7 +14999,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="110"/>
       <c r="B94" s="61" t="s">
         <v>12</v>
@@ -15081,7 +15056,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="110"/>
       <c r="B95" s="61" t="s">
         <v>13</v>
@@ -15138,7 +15113,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="110"/>
       <c r="B96" s="61" t="s">
         <v>14</v>
@@ -15195,7 +15170,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="110"/>
       <c r="B97" s="61" t="s">
         <v>15</v>
@@ -15252,7 +15227,7 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="110" t="s">
         <v>105</v>
       </c>
@@ -15311,7 +15286,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="110"/>
       <c r="B99" s="61" t="s">
         <v>1</v>
@@ -15368,7 +15343,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="110"/>
       <c r="B100" s="61" t="s">
         <v>2</v>
@@ -15425,7 +15400,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="110"/>
       <c r="B101" s="61" t="s">
         <v>3</v>
@@ -15482,7 +15457,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="110"/>
       <c r="B102" s="61" t="s">
         <v>4</v>
@@ -15539,7 +15514,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="110"/>
       <c r="B103" s="61" t="s">
         <v>5</v>
@@ -15596,7 +15571,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="110"/>
       <c r="B104" s="61" t="s">
         <v>6</v>
@@ -15653,7 +15628,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="110"/>
       <c r="B105" s="61" t="s">
         <v>7</v>
@@ -15710,7 +15685,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="110"/>
       <c r="B106" s="61" t="s">
         <v>8</v>
@@ -15767,7 +15742,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="110"/>
       <c r="B107" s="61" t="s">
         <v>9</v>
@@ -15824,7 +15799,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="110"/>
       <c r="B108" s="61" t="s">
         <v>10</v>
@@ -15881,7 +15856,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="110"/>
       <c r="B109" s="61" t="s">
         <v>11</v>
@@ -15938,7 +15913,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="110"/>
       <c r="B110" s="61" t="s">
         <v>12</v>
@@ -15995,7 +15970,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="110"/>
       <c r="B111" s="61" t="s">
         <v>13</v>
@@ -16052,7 +16027,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="110"/>
       <c r="B112" s="61" t="s">
         <v>14</v>
@@ -16109,7 +16084,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="110"/>
       <c r="B113" s="61" t="s">
         <v>15</v>
@@ -16191,9 +16166,9 @@
       <selection activeCell="A34" sqref="A34:S113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -16252,7 +16227,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="110" t="s">
         <v>90</v>
       </c>
@@ -16311,7 +16286,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="110"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -16368,7 +16343,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="110"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -16425,7 +16400,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="110"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -16482,7 +16457,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="110"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -16539,7 +16514,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="110"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -16596,7 +16571,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="110"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -16653,7 +16628,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="110"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -16710,7 +16685,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="110"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -16767,7 +16742,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="110"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -16824,7 +16799,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="110"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -16881,7 +16856,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="110"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -16938,7 +16913,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="110"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -16995,7 +16970,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="110"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -17052,7 +17027,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="110"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -17109,7 +17084,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="110"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -17166,7 +17141,7 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="110" t="s">
         <v>96</v>
       </c>
@@ -17225,7 +17200,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="110"/>
       <c r="B19" s="37" t="s">
         <v>1</v>
@@ -17282,7 +17257,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="110"/>
       <c r="B20" s="37" t="s">
         <v>2</v>
@@ -17339,7 +17314,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="110"/>
       <c r="B21" s="37" t="s">
         <v>3</v>
@@ -17396,7 +17371,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="110"/>
       <c r="B22" s="37" t="s">
         <v>4</v>
@@ -17453,7 +17428,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="110"/>
       <c r="B23" s="37" t="s">
         <v>5</v>
@@ -17510,7 +17485,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="110"/>
       <c r="B24" s="37" t="s">
         <v>6</v>
@@ -17567,7 +17542,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="110"/>
       <c r="B25" s="37" t="s">
         <v>7</v>
@@ -17624,7 +17599,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="110"/>
       <c r="B26" s="37" t="s">
         <v>8</v>
@@ -17681,7 +17656,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="110"/>
       <c r="B27" s="37" t="s">
         <v>9</v>
@@ -17738,7 +17713,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="110"/>
       <c r="B28" s="37" t="s">
         <v>10</v>
@@ -17795,7 +17770,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="110"/>
       <c r="B29" s="37" t="s">
         <v>11</v>
@@ -17852,7 +17827,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="110"/>
       <c r="B30" s="37" t="s">
         <v>12</v>
@@ -17909,7 +17884,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="110"/>
       <c r="B31" s="37" t="s">
         <v>13</v>
@@ -17966,7 +17941,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="110"/>
       <c r="B32" s="37" t="s">
         <v>14</v>
@@ -18023,7 +17998,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="110"/>
       <c r="B33" s="37" t="s">
         <v>15</v>
@@ -18080,7 +18055,7 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="110" t="s">
         <v>101</v>
       </c>
@@ -18139,7 +18114,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="110"/>
       <c r="B35" s="61" t="s">
         <v>1</v>
@@ -18196,7 +18171,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="110"/>
       <c r="B36" s="61" t="s">
         <v>2</v>
@@ -18253,7 +18228,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="110"/>
       <c r="B37" s="61" t="s">
         <v>3</v>
@@ -18310,7 +18285,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="110"/>
       <c r="B38" s="61" t="s">
         <v>4</v>
@@ -18367,7 +18342,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="110"/>
       <c r="B39" s="61" t="s">
         <v>5</v>
@@ -18424,7 +18399,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="110"/>
       <c r="B40" s="61" t="s">
         <v>6</v>
@@ -18481,7 +18456,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="110"/>
       <c r="B41" s="61" t="s">
         <v>7</v>
@@ -18538,7 +18513,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="110"/>
       <c r="B42" s="61" t="s">
         <v>8</v>
@@ -18595,7 +18570,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="110"/>
       <c r="B43" s="61" t="s">
         <v>9</v>
@@ -18652,7 +18627,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="110"/>
       <c r="B44" s="61" t="s">
         <v>10</v>
@@ -18709,7 +18684,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="110"/>
       <c r="B45" s="61" t="s">
         <v>11</v>
@@ -18766,7 +18741,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="110"/>
       <c r="B46" s="61" t="s">
         <v>12</v>
@@ -18823,7 +18798,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="110"/>
       <c r="B47" s="61" t="s">
         <v>13</v>
@@ -18880,7 +18855,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="110"/>
       <c r="B48" s="61" t="s">
         <v>14</v>
@@ -18937,7 +18912,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="110"/>
       <c r="B49" s="61" t="s">
         <v>15</v>
@@ -18994,7 +18969,7 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="110" t="s">
         <v>102</v>
       </c>
@@ -19053,7 +19028,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="110"/>
       <c r="B51" s="61" t="s">
         <v>1</v>
@@ -19110,7 +19085,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="110"/>
       <c r="B52" s="61" t="s">
         <v>2</v>
@@ -19167,7 +19142,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="110"/>
       <c r="B53" s="61" t="s">
         <v>3</v>
@@ -19224,7 +19199,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="110"/>
       <c r="B54" s="61" t="s">
         <v>4</v>
@@ -19281,7 +19256,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="110"/>
       <c r="B55" s="61" t="s">
         <v>5</v>
@@ -19338,7 +19313,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="110"/>
       <c r="B56" s="61" t="s">
         <v>6</v>
@@ -19395,7 +19370,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="110"/>
       <c r="B57" s="61" t="s">
         <v>7</v>
@@ -19452,7 +19427,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="110"/>
       <c r="B58" s="61" t="s">
         <v>8</v>
@@ -19509,7 +19484,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="110"/>
       <c r="B59" s="61" t="s">
         <v>9</v>
@@ -19566,7 +19541,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="110"/>
       <c r="B60" s="61" t="s">
         <v>10</v>
@@ -19623,7 +19598,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="110"/>
       <c r="B61" s="61" t="s">
         <v>11</v>
@@ -19680,7 +19655,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="110"/>
       <c r="B62" s="61" t="s">
         <v>12</v>
@@ -19737,7 +19712,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="110"/>
       <c r="B63" s="61" t="s">
         <v>13</v>
@@ -19794,7 +19769,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="110"/>
       <c r="B64" s="61" t="s">
         <v>14</v>
@@ -19851,7 +19826,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="110"/>
       <c r="B65" s="61" t="s">
         <v>15</v>
@@ -19908,7 +19883,7 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="110" t="s">
         <v>103</v>
       </c>
@@ -19967,7 +19942,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="110"/>
       <c r="B67" s="61" t="s">
         <v>1</v>
@@ -20024,7 +19999,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="110"/>
       <c r="B68" s="61" t="s">
         <v>2</v>
@@ -20081,7 +20056,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="110"/>
       <c r="B69" s="61" t="s">
         <v>3</v>
@@ -20138,7 +20113,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="110"/>
       <c r="B70" s="61" t="s">
         <v>4</v>
@@ -20195,7 +20170,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="110"/>
       <c r="B71" s="61" t="s">
         <v>5</v>
@@ -20252,7 +20227,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="110"/>
       <c r="B72" s="61" t="s">
         <v>6</v>
@@ -20309,7 +20284,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="110"/>
       <c r="B73" s="61" t="s">
         <v>7</v>
@@ -20366,7 +20341,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="110"/>
       <c r="B74" s="61" t="s">
         <v>8</v>
@@ -20423,7 +20398,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="110"/>
       <c r="B75" s="61" t="s">
         <v>9</v>
@@ -20480,7 +20455,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="110"/>
       <c r="B76" s="61" t="s">
         <v>10</v>
@@ -20537,7 +20512,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="110"/>
       <c r="B77" s="61" t="s">
         <v>11</v>
@@ -20594,7 +20569,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="110"/>
       <c r="B78" s="61" t="s">
         <v>12</v>
@@ -20651,7 +20626,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="110"/>
       <c r="B79" s="61" t="s">
         <v>13</v>
@@ -20708,7 +20683,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="110"/>
       <c r="B80" s="61" t="s">
         <v>14</v>
@@ -20765,7 +20740,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="110"/>
       <c r="B81" s="61" t="s">
         <v>15</v>
@@ -20822,7 +20797,7 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="110" t="s">
         <v>104</v>
       </c>
@@ -20881,7 +20856,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="110"/>
       <c r="B83" s="61" t="s">
         <v>1</v>
@@ -20938,7 +20913,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="110"/>
       <c r="B84" s="61" t="s">
         <v>2</v>
@@ -20995,7 +20970,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="110"/>
       <c r="B85" s="61" t="s">
         <v>3</v>
@@ -21052,7 +21027,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="110"/>
       <c r="B86" s="61" t="s">
         <v>4</v>
@@ -21109,7 +21084,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="110"/>
       <c r="B87" s="61" t="s">
         <v>5</v>
@@ -21166,7 +21141,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="110"/>
       <c r="B88" s="61" t="s">
         <v>6</v>
@@ -21223,7 +21198,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="110"/>
       <c r="B89" s="61" t="s">
         <v>7</v>
@@ -21280,7 +21255,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="110"/>
       <c r="B90" s="61" t="s">
         <v>8</v>
@@ -21337,7 +21312,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="110"/>
       <c r="B91" s="61" t="s">
         <v>9</v>
@@ -21394,7 +21369,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="110"/>
       <c r="B92" s="61" t="s">
         <v>10</v>
@@ -21451,7 +21426,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="110"/>
       <c r="B93" s="61" t="s">
         <v>11</v>
@@ -21508,7 +21483,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="110"/>
       <c r="B94" s="61" t="s">
         <v>12</v>
@@ -21565,7 +21540,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="110"/>
       <c r="B95" s="61" t="s">
         <v>13</v>
@@ -21622,7 +21597,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="110"/>
       <c r="B96" s="61" t="s">
         <v>14</v>
@@ -21679,7 +21654,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="110"/>
       <c r="B97" s="61" t="s">
         <v>15</v>
@@ -21736,7 +21711,7 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="110" t="s">
         <v>105</v>
       </c>
@@ -21795,7 +21770,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="110"/>
       <c r="B99" s="61" t="s">
         <v>1</v>
@@ -21852,7 +21827,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="110"/>
       <c r="B100" s="61" t="s">
         <v>2</v>
@@ -21909,7 +21884,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="110"/>
       <c r="B101" s="61" t="s">
         <v>3</v>
@@ -21966,7 +21941,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="110"/>
       <c r="B102" s="61" t="s">
         <v>4</v>
@@ -22023,7 +21998,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="110"/>
       <c r="B103" s="61" t="s">
         <v>5</v>
@@ -22080,7 +22055,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="110"/>
       <c r="B104" s="61" t="s">
         <v>6</v>
@@ -22137,7 +22112,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="110"/>
       <c r="B105" s="61" t="s">
         <v>7</v>
@@ -22194,7 +22169,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="110"/>
       <c r="B106" s="61" t="s">
         <v>8</v>
@@ -22251,7 +22226,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="110"/>
       <c r="B107" s="61" t="s">
         <v>9</v>
@@ -22308,7 +22283,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="110"/>
       <c r="B108" s="61" t="s">
         <v>10</v>
@@ -22365,7 +22340,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="110"/>
       <c r="B109" s="61" t="s">
         <v>11</v>
@@ -22422,7 +22397,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="110"/>
       <c r="B110" s="61" t="s">
         <v>12</v>
@@ -22479,7 +22454,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="110"/>
       <c r="B111" s="61" t="s">
         <v>13</v>
@@ -22536,7 +22511,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="110"/>
       <c r="B112" s="61" t="s">
         <v>14</v>
@@ -22593,7 +22568,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="110"/>
       <c r="B113" s="61" t="s">
         <v>15</v>
@@ -22675,9 +22650,9 @@
       <selection activeCell="A34" sqref="A34:S113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -22736,7 +22711,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="110" t="s">
         <v>90</v>
       </c>
@@ -22795,7 +22770,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="110"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -22852,7 +22827,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="110"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -22909,7 +22884,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="110"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -22966,7 +22941,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="110"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -23023,7 +22998,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="110"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -23080,7 +23055,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="110"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -23137,7 +23112,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="110"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -23194,7 +23169,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="110"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -23251,7 +23226,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="110"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -23308,7 +23283,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="110"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -23365,7 +23340,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="110"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -23422,7 +23397,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="110"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -23479,7 +23454,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="110"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -23536,7 +23511,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="110"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -23593,7 +23568,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="110"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -23650,7 +23625,7 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="110" t="s">
         <v>96</v>
       </c>
@@ -23709,7 +23684,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="110"/>
       <c r="B19" s="37" t="s">
         <v>1</v>
@@ -23766,7 +23741,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="110"/>
       <c r="B20" s="37" t="s">
         <v>2</v>
@@ -23823,7 +23798,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="110"/>
       <c r="B21" s="37" t="s">
         <v>3</v>
@@ -23880,7 +23855,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="110"/>
       <c r="B22" s="37" t="s">
         <v>4</v>
@@ -23937,7 +23912,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="110"/>
       <c r="B23" s="37" t="s">
         <v>5</v>
@@ -23994,7 +23969,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="110"/>
       <c r="B24" s="37" t="s">
         <v>6</v>
@@ -24051,7 +24026,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="110"/>
       <c r="B25" s="37" t="s">
         <v>7</v>
@@ -24108,7 +24083,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="110"/>
       <c r="B26" s="37" t="s">
         <v>8</v>
@@ -24165,7 +24140,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="110"/>
       <c r="B27" s="37" t="s">
         <v>9</v>
@@ -24222,7 +24197,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="110"/>
       <c r="B28" s="37" t="s">
         <v>10</v>
@@ -24279,7 +24254,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="110"/>
       <c r="B29" s="37" t="s">
         <v>11</v>
@@ -24336,7 +24311,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="110"/>
       <c r="B30" s="37" t="s">
         <v>12</v>
@@ -24393,7 +24368,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="110"/>
       <c r="B31" s="37" t="s">
         <v>13</v>
@@ -24450,7 +24425,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="110"/>
       <c r="B32" s="37" t="s">
         <v>14</v>
@@ -24507,7 +24482,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="110"/>
       <c r="B33" s="37" t="s">
         <v>15</v>
@@ -24564,7 +24539,7 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="110" t="s">
         <v>101</v>
       </c>
@@ -24623,7 +24598,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="110"/>
       <c r="B35" s="61" t="s">
         <v>1</v>
@@ -24680,7 +24655,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="110"/>
       <c r="B36" s="61" t="s">
         <v>2</v>
@@ -24737,7 +24712,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="110"/>
       <c r="B37" s="61" t="s">
         <v>3</v>
@@ -24794,7 +24769,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="110"/>
       <c r="B38" s="61" t="s">
         <v>4</v>
@@ -24851,7 +24826,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="110"/>
       <c r="B39" s="61" t="s">
         <v>5</v>
@@ -24908,7 +24883,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="110"/>
       <c r="B40" s="61" t="s">
         <v>6</v>
@@ -24965,7 +24940,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="110"/>
       <c r="B41" s="61" t="s">
         <v>7</v>
@@ -25022,7 +24997,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="110"/>
       <c r="B42" s="61" t="s">
         <v>8</v>
@@ -25079,7 +25054,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="110"/>
       <c r="B43" s="61" t="s">
         <v>9</v>
@@ -25136,7 +25111,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="110"/>
       <c r="B44" s="61" t="s">
         <v>10</v>
@@ -25193,7 +25168,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="110"/>
       <c r="B45" s="61" t="s">
         <v>11</v>
@@ -25250,7 +25225,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="110"/>
       <c r="B46" s="61" t="s">
         <v>12</v>
@@ -25307,7 +25282,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="110"/>
       <c r="B47" s="61" t="s">
         <v>13</v>
@@ -25364,7 +25339,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="110"/>
       <c r="B48" s="61" t="s">
         <v>14</v>
@@ -25421,7 +25396,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="110"/>
       <c r="B49" s="61" t="s">
         <v>15</v>
@@ -25478,7 +25453,7 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="110" t="s">
         <v>102</v>
       </c>
@@ -25537,7 +25512,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="110"/>
       <c r="B51" s="61" t="s">
         <v>1</v>
@@ -25594,7 +25569,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="110"/>
       <c r="B52" s="61" t="s">
         <v>2</v>
@@ -25651,7 +25626,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="110"/>
       <c r="B53" s="61" t="s">
         <v>3</v>
@@ -25708,7 +25683,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="110"/>
       <c r="B54" s="61" t="s">
         <v>4</v>
@@ -25765,7 +25740,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="110"/>
       <c r="B55" s="61" t="s">
         <v>5</v>
@@ -25822,7 +25797,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="110"/>
       <c r="B56" s="61" t="s">
         <v>6</v>
@@ -25879,7 +25854,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="110"/>
       <c r="B57" s="61" t="s">
         <v>7</v>
@@ -25936,7 +25911,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="110"/>
       <c r="B58" s="61" t="s">
         <v>8</v>
@@ -25993,7 +25968,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="110"/>
       <c r="B59" s="61" t="s">
         <v>9</v>
@@ -26050,7 +26025,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="110"/>
       <c r="B60" s="61" t="s">
         <v>10</v>
@@ -26107,7 +26082,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="110"/>
       <c r="B61" s="61" t="s">
         <v>11</v>
@@ -26164,7 +26139,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="110"/>
       <c r="B62" s="61" t="s">
         <v>12</v>
@@ -26221,7 +26196,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="110"/>
       <c r="B63" s="61" t="s">
         <v>13</v>
@@ -26278,7 +26253,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="110"/>
       <c r="B64" s="61" t="s">
         <v>14</v>
@@ -26335,7 +26310,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="110"/>
       <c r="B65" s="61" t="s">
         <v>15</v>
@@ -26392,7 +26367,7 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="110" t="s">
         <v>103</v>
       </c>
@@ -26451,7 +26426,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="110"/>
       <c r="B67" s="61" t="s">
         <v>1</v>
@@ -26508,7 +26483,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="110"/>
       <c r="B68" s="61" t="s">
         <v>2</v>
@@ -26565,7 +26540,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="110"/>
       <c r="B69" s="61" t="s">
         <v>3</v>
@@ -26622,7 +26597,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="110"/>
       <c r="B70" s="61" t="s">
         <v>4</v>
@@ -26679,7 +26654,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="110"/>
       <c r="B71" s="61" t="s">
         <v>5</v>
@@ -26736,7 +26711,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="110"/>
       <c r="B72" s="61" t="s">
         <v>6</v>
@@ -26793,7 +26768,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="110"/>
       <c r="B73" s="61" t="s">
         <v>7</v>
@@ -26850,7 +26825,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="110"/>
       <c r="B74" s="61" t="s">
         <v>8</v>
@@ -26907,7 +26882,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="110"/>
       <c r="B75" s="61" t="s">
         <v>9</v>
@@ -26964,7 +26939,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="110"/>
       <c r="B76" s="61" t="s">
         <v>10</v>
@@ -27021,7 +26996,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="110"/>
       <c r="B77" s="61" t="s">
         <v>11</v>
@@ -27078,7 +27053,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="110"/>
       <c r="B78" s="61" t="s">
         <v>12</v>
@@ -27135,7 +27110,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="110"/>
       <c r="B79" s="61" t="s">
         <v>13</v>
@@ -27192,7 +27167,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="110"/>
       <c r="B80" s="61" t="s">
         <v>14</v>
@@ -27249,7 +27224,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="110"/>
       <c r="B81" s="61" t="s">
         <v>15</v>
@@ -27306,7 +27281,7 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="110" t="s">
         <v>104</v>
       </c>
@@ -27365,7 +27340,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="110"/>
       <c r="B83" s="61" t="s">
         <v>1</v>
@@ -27422,7 +27397,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="110"/>
       <c r="B84" s="61" t="s">
         <v>2</v>
@@ -27479,7 +27454,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="110"/>
       <c r="B85" s="61" t="s">
         <v>3</v>
@@ -27536,7 +27511,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="110"/>
       <c r="B86" s="61" t="s">
         <v>4</v>
@@ -27593,7 +27568,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="110"/>
       <c r="B87" s="61" t="s">
         <v>5</v>
@@ -27650,7 +27625,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="110"/>
       <c r="B88" s="61" t="s">
         <v>6</v>
@@ -27707,7 +27682,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="110"/>
       <c r="B89" s="61" t="s">
         <v>7</v>
@@ -27764,7 +27739,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="110"/>
       <c r="B90" s="61" t="s">
         <v>8</v>
@@ -27821,7 +27796,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="110"/>
       <c r="B91" s="61" t="s">
         <v>9</v>
@@ -27878,7 +27853,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="110"/>
       <c r="B92" s="61" t="s">
         <v>10</v>
@@ -27935,7 +27910,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="110"/>
       <c r="B93" s="61" t="s">
         <v>11</v>
@@ -27992,7 +27967,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="110"/>
       <c r="B94" s="61" t="s">
         <v>12</v>
@@ -28049,7 +28024,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="110"/>
       <c r="B95" s="61" t="s">
         <v>13</v>
@@ -28106,7 +28081,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="110"/>
       <c r="B96" s="61" t="s">
         <v>14</v>
@@ -28163,7 +28138,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="110"/>
       <c r="B97" s="61" t="s">
         <v>15</v>
@@ -28220,7 +28195,7 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="110" t="s">
         <v>105</v>
       </c>
@@ -28279,7 +28254,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="110"/>
       <c r="B99" s="61" t="s">
         <v>1</v>
@@ -28336,7 +28311,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="110"/>
       <c r="B100" s="61" t="s">
         <v>2</v>
@@ -28393,7 +28368,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="110"/>
       <c r="B101" s="61" t="s">
         <v>3</v>
@@ -28450,7 +28425,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="110"/>
       <c r="B102" s="61" t="s">
         <v>4</v>
@@ -28507,7 +28482,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="110"/>
       <c r="B103" s="61" t="s">
         <v>5</v>
@@ -28564,7 +28539,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="110"/>
       <c r="B104" s="61" t="s">
         <v>6</v>
@@ -28621,7 +28596,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="110"/>
       <c r="B105" s="61" t="s">
         <v>7</v>
@@ -28678,7 +28653,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="110"/>
       <c r="B106" s="61" t="s">
         <v>8</v>
@@ -28735,7 +28710,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="110"/>
       <c r="B107" s="61" t="s">
         <v>9</v>
@@ -28792,7 +28767,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="110"/>
       <c r="B108" s="61" t="s">
         <v>10</v>
@@ -28849,7 +28824,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="110"/>
       <c r="B109" s="61" t="s">
         <v>11</v>
@@ -28906,7 +28881,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="110"/>
       <c r="B110" s="61" t="s">
         <v>12</v>
@@ -28963,7 +28938,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="110"/>
       <c r="B111" s="61" t="s">
         <v>13</v>
@@ -29020,7 +28995,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="110"/>
       <c r="B112" s="61" t="s">
         <v>14</v>
@@ -29077,7 +29052,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="110"/>
       <c r="B113" s="61" t="s">
         <v>15</v>
@@ -29159,12 +29134,12 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -29187,7 +29162,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -29210,7 +29185,7 @@
         <v>3.0298294321208146</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -29236,7 +29211,7 @@
         <v>2.7100141031747289</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
         <v>101</v>
       </c>
@@ -29259,7 +29234,7 @@
         <v>3.6526277042789821</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
         <v>102</v>
       </c>
@@ -29282,7 +29257,7 @@
         <v>3.5011362326729416</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="62" t="s">
         <v>103</v>
       </c>
@@ -29305,7 +29280,7 @@
         <v>2.1208806024845703</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="62" t="s">
         <v>104</v>
       </c>
@@ -29328,7 +29303,7 @@
         <v>2.0367186738145477</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="62" t="s">
         <v>105</v>
       </c>
@@ -29363,29 +29338,29 @@
   </sheetPr>
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>17</v>
       </c>
@@ -29429,7 +29404,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="114" t="s">
         <v>90</v>
       </c>
@@ -29469,7 +29444,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="115"/>
       <c r="B3" s="69" t="s">
         <v>80</v>
@@ -29507,7 +29482,7 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="115"/>
       <c r="B4" s="69" t="s">
         <v>82</v>
@@ -29539,7 +29514,7 @@
       <c r="M4" s="72"/>
       <c r="N4" s="72"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="115"/>
       <c r="B5" s="69" t="s">
         <v>84</v>
@@ -29577,7 +29552,7 @@
         <v>43998</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="115"/>
       <c r="B6" s="69" t="s">
         <v>86</v>
@@ -29613,7 +29588,7 @@
       </c>
       <c r="N6" s="72"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="115"/>
       <c r="B7" s="69" t="s">
         <v>88</v>
@@ -29647,7 +29622,7 @@
       <c r="M7" s="72"/>
       <c r="N7" s="72"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="116"/>
       <c r="B8" s="76" t="s">
         <v>89</v>
@@ -29679,7 +29654,7 @@
       <c r="M8" s="53"/>
       <c r="N8" s="52"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="117" t="s">
         <v>96</v>
       </c>
@@ -29719,7 +29694,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="118"/>
       <c r="B10" s="89" t="s">
         <v>80</v>
@@ -29757,7 +29732,7 @@
         <v>43966</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="118"/>
       <c r="B11" s="89" t="s">
         <v>82</v>
@@ -29789,7 +29764,7 @@
       <c r="M11" s="92"/>
       <c r="N11" s="92"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="118"/>
       <c r="B12" s="89" t="s">
         <v>84</v>
@@ -29827,7 +29802,7 @@
         <v>44001</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="118"/>
       <c r="B13" s="89" t="s">
         <v>86</v>
@@ -29863,7 +29838,7 @@
       </c>
       <c r="N13" s="92"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="118"/>
       <c r="B14" s="89" t="s">
         <v>88</v>
@@ -29897,7 +29872,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="92"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="119"/>
       <c r="B15" s="95" t="s">
         <v>89</v>
@@ -29931,7 +29906,7 @@
       <c r="M15" s="100"/>
       <c r="N15" s="101"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="114" t="s">
         <v>101</v>
       </c>
@@ -29971,7 +29946,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="115"/>
       <c r="B17" s="69" t="s">
         <v>80</v>
@@ -30009,7 +29984,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="115"/>
       <c r="B18" s="69" t="s">
         <v>82</v>
@@ -30047,7 +30022,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="115"/>
       <c r="B19" s="69" t="s">
         <v>84</v>
@@ -30085,7 +30060,7 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="115"/>
       <c r="B20" s="69" t="s">
         <v>86</v>
@@ -30123,7 +30098,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="115"/>
       <c r="B21" s="69" t="s">
         <v>88</v>
@@ -30159,7 +30134,7 @@
       </c>
       <c r="N21" s="75"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="115"/>
       <c r="B22" s="108" t="s">
         <v>89</v>
@@ -30193,7 +30168,7 @@
       <c r="M22" s="72"/>
       <c r="N22" s="75"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="116"/>
       <c r="B23" s="76" t="s">
         <v>106</v>
@@ -30227,7 +30202,7 @@
       <c r="M23" s="72"/>
       <c r="N23" s="52"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="111" t="s">
         <v>102</v>
       </c>
@@ -30267,7 +30242,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="112"/>
       <c r="B25" s="42" t="s">
         <v>80</v>
@@ -30303,7 +30278,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="112"/>
       <c r="B26" s="42" t="s">
         <v>82</v>
@@ -30339,7 +30314,7 @@
         <v>43958</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="112"/>
       <c r="B27" s="42" t="s">
         <v>84</v>
@@ -30375,7 +30350,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="112"/>
       <c r="B28" s="42" t="s">
         <v>86</v>
@@ -30411,7 +30386,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="112"/>
       <c r="B29" s="42" t="s">
         <v>88</v>
@@ -30420,7 +30395,7 @@
         <v>64</v>
       </c>
       <c r="D29" s="19">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="E29" s="9">
         <v>1</v>
@@ -30445,7 +30420,7 @@
       </c>
       <c r="N29" s="35"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="112"/>
       <c r="B30" s="42" t="s">
         <v>89</v>
@@ -30454,7 +30429,7 @@
         <v>85</v>
       </c>
       <c r="D30" s="19">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="E30" s="9">
         <v>1</v>
@@ -30477,7 +30452,7 @@
       <c r="M30" s="43"/>
       <c r="N30" s="81"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="113"/>
       <c r="B31" s="42" t="s">
         <v>106</v>
@@ -30486,7 +30461,7 @@
         <v>87</v>
       </c>
       <c r="D31" s="19">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -30509,7 +30484,7 @@
       <c r="M31" s="43"/>
       <c r="N31" s="43"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="114" t="s">
         <v>103</v>
       </c>
@@ -30549,7 +30524,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="115"/>
       <c r="B33" s="69" t="s">
         <v>80</v>
@@ -30587,7 +30562,7 @@
         <v>43912</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="115"/>
       <c r="B34" s="69" t="s">
         <v>82</v>
@@ -30625,7 +30600,7 @@
         <v>43966</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="115"/>
       <c r="B35" s="69" t="s">
         <v>84</v>
@@ -30663,7 +30638,7 @@
         <v>43995</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="115"/>
       <c r="B36" s="69" t="s">
         <v>86</v>
@@ -30699,7 +30674,7 @@
       </c>
       <c r="N36" s="72"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="115"/>
       <c r="B37" s="69" t="s">
         <v>88</v>
@@ -30733,7 +30708,7 @@
       <c r="M37" s="72"/>
       <c r="N37" s="72"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="115"/>
       <c r="B38" s="69" t="s">
         <v>89</v>
@@ -30767,7 +30742,7 @@
       <c r="M38" s="72"/>
       <c r="N38" s="75"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="111" t="s">
         <v>104</v>
       </c>
@@ -30807,7 +30782,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="112"/>
       <c r="B40" s="42" t="s">
         <v>80</v>
@@ -30843,7 +30818,7 @@
         <v>43912</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="112"/>
       <c r="B41" s="42" t="s">
         <v>82</v>
@@ -30879,7 +30854,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="112"/>
       <c r="B42" s="42" t="s">
         <v>84</v>
@@ -30915,7 +30890,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="112"/>
       <c r="B43" s="42" t="s">
         <v>86</v>
@@ -30949,7 +30924,7 @@
       </c>
       <c r="N43" s="35"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="112"/>
       <c r="B44" s="42" t="s">
         <v>88</v>
@@ -30981,7 +30956,7 @@
       <c r="M44" s="43"/>
       <c r="N44" s="43"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="113"/>
       <c r="B45" s="44" t="s">
         <v>89</v>
@@ -31015,7 +30990,7 @@
       <c r="M45" s="22"/>
       <c r="N45" s="23"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="114" t="s">
         <v>105</v>
       </c>
@@ -31055,7 +31030,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="115"/>
       <c r="B47" s="69" t="s">
         <v>80</v>
@@ -31093,7 +31068,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="115"/>
       <c r="B48" s="69" t="s">
         <v>82</v>
@@ -31131,7 +31106,7 @@
         <v>43971</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="115"/>
       <c r="B49" s="69" t="s">
         <v>84</v>
@@ -31140,7 +31115,7 @@
         <v>107</v>
       </c>
       <c r="D49" s="71">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="E49" s="74">
         <v>1</v>
@@ -31169,7 +31144,7 @@
         <v>43999</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="115"/>
       <c r="B50" s="69" t="s">
         <v>86</v>
@@ -31178,7 +31153,7 @@
         <v>108</v>
       </c>
       <c r="D50" s="71">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="E50" s="70">
         <v>1</v>
@@ -31205,7 +31180,7 @@
       </c>
       <c r="N50" s="72"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="115"/>
       <c r="B51" s="69" t="s">
         <v>88</v>
@@ -31239,7 +31214,7 @@
       <c r="M51" s="72"/>
       <c r="N51" s="72"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="116"/>
       <c r="B52" s="76" t="s">
         <v>89</v>
@@ -31295,20 +31270,20 @@
   </sheetPr>
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -31379,7 +31354,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -31430,7 +31405,7 @@
         <v>60</v>
       </c>
       <c r="Q2">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="R2">
         <v>1000</v>
@@ -31451,7 +31426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -31508,7 +31483,7 @@
         <v>1000</v>
       </c>
       <c r="S3">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="T3">
         <v>1</v>
@@ -31523,7 +31498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="61" t="s">
         <v>101</v>
       </c>
@@ -31579,7 +31554,7 @@
         <v>1000</v>
       </c>
       <c r="S4">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T4">
         <v>1</v>
@@ -31594,7 +31569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
         <v>102</v>
       </c>
@@ -31644,13 +31619,13 @@
         <v>60</v>
       </c>
       <c r="Q5">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="R5">
         <v>1000</v>
       </c>
       <c r="S5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T5">
         <v>1</v>
@@ -31665,7 +31640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
         <v>103</v>
       </c>
@@ -31722,7 +31697,7 @@
         <v>1000</v>
       </c>
       <c r="S6">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T6">
         <v>1</v>
@@ -31737,7 +31712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="61" t="s">
         <v>104</v>
       </c>
@@ -31809,7 +31784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
         <v>105</v>
       </c>
@@ -31860,11 +31835,14 @@
         <v>60</v>
       </c>
       <c r="Q8">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="R8">
         <v>1000</v>
       </c>
+      <c r="S8">
+        <v>60</v>
+      </c>
       <c r="T8">
         <v>1</v>
       </c>
@@ -31880,8 +31858,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -31896,20 +31874,20 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="33" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>17</v>
       </c>
@@ -31938,7 +31916,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="122" t="s">
         <v>90</v>
       </c>
@@ -31963,7 +31941,7 @@
       <c r="H2" s="50"/>
       <c r="I2" s="48"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="123"/>
       <c r="B3" s="51" t="s">
         <v>94</v>
@@ -31982,7 +31960,7 @@
       <c r="H3" s="53"/>
       <c r="I3" s="52"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="120" t="s">
         <v>96</v>
       </c>
@@ -32007,7 +31985,7 @@
       <c r="H4" s="57"/>
       <c r="I4" s="55"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="121"/>
       <c r="B5" s="58" t="s">
         <v>94</v>
@@ -32026,7 +32004,7 @@
       <c r="H5" s="60"/>
       <c r="I5" s="59"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="122" t="s">
         <v>101</v>
       </c>
@@ -32051,7 +32029,7 @@
       <c r="H6" s="50"/>
       <c r="I6" s="48"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="123"/>
       <c r="B7" s="51" t="s">
         <v>94</v>
@@ -32070,7 +32048,7 @@
       <c r="H7" s="53"/>
       <c r="I7" s="52"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="120" t="s">
         <v>102</v>
       </c>
@@ -32095,7 +32073,7 @@
       <c r="H8" s="57"/>
       <c r="I8" s="55"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="121"/>
       <c r="B9" s="58" t="s">
         <v>94</v>
@@ -32114,7 +32092,7 @@
       <c r="H9" s="60"/>
       <c r="I9" s="59"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="122" t="s">
         <v>103</v>
       </c>
@@ -32139,7 +32117,7 @@
       <c r="H10" s="50"/>
       <c r="I10" s="48"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="123"/>
       <c r="B11" s="51" t="s">
         <v>94</v>
@@ -32158,7 +32136,7 @@
       <c r="H11" s="53"/>
       <c r="I11" s="52"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="120" t="s">
         <v>104</v>
       </c>
@@ -32183,7 +32161,7 @@
       <c r="H12" s="57"/>
       <c r="I12" s="55"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="121"/>
       <c r="B13" s="58" t="s">
         <v>94</v>
@@ -32202,7 +32180,7 @@
       <c r="H13" s="60"/>
       <c r="I13" s="59"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="122" t="s">
         <v>105</v>
       </c>
@@ -32227,7 +32205,7 @@
       <c r="H14" s="50"/>
       <c r="I14" s="48"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="123"/>
       <c r="B15" s="51" t="s">
         <v>94</v>
@@ -32273,21 +32251,21 @@
       <selection activeCell="A4" sqref="A4:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -32319,7 +32297,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -32351,7 +32329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -32383,7 +32361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
         <v>101</v>
       </c>
@@ -32415,7 +32393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="102" t="s">
         <v>102</v>
       </c>
@@ -32447,7 +32425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
         <v>103</v>
       </c>
@@ -32479,7 +32457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="102" t="s">
         <v>104</v>
       </c>
@@ -32511,7 +32489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
         <v>105</v>
       </c>
@@ -32560,20 +32538,20 @@
       <selection activeCell="A4" sqref="A4:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -32605,7 +32583,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -32637,7 +32615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -32669,7 +32647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
         <v>101</v>
       </c>
@@ -32701,7 +32679,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="102" t="s">
         <v>102</v>
       </c>
@@ -32733,7 +32711,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
         <v>103</v>
       </c>
@@ -32765,7 +32743,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="102" t="s">
         <v>104</v>
       </c>
@@ -32797,7 +32775,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
         <v>105</v>
       </c>
@@ -32845,20 +32823,20 @@
       <selection activeCell="A4" sqref="A4:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -32890,7 +32868,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -32922,7 +32900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -32954,7 +32932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
         <v>101</v>
       </c>
@@ -32986,7 +32964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="102" t="s">
         <v>102</v>
       </c>
@@ -33018,7 +32996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
         <v>103</v>
       </c>
@@ -33050,7 +33028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="102" t="s">
         <v>104</v>
       </c>
@@ -33082,7 +33060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
         <v>105</v>
       </c>
@@ -33130,21 +33108,21 @@
       <selection activeCell="A4" sqref="A4:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="5"/>
-    <col min="9" max="9" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="5"/>
+    <col min="9" max="9" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
@@ -33176,7 +33154,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -33208,7 +33186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -33240,7 +33218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
         <v>101</v>
       </c>
@@ -33272,7 +33250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
         <v>102</v>
       </c>
@@ -33304,7 +33282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
         <v>103</v>
       </c>
@@ -33336,7 +33314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="102" t="s">
         <v>104</v>
       </c>
@@ -33368,7 +33346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
         <v>105</v>
       </c>

--- a/data/input_data_US_group2.xlsx
+++ b/data/input_data_US_group2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom.walsh\Documents\GitHub\covasim-australia\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F944F4E-9CDB-42F3-B9A1-B2E518C249DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3186DF-62DE-46A7-A5A2-3850871BE68C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="839" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age_sex" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,14 @@
     <sheet name="contact matrices-work" sheetId="9" r:id="rId12"/>
     <sheet name="contact matrices-other" sheetId="10" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -47,19 +49,10 @@
   <commentList>
     <comment ref="R1" authorId="0" shapeId="0" xr:uid="{7833F806-E614-7449-968E-2A674530B08E}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Only used if the the new_tests column of the epi data is incorrectly specified</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -75,36 +68,18 @@
   <commentList>
     <comment ref="E1" authorId="0" shapeId="0" xr:uid="{045AFF27-0FD9-CB4D-9BD3-D86131B19BD5}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The time to trace contacts, applied to all targeted layers for this policy</t>
-        </r>
       </text>
     </comment>
     <comment ref="G1" authorId="1" shapeId="0" xr:uid="{32492FBF-3FB7-D547-8467-90931EBEF8B7}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The days on which the coverage changes</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -1427,13 +1402,13 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1492,7 +1467,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="110" t="s">
         <v>90</v>
       </c>
@@ -1552,7 +1527,7 @@
         <v>522367</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="110"/>
       <c r="B3" s="36" t="s">
         <v>20</v>
@@ -1610,7 +1585,7 @@
         <v>500366</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="110" t="s">
         <v>90</v>
       </c>
@@ -1686,7 +1661,7 @@
         <v>1022733</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="110"/>
       <c r="B5" s="36" t="s">
         <v>21</v>
@@ -1760,7 +1735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="110" t="s">
         <v>96</v>
       </c>
@@ -1820,7 +1795,7 @@
         <v>307086</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="110"/>
       <c r="B7" s="37" t="s">
         <v>20</v>
@@ -1878,7 +1853,7 @@
         <v>276445</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="110" t="s">
         <v>96</v>
       </c>
@@ -1954,7 +1929,7 @@
         <v>583531</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="110"/>
       <c r="B9" s="37" t="s">
         <v>21</v>
@@ -2028,7 +2003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="110" t="s">
         <v>101</v>
       </c>
@@ -2087,7 +2062,7 @@
         <v>2658903</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="110"/>
       <c r="B11" s="61" t="s">
         <v>20</v>
@@ -2144,7 +2119,7 @@
         <v>2550308</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="110" t="s">
         <v>101</v>
       </c>
@@ -2203,7 +2178,7 @@
         <v>5209211</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="110"/>
       <c r="B13" s="61" t="s">
         <v>21</v>
@@ -2260,7 +2235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="110" t="s">
         <v>102</v>
       </c>
@@ -2319,7 +2294,7 @@
         <v>1029728</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="110"/>
       <c r="B15" s="61" t="s">
         <v>20</v>
@@ -2376,7 +2351,7 @@
         <v>968185</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="110" t="s">
         <v>102</v>
       </c>
@@ -2435,7 +2410,7 @@
         <v>1997913</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="110"/>
       <c r="B17" s="61" t="s">
         <v>21</v>
@@ -2492,7 +2467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="110" t="s">
         <v>103</v>
       </c>
@@ -2551,7 +2526,7 @@
         <v>5154</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="110"/>
       <c r="B19" s="61" t="s">
         <v>20</v>
@@ -2608,7 +2583,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="110" t="s">
         <v>103</v>
       </c>
@@ -2667,7 +2642,7 @@
         <v>7838</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="110"/>
       <c r="B21" s="61" t="s">
         <v>21</v>
@@ -2724,7 +2699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="110" t="s">
         <v>104</v>
       </c>
@@ -2783,7 +2758,7 @@
         <v>9529195</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="110"/>
       <c r="B23" s="61" t="s">
         <v>20</v>
@@ -2840,7 +2815,7 @@
         <v>9185858</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="110" t="s">
         <v>104</v>
       </c>
@@ -2899,7 +2874,7 @@
         <v>18715053</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="110"/>
       <c r="B25" s="61" t="s">
         <v>21</v>
@@ -2956,7 +2931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="110" t="s">
         <v>105</v>
       </c>
@@ -3015,7 +2990,7 @@
         <v>419544</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="110"/>
       <c r="B27" s="61" t="s">
         <v>20</v>
@@ -3072,7 +3047,7 @@
         <v>399459</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="110" t="s">
         <v>105</v>
       </c>
@@ -3131,7 +3106,7 @@
         <v>819003</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="110"/>
       <c r="B29" s="61" t="s">
         <v>21</v>
@@ -3190,6 +3165,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
@@ -3199,11 +3179,6 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3220,12 +3195,12 @@
       <selection activeCell="A34" sqref="A34:S113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -3284,7 +3259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="110" t="s">
         <v>90</v>
       </c>
@@ -3343,7 +3318,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="110"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -3400,7 +3375,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="110"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -3457,7 +3432,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="110"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -3514,7 +3489,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="110"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -3571,7 +3546,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="110"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -3628,7 +3603,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="110"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -3685,7 +3660,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="110"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -3742,7 +3717,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="110"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -3799,7 +3774,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="110"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -3856,7 +3831,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="110"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -3913,7 +3888,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="110"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -3970,7 +3945,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="110"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -4027,7 +4002,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="110"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -4084,7 +4059,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="110"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -4141,7 +4116,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="110"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -4198,7 +4173,7 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="110" t="s">
         <v>96</v>
       </c>
@@ -4257,7 +4232,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="110"/>
       <c r="B19" s="37" t="s">
         <v>1</v>
@@ -4314,7 +4289,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="110"/>
       <c r="B20" s="37" t="s">
         <v>2</v>
@@ -4371,7 +4346,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="110"/>
       <c r="B21" s="37" t="s">
         <v>3</v>
@@ -4428,7 +4403,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="110"/>
       <c r="B22" s="37" t="s">
         <v>4</v>
@@ -4485,7 +4460,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="110"/>
       <c r="B23" s="37" t="s">
         <v>5</v>
@@ -4542,7 +4517,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="110"/>
       <c r="B24" s="37" t="s">
         <v>6</v>
@@ -4599,7 +4574,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="110"/>
       <c r="B25" s="37" t="s">
         <v>7</v>
@@ -4656,7 +4631,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="110"/>
       <c r="B26" s="37" t="s">
         <v>8</v>
@@ -4713,7 +4688,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="110"/>
       <c r="B27" s="37" t="s">
         <v>9</v>
@@ -4770,7 +4745,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="110"/>
       <c r="B28" s="37" t="s">
         <v>10</v>
@@ -4827,7 +4802,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="110"/>
       <c r="B29" s="37" t="s">
         <v>11</v>
@@ -4884,7 +4859,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="110"/>
       <c r="B30" s="37" t="s">
         <v>12</v>
@@ -4941,7 +4916,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="110"/>
       <c r="B31" s="37" t="s">
         <v>13</v>
@@ -4998,7 +4973,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="110"/>
       <c r="B32" s="37" t="s">
         <v>14</v>
@@ -5055,7 +5030,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="110"/>
       <c r="B33" s="37" t="s">
         <v>15</v>
@@ -5112,7 +5087,7 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="110" t="s">
         <v>101</v>
       </c>
@@ -5171,7 +5146,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="110"/>
       <c r="B35" s="61" t="s">
         <v>1</v>
@@ -5228,7 +5203,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="110"/>
       <c r="B36" s="61" t="s">
         <v>2</v>
@@ -5285,7 +5260,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="110"/>
       <c r="B37" s="61" t="s">
         <v>3</v>
@@ -5342,7 +5317,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="110"/>
       <c r="B38" s="61" t="s">
         <v>4</v>
@@ -5399,7 +5374,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="110"/>
       <c r="B39" s="61" t="s">
         <v>5</v>
@@ -5456,7 +5431,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="110"/>
       <c r="B40" s="61" t="s">
         <v>6</v>
@@ -5513,7 +5488,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="110"/>
       <c r="B41" s="61" t="s">
         <v>7</v>
@@ -5570,7 +5545,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="110"/>
       <c r="B42" s="61" t="s">
         <v>8</v>
@@ -5627,7 +5602,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="110"/>
       <c r="B43" s="61" t="s">
         <v>9</v>
@@ -5684,7 +5659,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="110"/>
       <c r="B44" s="61" t="s">
         <v>10</v>
@@ -5741,7 +5716,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="110"/>
       <c r="B45" s="61" t="s">
         <v>11</v>
@@ -5798,7 +5773,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="110"/>
       <c r="B46" s="61" t="s">
         <v>12</v>
@@ -5855,7 +5830,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="110"/>
       <c r="B47" s="61" t="s">
         <v>13</v>
@@ -5912,7 +5887,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="110"/>
       <c r="B48" s="61" t="s">
         <v>14</v>
@@ -5969,7 +5944,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="110"/>
       <c r="B49" s="61" t="s">
         <v>15</v>
@@ -6026,7 +6001,7 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="110" t="s">
         <v>102</v>
       </c>
@@ -6085,7 +6060,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="110"/>
       <c r="B51" s="61" t="s">
         <v>1</v>
@@ -6142,7 +6117,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="110"/>
       <c r="B52" s="61" t="s">
         <v>2</v>
@@ -6199,7 +6174,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="110"/>
       <c r="B53" s="61" t="s">
         <v>3</v>
@@ -6256,7 +6231,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="110"/>
       <c r="B54" s="61" t="s">
         <v>4</v>
@@ -6313,7 +6288,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="110"/>
       <c r="B55" s="61" t="s">
         <v>5</v>
@@ -6370,7 +6345,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="110"/>
       <c r="B56" s="61" t="s">
         <v>6</v>
@@ -6427,7 +6402,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="110"/>
       <c r="B57" s="61" t="s">
         <v>7</v>
@@ -6484,7 +6459,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="110"/>
       <c r="B58" s="61" t="s">
         <v>8</v>
@@ -6541,7 +6516,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="110"/>
       <c r="B59" s="61" t="s">
         <v>9</v>
@@ -6598,7 +6573,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="110"/>
       <c r="B60" s="61" t="s">
         <v>10</v>
@@ -6655,7 +6630,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" s="110"/>
       <c r="B61" s="61" t="s">
         <v>11</v>
@@ -6712,7 +6687,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="110"/>
       <c r="B62" s="61" t="s">
         <v>12</v>
@@ -6769,7 +6744,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="110"/>
       <c r="B63" s="61" t="s">
         <v>13</v>
@@ -6826,7 +6801,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="110"/>
       <c r="B64" s="61" t="s">
         <v>14</v>
@@ -6883,7 +6858,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" s="110"/>
       <c r="B65" s="61" t="s">
         <v>15</v>
@@ -6940,7 +6915,7 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" s="110" t="s">
         <v>103</v>
       </c>
@@ -6999,7 +6974,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" s="110"/>
       <c r="B67" s="61" t="s">
         <v>1</v>
@@ -7056,7 +7031,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" s="110"/>
       <c r="B68" s="61" t="s">
         <v>2</v>
@@ -7113,7 +7088,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" s="110"/>
       <c r="B69" s="61" t="s">
         <v>3</v>
@@ -7170,7 +7145,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" s="110"/>
       <c r="B70" s="61" t="s">
         <v>4</v>
@@ -7227,7 +7202,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" s="110"/>
       <c r="B71" s="61" t="s">
         <v>5</v>
@@ -7284,7 +7259,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" s="110"/>
       <c r="B72" s="61" t="s">
         <v>6</v>
@@ -7341,7 +7316,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" s="110"/>
       <c r="B73" s="61" t="s">
         <v>7</v>
@@ -7398,7 +7373,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" s="110"/>
       <c r="B74" s="61" t="s">
         <v>8</v>
@@ -7455,7 +7430,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" s="110"/>
       <c r="B75" s="61" t="s">
         <v>9</v>
@@ -7512,7 +7487,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" s="110"/>
       <c r="B76" s="61" t="s">
         <v>10</v>
@@ -7569,7 +7544,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" s="110"/>
       <c r="B77" s="61" t="s">
         <v>11</v>
@@ -7626,7 +7601,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" s="110"/>
       <c r="B78" s="61" t="s">
         <v>12</v>
@@ -7683,7 +7658,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" s="110"/>
       <c r="B79" s="61" t="s">
         <v>13</v>
@@ -7740,7 +7715,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" s="110"/>
       <c r="B80" s="61" t="s">
         <v>14</v>
@@ -7797,7 +7772,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" s="110"/>
       <c r="B81" s="61" t="s">
         <v>15</v>
@@ -7854,7 +7829,7 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" s="110" t="s">
         <v>104</v>
       </c>
@@ -7913,7 +7888,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83" s="110"/>
       <c r="B83" s="61" t="s">
         <v>1</v>
@@ -7970,7 +7945,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" s="110"/>
       <c r="B84" s="61" t="s">
         <v>2</v>
@@ -8027,7 +8002,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" s="110"/>
       <c r="B85" s="61" t="s">
         <v>3</v>
@@ -8084,7 +8059,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" s="110"/>
       <c r="B86" s="61" t="s">
         <v>4</v>
@@ -8141,7 +8116,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" s="110"/>
       <c r="B87" s="61" t="s">
         <v>5</v>
@@ -8198,7 +8173,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" s="110"/>
       <c r="B88" s="61" t="s">
         <v>6</v>
@@ -8255,7 +8230,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" s="110"/>
       <c r="B89" s="61" t="s">
         <v>7</v>
@@ -8312,7 +8287,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" s="110"/>
       <c r="B90" s="61" t="s">
         <v>8</v>
@@ -8369,7 +8344,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" s="110"/>
       <c r="B91" s="61" t="s">
         <v>9</v>
@@ -8426,7 +8401,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92" s="110"/>
       <c r="B92" s="61" t="s">
         <v>10</v>
@@ -8483,7 +8458,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93" s="110"/>
       <c r="B93" s="61" t="s">
         <v>11</v>
@@ -8540,7 +8515,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94" s="110"/>
       <c r="B94" s="61" t="s">
         <v>12</v>
@@ -8597,7 +8572,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95" s="110"/>
       <c r="B95" s="61" t="s">
         <v>13</v>
@@ -8654,7 +8629,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96" s="110"/>
       <c r="B96" s="61" t="s">
         <v>14</v>
@@ -8711,7 +8686,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97" s="110"/>
       <c r="B97" s="61" t="s">
         <v>15</v>
@@ -8768,7 +8743,7 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98" s="110" t="s">
         <v>105</v>
       </c>
@@ -8827,7 +8802,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99" s="110"/>
       <c r="B99" s="61" t="s">
         <v>1</v>
@@ -8884,7 +8859,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100" s="110"/>
       <c r="B100" s="61" t="s">
         <v>2</v>
@@ -8941,7 +8916,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101" s="110"/>
       <c r="B101" s="61" t="s">
         <v>3</v>
@@ -8998,7 +8973,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102" s="110"/>
       <c r="B102" s="61" t="s">
         <v>4</v>
@@ -9055,7 +9030,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103" s="110"/>
       <c r="B103" s="61" t="s">
         <v>5</v>
@@ -9112,7 +9087,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104" s="110"/>
       <c r="B104" s="61" t="s">
         <v>6</v>
@@ -9169,7 +9144,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A105" s="110"/>
       <c r="B105" s="61" t="s">
         <v>7</v>
@@ -9226,7 +9201,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A106" s="110"/>
       <c r="B106" s="61" t="s">
         <v>8</v>
@@ -9283,7 +9258,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A107" s="110"/>
       <c r="B107" s="61" t="s">
         <v>9</v>
@@ -9340,7 +9315,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A108" s="110"/>
       <c r="B108" s="61" t="s">
         <v>10</v>
@@ -9397,7 +9372,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A109" s="110"/>
       <c r="B109" s="61" t="s">
         <v>11</v>
@@ -9454,7 +9429,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A110" s="110"/>
       <c r="B110" s="61" t="s">
         <v>12</v>
@@ -9511,7 +9486,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111" s="110"/>
       <c r="B111" s="61" t="s">
         <v>13</v>
@@ -9568,7 +9543,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" s="110"/>
       <c r="B112" s="61" t="s">
         <v>14</v>
@@ -9625,7 +9600,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A113" s="110"/>
       <c r="B113" s="61" t="s">
         <v>15</v>
@@ -9707,9 +9682,9 @@
       <selection activeCell="A34" sqref="A34:S113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -9768,7 +9743,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="110" t="s">
         <v>90</v>
       </c>
@@ -9827,7 +9802,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="110"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -9884,7 +9859,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="110"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -9941,7 +9916,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="110"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -9998,7 +9973,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="110"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -10055,7 +10030,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="110"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -10112,7 +10087,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="110"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -10169,7 +10144,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="110"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -10226,7 +10201,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="110"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -10283,7 +10258,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="110"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -10340,7 +10315,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="110"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -10397,7 +10372,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="110"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -10454,7 +10429,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="110"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -10511,7 +10486,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="110"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -10568,7 +10543,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="110"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -10625,7 +10600,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="110"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -10682,7 +10657,7 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="110" t="s">
         <v>96</v>
       </c>
@@ -10741,7 +10716,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="110"/>
       <c r="B19" s="37" t="s">
         <v>1</v>
@@ -10798,7 +10773,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="110"/>
       <c r="B20" s="37" t="s">
         <v>2</v>
@@ -10855,7 +10830,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="110"/>
       <c r="B21" s="37" t="s">
         <v>3</v>
@@ -10912,7 +10887,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="110"/>
       <c r="B22" s="37" t="s">
         <v>4</v>
@@ -10969,7 +10944,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="110"/>
       <c r="B23" s="37" t="s">
         <v>5</v>
@@ -11026,7 +11001,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="110"/>
       <c r="B24" s="37" t="s">
         <v>6</v>
@@ -11083,7 +11058,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="110"/>
       <c r="B25" s="37" t="s">
         <v>7</v>
@@ -11140,7 +11115,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="110"/>
       <c r="B26" s="37" t="s">
         <v>8</v>
@@ -11197,7 +11172,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="110"/>
       <c r="B27" s="37" t="s">
         <v>9</v>
@@ -11254,7 +11229,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="110"/>
       <c r="B28" s="37" t="s">
         <v>10</v>
@@ -11311,7 +11286,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="110"/>
       <c r="B29" s="37" t="s">
         <v>11</v>
@@ -11368,7 +11343,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="110"/>
       <c r="B30" s="37" t="s">
         <v>12</v>
@@ -11425,7 +11400,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="110"/>
       <c r="B31" s="37" t="s">
         <v>13</v>
@@ -11482,7 +11457,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="110"/>
       <c r="B32" s="37" t="s">
         <v>14</v>
@@ -11539,7 +11514,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="110"/>
       <c r="B33" s="37" t="s">
         <v>15</v>
@@ -11596,7 +11571,7 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="110" t="s">
         <v>101</v>
       </c>
@@ -11655,7 +11630,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="110"/>
       <c r="B35" s="61" t="s">
         <v>1</v>
@@ -11712,7 +11687,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="110"/>
       <c r="B36" s="61" t="s">
         <v>2</v>
@@ -11769,7 +11744,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="110"/>
       <c r="B37" s="61" t="s">
         <v>3</v>
@@ -11826,7 +11801,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="110"/>
       <c r="B38" s="61" t="s">
         <v>4</v>
@@ -11883,7 +11858,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="110"/>
       <c r="B39" s="61" t="s">
         <v>5</v>
@@ -11940,7 +11915,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="110"/>
       <c r="B40" s="61" t="s">
         <v>6</v>
@@ -11997,7 +11972,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="110"/>
       <c r="B41" s="61" t="s">
         <v>7</v>
@@ -12054,7 +12029,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="110"/>
       <c r="B42" s="61" t="s">
         <v>8</v>
@@ -12111,7 +12086,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="110"/>
       <c r="B43" s="61" t="s">
         <v>9</v>
@@ -12168,7 +12143,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="110"/>
       <c r="B44" s="61" t="s">
         <v>10</v>
@@ -12225,7 +12200,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="110"/>
       <c r="B45" s="61" t="s">
         <v>11</v>
@@ -12282,7 +12257,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="110"/>
       <c r="B46" s="61" t="s">
         <v>12</v>
@@ -12339,7 +12314,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="110"/>
       <c r="B47" s="61" t="s">
         <v>13</v>
@@ -12396,7 +12371,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="110"/>
       <c r="B48" s="61" t="s">
         <v>14</v>
@@ -12453,7 +12428,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="110"/>
       <c r="B49" s="61" t="s">
         <v>15</v>
@@ -12510,7 +12485,7 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="110" t="s">
         <v>102</v>
       </c>
@@ -12569,7 +12544,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="110"/>
       <c r="B51" s="61" t="s">
         <v>1</v>
@@ -12626,7 +12601,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="110"/>
       <c r="B52" s="61" t="s">
         <v>2</v>
@@ -12683,7 +12658,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="110"/>
       <c r="B53" s="61" t="s">
         <v>3</v>
@@ -12740,7 +12715,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="110"/>
       <c r="B54" s="61" t="s">
         <v>4</v>
@@ -12797,7 +12772,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="110"/>
       <c r="B55" s="61" t="s">
         <v>5</v>
@@ -12854,7 +12829,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="110"/>
       <c r="B56" s="61" t="s">
         <v>6</v>
@@ -12911,7 +12886,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="110"/>
       <c r="B57" s="61" t="s">
         <v>7</v>
@@ -12968,7 +12943,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="110"/>
       <c r="B58" s="61" t="s">
         <v>8</v>
@@ -13025,7 +13000,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="110"/>
       <c r="B59" s="61" t="s">
         <v>9</v>
@@ -13082,7 +13057,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="110"/>
       <c r="B60" s="61" t="s">
         <v>10</v>
@@ -13139,7 +13114,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" s="110"/>
       <c r="B61" s="61" t="s">
         <v>11</v>
@@ -13196,7 +13171,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="110"/>
       <c r="B62" s="61" t="s">
         <v>12</v>
@@ -13253,7 +13228,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="110"/>
       <c r="B63" s="61" t="s">
         <v>13</v>
@@ -13310,7 +13285,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="110"/>
       <c r="B64" s="61" t="s">
         <v>14</v>
@@ -13367,7 +13342,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" s="110"/>
       <c r="B65" s="61" t="s">
         <v>15</v>
@@ -13424,7 +13399,7 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" s="110" t="s">
         <v>103</v>
       </c>
@@ -13483,7 +13458,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" s="110"/>
       <c r="B67" s="61" t="s">
         <v>1</v>
@@ -13540,7 +13515,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" s="110"/>
       <c r="B68" s="61" t="s">
         <v>2</v>
@@ -13597,7 +13572,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" s="110"/>
       <c r="B69" s="61" t="s">
         <v>3</v>
@@ -13654,7 +13629,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" s="110"/>
       <c r="B70" s="61" t="s">
         <v>4</v>
@@ -13711,7 +13686,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" s="110"/>
       <c r="B71" s="61" t="s">
         <v>5</v>
@@ -13768,7 +13743,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" s="110"/>
       <c r="B72" s="61" t="s">
         <v>6</v>
@@ -13825,7 +13800,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" s="110"/>
       <c r="B73" s="61" t="s">
         <v>7</v>
@@ -13882,7 +13857,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" s="110"/>
       <c r="B74" s="61" t="s">
         <v>8</v>
@@ -13939,7 +13914,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" s="110"/>
       <c r="B75" s="61" t="s">
         <v>9</v>
@@ -13996,7 +13971,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" s="110"/>
       <c r="B76" s="61" t="s">
         <v>10</v>
@@ -14053,7 +14028,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" s="110"/>
       <c r="B77" s="61" t="s">
         <v>11</v>
@@ -14110,7 +14085,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" s="110"/>
       <c r="B78" s="61" t="s">
         <v>12</v>
@@ -14167,7 +14142,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" s="110"/>
       <c r="B79" s="61" t="s">
         <v>13</v>
@@ -14224,7 +14199,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" s="110"/>
       <c r="B80" s="61" t="s">
         <v>14</v>
@@ -14281,7 +14256,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" s="110"/>
       <c r="B81" s="61" t="s">
         <v>15</v>
@@ -14338,7 +14313,7 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" s="110" t="s">
         <v>104</v>
       </c>
@@ -14397,7 +14372,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83" s="110"/>
       <c r="B83" s="61" t="s">
         <v>1</v>
@@ -14454,7 +14429,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" s="110"/>
       <c r="B84" s="61" t="s">
         <v>2</v>
@@ -14511,7 +14486,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" s="110"/>
       <c r="B85" s="61" t="s">
         <v>3</v>
@@ -14568,7 +14543,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" s="110"/>
       <c r="B86" s="61" t="s">
         <v>4</v>
@@ -14625,7 +14600,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" s="110"/>
       <c r="B87" s="61" t="s">
         <v>5</v>
@@ -14682,7 +14657,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" s="110"/>
       <c r="B88" s="61" t="s">
         <v>6</v>
@@ -14739,7 +14714,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" s="110"/>
       <c r="B89" s="61" t="s">
         <v>7</v>
@@ -14796,7 +14771,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" s="110"/>
       <c r="B90" s="61" t="s">
         <v>8</v>
@@ -14853,7 +14828,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" s="110"/>
       <c r="B91" s="61" t="s">
         <v>9</v>
@@ -14910,7 +14885,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92" s="110"/>
       <c r="B92" s="61" t="s">
         <v>10</v>
@@ -14967,7 +14942,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93" s="110"/>
       <c r="B93" s="61" t="s">
         <v>11</v>
@@ -15024,7 +14999,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94" s="110"/>
       <c r="B94" s="61" t="s">
         <v>12</v>
@@ -15081,7 +15056,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95" s="110"/>
       <c r="B95" s="61" t="s">
         <v>13</v>
@@ -15138,7 +15113,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96" s="110"/>
       <c r="B96" s="61" t="s">
         <v>14</v>
@@ -15195,7 +15170,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97" s="110"/>
       <c r="B97" s="61" t="s">
         <v>15</v>
@@ -15252,7 +15227,7 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98" s="110" t="s">
         <v>105</v>
       </c>
@@ -15311,7 +15286,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99" s="110"/>
       <c r="B99" s="61" t="s">
         <v>1</v>
@@ -15368,7 +15343,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100" s="110"/>
       <c r="B100" s="61" t="s">
         <v>2</v>
@@ -15425,7 +15400,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101" s="110"/>
       <c r="B101" s="61" t="s">
         <v>3</v>
@@ -15482,7 +15457,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102" s="110"/>
       <c r="B102" s="61" t="s">
         <v>4</v>
@@ -15539,7 +15514,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103" s="110"/>
       <c r="B103" s="61" t="s">
         <v>5</v>
@@ -15596,7 +15571,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104" s="110"/>
       <c r="B104" s="61" t="s">
         <v>6</v>
@@ -15653,7 +15628,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A105" s="110"/>
       <c r="B105" s="61" t="s">
         <v>7</v>
@@ -15710,7 +15685,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A106" s="110"/>
       <c r="B106" s="61" t="s">
         <v>8</v>
@@ -15767,7 +15742,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A107" s="110"/>
       <c r="B107" s="61" t="s">
         <v>9</v>
@@ -15824,7 +15799,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A108" s="110"/>
       <c r="B108" s="61" t="s">
         <v>10</v>
@@ -15881,7 +15856,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A109" s="110"/>
       <c r="B109" s="61" t="s">
         <v>11</v>
@@ -15938,7 +15913,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A110" s="110"/>
       <c r="B110" s="61" t="s">
         <v>12</v>
@@ -15995,7 +15970,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111" s="110"/>
       <c r="B111" s="61" t="s">
         <v>13</v>
@@ -16052,7 +16027,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" s="110"/>
       <c r="B112" s="61" t="s">
         <v>14</v>
@@ -16109,7 +16084,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A113" s="110"/>
       <c r="B113" s="61" t="s">
         <v>15</v>
@@ -16191,9 +16166,9 @@
       <selection activeCell="A34" sqref="A34:S113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -16252,7 +16227,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="110" t="s">
         <v>90</v>
       </c>
@@ -16311,7 +16286,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="110"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -16368,7 +16343,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="110"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -16425,7 +16400,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="110"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -16482,7 +16457,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="110"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -16539,7 +16514,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="110"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -16596,7 +16571,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="110"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -16653,7 +16628,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="110"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -16710,7 +16685,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="110"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -16767,7 +16742,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="110"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -16824,7 +16799,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="110"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -16881,7 +16856,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="110"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -16938,7 +16913,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="110"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -16995,7 +16970,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="110"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -17052,7 +17027,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="110"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -17109,7 +17084,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="110"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -17166,7 +17141,7 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="110" t="s">
         <v>96</v>
       </c>
@@ -17225,7 +17200,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="110"/>
       <c r="B19" s="37" t="s">
         <v>1</v>
@@ -17282,7 +17257,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="110"/>
       <c r="B20" s="37" t="s">
         <v>2</v>
@@ -17339,7 +17314,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="110"/>
       <c r="B21" s="37" t="s">
         <v>3</v>
@@ -17396,7 +17371,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="110"/>
       <c r="B22" s="37" t="s">
         <v>4</v>
@@ -17453,7 +17428,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="110"/>
       <c r="B23" s="37" t="s">
         <v>5</v>
@@ -17510,7 +17485,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="110"/>
       <c r="B24" s="37" t="s">
         <v>6</v>
@@ -17567,7 +17542,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="110"/>
       <c r="B25" s="37" t="s">
         <v>7</v>
@@ -17624,7 +17599,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="110"/>
       <c r="B26" s="37" t="s">
         <v>8</v>
@@ -17681,7 +17656,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="110"/>
       <c r="B27" s="37" t="s">
         <v>9</v>
@@ -17738,7 +17713,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="110"/>
       <c r="B28" s="37" t="s">
         <v>10</v>
@@ -17795,7 +17770,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="110"/>
       <c r="B29" s="37" t="s">
         <v>11</v>
@@ -17852,7 +17827,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="110"/>
       <c r="B30" s="37" t="s">
         <v>12</v>
@@ -17909,7 +17884,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="110"/>
       <c r="B31" s="37" t="s">
         <v>13</v>
@@ -17966,7 +17941,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="110"/>
       <c r="B32" s="37" t="s">
         <v>14</v>
@@ -18023,7 +17998,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="110"/>
       <c r="B33" s="37" t="s">
         <v>15</v>
@@ -18080,7 +18055,7 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="110" t="s">
         <v>101</v>
       </c>
@@ -18139,7 +18114,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="110"/>
       <c r="B35" s="61" t="s">
         <v>1</v>
@@ -18196,7 +18171,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="110"/>
       <c r="B36" s="61" t="s">
         <v>2</v>
@@ -18253,7 +18228,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="110"/>
       <c r="B37" s="61" t="s">
         <v>3</v>
@@ -18310,7 +18285,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="110"/>
       <c r="B38" s="61" t="s">
         <v>4</v>
@@ -18367,7 +18342,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="110"/>
       <c r="B39" s="61" t="s">
         <v>5</v>
@@ -18424,7 +18399,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="110"/>
       <c r="B40" s="61" t="s">
         <v>6</v>
@@ -18481,7 +18456,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="110"/>
       <c r="B41" s="61" t="s">
         <v>7</v>
@@ -18538,7 +18513,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="110"/>
       <c r="B42" s="61" t="s">
         <v>8</v>
@@ -18595,7 +18570,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="110"/>
       <c r="B43" s="61" t="s">
         <v>9</v>
@@ -18652,7 +18627,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="110"/>
       <c r="B44" s="61" t="s">
         <v>10</v>
@@ -18709,7 +18684,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="110"/>
       <c r="B45" s="61" t="s">
         <v>11</v>
@@ -18766,7 +18741,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="110"/>
       <c r="B46" s="61" t="s">
         <v>12</v>
@@ -18823,7 +18798,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="110"/>
       <c r="B47" s="61" t="s">
         <v>13</v>
@@ -18880,7 +18855,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="110"/>
       <c r="B48" s="61" t="s">
         <v>14</v>
@@ -18937,7 +18912,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="110"/>
       <c r="B49" s="61" t="s">
         <v>15</v>
@@ -18994,7 +18969,7 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="110" t="s">
         <v>102</v>
       </c>
@@ -19053,7 +19028,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="110"/>
       <c r="B51" s="61" t="s">
         <v>1</v>
@@ -19110,7 +19085,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="110"/>
       <c r="B52" s="61" t="s">
         <v>2</v>
@@ -19167,7 +19142,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="110"/>
       <c r="B53" s="61" t="s">
         <v>3</v>
@@ -19224,7 +19199,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="110"/>
       <c r="B54" s="61" t="s">
         <v>4</v>
@@ -19281,7 +19256,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="110"/>
       <c r="B55" s="61" t="s">
         <v>5</v>
@@ -19338,7 +19313,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="110"/>
       <c r="B56" s="61" t="s">
         <v>6</v>
@@ -19395,7 +19370,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="110"/>
       <c r="B57" s="61" t="s">
         <v>7</v>
@@ -19452,7 +19427,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="110"/>
       <c r="B58" s="61" t="s">
         <v>8</v>
@@ -19509,7 +19484,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="110"/>
       <c r="B59" s="61" t="s">
         <v>9</v>
@@ -19566,7 +19541,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="110"/>
       <c r="B60" s="61" t="s">
         <v>10</v>
@@ -19623,7 +19598,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" s="110"/>
       <c r="B61" s="61" t="s">
         <v>11</v>
@@ -19680,7 +19655,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="110"/>
       <c r="B62" s="61" t="s">
         <v>12</v>
@@ -19737,7 +19712,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="110"/>
       <c r="B63" s="61" t="s">
         <v>13</v>
@@ -19794,7 +19769,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="110"/>
       <c r="B64" s="61" t="s">
         <v>14</v>
@@ -19851,7 +19826,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" s="110"/>
       <c r="B65" s="61" t="s">
         <v>15</v>
@@ -19908,7 +19883,7 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" s="110" t="s">
         <v>103</v>
       </c>
@@ -19967,7 +19942,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" s="110"/>
       <c r="B67" s="61" t="s">
         <v>1</v>
@@ -20024,7 +19999,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" s="110"/>
       <c r="B68" s="61" t="s">
         <v>2</v>
@@ -20081,7 +20056,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" s="110"/>
       <c r="B69" s="61" t="s">
         <v>3</v>
@@ -20138,7 +20113,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" s="110"/>
       <c r="B70" s="61" t="s">
         <v>4</v>
@@ -20195,7 +20170,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" s="110"/>
       <c r="B71" s="61" t="s">
         <v>5</v>
@@ -20252,7 +20227,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" s="110"/>
       <c r="B72" s="61" t="s">
         <v>6</v>
@@ -20309,7 +20284,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" s="110"/>
       <c r="B73" s="61" t="s">
         <v>7</v>
@@ -20366,7 +20341,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" s="110"/>
       <c r="B74" s="61" t="s">
         <v>8</v>
@@ -20423,7 +20398,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" s="110"/>
       <c r="B75" s="61" t="s">
         <v>9</v>
@@ -20480,7 +20455,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" s="110"/>
       <c r="B76" s="61" t="s">
         <v>10</v>
@@ -20537,7 +20512,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" s="110"/>
       <c r="B77" s="61" t="s">
         <v>11</v>
@@ -20594,7 +20569,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" s="110"/>
       <c r="B78" s="61" t="s">
         <v>12</v>
@@ -20651,7 +20626,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" s="110"/>
       <c r="B79" s="61" t="s">
         <v>13</v>
@@ -20708,7 +20683,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" s="110"/>
       <c r="B80" s="61" t="s">
         <v>14</v>
@@ -20765,7 +20740,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" s="110"/>
       <c r="B81" s="61" t="s">
         <v>15</v>
@@ -20822,7 +20797,7 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" s="110" t="s">
         <v>104</v>
       </c>
@@ -20881,7 +20856,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83" s="110"/>
       <c r="B83" s="61" t="s">
         <v>1</v>
@@ -20938,7 +20913,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" s="110"/>
       <c r="B84" s="61" t="s">
         <v>2</v>
@@ -20995,7 +20970,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" s="110"/>
       <c r="B85" s="61" t="s">
         <v>3</v>
@@ -21052,7 +21027,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" s="110"/>
       <c r="B86" s="61" t="s">
         <v>4</v>
@@ -21109,7 +21084,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" s="110"/>
       <c r="B87" s="61" t="s">
         <v>5</v>
@@ -21166,7 +21141,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" s="110"/>
       <c r="B88" s="61" t="s">
         <v>6</v>
@@ -21223,7 +21198,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" s="110"/>
       <c r="B89" s="61" t="s">
         <v>7</v>
@@ -21280,7 +21255,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" s="110"/>
       <c r="B90" s="61" t="s">
         <v>8</v>
@@ -21337,7 +21312,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" s="110"/>
       <c r="B91" s="61" t="s">
         <v>9</v>
@@ -21394,7 +21369,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92" s="110"/>
       <c r="B92" s="61" t="s">
         <v>10</v>
@@ -21451,7 +21426,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93" s="110"/>
       <c r="B93" s="61" t="s">
         <v>11</v>
@@ -21508,7 +21483,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94" s="110"/>
       <c r="B94" s="61" t="s">
         <v>12</v>
@@ -21565,7 +21540,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95" s="110"/>
       <c r="B95" s="61" t="s">
         <v>13</v>
@@ -21622,7 +21597,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96" s="110"/>
       <c r="B96" s="61" t="s">
         <v>14</v>
@@ -21679,7 +21654,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97" s="110"/>
       <c r="B97" s="61" t="s">
         <v>15</v>
@@ -21736,7 +21711,7 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98" s="110" t="s">
         <v>105</v>
       </c>
@@ -21795,7 +21770,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99" s="110"/>
       <c r="B99" s="61" t="s">
         <v>1</v>
@@ -21852,7 +21827,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100" s="110"/>
       <c r="B100" s="61" t="s">
         <v>2</v>
@@ -21909,7 +21884,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101" s="110"/>
       <c r="B101" s="61" t="s">
         <v>3</v>
@@ -21966,7 +21941,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102" s="110"/>
       <c r="B102" s="61" t="s">
         <v>4</v>
@@ -22023,7 +21998,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103" s="110"/>
       <c r="B103" s="61" t="s">
         <v>5</v>
@@ -22080,7 +22055,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104" s="110"/>
       <c r="B104" s="61" t="s">
         <v>6</v>
@@ -22137,7 +22112,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A105" s="110"/>
       <c r="B105" s="61" t="s">
         <v>7</v>
@@ -22194,7 +22169,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A106" s="110"/>
       <c r="B106" s="61" t="s">
         <v>8</v>
@@ -22251,7 +22226,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A107" s="110"/>
       <c r="B107" s="61" t="s">
         <v>9</v>
@@ -22308,7 +22283,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A108" s="110"/>
       <c r="B108" s="61" t="s">
         <v>10</v>
@@ -22365,7 +22340,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A109" s="110"/>
       <c r="B109" s="61" t="s">
         <v>11</v>
@@ -22422,7 +22397,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A110" s="110"/>
       <c r="B110" s="61" t="s">
         <v>12</v>
@@ -22479,7 +22454,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111" s="110"/>
       <c r="B111" s="61" t="s">
         <v>13</v>
@@ -22536,7 +22511,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" s="110"/>
       <c r="B112" s="61" t="s">
         <v>14</v>
@@ -22593,7 +22568,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A113" s="110"/>
       <c r="B113" s="61" t="s">
         <v>15</v>
@@ -22675,9 +22650,9 @@
       <selection activeCell="A34" sqref="A34:S113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -22736,7 +22711,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="110" t="s">
         <v>90</v>
       </c>
@@ -22795,7 +22770,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="110"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -22852,7 +22827,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="110"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -22909,7 +22884,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="110"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -22966,7 +22941,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="110"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -23023,7 +22998,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="110"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -23080,7 +23055,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="110"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -23137,7 +23112,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="110"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -23194,7 +23169,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="110"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -23251,7 +23226,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="110"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -23308,7 +23283,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="110"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -23365,7 +23340,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="110"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -23422,7 +23397,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="110"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -23479,7 +23454,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="110"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -23536,7 +23511,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="110"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -23593,7 +23568,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="110"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -23650,7 +23625,7 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="110" t="s">
         <v>96</v>
       </c>
@@ -23709,7 +23684,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="110"/>
       <c r="B19" s="37" t="s">
         <v>1</v>
@@ -23766,7 +23741,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="110"/>
       <c r="B20" s="37" t="s">
         <v>2</v>
@@ -23823,7 +23798,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="110"/>
       <c r="B21" s="37" t="s">
         <v>3</v>
@@ -23880,7 +23855,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="110"/>
       <c r="B22" s="37" t="s">
         <v>4</v>
@@ -23937,7 +23912,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="110"/>
       <c r="B23" s="37" t="s">
         <v>5</v>
@@ -23994,7 +23969,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="110"/>
       <c r="B24" s="37" t="s">
         <v>6</v>
@@ -24051,7 +24026,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="110"/>
       <c r="B25" s="37" t="s">
         <v>7</v>
@@ -24108,7 +24083,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="110"/>
       <c r="B26" s="37" t="s">
         <v>8</v>
@@ -24165,7 +24140,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="110"/>
       <c r="B27" s="37" t="s">
         <v>9</v>
@@ -24222,7 +24197,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="110"/>
       <c r="B28" s="37" t="s">
         <v>10</v>
@@ -24279,7 +24254,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="110"/>
       <c r="B29" s="37" t="s">
         <v>11</v>
@@ -24336,7 +24311,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="110"/>
       <c r="B30" s="37" t="s">
         <v>12</v>
@@ -24393,7 +24368,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="110"/>
       <c r="B31" s="37" t="s">
         <v>13</v>
@@ -24450,7 +24425,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="110"/>
       <c r="B32" s="37" t="s">
         <v>14</v>
@@ -24507,7 +24482,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="110"/>
       <c r="B33" s="37" t="s">
         <v>15</v>
@@ -24564,7 +24539,7 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="110" t="s">
         <v>101</v>
       </c>
@@ -24623,7 +24598,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="110"/>
       <c r="B35" s="61" t="s">
         <v>1</v>
@@ -24680,7 +24655,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="110"/>
       <c r="B36" s="61" t="s">
         <v>2</v>
@@ -24737,7 +24712,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="110"/>
       <c r="B37" s="61" t="s">
         <v>3</v>
@@ -24794,7 +24769,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="110"/>
       <c r="B38" s="61" t="s">
         <v>4</v>
@@ -24851,7 +24826,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="110"/>
       <c r="B39" s="61" t="s">
         <v>5</v>
@@ -24908,7 +24883,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="110"/>
       <c r="B40" s="61" t="s">
         <v>6</v>
@@ -24965,7 +24940,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="110"/>
       <c r="B41" s="61" t="s">
         <v>7</v>
@@ -25022,7 +24997,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="110"/>
       <c r="B42" s="61" t="s">
         <v>8</v>
@@ -25079,7 +25054,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="110"/>
       <c r="B43" s="61" t="s">
         <v>9</v>
@@ -25136,7 +25111,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="110"/>
       <c r="B44" s="61" t="s">
         <v>10</v>
@@ -25193,7 +25168,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="110"/>
       <c r="B45" s="61" t="s">
         <v>11</v>
@@ -25250,7 +25225,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="110"/>
       <c r="B46" s="61" t="s">
         <v>12</v>
@@ -25307,7 +25282,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="110"/>
       <c r="B47" s="61" t="s">
         <v>13</v>
@@ -25364,7 +25339,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="110"/>
       <c r="B48" s="61" t="s">
         <v>14</v>
@@ -25421,7 +25396,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="110"/>
       <c r="B49" s="61" t="s">
         <v>15</v>
@@ -25478,7 +25453,7 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="110" t="s">
         <v>102</v>
       </c>
@@ -25537,7 +25512,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="110"/>
       <c r="B51" s="61" t="s">
         <v>1</v>
@@ -25594,7 +25569,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="110"/>
       <c r="B52" s="61" t="s">
         <v>2</v>
@@ -25651,7 +25626,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="110"/>
       <c r="B53" s="61" t="s">
         <v>3</v>
@@ -25708,7 +25683,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="110"/>
       <c r="B54" s="61" t="s">
         <v>4</v>
@@ -25765,7 +25740,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="110"/>
       <c r="B55" s="61" t="s">
         <v>5</v>
@@ -25822,7 +25797,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="110"/>
       <c r="B56" s="61" t="s">
         <v>6</v>
@@ -25879,7 +25854,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="110"/>
       <c r="B57" s="61" t="s">
         <v>7</v>
@@ -25936,7 +25911,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="110"/>
       <c r="B58" s="61" t="s">
         <v>8</v>
@@ -25993,7 +25968,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="110"/>
       <c r="B59" s="61" t="s">
         <v>9</v>
@@ -26050,7 +26025,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="110"/>
       <c r="B60" s="61" t="s">
         <v>10</v>
@@ -26107,7 +26082,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" s="110"/>
       <c r="B61" s="61" t="s">
         <v>11</v>
@@ -26164,7 +26139,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="110"/>
       <c r="B62" s="61" t="s">
         <v>12</v>
@@ -26221,7 +26196,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="110"/>
       <c r="B63" s="61" t="s">
         <v>13</v>
@@ -26278,7 +26253,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="110"/>
       <c r="B64" s="61" t="s">
         <v>14</v>
@@ -26335,7 +26310,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" s="110"/>
       <c r="B65" s="61" t="s">
         <v>15</v>
@@ -26392,7 +26367,7 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" s="110" t="s">
         <v>103</v>
       </c>
@@ -26451,7 +26426,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" s="110"/>
       <c r="B67" s="61" t="s">
         <v>1</v>
@@ -26508,7 +26483,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" s="110"/>
       <c r="B68" s="61" t="s">
         <v>2</v>
@@ -26565,7 +26540,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" s="110"/>
       <c r="B69" s="61" t="s">
         <v>3</v>
@@ -26622,7 +26597,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" s="110"/>
       <c r="B70" s="61" t="s">
         <v>4</v>
@@ -26679,7 +26654,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" s="110"/>
       <c r="B71" s="61" t="s">
         <v>5</v>
@@ -26736,7 +26711,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" s="110"/>
       <c r="B72" s="61" t="s">
         <v>6</v>
@@ -26793,7 +26768,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" s="110"/>
       <c r="B73" s="61" t="s">
         <v>7</v>
@@ -26850,7 +26825,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" s="110"/>
       <c r="B74" s="61" t="s">
         <v>8</v>
@@ -26907,7 +26882,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" s="110"/>
       <c r="B75" s="61" t="s">
         <v>9</v>
@@ -26964,7 +26939,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" s="110"/>
       <c r="B76" s="61" t="s">
         <v>10</v>
@@ -27021,7 +26996,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" s="110"/>
       <c r="B77" s="61" t="s">
         <v>11</v>
@@ -27078,7 +27053,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" s="110"/>
       <c r="B78" s="61" t="s">
         <v>12</v>
@@ -27135,7 +27110,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" s="110"/>
       <c r="B79" s="61" t="s">
         <v>13</v>
@@ -27192,7 +27167,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" s="110"/>
       <c r="B80" s="61" t="s">
         <v>14</v>
@@ -27249,7 +27224,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" s="110"/>
       <c r="B81" s="61" t="s">
         <v>15</v>
@@ -27306,7 +27281,7 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" s="110" t="s">
         <v>104</v>
       </c>
@@ -27365,7 +27340,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83" s="110"/>
       <c r="B83" s="61" t="s">
         <v>1</v>
@@ -27422,7 +27397,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" s="110"/>
       <c r="B84" s="61" t="s">
         <v>2</v>
@@ -27479,7 +27454,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" s="110"/>
       <c r="B85" s="61" t="s">
         <v>3</v>
@@ -27536,7 +27511,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" s="110"/>
       <c r="B86" s="61" t="s">
         <v>4</v>
@@ -27593,7 +27568,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" s="110"/>
       <c r="B87" s="61" t="s">
         <v>5</v>
@@ -27650,7 +27625,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" s="110"/>
       <c r="B88" s="61" t="s">
         <v>6</v>
@@ -27707,7 +27682,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" s="110"/>
       <c r="B89" s="61" t="s">
         <v>7</v>
@@ -27764,7 +27739,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" s="110"/>
       <c r="B90" s="61" t="s">
         <v>8</v>
@@ -27821,7 +27796,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" s="110"/>
       <c r="B91" s="61" t="s">
         <v>9</v>
@@ -27878,7 +27853,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92" s="110"/>
       <c r="B92" s="61" t="s">
         <v>10</v>
@@ -27935,7 +27910,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93" s="110"/>
       <c r="B93" s="61" t="s">
         <v>11</v>
@@ -27992,7 +27967,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94" s="110"/>
       <c r="B94" s="61" t="s">
         <v>12</v>
@@ -28049,7 +28024,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95" s="110"/>
       <c r="B95" s="61" t="s">
         <v>13</v>
@@ -28106,7 +28081,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96" s="110"/>
       <c r="B96" s="61" t="s">
         <v>14</v>
@@ -28163,7 +28138,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97" s="110"/>
       <c r="B97" s="61" t="s">
         <v>15</v>
@@ -28220,7 +28195,7 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98" s="110" t="s">
         <v>105</v>
       </c>
@@ -28279,7 +28254,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99" s="110"/>
       <c r="B99" s="61" t="s">
         <v>1</v>
@@ -28336,7 +28311,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100" s="110"/>
       <c r="B100" s="61" t="s">
         <v>2</v>
@@ -28393,7 +28368,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101" s="110"/>
       <c r="B101" s="61" t="s">
         <v>3</v>
@@ -28450,7 +28425,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102" s="110"/>
       <c r="B102" s="61" t="s">
         <v>4</v>
@@ -28507,7 +28482,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103" s="110"/>
       <c r="B103" s="61" t="s">
         <v>5</v>
@@ -28564,7 +28539,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104" s="110"/>
       <c r="B104" s="61" t="s">
         <v>6</v>
@@ -28621,7 +28596,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A105" s="110"/>
       <c r="B105" s="61" t="s">
         <v>7</v>
@@ -28678,7 +28653,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A106" s="110"/>
       <c r="B106" s="61" t="s">
         <v>8</v>
@@ -28735,7 +28710,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A107" s="110"/>
       <c r="B107" s="61" t="s">
         <v>9</v>
@@ -28792,7 +28767,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A108" s="110"/>
       <c r="B108" s="61" t="s">
         <v>10</v>
@@ -28849,7 +28824,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A109" s="110"/>
       <c r="B109" s="61" t="s">
         <v>11</v>
@@ -28906,7 +28881,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A110" s="110"/>
       <c r="B110" s="61" t="s">
         <v>12</v>
@@ -28963,7 +28938,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111" s="110"/>
       <c r="B111" s="61" t="s">
         <v>13</v>
@@ -29020,7 +28995,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" s="110"/>
       <c r="B112" s="61" t="s">
         <v>14</v>
@@ -29077,7 +29052,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A113" s="110"/>
       <c r="B113" s="61" t="s">
         <v>15</v>
@@ -29159,12 +29134,12 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -29187,7 +29162,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -29210,7 +29185,7 @@
         <v>3.0298294321208146</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -29236,7 +29211,7 @@
         <v>2.7100141031747289</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="62" t="s">
         <v>101</v>
       </c>
@@ -29259,7 +29234,7 @@
         <v>3.6526277042789821</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="62" t="s">
         <v>102</v>
       </c>
@@ -29282,7 +29257,7 @@
         <v>3.5011362326729416</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="62" t="s">
         <v>103</v>
       </c>
@@ -29305,7 +29280,7 @@
         <v>2.1208806024845703</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="62" t="s">
         <v>104</v>
       </c>
@@ -29328,7 +29303,7 @@
         <v>2.0367186738145477</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="62" t="s">
         <v>105</v>
       </c>
@@ -29367,25 +29342,25 @@
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="19" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>17</v>
       </c>
@@ -29429,7 +29404,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="114" t="s">
         <v>90</v>
       </c>
@@ -29469,7 +29444,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="115"/>
       <c r="B3" s="69" t="s">
         <v>80</v>
@@ -29507,7 +29482,7 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="115"/>
       <c r="B4" s="69" t="s">
         <v>82</v>
@@ -29539,7 +29514,7 @@
       <c r="M4" s="72"/>
       <c r="N4" s="72"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="115"/>
       <c r="B5" s="69" t="s">
         <v>84</v>
@@ -29577,7 +29552,7 @@
         <v>43998</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="115"/>
       <c r="B6" s="69" t="s">
         <v>86</v>
@@ -29613,7 +29588,7 @@
       </c>
       <c r="N6" s="72"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="115"/>
       <c r="B7" s="69" t="s">
         <v>88</v>
@@ -29647,7 +29622,7 @@
       <c r="M7" s="72"/>
       <c r="N7" s="72"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="116"/>
       <c r="B8" s="76" t="s">
         <v>89</v>
@@ -29679,7 +29654,7 @@
       <c r="M8" s="53"/>
       <c r="N8" s="52"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="117" t="s">
         <v>96</v>
       </c>
@@ -29719,7 +29694,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="118"/>
       <c r="B10" s="89" t="s">
         <v>80</v>
@@ -29757,7 +29732,7 @@
         <v>43966</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="118"/>
       <c r="B11" s="89" t="s">
         <v>82</v>
@@ -29789,7 +29764,7 @@
       <c r="M11" s="92"/>
       <c r="N11" s="92"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="118"/>
       <c r="B12" s="89" t="s">
         <v>84</v>
@@ -29827,7 +29802,7 @@
         <v>44001</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="118"/>
       <c r="B13" s="89" t="s">
         <v>86</v>
@@ -29863,7 +29838,7 @@
       </c>
       <c r="N13" s="92"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="118"/>
       <c r="B14" s="89" t="s">
         <v>88</v>
@@ -29897,7 +29872,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="92"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="119"/>
       <c r="B15" s="95" t="s">
         <v>89</v>
@@ -29931,7 +29906,7 @@
       <c r="M15" s="100"/>
       <c r="N15" s="101"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="114" t="s">
         <v>101</v>
       </c>
@@ -29971,7 +29946,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="115"/>
       <c r="B17" s="69" t="s">
         <v>80</v>
@@ -30009,7 +29984,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="115"/>
       <c r="B18" s="69" t="s">
         <v>82</v>
@@ -30047,7 +30022,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="115"/>
       <c r="B19" s="69" t="s">
         <v>84</v>
@@ -30085,7 +30060,7 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="115"/>
       <c r="B20" s="69" t="s">
         <v>86</v>
@@ -30123,7 +30098,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="115"/>
       <c r="B21" s="69" t="s">
         <v>88</v>
@@ -30159,7 +30134,7 @@
       </c>
       <c r="N21" s="75"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="115"/>
       <c r="B22" s="108" t="s">
         <v>89</v>
@@ -30193,7 +30168,7 @@
       <c r="M22" s="72"/>
       <c r="N22" s="75"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="116"/>
       <c r="B23" s="76" t="s">
         <v>106</v>
@@ -30227,7 +30202,7 @@
       <c r="M23" s="72"/>
       <c r="N23" s="52"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="111" t="s">
         <v>102</v>
       </c>
@@ -30267,7 +30242,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="112"/>
       <c r="B25" s="42" t="s">
         <v>80</v>
@@ -30303,7 +30278,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="112"/>
       <c r="B26" s="42" t="s">
         <v>82</v>
@@ -30339,7 +30314,7 @@
         <v>43958</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="112"/>
       <c r="B27" s="42" t="s">
         <v>84</v>
@@ -30375,7 +30350,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="112"/>
       <c r="B28" s="42" t="s">
         <v>86</v>
@@ -30411,7 +30386,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="112"/>
       <c r="B29" s="42" t="s">
         <v>88</v>
@@ -30445,7 +30420,7 @@
       </c>
       <c r="N29" s="35"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="112"/>
       <c r="B30" s="42" t="s">
         <v>89</v>
@@ -30477,7 +30452,7 @@
       <c r="M30" s="43"/>
       <c r="N30" s="81"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="113"/>
       <c r="B31" s="42" t="s">
         <v>106</v>
@@ -30509,7 +30484,7 @@
       <c r="M31" s="43"/>
       <c r="N31" s="43"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="114" t="s">
         <v>103</v>
       </c>
@@ -30549,7 +30524,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="115"/>
       <c r="B33" s="69" t="s">
         <v>80</v>
@@ -30587,7 +30562,7 @@
         <v>43912</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="115"/>
       <c r="B34" s="69" t="s">
         <v>82</v>
@@ -30625,7 +30600,7 @@
         <v>43966</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="115"/>
       <c r="B35" s="69" t="s">
         <v>84</v>
@@ -30663,7 +30638,7 @@
         <v>43995</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="115"/>
       <c r="B36" s="69" t="s">
         <v>86</v>
@@ -30699,7 +30674,7 @@
       </c>
       <c r="N36" s="72"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="115"/>
       <c r="B37" s="69" t="s">
         <v>88</v>
@@ -30733,7 +30708,7 @@
       <c r="M37" s="72"/>
       <c r="N37" s="72"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="115"/>
       <c r="B38" s="69" t="s">
         <v>89</v>
@@ -30767,7 +30742,7 @@
       <c r="M38" s="72"/>
       <c r="N38" s="75"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="111" t="s">
         <v>104</v>
       </c>
@@ -30807,7 +30782,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="112"/>
       <c r="B40" s="42" t="s">
         <v>80</v>
@@ -30843,7 +30818,7 @@
         <v>43912</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="112"/>
       <c r="B41" s="42" t="s">
         <v>82</v>
@@ -30879,7 +30854,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
       <c r="B42" s="42" t="s">
         <v>84</v>
@@ -30915,7 +30890,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
       <c r="B43" s="42" t="s">
         <v>86</v>
@@ -30949,7 +30924,7 @@
       </c>
       <c r="N43" s="35"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="112"/>
       <c r="B44" s="42" t="s">
         <v>88</v>
@@ -30981,7 +30956,7 @@
       <c r="M44" s="43"/>
       <c r="N44" s="43"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="113"/>
       <c r="B45" s="44" t="s">
         <v>89</v>
@@ -31015,7 +30990,7 @@
       <c r="M45" s="22"/>
       <c r="N45" s="23"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="114" t="s">
         <v>105</v>
       </c>
@@ -31055,7 +31030,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="115"/>
       <c r="B47" s="69" t="s">
         <v>80</v>
@@ -31093,7 +31068,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="115"/>
       <c r="B48" s="69" t="s">
         <v>82</v>
@@ -31131,7 +31106,7 @@
         <v>43971</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="115"/>
       <c r="B49" s="69" t="s">
         <v>84</v>
@@ -31169,7 +31144,7 @@
         <v>43999</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="115"/>
       <c r="B50" s="69" t="s">
         <v>86</v>
@@ -31205,7 +31180,7 @@
       </c>
       <c r="N50" s="72"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="115"/>
       <c r="B51" s="69" t="s">
         <v>88</v>
@@ -31239,7 +31214,7 @@
       <c r="M51" s="72"/>
       <c r="N51" s="72"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="116"/>
       <c r="B52" s="76" t="s">
         <v>89</v>
@@ -31296,19 +31271,19 @@
   <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7265625" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -31379,7 +31354,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -31451,7 +31426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -31523,7 +31498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="61" t="s">
         <v>101</v>
       </c>
@@ -31594,7 +31569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="61" t="s">
         <v>102</v>
       </c>
@@ -31665,7 +31640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="61" t="s">
         <v>103</v>
       </c>
@@ -31737,7 +31712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="61" t="s">
         <v>104</v>
       </c>
@@ -31809,7 +31784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="61" t="s">
         <v>105</v>
       </c>
@@ -31851,7 +31826,7 @@
         <v>0.1</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O8">
         <v>50</v>
@@ -31866,7 +31841,7 @@
         <v>1000</v>
       </c>
       <c r="S8">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="T8">
         <v>1</v>
@@ -31899,20 +31874,20 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="33" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7265625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.453125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>17</v>
       </c>
@@ -31941,7 +31916,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="122" t="s">
         <v>90</v>
       </c>
@@ -31966,7 +31941,7 @@
       <c r="H2" s="50"/>
       <c r="I2" s="48"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="123"/>
       <c r="B3" s="51" t="s">
         <v>94</v>
@@ -31985,7 +31960,7 @@
       <c r="H3" s="53"/>
       <c r="I3" s="52"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="120" t="s">
         <v>96</v>
       </c>
@@ -32010,7 +31985,7 @@
       <c r="H4" s="57"/>
       <c r="I4" s="55"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="121"/>
       <c r="B5" s="58" t="s">
         <v>94</v>
@@ -32029,7 +32004,7 @@
       <c r="H5" s="60"/>
       <c r="I5" s="59"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="122" t="s">
         <v>101</v>
       </c>
@@ -32054,7 +32029,7 @@
       <c r="H6" s="50"/>
       <c r="I6" s="48"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="123"/>
       <c r="B7" s="51" t="s">
         <v>94</v>
@@ -32073,7 +32048,7 @@
       <c r="H7" s="53"/>
       <c r="I7" s="52"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="120" t="s">
         <v>102</v>
       </c>
@@ -32098,7 +32073,7 @@
       <c r="H8" s="57"/>
       <c r="I8" s="55"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="121"/>
       <c r="B9" s="58" t="s">
         <v>94</v>
@@ -32117,7 +32092,7 @@
       <c r="H9" s="60"/>
       <c r="I9" s="59"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="122" t="s">
         <v>103</v>
       </c>
@@ -32142,7 +32117,7 @@
       <c r="H10" s="50"/>
       <c r="I10" s="48"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="123"/>
       <c r="B11" s="51" t="s">
         <v>94</v>
@@ -32161,7 +32136,7 @@
       <c r="H11" s="53"/>
       <c r="I11" s="52"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="120" t="s">
         <v>104</v>
       </c>
@@ -32186,7 +32161,7 @@
       <c r="H12" s="57"/>
       <c r="I12" s="55"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="121"/>
       <c r="B13" s="58" t="s">
         <v>94</v>
@@ -32205,7 +32180,7 @@
       <c r="H13" s="60"/>
       <c r="I13" s="59"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="122" t="s">
         <v>105</v>
       </c>
@@ -32230,7 +32205,7 @@
       <c r="H14" s="50"/>
       <c r="I14" s="48"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="123"/>
       <c r="B15" s="51" t="s">
         <v>94</v>
@@ -32276,21 +32251,21 @@
       <selection activeCell="A4" sqref="A4:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -32322,7 +32297,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -32354,7 +32329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -32386,7 +32361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="102" t="s">
         <v>101</v>
       </c>
@@ -32418,7 +32393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="102" t="s">
         <v>102</v>
       </c>
@@ -32450,7 +32425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="102" t="s">
         <v>103</v>
       </c>
@@ -32482,7 +32457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="102" t="s">
         <v>104</v>
       </c>
@@ -32514,7 +32489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="102" t="s">
         <v>105</v>
       </c>
@@ -32563,20 +32538,20 @@
       <selection activeCell="A4" sqref="A4:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -32608,7 +32583,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -32640,7 +32615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -32672,7 +32647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="102" t="s">
         <v>101</v>
       </c>
@@ -32704,7 +32679,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="102" t="s">
         <v>102</v>
       </c>
@@ -32736,7 +32711,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="102" t="s">
         <v>103</v>
       </c>
@@ -32768,7 +32743,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="102" t="s">
         <v>104</v>
       </c>
@@ -32800,7 +32775,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="102" t="s">
         <v>105</v>
       </c>
@@ -32848,20 +32823,20 @@
       <selection activeCell="A4" sqref="A4:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -32893,7 +32868,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -32925,7 +32900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -32957,7 +32932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="102" t="s">
         <v>101</v>
       </c>
@@ -32989,7 +32964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="102" t="s">
         <v>102</v>
       </c>
@@ -33021,7 +32996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="102" t="s">
         <v>103</v>
       </c>
@@ -33053,7 +33028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="102" t="s">
         <v>104</v>
       </c>
@@ -33085,7 +33060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="102" t="s">
         <v>105</v>
       </c>
@@ -33133,21 +33108,21 @@
       <selection activeCell="A4" sqref="A4:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="5"/>
-    <col min="9" max="9" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" style="5"/>
+    <col min="9" max="9" width="10.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
@@ -33179,7 +33154,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -33211,7 +33186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -33243,7 +33218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="62" t="s">
         <v>101</v>
       </c>
@@ -33275,7 +33250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="62" t="s">
         <v>102</v>
       </c>
@@ -33307,7 +33282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="102" t="s">
         <v>103</v>
       </c>
@@ -33339,7 +33314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="102" t="s">
         <v>104</v>
       </c>
@@ -33371,7 +33346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="102" t="s">
         <v>105</v>
       </c>

--- a/data/input_data_US_group2.xlsx
+++ b/data/input_data_US_group2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom.walsh\Documents\GitHub\covasim-australia\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F944F4E-9CDB-42F3-B9A1-B2E518C249DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DA6065-4699-492B-BFCB-4A1FF6AB5717}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="839" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age_sex" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,14 @@
     <sheet name="contact matrices-work" sheetId="9" r:id="rId12"/>
     <sheet name="contact matrices-other" sheetId="10" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -47,19 +49,10 @@
   <commentList>
     <comment ref="R1" authorId="0" shapeId="0" xr:uid="{7833F806-E614-7449-968E-2A674530B08E}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Only used if the the new_tests column of the epi data is incorrectly specified</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -75,36 +68,18 @@
   <commentList>
     <comment ref="E1" authorId="0" shapeId="0" xr:uid="{045AFF27-0FD9-CB4D-9BD3-D86131B19BD5}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The time to trace contacts, applied to all targeted layers for this policy</t>
-        </r>
       </text>
     </comment>
     <comment ref="G1" authorId="1" shapeId="0" xr:uid="{32492FBF-3FB7-D547-8467-90931EBEF8B7}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The days on which the coverage changes</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -29363,8 +29338,8 @@
   </sheetPr>
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29622,7 +29597,7 @@
         <v>87</v>
       </c>
       <c r="D7" s="71">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E7" s="70">
         <v>1</v>
@@ -29655,7 +29630,9 @@
       <c r="C8" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="78"/>
+      <c r="D8" s="78">
+        <v>0.8</v>
+      </c>
       <c r="E8" s="79">
         <v>1</v>
       </c>
@@ -31295,8 +31272,8 @@
   </sheetPr>
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31866,7 +31843,7 @@
         <v>1000</v>
       </c>
       <c r="S8">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="T8">
         <v>1</v>

--- a/data/input_data_US_group2.xlsx
+++ b/data/input_data_US_group2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DA6065-4699-492B-BFCB-4A1FF6AB5717}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4E0071-8442-419A-A4B3-2640C68BFA74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age_sex" sheetId="1" r:id="rId1"/>
@@ -29339,7 +29339,7 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29775,7 +29775,7 @@
         <v>99</v>
       </c>
       <c r="D12" s="91">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E12" s="94">
         <v>1</v>
@@ -29813,7 +29813,7 @@
         <v>100</v>
       </c>
       <c r="D13" s="91">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E13" s="90">
         <v>1</v>
@@ -29849,7 +29849,7 @@
         <v>87</v>
       </c>
       <c r="D14" s="91">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E14" s="90">
         <v>1</v>
@@ -29883,7 +29883,7 @@
         <v>64</v>
       </c>
       <c r="D15" s="97">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="E15" s="98">
         <v>1</v>
@@ -30397,7 +30397,7 @@
         <v>64</v>
       </c>
       <c r="D29" s="19">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="E29" s="9">
         <v>1</v>
@@ -30431,7 +30431,7 @@
         <v>85</v>
       </c>
       <c r="D30" s="19">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="E30" s="9">
         <v>1</v>
@@ -30463,7 +30463,7 @@
         <v>87</v>
       </c>
       <c r="D31" s="19">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -31117,7 +31117,7 @@
         <v>107</v>
       </c>
       <c r="D49" s="71">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="E49" s="74">
         <v>1</v>
@@ -31155,7 +31155,7 @@
         <v>108</v>
       </c>
       <c r="D50" s="71">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="E50" s="70">
         <v>1</v>
@@ -31407,7 +31407,7 @@
         <v>60</v>
       </c>
       <c r="Q2">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="R2">
         <v>1000</v>
@@ -31485,7 +31485,7 @@
         <v>1000</v>
       </c>
       <c r="S3">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="T3">
         <v>1</v>
@@ -31556,7 +31556,7 @@
         <v>1000</v>
       </c>
       <c r="S4">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T4">
         <v>1</v>
@@ -31621,13 +31621,13 @@
         <v>60</v>
       </c>
       <c r="Q5">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="R5">
         <v>1000</v>
       </c>
       <c r="S5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T5">
         <v>1</v>
@@ -31699,7 +31699,7 @@
         <v>1000</v>
       </c>
       <c r="S6">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T6">
         <v>1</v>
@@ -31837,13 +31837,13 @@
         <v>60</v>
       </c>
       <c r="Q8">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="R8">
         <v>1000</v>
       </c>
       <c r="S8">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="T8">
         <v>1</v>
@@ -31860,8 +31860,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/data/input_data_US_group2.xlsx
+++ b/data/input_data_US_group2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\GitHub\covasim-australia\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DA6065-4699-492B-BFCB-4A1FF6AB5717}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A825668-5E79-43C6-91DE-3242340C32EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="839" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age_sex" sheetId="1" r:id="rId1"/>
@@ -27,14 +27,12 @@
     <sheet name="contact matrices-work" sheetId="9" r:id="rId12"/>
     <sheet name="contact matrices-other" sheetId="10" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -49,10 +47,19 @@
   <commentList>
     <comment ref="R1" authorId="0" shapeId="0" xr:uid="{7833F806-E614-7449-968E-2A674530B08E}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Only used if the the new_tests column of the epi data is incorrectly specified</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -68,18 +75,36 @@
   <commentList>
     <comment ref="E1" authorId="0" shapeId="0" xr:uid="{045AFF27-0FD9-CB4D-9BD3-D86131B19BD5}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The time to trace contacts, applied to all targeted layers for this policy</t>
+        </r>
       </text>
     </comment>
     <comment ref="G1" authorId="1" shapeId="0" xr:uid="{32492FBF-3FB7-D547-8467-90931EBEF8B7}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The days on which the coverage changes</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -1402,13 +1427,13 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1467,7 +1492,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="110" t="s">
         <v>90</v>
       </c>
@@ -1527,7 +1552,7 @@
         <v>522367</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="110"/>
       <c r="B3" s="36" t="s">
         <v>20</v>
@@ -1585,7 +1610,7 @@
         <v>500366</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="110" t="s">
         <v>90</v>
       </c>
@@ -1661,7 +1686,7 @@
         <v>1022733</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="110"/>
       <c r="B5" s="36" t="s">
         <v>21</v>
@@ -1735,7 +1760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="110" t="s">
         <v>96</v>
       </c>
@@ -1795,7 +1820,7 @@
         <v>307086</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="110"/>
       <c r="B7" s="37" t="s">
         <v>20</v>
@@ -1853,7 +1878,7 @@
         <v>276445</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="110" t="s">
         <v>96</v>
       </c>
@@ -1929,7 +1954,7 @@
         <v>583531</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="110"/>
       <c r="B9" s="37" t="s">
         <v>21</v>
@@ -2003,7 +2028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="110" t="s">
         <v>101</v>
       </c>
@@ -2062,7 +2087,7 @@
         <v>2658903</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="110"/>
       <c r="B11" s="61" t="s">
         <v>20</v>
@@ -2119,7 +2144,7 @@
         <v>2550308</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="110" t="s">
         <v>101</v>
       </c>
@@ -2178,7 +2203,7 @@
         <v>5209211</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="110"/>
       <c r="B13" s="61" t="s">
         <v>21</v>
@@ -2235,7 +2260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="110" t="s">
         <v>102</v>
       </c>
@@ -2294,7 +2319,7 @@
         <v>1029728</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="110"/>
       <c r="B15" s="61" t="s">
         <v>20</v>
@@ -2351,7 +2376,7 @@
         <v>968185</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="110" t="s">
         <v>102</v>
       </c>
@@ -2410,7 +2435,7 @@
         <v>1997913</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="110"/>
       <c r="B17" s="61" t="s">
         <v>21</v>
@@ -2467,7 +2492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="110" t="s">
         <v>103</v>
       </c>
@@ -2526,7 +2551,7 @@
         <v>5154</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="110"/>
       <c r="B19" s="61" t="s">
         <v>20</v>
@@ -2583,7 +2608,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="110" t="s">
         <v>103</v>
       </c>
@@ -2642,7 +2667,7 @@
         <v>7838</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="110"/>
       <c r="B21" s="61" t="s">
         <v>21</v>
@@ -2699,7 +2724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="110" t="s">
         <v>104</v>
       </c>
@@ -2758,7 +2783,7 @@
         <v>9529195</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="110"/>
       <c r="B23" s="61" t="s">
         <v>20</v>
@@ -2815,7 +2840,7 @@
         <v>9185858</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="110" t="s">
         <v>104</v>
       </c>
@@ -2874,7 +2899,7 @@
         <v>18715053</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="110"/>
       <c r="B25" s="61" t="s">
         <v>21</v>
@@ -2931,7 +2956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="110" t="s">
         <v>105</v>
       </c>
@@ -2990,7 +3015,7 @@
         <v>419544</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="110"/>
       <c r="B27" s="61" t="s">
         <v>20</v>
@@ -3047,7 +3072,7 @@
         <v>399459</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="110" t="s">
         <v>105</v>
       </c>
@@ -3106,7 +3131,7 @@
         <v>819003</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="110"/>
       <c r="B29" s="61" t="s">
         <v>21</v>
@@ -3165,6 +3190,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
@@ -3174,11 +3204,6 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3195,12 +3220,12 @@
       <selection activeCell="A34" sqref="A34:S113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -3259,7 +3284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="110" t="s">
         <v>90</v>
       </c>
@@ -3318,7 +3343,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="110"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -3375,7 +3400,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="110"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -3432,7 +3457,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="110"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -3489,7 +3514,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="110"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -3546,7 +3571,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="110"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -3603,7 +3628,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="110"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -3660,7 +3685,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="110"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -3717,7 +3742,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="110"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -3774,7 +3799,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="110"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -3831,7 +3856,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="110"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -3888,7 +3913,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="110"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -3945,7 +3970,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="110"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -4002,7 +4027,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="110"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -4059,7 +4084,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="110"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -4116,7 +4141,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="110"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -4173,7 +4198,7 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="110" t="s">
         <v>96</v>
       </c>
@@ -4232,7 +4257,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="110"/>
       <c r="B19" s="37" t="s">
         <v>1</v>
@@ -4289,7 +4314,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="110"/>
       <c r="B20" s="37" t="s">
         <v>2</v>
@@ -4346,7 +4371,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="110"/>
       <c r="B21" s="37" t="s">
         <v>3</v>
@@ -4403,7 +4428,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="110"/>
       <c r="B22" s="37" t="s">
         <v>4</v>
@@ -4460,7 +4485,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="110"/>
       <c r="B23" s="37" t="s">
         <v>5</v>
@@ -4517,7 +4542,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="110"/>
       <c r="B24" s="37" t="s">
         <v>6</v>
@@ -4574,7 +4599,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="110"/>
       <c r="B25" s="37" t="s">
         <v>7</v>
@@ -4631,7 +4656,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="110"/>
       <c r="B26" s="37" t="s">
         <v>8</v>
@@ -4688,7 +4713,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="110"/>
       <c r="B27" s="37" t="s">
         <v>9</v>
@@ -4745,7 +4770,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="110"/>
       <c r="B28" s="37" t="s">
         <v>10</v>
@@ -4802,7 +4827,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="110"/>
       <c r="B29" s="37" t="s">
         <v>11</v>
@@ -4859,7 +4884,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="110"/>
       <c r="B30" s="37" t="s">
         <v>12</v>
@@ -4916,7 +4941,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="110"/>
       <c r="B31" s="37" t="s">
         <v>13</v>
@@ -4973,7 +4998,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="110"/>
       <c r="B32" s="37" t="s">
         <v>14</v>
@@ -5030,7 +5055,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="110"/>
       <c r="B33" s="37" t="s">
         <v>15</v>
@@ -5087,7 +5112,7 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="110" t="s">
         <v>101</v>
       </c>
@@ -5146,7 +5171,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="110"/>
       <c r="B35" s="61" t="s">
         <v>1</v>
@@ -5203,7 +5228,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="110"/>
       <c r="B36" s="61" t="s">
         <v>2</v>
@@ -5260,7 +5285,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="110"/>
       <c r="B37" s="61" t="s">
         <v>3</v>
@@ -5317,7 +5342,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="110"/>
       <c r="B38" s="61" t="s">
         <v>4</v>
@@ -5374,7 +5399,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="110"/>
       <c r="B39" s="61" t="s">
         <v>5</v>
@@ -5431,7 +5456,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="110"/>
       <c r="B40" s="61" t="s">
         <v>6</v>
@@ -5488,7 +5513,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="110"/>
       <c r="B41" s="61" t="s">
         <v>7</v>
@@ -5545,7 +5570,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="110"/>
       <c r="B42" s="61" t="s">
         <v>8</v>
@@ -5602,7 +5627,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="110"/>
       <c r="B43" s="61" t="s">
         <v>9</v>
@@ -5659,7 +5684,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="110"/>
       <c r="B44" s="61" t="s">
         <v>10</v>
@@ -5716,7 +5741,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="110"/>
       <c r="B45" s="61" t="s">
         <v>11</v>
@@ -5773,7 +5798,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="110"/>
       <c r="B46" s="61" t="s">
         <v>12</v>
@@ -5830,7 +5855,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="110"/>
       <c r="B47" s="61" t="s">
         <v>13</v>
@@ -5887,7 +5912,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="110"/>
       <c r="B48" s="61" t="s">
         <v>14</v>
@@ -5944,7 +5969,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="110"/>
       <c r="B49" s="61" t="s">
         <v>15</v>
@@ -6001,7 +6026,7 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="110" t="s">
         <v>102</v>
       </c>
@@ -6060,7 +6085,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="110"/>
       <c r="B51" s="61" t="s">
         <v>1</v>
@@ -6117,7 +6142,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="110"/>
       <c r="B52" s="61" t="s">
         <v>2</v>
@@ -6174,7 +6199,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="110"/>
       <c r="B53" s="61" t="s">
         <v>3</v>
@@ -6231,7 +6256,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="110"/>
       <c r="B54" s="61" t="s">
         <v>4</v>
@@ -6288,7 +6313,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="110"/>
       <c r="B55" s="61" t="s">
         <v>5</v>
@@ -6345,7 +6370,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="110"/>
       <c r="B56" s="61" t="s">
         <v>6</v>
@@ -6402,7 +6427,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="110"/>
       <c r="B57" s="61" t="s">
         <v>7</v>
@@ -6459,7 +6484,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="110"/>
       <c r="B58" s="61" t="s">
         <v>8</v>
@@ -6516,7 +6541,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="110"/>
       <c r="B59" s="61" t="s">
         <v>9</v>
@@ -6573,7 +6598,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="110"/>
       <c r="B60" s="61" t="s">
         <v>10</v>
@@ -6630,7 +6655,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="110"/>
       <c r="B61" s="61" t="s">
         <v>11</v>
@@ -6687,7 +6712,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="110"/>
       <c r="B62" s="61" t="s">
         <v>12</v>
@@ -6744,7 +6769,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="110"/>
       <c r="B63" s="61" t="s">
         <v>13</v>
@@ -6801,7 +6826,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="110"/>
       <c r="B64" s="61" t="s">
         <v>14</v>
@@ -6858,7 +6883,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" s="110"/>
       <c r="B65" s="61" t="s">
         <v>15</v>
@@ -6915,7 +6940,7 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" s="110" t="s">
         <v>103</v>
       </c>
@@ -6974,7 +6999,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" s="110"/>
       <c r="B67" s="61" t="s">
         <v>1</v>
@@ -7031,7 +7056,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" s="110"/>
       <c r="B68" s="61" t="s">
         <v>2</v>
@@ -7088,7 +7113,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" s="110"/>
       <c r="B69" s="61" t="s">
         <v>3</v>
@@ -7145,7 +7170,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" s="110"/>
       <c r="B70" s="61" t="s">
         <v>4</v>
@@ -7202,7 +7227,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" s="110"/>
       <c r="B71" s="61" t="s">
         <v>5</v>
@@ -7259,7 +7284,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" s="110"/>
       <c r="B72" s="61" t="s">
         <v>6</v>
@@ -7316,7 +7341,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" s="110"/>
       <c r="B73" s="61" t="s">
         <v>7</v>
@@ -7373,7 +7398,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" s="110"/>
       <c r="B74" s="61" t="s">
         <v>8</v>
@@ -7430,7 +7455,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" s="110"/>
       <c r="B75" s="61" t="s">
         <v>9</v>
@@ -7487,7 +7512,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" s="110"/>
       <c r="B76" s="61" t="s">
         <v>10</v>
@@ -7544,7 +7569,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" s="110"/>
       <c r="B77" s="61" t="s">
         <v>11</v>
@@ -7601,7 +7626,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" s="110"/>
       <c r="B78" s="61" t="s">
         <v>12</v>
@@ -7658,7 +7683,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" s="110"/>
       <c r="B79" s="61" t="s">
         <v>13</v>
@@ -7715,7 +7740,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" s="110"/>
       <c r="B80" s="61" t="s">
         <v>14</v>
@@ -7772,7 +7797,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" s="110"/>
       <c r="B81" s="61" t="s">
         <v>15</v>
@@ -7829,7 +7854,7 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" s="110" t="s">
         <v>104</v>
       </c>
@@ -7888,7 +7913,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" s="110"/>
       <c r="B83" s="61" t="s">
         <v>1</v>
@@ -7945,7 +7970,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" s="110"/>
       <c r="B84" s="61" t="s">
         <v>2</v>
@@ -8002,7 +8027,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" s="110"/>
       <c r="B85" s="61" t="s">
         <v>3</v>
@@ -8059,7 +8084,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="110"/>
       <c r="B86" s="61" t="s">
         <v>4</v>
@@ -8116,7 +8141,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" s="110"/>
       <c r="B87" s="61" t="s">
         <v>5</v>
@@ -8173,7 +8198,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" s="110"/>
       <c r="B88" s="61" t="s">
         <v>6</v>
@@ -8230,7 +8255,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" s="110"/>
       <c r="B89" s="61" t="s">
         <v>7</v>
@@ -8287,7 +8312,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" s="110"/>
       <c r="B90" s="61" t="s">
         <v>8</v>
@@ -8344,7 +8369,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91" s="110"/>
       <c r="B91" s="61" t="s">
         <v>9</v>
@@ -8401,7 +8426,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" s="110"/>
       <c r="B92" s="61" t="s">
         <v>10</v>
@@ -8458,7 +8483,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" s="110"/>
       <c r="B93" s="61" t="s">
         <v>11</v>
@@ -8515,7 +8540,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" s="110"/>
       <c r="B94" s="61" t="s">
         <v>12</v>
@@ -8572,7 +8597,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" s="110"/>
       <c r="B95" s="61" t="s">
         <v>13</v>
@@ -8629,7 +8654,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96" s="110"/>
       <c r="B96" s="61" t="s">
         <v>14</v>
@@ -8686,7 +8711,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" s="110"/>
       <c r="B97" s="61" t="s">
         <v>15</v>
@@ -8743,7 +8768,7 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98" s="110" t="s">
         <v>105</v>
       </c>
@@ -8802,7 +8827,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99" s="110"/>
       <c r="B99" s="61" t="s">
         <v>1</v>
@@ -8859,7 +8884,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100" s="110"/>
       <c r="B100" s="61" t="s">
         <v>2</v>
@@ -8916,7 +8941,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101" s="110"/>
       <c r="B101" s="61" t="s">
         <v>3</v>
@@ -8973,7 +8998,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102" s="110"/>
       <c r="B102" s="61" t="s">
         <v>4</v>
@@ -9030,7 +9055,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A103" s="110"/>
       <c r="B103" s="61" t="s">
         <v>5</v>
@@ -9087,7 +9112,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A104" s="110"/>
       <c r="B104" s="61" t="s">
         <v>6</v>
@@ -9144,7 +9169,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A105" s="110"/>
       <c r="B105" s="61" t="s">
         <v>7</v>
@@ -9201,7 +9226,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A106" s="110"/>
       <c r="B106" s="61" t="s">
         <v>8</v>
@@ -9258,7 +9283,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A107" s="110"/>
       <c r="B107" s="61" t="s">
         <v>9</v>
@@ -9315,7 +9340,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A108" s="110"/>
       <c r="B108" s="61" t="s">
         <v>10</v>
@@ -9372,7 +9397,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A109" s="110"/>
       <c r="B109" s="61" t="s">
         <v>11</v>
@@ -9429,7 +9454,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A110" s="110"/>
       <c r="B110" s="61" t="s">
         <v>12</v>
@@ -9486,7 +9511,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A111" s="110"/>
       <c r="B111" s="61" t="s">
         <v>13</v>
@@ -9543,7 +9568,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A112" s="110"/>
       <c r="B112" s="61" t="s">
         <v>14</v>
@@ -9600,7 +9625,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A113" s="110"/>
       <c r="B113" s="61" t="s">
         <v>15</v>
@@ -9682,9 +9707,9 @@
       <selection activeCell="A34" sqref="A34:S113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -9743,7 +9768,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="110" t="s">
         <v>90</v>
       </c>
@@ -9802,7 +9827,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="110"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -9859,7 +9884,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="110"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -9916,7 +9941,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="110"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -9973,7 +9998,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="110"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -10030,7 +10055,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="110"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -10087,7 +10112,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="110"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -10144,7 +10169,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="110"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -10201,7 +10226,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="110"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -10258,7 +10283,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="110"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -10315,7 +10340,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="110"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -10372,7 +10397,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="110"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -10429,7 +10454,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="110"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -10486,7 +10511,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="110"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -10543,7 +10568,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="110"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -10600,7 +10625,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="110"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -10657,7 +10682,7 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="110" t="s">
         <v>96</v>
       </c>
@@ -10716,7 +10741,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="110"/>
       <c r="B19" s="37" t="s">
         <v>1</v>
@@ -10773,7 +10798,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="110"/>
       <c r="B20" s="37" t="s">
         <v>2</v>
@@ -10830,7 +10855,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="110"/>
       <c r="B21" s="37" t="s">
         <v>3</v>
@@ -10887,7 +10912,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="110"/>
       <c r="B22" s="37" t="s">
         <v>4</v>
@@ -10944,7 +10969,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="110"/>
       <c r="B23" s="37" t="s">
         <v>5</v>
@@ -11001,7 +11026,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="110"/>
       <c r="B24" s="37" t="s">
         <v>6</v>
@@ -11058,7 +11083,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="110"/>
       <c r="B25" s="37" t="s">
         <v>7</v>
@@ -11115,7 +11140,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="110"/>
       <c r="B26" s="37" t="s">
         <v>8</v>
@@ -11172,7 +11197,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="110"/>
       <c r="B27" s="37" t="s">
         <v>9</v>
@@ -11229,7 +11254,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="110"/>
       <c r="B28" s="37" t="s">
         <v>10</v>
@@ -11286,7 +11311,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="110"/>
       <c r="B29" s="37" t="s">
         <v>11</v>
@@ -11343,7 +11368,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="110"/>
       <c r="B30" s="37" t="s">
         <v>12</v>
@@ -11400,7 +11425,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="110"/>
       <c r="B31" s="37" t="s">
         <v>13</v>
@@ -11457,7 +11482,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="110"/>
       <c r="B32" s="37" t="s">
         <v>14</v>
@@ -11514,7 +11539,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="110"/>
       <c r="B33" s="37" t="s">
         <v>15</v>
@@ -11571,7 +11596,7 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="110" t="s">
         <v>101</v>
       </c>
@@ -11630,7 +11655,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="110"/>
       <c r="B35" s="61" t="s">
         <v>1</v>
@@ -11687,7 +11712,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="110"/>
       <c r="B36" s="61" t="s">
         <v>2</v>
@@ -11744,7 +11769,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="110"/>
       <c r="B37" s="61" t="s">
         <v>3</v>
@@ -11801,7 +11826,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="110"/>
       <c r="B38" s="61" t="s">
         <v>4</v>
@@ -11858,7 +11883,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="110"/>
       <c r="B39" s="61" t="s">
         <v>5</v>
@@ -11915,7 +11940,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="110"/>
       <c r="B40" s="61" t="s">
         <v>6</v>
@@ -11972,7 +11997,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="110"/>
       <c r="B41" s="61" t="s">
         <v>7</v>
@@ -12029,7 +12054,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="110"/>
       <c r="B42" s="61" t="s">
         <v>8</v>
@@ -12086,7 +12111,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="110"/>
       <c r="B43" s="61" t="s">
         <v>9</v>
@@ -12143,7 +12168,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="110"/>
       <c r="B44" s="61" t="s">
         <v>10</v>
@@ -12200,7 +12225,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="110"/>
       <c r="B45" s="61" t="s">
         <v>11</v>
@@ -12257,7 +12282,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="110"/>
       <c r="B46" s="61" t="s">
         <v>12</v>
@@ -12314,7 +12339,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="110"/>
       <c r="B47" s="61" t="s">
         <v>13</v>
@@ -12371,7 +12396,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="110"/>
       <c r="B48" s="61" t="s">
         <v>14</v>
@@ -12428,7 +12453,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="110"/>
       <c r="B49" s="61" t="s">
         <v>15</v>
@@ -12485,7 +12510,7 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="110" t="s">
         <v>102</v>
       </c>
@@ -12544,7 +12569,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="110"/>
       <c r="B51" s="61" t="s">
         <v>1</v>
@@ -12601,7 +12626,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="110"/>
       <c r="B52" s="61" t="s">
         <v>2</v>
@@ -12658,7 +12683,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="110"/>
       <c r="B53" s="61" t="s">
         <v>3</v>
@@ -12715,7 +12740,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="110"/>
       <c r="B54" s="61" t="s">
         <v>4</v>
@@ -12772,7 +12797,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="110"/>
       <c r="B55" s="61" t="s">
         <v>5</v>
@@ -12829,7 +12854,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="110"/>
       <c r="B56" s="61" t="s">
         <v>6</v>
@@ -12886,7 +12911,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="110"/>
       <c r="B57" s="61" t="s">
         <v>7</v>
@@ -12943,7 +12968,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="110"/>
       <c r="B58" s="61" t="s">
         <v>8</v>
@@ -13000,7 +13025,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="110"/>
       <c r="B59" s="61" t="s">
         <v>9</v>
@@ -13057,7 +13082,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="110"/>
       <c r="B60" s="61" t="s">
         <v>10</v>
@@ -13114,7 +13139,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="110"/>
       <c r="B61" s="61" t="s">
         <v>11</v>
@@ -13171,7 +13196,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="110"/>
       <c r="B62" s="61" t="s">
         <v>12</v>
@@ -13228,7 +13253,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="110"/>
       <c r="B63" s="61" t="s">
         <v>13</v>
@@ -13285,7 +13310,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="110"/>
       <c r="B64" s="61" t="s">
         <v>14</v>
@@ -13342,7 +13367,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" s="110"/>
       <c r="B65" s="61" t="s">
         <v>15</v>
@@ -13399,7 +13424,7 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" s="110" t="s">
         <v>103</v>
       </c>
@@ -13458,7 +13483,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" s="110"/>
       <c r="B67" s="61" t="s">
         <v>1</v>
@@ -13515,7 +13540,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" s="110"/>
       <c r="B68" s="61" t="s">
         <v>2</v>
@@ -13572,7 +13597,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" s="110"/>
       <c r="B69" s="61" t="s">
         <v>3</v>
@@ -13629,7 +13654,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" s="110"/>
       <c r="B70" s="61" t="s">
         <v>4</v>
@@ -13686,7 +13711,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" s="110"/>
       <c r="B71" s="61" t="s">
         <v>5</v>
@@ -13743,7 +13768,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" s="110"/>
       <c r="B72" s="61" t="s">
         <v>6</v>
@@ -13800,7 +13825,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" s="110"/>
       <c r="B73" s="61" t="s">
         <v>7</v>
@@ -13857,7 +13882,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" s="110"/>
       <c r="B74" s="61" t="s">
         <v>8</v>
@@ -13914,7 +13939,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" s="110"/>
       <c r="B75" s="61" t="s">
         <v>9</v>
@@ -13971,7 +13996,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" s="110"/>
       <c r="B76" s="61" t="s">
         <v>10</v>
@@ -14028,7 +14053,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" s="110"/>
       <c r="B77" s="61" t="s">
         <v>11</v>
@@ -14085,7 +14110,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" s="110"/>
       <c r="B78" s="61" t="s">
         <v>12</v>
@@ -14142,7 +14167,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" s="110"/>
       <c r="B79" s="61" t="s">
         <v>13</v>
@@ -14199,7 +14224,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" s="110"/>
       <c r="B80" s="61" t="s">
         <v>14</v>
@@ -14256,7 +14281,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" s="110"/>
       <c r="B81" s="61" t="s">
         <v>15</v>
@@ -14313,7 +14338,7 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" s="110" t="s">
         <v>104</v>
       </c>
@@ -14372,7 +14397,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" s="110"/>
       <c r="B83" s="61" t="s">
         <v>1</v>
@@ -14429,7 +14454,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" s="110"/>
       <c r="B84" s="61" t="s">
         <v>2</v>
@@ -14486,7 +14511,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" s="110"/>
       <c r="B85" s="61" t="s">
         <v>3</v>
@@ -14543,7 +14568,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="110"/>
       <c r="B86" s="61" t="s">
         <v>4</v>
@@ -14600,7 +14625,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" s="110"/>
       <c r="B87" s="61" t="s">
         <v>5</v>
@@ -14657,7 +14682,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" s="110"/>
       <c r="B88" s="61" t="s">
         <v>6</v>
@@ -14714,7 +14739,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" s="110"/>
       <c r="B89" s="61" t="s">
         <v>7</v>
@@ -14771,7 +14796,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" s="110"/>
       <c r="B90" s="61" t="s">
         <v>8</v>
@@ -14828,7 +14853,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91" s="110"/>
       <c r="B91" s="61" t="s">
         <v>9</v>
@@ -14885,7 +14910,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" s="110"/>
       <c r="B92" s="61" t="s">
         <v>10</v>
@@ -14942,7 +14967,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" s="110"/>
       <c r="B93" s="61" t="s">
         <v>11</v>
@@ -14999,7 +15024,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" s="110"/>
       <c r="B94" s="61" t="s">
         <v>12</v>
@@ -15056,7 +15081,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" s="110"/>
       <c r="B95" s="61" t="s">
         <v>13</v>
@@ -15113,7 +15138,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96" s="110"/>
       <c r="B96" s="61" t="s">
         <v>14</v>
@@ -15170,7 +15195,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" s="110"/>
       <c r="B97" s="61" t="s">
         <v>15</v>
@@ -15227,7 +15252,7 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98" s="110" t="s">
         <v>105</v>
       </c>
@@ -15286,7 +15311,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99" s="110"/>
       <c r="B99" s="61" t="s">
         <v>1</v>
@@ -15343,7 +15368,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100" s="110"/>
       <c r="B100" s="61" t="s">
         <v>2</v>
@@ -15400,7 +15425,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101" s="110"/>
       <c r="B101" s="61" t="s">
         <v>3</v>
@@ -15457,7 +15482,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102" s="110"/>
       <c r="B102" s="61" t="s">
         <v>4</v>
@@ -15514,7 +15539,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A103" s="110"/>
       <c r="B103" s="61" t="s">
         <v>5</v>
@@ -15571,7 +15596,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A104" s="110"/>
       <c r="B104" s="61" t="s">
         <v>6</v>
@@ -15628,7 +15653,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A105" s="110"/>
       <c r="B105" s="61" t="s">
         <v>7</v>
@@ -15685,7 +15710,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A106" s="110"/>
       <c r="B106" s="61" t="s">
         <v>8</v>
@@ -15742,7 +15767,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A107" s="110"/>
       <c r="B107" s="61" t="s">
         <v>9</v>
@@ -15799,7 +15824,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A108" s="110"/>
       <c r="B108" s="61" t="s">
         <v>10</v>
@@ -15856,7 +15881,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A109" s="110"/>
       <c r="B109" s="61" t="s">
         <v>11</v>
@@ -15913,7 +15938,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A110" s="110"/>
       <c r="B110" s="61" t="s">
         <v>12</v>
@@ -15970,7 +15995,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A111" s="110"/>
       <c r="B111" s="61" t="s">
         <v>13</v>
@@ -16027,7 +16052,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A112" s="110"/>
       <c r="B112" s="61" t="s">
         <v>14</v>
@@ -16084,7 +16109,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A113" s="110"/>
       <c r="B113" s="61" t="s">
         <v>15</v>
@@ -16166,9 +16191,9 @@
       <selection activeCell="A34" sqref="A34:S113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -16227,7 +16252,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="110" t="s">
         <v>90</v>
       </c>
@@ -16286,7 +16311,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="110"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -16343,7 +16368,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="110"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -16400,7 +16425,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="110"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -16457,7 +16482,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="110"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -16514,7 +16539,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="110"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -16571,7 +16596,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="110"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -16628,7 +16653,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="110"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -16685,7 +16710,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="110"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -16742,7 +16767,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="110"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -16799,7 +16824,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="110"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -16856,7 +16881,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="110"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -16913,7 +16938,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="110"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -16970,7 +16995,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="110"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -17027,7 +17052,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="110"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -17084,7 +17109,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="110"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -17141,7 +17166,7 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="110" t="s">
         <v>96</v>
       </c>
@@ -17200,7 +17225,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="110"/>
       <c r="B19" s="37" t="s">
         <v>1</v>
@@ -17257,7 +17282,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="110"/>
       <c r="B20" s="37" t="s">
         <v>2</v>
@@ -17314,7 +17339,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="110"/>
       <c r="B21" s="37" t="s">
         <v>3</v>
@@ -17371,7 +17396,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="110"/>
       <c r="B22" s="37" t="s">
         <v>4</v>
@@ -17428,7 +17453,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="110"/>
       <c r="B23" s="37" t="s">
         <v>5</v>
@@ -17485,7 +17510,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="110"/>
       <c r="B24" s="37" t="s">
         <v>6</v>
@@ -17542,7 +17567,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="110"/>
       <c r="B25" s="37" t="s">
         <v>7</v>
@@ -17599,7 +17624,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="110"/>
       <c r="B26" s="37" t="s">
         <v>8</v>
@@ -17656,7 +17681,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="110"/>
       <c r="B27" s="37" t="s">
         <v>9</v>
@@ -17713,7 +17738,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="110"/>
       <c r="B28" s="37" t="s">
         <v>10</v>
@@ -17770,7 +17795,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="110"/>
       <c r="B29" s="37" t="s">
         <v>11</v>
@@ -17827,7 +17852,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="110"/>
       <c r="B30" s="37" t="s">
         <v>12</v>
@@ -17884,7 +17909,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="110"/>
       <c r="B31" s="37" t="s">
         <v>13</v>
@@ -17941,7 +17966,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="110"/>
       <c r="B32" s="37" t="s">
         <v>14</v>
@@ -17998,7 +18023,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="110"/>
       <c r="B33" s="37" t="s">
         <v>15</v>
@@ -18055,7 +18080,7 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="110" t="s">
         <v>101</v>
       </c>
@@ -18114,7 +18139,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="110"/>
       <c r="B35" s="61" t="s">
         <v>1</v>
@@ -18171,7 +18196,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="110"/>
       <c r="B36" s="61" t="s">
         <v>2</v>
@@ -18228,7 +18253,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="110"/>
       <c r="B37" s="61" t="s">
         <v>3</v>
@@ -18285,7 +18310,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="110"/>
       <c r="B38" s="61" t="s">
         <v>4</v>
@@ -18342,7 +18367,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="110"/>
       <c r="B39" s="61" t="s">
         <v>5</v>
@@ -18399,7 +18424,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="110"/>
       <c r="B40" s="61" t="s">
         <v>6</v>
@@ -18456,7 +18481,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="110"/>
       <c r="B41" s="61" t="s">
         <v>7</v>
@@ -18513,7 +18538,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="110"/>
       <c r="B42" s="61" t="s">
         <v>8</v>
@@ -18570,7 +18595,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="110"/>
       <c r="B43" s="61" t="s">
         <v>9</v>
@@ -18627,7 +18652,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="110"/>
       <c r="B44" s="61" t="s">
         <v>10</v>
@@ -18684,7 +18709,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="110"/>
       <c r="B45" s="61" t="s">
         <v>11</v>
@@ -18741,7 +18766,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="110"/>
       <c r="B46" s="61" t="s">
         <v>12</v>
@@ -18798,7 +18823,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="110"/>
       <c r="B47" s="61" t="s">
         <v>13</v>
@@ -18855,7 +18880,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="110"/>
       <c r="B48" s="61" t="s">
         <v>14</v>
@@ -18912,7 +18937,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="110"/>
       <c r="B49" s="61" t="s">
         <v>15</v>
@@ -18969,7 +18994,7 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="110" t="s">
         <v>102</v>
       </c>
@@ -19028,7 +19053,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="110"/>
       <c r="B51" s="61" t="s">
         <v>1</v>
@@ -19085,7 +19110,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="110"/>
       <c r="B52" s="61" t="s">
         <v>2</v>
@@ -19142,7 +19167,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="110"/>
       <c r="B53" s="61" t="s">
         <v>3</v>
@@ -19199,7 +19224,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="110"/>
       <c r="B54" s="61" t="s">
         <v>4</v>
@@ -19256,7 +19281,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="110"/>
       <c r="B55" s="61" t="s">
         <v>5</v>
@@ -19313,7 +19338,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="110"/>
       <c r="B56" s="61" t="s">
         <v>6</v>
@@ -19370,7 +19395,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="110"/>
       <c r="B57" s="61" t="s">
         <v>7</v>
@@ -19427,7 +19452,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="110"/>
       <c r="B58" s="61" t="s">
         <v>8</v>
@@ -19484,7 +19509,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="110"/>
       <c r="B59" s="61" t="s">
         <v>9</v>
@@ -19541,7 +19566,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="110"/>
       <c r="B60" s="61" t="s">
         <v>10</v>
@@ -19598,7 +19623,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="110"/>
       <c r="B61" s="61" t="s">
         <v>11</v>
@@ -19655,7 +19680,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="110"/>
       <c r="B62" s="61" t="s">
         <v>12</v>
@@ -19712,7 +19737,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="110"/>
       <c r="B63" s="61" t="s">
         <v>13</v>
@@ -19769,7 +19794,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="110"/>
       <c r="B64" s="61" t="s">
         <v>14</v>
@@ -19826,7 +19851,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" s="110"/>
       <c r="B65" s="61" t="s">
         <v>15</v>
@@ -19883,7 +19908,7 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" s="110" t="s">
         <v>103</v>
       </c>
@@ -19942,7 +19967,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" s="110"/>
       <c r="B67" s="61" t="s">
         <v>1</v>
@@ -19999,7 +20024,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" s="110"/>
       <c r="B68" s="61" t="s">
         <v>2</v>
@@ -20056,7 +20081,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" s="110"/>
       <c r="B69" s="61" t="s">
         <v>3</v>
@@ -20113,7 +20138,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" s="110"/>
       <c r="B70" s="61" t="s">
         <v>4</v>
@@ -20170,7 +20195,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" s="110"/>
       <c r="B71" s="61" t="s">
         <v>5</v>
@@ -20227,7 +20252,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" s="110"/>
       <c r="B72" s="61" t="s">
         <v>6</v>
@@ -20284,7 +20309,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" s="110"/>
       <c r="B73" s="61" t="s">
         <v>7</v>
@@ -20341,7 +20366,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" s="110"/>
       <c r="B74" s="61" t="s">
         <v>8</v>
@@ -20398,7 +20423,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" s="110"/>
       <c r="B75" s="61" t="s">
         <v>9</v>
@@ -20455,7 +20480,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" s="110"/>
       <c r="B76" s="61" t="s">
         <v>10</v>
@@ -20512,7 +20537,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" s="110"/>
       <c r="B77" s="61" t="s">
         <v>11</v>
@@ -20569,7 +20594,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" s="110"/>
       <c r="B78" s="61" t="s">
         <v>12</v>
@@ -20626,7 +20651,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" s="110"/>
       <c r="B79" s="61" t="s">
         <v>13</v>
@@ -20683,7 +20708,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" s="110"/>
       <c r="B80" s="61" t="s">
         <v>14</v>
@@ -20740,7 +20765,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" s="110"/>
       <c r="B81" s="61" t="s">
         <v>15</v>
@@ -20797,7 +20822,7 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" s="110" t="s">
         <v>104</v>
       </c>
@@ -20856,7 +20881,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" s="110"/>
       <c r="B83" s="61" t="s">
         <v>1</v>
@@ -20913,7 +20938,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" s="110"/>
       <c r="B84" s="61" t="s">
         <v>2</v>
@@ -20970,7 +20995,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" s="110"/>
       <c r="B85" s="61" t="s">
         <v>3</v>
@@ -21027,7 +21052,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="110"/>
       <c r="B86" s="61" t="s">
         <v>4</v>
@@ -21084,7 +21109,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" s="110"/>
       <c r="B87" s="61" t="s">
         <v>5</v>
@@ -21141,7 +21166,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" s="110"/>
       <c r="B88" s="61" t="s">
         <v>6</v>
@@ -21198,7 +21223,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" s="110"/>
       <c r="B89" s="61" t="s">
         <v>7</v>
@@ -21255,7 +21280,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" s="110"/>
       <c r="B90" s="61" t="s">
         <v>8</v>
@@ -21312,7 +21337,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91" s="110"/>
       <c r="B91" s="61" t="s">
         <v>9</v>
@@ -21369,7 +21394,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" s="110"/>
       <c r="B92" s="61" t="s">
         <v>10</v>
@@ -21426,7 +21451,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" s="110"/>
       <c r="B93" s="61" t="s">
         <v>11</v>
@@ -21483,7 +21508,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" s="110"/>
       <c r="B94" s="61" t="s">
         <v>12</v>
@@ -21540,7 +21565,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" s="110"/>
       <c r="B95" s="61" t="s">
         <v>13</v>
@@ -21597,7 +21622,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96" s="110"/>
       <c r="B96" s="61" t="s">
         <v>14</v>
@@ -21654,7 +21679,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" s="110"/>
       <c r="B97" s="61" t="s">
         <v>15</v>
@@ -21711,7 +21736,7 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98" s="110" t="s">
         <v>105</v>
       </c>
@@ -21770,7 +21795,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99" s="110"/>
       <c r="B99" s="61" t="s">
         <v>1</v>
@@ -21827,7 +21852,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100" s="110"/>
       <c r="B100" s="61" t="s">
         <v>2</v>
@@ -21884,7 +21909,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101" s="110"/>
       <c r="B101" s="61" t="s">
         <v>3</v>
@@ -21941,7 +21966,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102" s="110"/>
       <c r="B102" s="61" t="s">
         <v>4</v>
@@ -21998,7 +22023,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A103" s="110"/>
       <c r="B103" s="61" t="s">
         <v>5</v>
@@ -22055,7 +22080,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A104" s="110"/>
       <c r="B104" s="61" t="s">
         <v>6</v>
@@ -22112,7 +22137,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A105" s="110"/>
       <c r="B105" s="61" t="s">
         <v>7</v>
@@ -22169,7 +22194,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A106" s="110"/>
       <c r="B106" s="61" t="s">
         <v>8</v>
@@ -22226,7 +22251,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A107" s="110"/>
       <c r="B107" s="61" t="s">
         <v>9</v>
@@ -22283,7 +22308,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A108" s="110"/>
       <c r="B108" s="61" t="s">
         <v>10</v>
@@ -22340,7 +22365,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A109" s="110"/>
       <c r="B109" s="61" t="s">
         <v>11</v>
@@ -22397,7 +22422,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A110" s="110"/>
       <c r="B110" s="61" t="s">
         <v>12</v>
@@ -22454,7 +22479,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A111" s="110"/>
       <c r="B111" s="61" t="s">
         <v>13</v>
@@ -22511,7 +22536,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A112" s="110"/>
       <c r="B112" s="61" t="s">
         <v>14</v>
@@ -22568,7 +22593,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A113" s="110"/>
       <c r="B113" s="61" t="s">
         <v>15</v>
@@ -22650,9 +22675,9 @@
       <selection activeCell="A34" sqref="A34:S113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -22711,7 +22736,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="110" t="s">
         <v>90</v>
       </c>
@@ -22770,7 +22795,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="110"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -22827,7 +22852,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="110"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -22884,7 +22909,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="110"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -22941,7 +22966,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="110"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -22998,7 +23023,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="110"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -23055,7 +23080,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="110"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -23112,7 +23137,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="110"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -23169,7 +23194,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="110"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -23226,7 +23251,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="110"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -23283,7 +23308,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="110"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -23340,7 +23365,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="110"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -23397,7 +23422,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="110"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -23454,7 +23479,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="110"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -23511,7 +23536,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="110"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -23568,7 +23593,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="110"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -23625,7 +23650,7 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="110" t="s">
         <v>96</v>
       </c>
@@ -23684,7 +23709,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="110"/>
       <c r="B19" s="37" t="s">
         <v>1</v>
@@ -23741,7 +23766,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="110"/>
       <c r="B20" s="37" t="s">
         <v>2</v>
@@ -23798,7 +23823,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="110"/>
       <c r="B21" s="37" t="s">
         <v>3</v>
@@ -23855,7 +23880,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="110"/>
       <c r="B22" s="37" t="s">
         <v>4</v>
@@ -23912,7 +23937,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="110"/>
       <c r="B23" s="37" t="s">
         <v>5</v>
@@ -23969,7 +23994,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="110"/>
       <c r="B24" s="37" t="s">
         <v>6</v>
@@ -24026,7 +24051,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="110"/>
       <c r="B25" s="37" t="s">
         <v>7</v>
@@ -24083,7 +24108,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="110"/>
       <c r="B26" s="37" t="s">
         <v>8</v>
@@ -24140,7 +24165,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="110"/>
       <c r="B27" s="37" t="s">
         <v>9</v>
@@ -24197,7 +24222,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="110"/>
       <c r="B28" s="37" t="s">
         <v>10</v>
@@ -24254,7 +24279,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="110"/>
       <c r="B29" s="37" t="s">
         <v>11</v>
@@ -24311,7 +24336,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="110"/>
       <c r="B30" s="37" t="s">
         <v>12</v>
@@ -24368,7 +24393,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="110"/>
       <c r="B31" s="37" t="s">
         <v>13</v>
@@ -24425,7 +24450,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="110"/>
       <c r="B32" s="37" t="s">
         <v>14</v>
@@ -24482,7 +24507,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="110"/>
       <c r="B33" s="37" t="s">
         <v>15</v>
@@ -24539,7 +24564,7 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="110" t="s">
         <v>101</v>
       </c>
@@ -24598,7 +24623,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="110"/>
       <c r="B35" s="61" t="s">
         <v>1</v>
@@ -24655,7 +24680,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="110"/>
       <c r="B36" s="61" t="s">
         <v>2</v>
@@ -24712,7 +24737,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="110"/>
       <c r="B37" s="61" t="s">
         <v>3</v>
@@ -24769,7 +24794,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="110"/>
       <c r="B38" s="61" t="s">
         <v>4</v>
@@ -24826,7 +24851,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="110"/>
       <c r="B39" s="61" t="s">
         <v>5</v>
@@ -24883,7 +24908,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="110"/>
       <c r="B40" s="61" t="s">
         <v>6</v>
@@ -24940,7 +24965,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="110"/>
       <c r="B41" s="61" t="s">
         <v>7</v>
@@ -24997,7 +25022,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="110"/>
       <c r="B42" s="61" t="s">
         <v>8</v>
@@ -25054,7 +25079,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="110"/>
       <c r="B43" s="61" t="s">
         <v>9</v>
@@ -25111,7 +25136,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="110"/>
       <c r="B44" s="61" t="s">
         <v>10</v>
@@ -25168,7 +25193,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="110"/>
       <c r="B45" s="61" t="s">
         <v>11</v>
@@ -25225,7 +25250,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="110"/>
       <c r="B46" s="61" t="s">
         <v>12</v>
@@ -25282,7 +25307,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="110"/>
       <c r="B47" s="61" t="s">
         <v>13</v>
@@ -25339,7 +25364,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="110"/>
       <c r="B48" s="61" t="s">
         <v>14</v>
@@ -25396,7 +25421,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="110"/>
       <c r="B49" s="61" t="s">
         <v>15</v>
@@ -25453,7 +25478,7 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="110" t="s">
         <v>102</v>
       </c>
@@ -25512,7 +25537,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="110"/>
       <c r="B51" s="61" t="s">
         <v>1</v>
@@ -25569,7 +25594,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="110"/>
       <c r="B52" s="61" t="s">
         <v>2</v>
@@ -25626,7 +25651,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="110"/>
       <c r="B53" s="61" t="s">
         <v>3</v>
@@ -25683,7 +25708,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="110"/>
       <c r="B54" s="61" t="s">
         <v>4</v>
@@ -25740,7 +25765,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="110"/>
       <c r="B55" s="61" t="s">
         <v>5</v>
@@ -25797,7 +25822,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="110"/>
       <c r="B56" s="61" t="s">
         <v>6</v>
@@ -25854,7 +25879,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="110"/>
       <c r="B57" s="61" t="s">
         <v>7</v>
@@ -25911,7 +25936,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="110"/>
       <c r="B58" s="61" t="s">
         <v>8</v>
@@ -25968,7 +25993,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="110"/>
       <c r="B59" s="61" t="s">
         <v>9</v>
@@ -26025,7 +26050,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="110"/>
       <c r="B60" s="61" t="s">
         <v>10</v>
@@ -26082,7 +26107,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="110"/>
       <c r="B61" s="61" t="s">
         <v>11</v>
@@ -26139,7 +26164,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="110"/>
       <c r="B62" s="61" t="s">
         <v>12</v>
@@ -26196,7 +26221,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="110"/>
       <c r="B63" s="61" t="s">
         <v>13</v>
@@ -26253,7 +26278,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="110"/>
       <c r="B64" s="61" t="s">
         <v>14</v>
@@ -26310,7 +26335,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" s="110"/>
       <c r="B65" s="61" t="s">
         <v>15</v>
@@ -26367,7 +26392,7 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" s="110" t="s">
         <v>103</v>
       </c>
@@ -26426,7 +26451,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" s="110"/>
       <c r="B67" s="61" t="s">
         <v>1</v>
@@ -26483,7 +26508,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" s="110"/>
       <c r="B68" s="61" t="s">
         <v>2</v>
@@ -26540,7 +26565,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" s="110"/>
       <c r="B69" s="61" t="s">
         <v>3</v>
@@ -26597,7 +26622,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" s="110"/>
       <c r="B70" s="61" t="s">
         <v>4</v>
@@ -26654,7 +26679,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" s="110"/>
       <c r="B71" s="61" t="s">
         <v>5</v>
@@ -26711,7 +26736,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" s="110"/>
       <c r="B72" s="61" t="s">
         <v>6</v>
@@ -26768,7 +26793,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" s="110"/>
       <c r="B73" s="61" t="s">
         <v>7</v>
@@ -26825,7 +26850,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" s="110"/>
       <c r="B74" s="61" t="s">
         <v>8</v>
@@ -26882,7 +26907,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" s="110"/>
       <c r="B75" s="61" t="s">
         <v>9</v>
@@ -26939,7 +26964,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" s="110"/>
       <c r="B76" s="61" t="s">
         <v>10</v>
@@ -26996,7 +27021,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" s="110"/>
       <c r="B77" s="61" t="s">
         <v>11</v>
@@ -27053,7 +27078,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" s="110"/>
       <c r="B78" s="61" t="s">
         <v>12</v>
@@ -27110,7 +27135,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" s="110"/>
       <c r="B79" s="61" t="s">
         <v>13</v>
@@ -27167,7 +27192,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" s="110"/>
       <c r="B80" s="61" t="s">
         <v>14</v>
@@ -27224,7 +27249,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" s="110"/>
       <c r="B81" s="61" t="s">
         <v>15</v>
@@ -27281,7 +27306,7 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" s="110" t="s">
         <v>104</v>
       </c>
@@ -27340,7 +27365,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" s="110"/>
       <c r="B83" s="61" t="s">
         <v>1</v>
@@ -27397,7 +27422,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" s="110"/>
       <c r="B84" s="61" t="s">
         <v>2</v>
@@ -27454,7 +27479,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" s="110"/>
       <c r="B85" s="61" t="s">
         <v>3</v>
@@ -27511,7 +27536,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="110"/>
       <c r="B86" s="61" t="s">
         <v>4</v>
@@ -27568,7 +27593,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" s="110"/>
       <c r="B87" s="61" t="s">
         <v>5</v>
@@ -27625,7 +27650,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" s="110"/>
       <c r="B88" s="61" t="s">
         <v>6</v>
@@ -27682,7 +27707,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" s="110"/>
       <c r="B89" s="61" t="s">
         <v>7</v>
@@ -27739,7 +27764,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" s="110"/>
       <c r="B90" s="61" t="s">
         <v>8</v>
@@ -27796,7 +27821,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91" s="110"/>
       <c r="B91" s="61" t="s">
         <v>9</v>
@@ -27853,7 +27878,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" s="110"/>
       <c r="B92" s="61" t="s">
         <v>10</v>
@@ -27910,7 +27935,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" s="110"/>
       <c r="B93" s="61" t="s">
         <v>11</v>
@@ -27967,7 +27992,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" s="110"/>
       <c r="B94" s="61" t="s">
         <v>12</v>
@@ -28024,7 +28049,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" s="110"/>
       <c r="B95" s="61" t="s">
         <v>13</v>
@@ -28081,7 +28106,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96" s="110"/>
       <c r="B96" s="61" t="s">
         <v>14</v>
@@ -28138,7 +28163,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" s="110"/>
       <c r="B97" s="61" t="s">
         <v>15</v>
@@ -28195,7 +28220,7 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98" s="110" t="s">
         <v>105</v>
       </c>
@@ -28254,7 +28279,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99" s="110"/>
       <c r="B99" s="61" t="s">
         <v>1</v>
@@ -28311,7 +28336,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100" s="110"/>
       <c r="B100" s="61" t="s">
         <v>2</v>
@@ -28368,7 +28393,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101" s="110"/>
       <c r="B101" s="61" t="s">
         <v>3</v>
@@ -28425,7 +28450,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102" s="110"/>
       <c r="B102" s="61" t="s">
         <v>4</v>
@@ -28482,7 +28507,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A103" s="110"/>
       <c r="B103" s="61" t="s">
         <v>5</v>
@@ -28539,7 +28564,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A104" s="110"/>
       <c r="B104" s="61" t="s">
         <v>6</v>
@@ -28596,7 +28621,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A105" s="110"/>
       <c r="B105" s="61" t="s">
         <v>7</v>
@@ -28653,7 +28678,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A106" s="110"/>
       <c r="B106" s="61" t="s">
         <v>8</v>
@@ -28710,7 +28735,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A107" s="110"/>
       <c r="B107" s="61" t="s">
         <v>9</v>
@@ -28767,7 +28792,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A108" s="110"/>
       <c r="B108" s="61" t="s">
         <v>10</v>
@@ -28824,7 +28849,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A109" s="110"/>
       <c r="B109" s="61" t="s">
         <v>11</v>
@@ -28881,7 +28906,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A110" s="110"/>
       <c r="B110" s="61" t="s">
         <v>12</v>
@@ -28938,7 +28963,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A111" s="110"/>
       <c r="B111" s="61" t="s">
         <v>13</v>
@@ -28995,7 +29020,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A112" s="110"/>
       <c r="B112" s="61" t="s">
         <v>14</v>
@@ -29052,7 +29077,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A113" s="110"/>
       <c r="B113" s="61" t="s">
         <v>15</v>
@@ -29134,12 +29159,12 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -29162,7 +29187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -29185,7 +29210,7 @@
         <v>3.0298294321208146</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -29211,7 +29236,7 @@
         <v>2.7100141031747289</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="62" t="s">
         <v>101</v>
       </c>
@@ -29234,7 +29259,7 @@
         <v>3.6526277042789821</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="62" t="s">
         <v>102</v>
       </c>
@@ -29257,7 +29282,7 @@
         <v>3.5011362326729416</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="62" t="s">
         <v>103</v>
       </c>
@@ -29280,7 +29305,7 @@
         <v>2.1208806024845703</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="62" t="s">
         <v>104</v>
       </c>
@@ -29303,7 +29328,7 @@
         <v>2.0367186738145477</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="62" t="s">
         <v>105</v>
       </c>
@@ -29338,29 +29363,29 @@
   </sheetPr>
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="19" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>17</v>
       </c>
@@ -29404,7 +29429,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="114" t="s">
         <v>90</v>
       </c>
@@ -29444,7 +29469,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="115"/>
       <c r="B3" s="69" t="s">
         <v>80</v>
@@ -29482,7 +29507,7 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="115"/>
       <c r="B4" s="69" t="s">
         <v>82</v>
@@ -29514,7 +29539,7 @@
       <c r="M4" s="72"/>
       <c r="N4" s="72"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="115"/>
       <c r="B5" s="69" t="s">
         <v>84</v>
@@ -29552,7 +29577,7 @@
         <v>43998</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="115"/>
       <c r="B6" s="69" t="s">
         <v>86</v>
@@ -29588,7 +29613,7 @@
       </c>
       <c r="N6" s="72"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="115"/>
       <c r="B7" s="69" t="s">
         <v>88</v>
@@ -29622,7 +29647,7 @@
       <c r="M7" s="72"/>
       <c r="N7" s="72"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="116"/>
       <c r="B8" s="76" t="s">
         <v>89</v>
@@ -29656,7 +29681,7 @@
       <c r="M8" s="53"/>
       <c r="N8" s="52"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="117" t="s">
         <v>96</v>
       </c>
@@ -29696,7 +29721,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="118"/>
       <c r="B10" s="89" t="s">
         <v>80</v>
@@ -29734,7 +29759,7 @@
         <v>43966</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="118"/>
       <c r="B11" s="89" t="s">
         <v>82</v>
@@ -29766,7 +29791,7 @@
       <c r="M11" s="92"/>
       <c r="N11" s="92"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="118"/>
       <c r="B12" s="89" t="s">
         <v>84</v>
@@ -29804,7 +29829,7 @@
         <v>44001</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="118"/>
       <c r="B13" s="89" t="s">
         <v>86</v>
@@ -29840,7 +29865,7 @@
       </c>
       <c r="N13" s="92"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="118"/>
       <c r="B14" s="89" t="s">
         <v>88</v>
@@ -29874,7 +29899,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="92"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="119"/>
       <c r="B15" s="95" t="s">
         <v>89</v>
@@ -29908,7 +29933,7 @@
       <c r="M15" s="100"/>
       <c r="N15" s="101"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="114" t="s">
         <v>101</v>
       </c>
@@ -29948,7 +29973,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="115"/>
       <c r="B17" s="69" t="s">
         <v>80</v>
@@ -29986,7 +30011,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="115"/>
       <c r="B18" s="69" t="s">
         <v>82</v>
@@ -30024,7 +30049,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="115"/>
       <c r="B19" s="69" t="s">
         <v>84</v>
@@ -30062,7 +30087,7 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="115"/>
       <c r="B20" s="69" t="s">
         <v>86</v>
@@ -30100,7 +30125,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="115"/>
       <c r="B21" s="69" t="s">
         <v>88</v>
@@ -30136,7 +30161,7 @@
       </c>
       <c r="N21" s="75"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="115"/>
       <c r="B22" s="108" t="s">
         <v>89</v>
@@ -30170,7 +30195,7 @@
       <c r="M22" s="72"/>
       <c r="N22" s="75"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="116"/>
       <c r="B23" s="76" t="s">
         <v>106</v>
@@ -30204,7 +30229,7 @@
       <c r="M23" s="72"/>
       <c r="N23" s="52"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="111" t="s">
         <v>102</v>
       </c>
@@ -30244,7 +30269,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="112"/>
       <c r="B25" s="42" t="s">
         <v>80</v>
@@ -30280,7 +30305,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="112"/>
       <c r="B26" s="42" t="s">
         <v>82</v>
@@ -30316,7 +30341,7 @@
         <v>43958</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="112"/>
       <c r="B27" s="42" t="s">
         <v>84</v>
@@ -30352,7 +30377,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="112"/>
       <c r="B28" s="42" t="s">
         <v>86</v>
@@ -30388,7 +30413,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="112"/>
       <c r="B29" s="42" t="s">
         <v>88</v>
@@ -30422,7 +30447,7 @@
       </c>
       <c r="N29" s="35"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="112"/>
       <c r="B30" s="42" t="s">
         <v>89</v>
@@ -30454,7 +30479,7 @@
       <c r="M30" s="43"/>
       <c r="N30" s="81"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="113"/>
       <c r="B31" s="42" t="s">
         <v>106</v>
@@ -30486,7 +30511,7 @@
       <c r="M31" s="43"/>
       <c r="N31" s="43"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="114" t="s">
         <v>103</v>
       </c>
@@ -30526,7 +30551,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="115"/>
       <c r="B33" s="69" t="s">
         <v>80</v>
@@ -30564,7 +30589,7 @@
         <v>43912</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="115"/>
       <c r="B34" s="69" t="s">
         <v>82</v>
@@ -30602,7 +30627,7 @@
         <v>43966</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="115"/>
       <c r="B35" s="69" t="s">
         <v>84</v>
@@ -30640,7 +30665,7 @@
         <v>43995</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="115"/>
       <c r="B36" s="69" t="s">
         <v>86</v>
@@ -30676,7 +30701,7 @@
       </c>
       <c r="N36" s="72"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="115"/>
       <c r="B37" s="69" t="s">
         <v>88</v>
@@ -30710,7 +30735,7 @@
       <c r="M37" s="72"/>
       <c r="N37" s="72"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="115"/>
       <c r="B38" s="69" t="s">
         <v>89</v>
@@ -30744,7 +30769,7 @@
       <c r="M38" s="72"/>
       <c r="N38" s="75"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="111" t="s">
         <v>104</v>
       </c>
@@ -30784,7 +30809,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="112"/>
       <c r="B40" s="42" t="s">
         <v>80</v>
@@ -30820,7 +30845,7 @@
         <v>43912</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="112"/>
       <c r="B41" s="42" t="s">
         <v>82</v>
@@ -30856,7 +30881,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="112"/>
       <c r="B42" s="42" t="s">
         <v>84</v>
@@ -30892,7 +30917,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="112"/>
       <c r="B43" s="42" t="s">
         <v>86</v>
@@ -30926,7 +30951,7 @@
       </c>
       <c r="N43" s="35"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="112"/>
       <c r="B44" s="42" t="s">
         <v>88</v>
@@ -30958,7 +30983,7 @@
       <c r="M44" s="43"/>
       <c r="N44" s="43"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="113"/>
       <c r="B45" s="44" t="s">
         <v>89</v>
@@ -30992,7 +31017,7 @@
       <c r="M45" s="22"/>
       <c r="N45" s="23"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="114" t="s">
         <v>105</v>
       </c>
@@ -31032,7 +31057,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="115"/>
       <c r="B47" s="69" t="s">
         <v>80</v>
@@ -31070,7 +31095,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="115"/>
       <c r="B48" s="69" t="s">
         <v>82</v>
@@ -31108,7 +31133,7 @@
         <v>43971</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="115"/>
       <c r="B49" s="69" t="s">
         <v>84</v>
@@ -31146,7 +31171,7 @@
         <v>43999</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="115"/>
       <c r="B50" s="69" t="s">
         <v>86</v>
@@ -31182,7 +31207,7 @@
       </c>
       <c r="N50" s="72"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="115"/>
       <c r="B51" s="69" t="s">
         <v>88</v>
@@ -31216,7 +31241,7 @@
       <c r="M51" s="72"/>
       <c r="N51" s="72"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="116"/>
       <c r="B52" s="76" t="s">
         <v>89</v>
@@ -31272,20 +31297,20 @@
   </sheetPr>
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -31356,7 +31381,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -31407,7 +31432,7 @@
         <v>60</v>
       </c>
       <c r="Q2">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="R2">
         <v>1000</v>
@@ -31428,7 +31453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -31500,7 +31525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="61" t="s">
         <v>101</v>
       </c>
@@ -31571,7 +31596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="61" t="s">
         <v>102</v>
       </c>
@@ -31642,7 +31667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="61" t="s">
         <v>103</v>
       </c>
@@ -31714,7 +31739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="61" t="s">
         <v>104</v>
       </c>
@@ -31786,7 +31811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="61" t="s">
         <v>105</v>
       </c>
@@ -31876,20 +31901,20 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="33" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>17</v>
       </c>
@@ -31918,7 +31943,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="122" t="s">
         <v>90</v>
       </c>
@@ -31943,7 +31968,7 @@
       <c r="H2" s="50"/>
       <c r="I2" s="48"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="123"/>
       <c r="B3" s="51" t="s">
         <v>94</v>
@@ -31962,7 +31987,7 @@
       <c r="H3" s="53"/>
       <c r="I3" s="52"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="120" t="s">
         <v>96</v>
       </c>
@@ -31987,7 +32012,7 @@
       <c r="H4" s="57"/>
       <c r="I4" s="55"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="121"/>
       <c r="B5" s="58" t="s">
         <v>94</v>
@@ -32006,7 +32031,7 @@
       <c r="H5" s="60"/>
       <c r="I5" s="59"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="122" t="s">
         <v>101</v>
       </c>
@@ -32031,7 +32056,7 @@
       <c r="H6" s="50"/>
       <c r="I6" s="48"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="123"/>
       <c r="B7" s="51" t="s">
         <v>94</v>
@@ -32050,7 +32075,7 @@
       <c r="H7" s="53"/>
       <c r="I7" s="52"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="120" t="s">
         <v>102</v>
       </c>
@@ -32075,7 +32100,7 @@
       <c r="H8" s="57"/>
       <c r="I8" s="55"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="121"/>
       <c r="B9" s="58" t="s">
         <v>94</v>
@@ -32094,7 +32119,7 @@
       <c r="H9" s="60"/>
       <c r="I9" s="59"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="122" t="s">
         <v>103</v>
       </c>
@@ -32119,7 +32144,7 @@
       <c r="H10" s="50"/>
       <c r="I10" s="48"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="123"/>
       <c r="B11" s="51" t="s">
         <v>94</v>
@@ -32138,7 +32163,7 @@
       <c r="H11" s="53"/>
       <c r="I11" s="52"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="120" t="s">
         <v>104</v>
       </c>
@@ -32163,7 +32188,7 @@
       <c r="H12" s="57"/>
       <c r="I12" s="55"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="121"/>
       <c r="B13" s="58" t="s">
         <v>94</v>
@@ -32182,7 +32207,7 @@
       <c r="H13" s="60"/>
       <c r="I13" s="59"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="122" t="s">
         <v>105</v>
       </c>
@@ -32207,7 +32232,7 @@
       <c r="H14" s="50"/>
       <c r="I14" s="48"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="123"/>
       <c r="B15" s="51" t="s">
         <v>94</v>
@@ -32253,21 +32278,21 @@
       <selection activeCell="A4" sqref="A4:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -32299,7 +32324,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -32331,7 +32356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -32363,7 +32388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="102" t="s">
         <v>101</v>
       </c>
@@ -32395,7 +32420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="102" t="s">
         <v>102</v>
       </c>
@@ -32427,7 +32452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="102" t="s">
         <v>103</v>
       </c>
@@ -32459,7 +32484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="102" t="s">
         <v>104</v>
       </c>
@@ -32491,7 +32516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="102" t="s">
         <v>105</v>
       </c>
@@ -32540,20 +32565,20 @@
       <selection activeCell="A4" sqref="A4:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -32585,7 +32610,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -32617,7 +32642,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -32649,7 +32674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="102" t="s">
         <v>101</v>
       </c>
@@ -32681,7 +32706,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="102" t="s">
         <v>102</v>
       </c>
@@ -32713,7 +32738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="102" t="s">
         <v>103</v>
       </c>
@@ -32745,7 +32770,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="102" t="s">
         <v>104</v>
       </c>
@@ -32777,7 +32802,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="102" t="s">
         <v>105</v>
       </c>
@@ -32825,20 +32850,20 @@
       <selection activeCell="A4" sqref="A4:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -32870,7 +32895,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -32902,7 +32927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -32934,7 +32959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="102" t="s">
         <v>101</v>
       </c>
@@ -32966,7 +32991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="102" t="s">
         <v>102</v>
       </c>
@@ -32998,7 +33023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="102" t="s">
         <v>103</v>
       </c>
@@ -33030,7 +33055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="102" t="s">
         <v>104</v>
       </c>
@@ -33062,7 +33087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="102" t="s">
         <v>105</v>
       </c>
@@ -33110,21 +33135,21 @@
       <selection activeCell="A4" sqref="A4:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="5"/>
-    <col min="9" max="9" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="5"/>
+    <col min="9" max="9" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
@@ -33156,7 +33181,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -33188,7 +33213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -33220,7 +33245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="62" t="s">
         <v>101</v>
       </c>
@@ -33252,7 +33277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="62" t="s">
         <v>102</v>
       </c>
@@ -33284,7 +33309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="102" t="s">
         <v>103</v>
       </c>
@@ -33316,7 +33341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="102" t="s">
         <v>104</v>
       </c>
@@ -33348,7 +33373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="102" t="s">
         <v>105</v>
       </c>

--- a/data/input_data_US_group2.xlsx
+++ b/data/input_data_US_group2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\covasim-australia\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A825668-5E79-43C6-91DE-3242340C32EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DA6065-4699-492B-BFCB-4A1FF6AB5717}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="839" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age_sex" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,14 @@
     <sheet name="contact matrices-work" sheetId="9" r:id="rId12"/>
     <sheet name="contact matrices-other" sheetId="10" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -47,19 +49,10 @@
   <commentList>
     <comment ref="R1" authorId="0" shapeId="0" xr:uid="{7833F806-E614-7449-968E-2A674530B08E}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Only used if the the new_tests column of the epi data is incorrectly specified</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -75,36 +68,18 @@
   <commentList>
     <comment ref="E1" authorId="0" shapeId="0" xr:uid="{045AFF27-0FD9-CB4D-9BD3-D86131B19BD5}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The time to trace contacts, applied to all targeted layers for this policy</t>
-        </r>
       </text>
     </comment>
     <comment ref="G1" authorId="1" shapeId="0" xr:uid="{32492FBF-3FB7-D547-8467-90931EBEF8B7}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The days on which the coverage changes</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -1427,13 +1402,13 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1492,7 +1467,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="110" t="s">
         <v>90</v>
       </c>
@@ -1552,7 +1527,7 @@
         <v>522367</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="110"/>
       <c r="B3" s="36" t="s">
         <v>20</v>
@@ -1610,7 +1585,7 @@
         <v>500366</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="110" t="s">
         <v>90</v>
       </c>
@@ -1686,7 +1661,7 @@
         <v>1022733</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="110"/>
       <c r="B5" s="36" t="s">
         <v>21</v>
@@ -1760,7 +1735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="110" t="s">
         <v>96</v>
       </c>
@@ -1820,7 +1795,7 @@
         <v>307086</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="110"/>
       <c r="B7" s="37" t="s">
         <v>20</v>
@@ -1878,7 +1853,7 @@
         <v>276445</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="110" t="s">
         <v>96</v>
       </c>
@@ -1954,7 +1929,7 @@
         <v>583531</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="110"/>
       <c r="B9" s="37" t="s">
         <v>21</v>
@@ -2028,7 +2003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="110" t="s">
         <v>101</v>
       </c>
@@ -2087,7 +2062,7 @@
         <v>2658903</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="110"/>
       <c r="B11" s="61" t="s">
         <v>20</v>
@@ -2144,7 +2119,7 @@
         <v>2550308</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="110" t="s">
         <v>101</v>
       </c>
@@ -2203,7 +2178,7 @@
         <v>5209211</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="110"/>
       <c r="B13" s="61" t="s">
         <v>21</v>
@@ -2260,7 +2235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="110" t="s">
         <v>102</v>
       </c>
@@ -2319,7 +2294,7 @@
         <v>1029728</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="110"/>
       <c r="B15" s="61" t="s">
         <v>20</v>
@@ -2376,7 +2351,7 @@
         <v>968185</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="110" t="s">
         <v>102</v>
       </c>
@@ -2435,7 +2410,7 @@
         <v>1997913</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="110"/>
       <c r="B17" s="61" t="s">
         <v>21</v>
@@ -2492,7 +2467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="110" t="s">
         <v>103</v>
       </c>
@@ -2551,7 +2526,7 @@
         <v>5154</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="110"/>
       <c r="B19" s="61" t="s">
         <v>20</v>
@@ -2608,7 +2583,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="110" t="s">
         <v>103</v>
       </c>
@@ -2667,7 +2642,7 @@
         <v>7838</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="110"/>
       <c r="B21" s="61" t="s">
         <v>21</v>
@@ -2724,7 +2699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="110" t="s">
         <v>104</v>
       </c>
@@ -2783,7 +2758,7 @@
         <v>9529195</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="110"/>
       <c r="B23" s="61" t="s">
         <v>20</v>
@@ -2840,7 +2815,7 @@
         <v>9185858</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="110" t="s">
         <v>104</v>
       </c>
@@ -2899,7 +2874,7 @@
         <v>18715053</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="110"/>
       <c r="B25" s="61" t="s">
         <v>21</v>
@@ -2956,7 +2931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="110" t="s">
         <v>105</v>
       </c>
@@ -3015,7 +2990,7 @@
         <v>419544</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="110"/>
       <c r="B27" s="61" t="s">
         <v>20</v>
@@ -3072,7 +3047,7 @@
         <v>399459</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="110" t="s">
         <v>105</v>
       </c>
@@ -3131,7 +3106,7 @@
         <v>819003</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="110"/>
       <c r="B29" s="61" t="s">
         <v>21</v>
@@ -3190,11 +3165,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
@@ -3204,6 +3174,11 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3220,12 +3195,12 @@
       <selection activeCell="A34" sqref="A34:S113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -3284,7 +3259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="110" t="s">
         <v>90</v>
       </c>
@@ -3343,7 +3318,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="110"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -3400,7 +3375,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="110"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -3457,7 +3432,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="110"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -3514,7 +3489,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="110"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -3571,7 +3546,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="110"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -3628,7 +3603,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="110"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -3685,7 +3660,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="110"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -3742,7 +3717,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="110"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -3799,7 +3774,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="110"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -3856,7 +3831,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="110"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -3913,7 +3888,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="110"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -3970,7 +3945,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="110"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -4027,7 +4002,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="110"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -4084,7 +4059,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="110"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -4141,7 +4116,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="110"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -4198,7 +4173,7 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="110" t="s">
         <v>96</v>
       </c>
@@ -4257,7 +4232,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="110"/>
       <c r="B19" s="37" t="s">
         <v>1</v>
@@ -4314,7 +4289,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="110"/>
       <c r="B20" s="37" t="s">
         <v>2</v>
@@ -4371,7 +4346,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="110"/>
       <c r="B21" s="37" t="s">
         <v>3</v>
@@ -4428,7 +4403,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="110"/>
       <c r="B22" s="37" t="s">
         <v>4</v>
@@ -4485,7 +4460,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="110"/>
       <c r="B23" s="37" t="s">
         <v>5</v>
@@ -4542,7 +4517,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="110"/>
       <c r="B24" s="37" t="s">
         <v>6</v>
@@ -4599,7 +4574,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="110"/>
       <c r="B25" s="37" t="s">
         <v>7</v>
@@ -4656,7 +4631,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="110"/>
       <c r="B26" s="37" t="s">
         <v>8</v>
@@ -4713,7 +4688,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="110"/>
       <c r="B27" s="37" t="s">
         <v>9</v>
@@ -4770,7 +4745,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="110"/>
       <c r="B28" s="37" t="s">
         <v>10</v>
@@ -4827,7 +4802,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="110"/>
       <c r="B29" s="37" t="s">
         <v>11</v>
@@ -4884,7 +4859,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="110"/>
       <c r="B30" s="37" t="s">
         <v>12</v>
@@ -4941,7 +4916,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="110"/>
       <c r="B31" s="37" t="s">
         <v>13</v>
@@ -4998,7 +4973,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="110"/>
       <c r="B32" s="37" t="s">
         <v>14</v>
@@ -5055,7 +5030,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="110"/>
       <c r="B33" s="37" t="s">
         <v>15</v>
@@ -5112,7 +5087,7 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="110" t="s">
         <v>101</v>
       </c>
@@ -5171,7 +5146,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="110"/>
       <c r="B35" s="61" t="s">
         <v>1</v>
@@ -5228,7 +5203,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="110"/>
       <c r="B36" s="61" t="s">
         <v>2</v>
@@ -5285,7 +5260,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="110"/>
       <c r="B37" s="61" t="s">
         <v>3</v>
@@ -5342,7 +5317,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="110"/>
       <c r="B38" s="61" t="s">
         <v>4</v>
@@ -5399,7 +5374,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="110"/>
       <c r="B39" s="61" t="s">
         <v>5</v>
@@ -5456,7 +5431,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="110"/>
       <c r="B40" s="61" t="s">
         <v>6</v>
@@ -5513,7 +5488,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="110"/>
       <c r="B41" s="61" t="s">
         <v>7</v>
@@ -5570,7 +5545,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="110"/>
       <c r="B42" s="61" t="s">
         <v>8</v>
@@ -5627,7 +5602,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="110"/>
       <c r="B43" s="61" t="s">
         <v>9</v>
@@ -5684,7 +5659,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="110"/>
       <c r="B44" s="61" t="s">
         <v>10</v>
@@ -5741,7 +5716,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="110"/>
       <c r="B45" s="61" t="s">
         <v>11</v>
@@ -5798,7 +5773,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="110"/>
       <c r="B46" s="61" t="s">
         <v>12</v>
@@ -5855,7 +5830,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="110"/>
       <c r="B47" s="61" t="s">
         <v>13</v>
@@ -5912,7 +5887,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="110"/>
       <c r="B48" s="61" t="s">
         <v>14</v>
@@ -5969,7 +5944,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="110"/>
       <c r="B49" s="61" t="s">
         <v>15</v>
@@ -6026,7 +6001,7 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="110" t="s">
         <v>102</v>
       </c>
@@ -6085,7 +6060,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="110"/>
       <c r="B51" s="61" t="s">
         <v>1</v>
@@ -6142,7 +6117,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="110"/>
       <c r="B52" s="61" t="s">
         <v>2</v>
@@ -6199,7 +6174,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="110"/>
       <c r="B53" s="61" t="s">
         <v>3</v>
@@ -6256,7 +6231,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="110"/>
       <c r="B54" s="61" t="s">
         <v>4</v>
@@ -6313,7 +6288,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="110"/>
       <c r="B55" s="61" t="s">
         <v>5</v>
@@ -6370,7 +6345,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="110"/>
       <c r="B56" s="61" t="s">
         <v>6</v>
@@ -6427,7 +6402,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="110"/>
       <c r="B57" s="61" t="s">
         <v>7</v>
@@ -6484,7 +6459,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="110"/>
       <c r="B58" s="61" t="s">
         <v>8</v>
@@ -6541,7 +6516,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="110"/>
       <c r="B59" s="61" t="s">
         <v>9</v>
@@ -6598,7 +6573,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="110"/>
       <c r="B60" s="61" t="s">
         <v>10</v>
@@ -6655,7 +6630,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="110"/>
       <c r="B61" s="61" t="s">
         <v>11</v>
@@ -6712,7 +6687,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="110"/>
       <c r="B62" s="61" t="s">
         <v>12</v>
@@ -6769,7 +6744,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="110"/>
       <c r="B63" s="61" t="s">
         <v>13</v>
@@ -6826,7 +6801,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="110"/>
       <c r="B64" s="61" t="s">
         <v>14</v>
@@ -6883,7 +6858,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="110"/>
       <c r="B65" s="61" t="s">
         <v>15</v>
@@ -6940,7 +6915,7 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="110" t="s">
         <v>103</v>
       </c>
@@ -6999,7 +6974,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="110"/>
       <c r="B67" s="61" t="s">
         <v>1</v>
@@ -7056,7 +7031,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="110"/>
       <c r="B68" s="61" t="s">
         <v>2</v>
@@ -7113,7 +7088,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="110"/>
       <c r="B69" s="61" t="s">
         <v>3</v>
@@ -7170,7 +7145,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="110"/>
       <c r="B70" s="61" t="s">
         <v>4</v>
@@ -7227,7 +7202,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="110"/>
       <c r="B71" s="61" t="s">
         <v>5</v>
@@ -7284,7 +7259,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="110"/>
       <c r="B72" s="61" t="s">
         <v>6</v>
@@ -7341,7 +7316,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="110"/>
       <c r="B73" s="61" t="s">
         <v>7</v>
@@ -7398,7 +7373,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="110"/>
       <c r="B74" s="61" t="s">
         <v>8</v>
@@ -7455,7 +7430,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="110"/>
       <c r="B75" s="61" t="s">
         <v>9</v>
@@ -7512,7 +7487,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="110"/>
       <c r="B76" s="61" t="s">
         <v>10</v>
@@ -7569,7 +7544,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="110"/>
       <c r="B77" s="61" t="s">
         <v>11</v>
@@ -7626,7 +7601,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="110"/>
       <c r="B78" s="61" t="s">
         <v>12</v>
@@ -7683,7 +7658,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="110"/>
       <c r="B79" s="61" t="s">
         <v>13</v>
@@ -7740,7 +7715,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="110"/>
       <c r="B80" s="61" t="s">
         <v>14</v>
@@ -7797,7 +7772,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="110"/>
       <c r="B81" s="61" t="s">
         <v>15</v>
@@ -7854,7 +7829,7 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="110" t="s">
         <v>104</v>
       </c>
@@ -7913,7 +7888,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="110"/>
       <c r="B83" s="61" t="s">
         <v>1</v>
@@ -7970,7 +7945,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="110"/>
       <c r="B84" s="61" t="s">
         <v>2</v>
@@ -8027,7 +8002,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="110"/>
       <c r="B85" s="61" t="s">
         <v>3</v>
@@ -8084,7 +8059,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="110"/>
       <c r="B86" s="61" t="s">
         <v>4</v>
@@ -8141,7 +8116,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="110"/>
       <c r="B87" s="61" t="s">
         <v>5</v>
@@ -8198,7 +8173,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="110"/>
       <c r="B88" s="61" t="s">
         <v>6</v>
@@ -8255,7 +8230,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="110"/>
       <c r="B89" s="61" t="s">
         <v>7</v>
@@ -8312,7 +8287,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="110"/>
       <c r="B90" s="61" t="s">
         <v>8</v>
@@ -8369,7 +8344,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="110"/>
       <c r="B91" s="61" t="s">
         <v>9</v>
@@ -8426,7 +8401,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="110"/>
       <c r="B92" s="61" t="s">
         <v>10</v>
@@ -8483,7 +8458,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="110"/>
       <c r="B93" s="61" t="s">
         <v>11</v>
@@ -8540,7 +8515,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="110"/>
       <c r="B94" s="61" t="s">
         <v>12</v>
@@ -8597,7 +8572,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="110"/>
       <c r="B95" s="61" t="s">
         <v>13</v>
@@ -8654,7 +8629,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="110"/>
       <c r="B96" s="61" t="s">
         <v>14</v>
@@ -8711,7 +8686,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="110"/>
       <c r="B97" s="61" t="s">
         <v>15</v>
@@ -8768,7 +8743,7 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="110" t="s">
         <v>105</v>
       </c>
@@ -8827,7 +8802,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="110"/>
       <c r="B99" s="61" t="s">
         <v>1</v>
@@ -8884,7 +8859,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="110"/>
       <c r="B100" s="61" t="s">
         <v>2</v>
@@ -8941,7 +8916,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="110"/>
       <c r="B101" s="61" t="s">
         <v>3</v>
@@ -8998,7 +8973,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="110"/>
       <c r="B102" s="61" t="s">
         <v>4</v>
@@ -9055,7 +9030,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="110"/>
       <c r="B103" s="61" t="s">
         <v>5</v>
@@ -9112,7 +9087,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="110"/>
       <c r="B104" s="61" t="s">
         <v>6</v>
@@ -9169,7 +9144,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="110"/>
       <c r="B105" s="61" t="s">
         <v>7</v>
@@ -9226,7 +9201,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="110"/>
       <c r="B106" s="61" t="s">
         <v>8</v>
@@ -9283,7 +9258,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="110"/>
       <c r="B107" s="61" t="s">
         <v>9</v>
@@ -9340,7 +9315,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="110"/>
       <c r="B108" s="61" t="s">
         <v>10</v>
@@ -9397,7 +9372,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="110"/>
       <c r="B109" s="61" t="s">
         <v>11</v>
@@ -9454,7 +9429,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="110"/>
       <c r="B110" s="61" t="s">
         <v>12</v>
@@ -9511,7 +9486,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="110"/>
       <c r="B111" s="61" t="s">
         <v>13</v>
@@ -9568,7 +9543,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="110"/>
       <c r="B112" s="61" t="s">
         <v>14</v>
@@ -9625,7 +9600,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="110"/>
       <c r="B113" s="61" t="s">
         <v>15</v>
@@ -9707,9 +9682,9 @@
       <selection activeCell="A34" sqref="A34:S113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -9768,7 +9743,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="110" t="s">
         <v>90</v>
       </c>
@@ -9827,7 +9802,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="110"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -9884,7 +9859,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="110"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -9941,7 +9916,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="110"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -9998,7 +9973,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="110"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -10055,7 +10030,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="110"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -10112,7 +10087,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="110"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -10169,7 +10144,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="110"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -10226,7 +10201,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="110"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -10283,7 +10258,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="110"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -10340,7 +10315,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="110"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -10397,7 +10372,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="110"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -10454,7 +10429,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="110"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -10511,7 +10486,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="110"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -10568,7 +10543,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="110"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -10625,7 +10600,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="110"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -10682,7 +10657,7 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="110" t="s">
         <v>96</v>
       </c>
@@ -10741,7 +10716,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="110"/>
       <c r="B19" s="37" t="s">
         <v>1</v>
@@ -10798,7 +10773,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="110"/>
       <c r="B20" s="37" t="s">
         <v>2</v>
@@ -10855,7 +10830,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="110"/>
       <c r="B21" s="37" t="s">
         <v>3</v>
@@ -10912,7 +10887,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="110"/>
       <c r="B22" s="37" t="s">
         <v>4</v>
@@ -10969,7 +10944,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="110"/>
       <c r="B23" s="37" t="s">
         <v>5</v>
@@ -11026,7 +11001,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="110"/>
       <c r="B24" s="37" t="s">
         <v>6</v>
@@ -11083,7 +11058,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="110"/>
       <c r="B25" s="37" t="s">
         <v>7</v>
@@ -11140,7 +11115,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="110"/>
       <c r="B26" s="37" t="s">
         <v>8</v>
@@ -11197,7 +11172,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="110"/>
       <c r="B27" s="37" t="s">
         <v>9</v>
@@ -11254,7 +11229,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="110"/>
       <c r="B28" s="37" t="s">
         <v>10</v>
@@ -11311,7 +11286,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="110"/>
       <c r="B29" s="37" t="s">
         <v>11</v>
@@ -11368,7 +11343,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="110"/>
       <c r="B30" s="37" t="s">
         <v>12</v>
@@ -11425,7 +11400,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="110"/>
       <c r="B31" s="37" t="s">
         <v>13</v>
@@ -11482,7 +11457,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="110"/>
       <c r="B32" s="37" t="s">
         <v>14</v>
@@ -11539,7 +11514,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="110"/>
       <c r="B33" s="37" t="s">
         <v>15</v>
@@ -11596,7 +11571,7 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="110" t="s">
         <v>101</v>
       </c>
@@ -11655,7 +11630,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="110"/>
       <c r="B35" s="61" t="s">
         <v>1</v>
@@ -11712,7 +11687,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="110"/>
       <c r="B36" s="61" t="s">
         <v>2</v>
@@ -11769,7 +11744,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="110"/>
       <c r="B37" s="61" t="s">
         <v>3</v>
@@ -11826,7 +11801,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="110"/>
       <c r="B38" s="61" t="s">
         <v>4</v>
@@ -11883,7 +11858,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="110"/>
       <c r="B39" s="61" t="s">
         <v>5</v>
@@ -11940,7 +11915,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="110"/>
       <c r="B40" s="61" t="s">
         <v>6</v>
@@ -11997,7 +11972,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="110"/>
       <c r="B41" s="61" t="s">
         <v>7</v>
@@ -12054,7 +12029,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="110"/>
       <c r="B42" s="61" t="s">
         <v>8</v>
@@ -12111,7 +12086,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="110"/>
       <c r="B43" s="61" t="s">
         <v>9</v>
@@ -12168,7 +12143,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="110"/>
       <c r="B44" s="61" t="s">
         <v>10</v>
@@ -12225,7 +12200,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="110"/>
       <c r="B45" s="61" t="s">
         <v>11</v>
@@ -12282,7 +12257,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="110"/>
       <c r="B46" s="61" t="s">
         <v>12</v>
@@ -12339,7 +12314,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="110"/>
       <c r="B47" s="61" t="s">
         <v>13</v>
@@ -12396,7 +12371,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="110"/>
       <c r="B48" s="61" t="s">
         <v>14</v>
@@ -12453,7 +12428,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="110"/>
       <c r="B49" s="61" t="s">
         <v>15</v>
@@ -12510,7 +12485,7 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="110" t="s">
         <v>102</v>
       </c>
@@ -12569,7 +12544,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="110"/>
       <c r="B51" s="61" t="s">
         <v>1</v>
@@ -12626,7 +12601,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="110"/>
       <c r="B52" s="61" t="s">
         <v>2</v>
@@ -12683,7 +12658,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="110"/>
       <c r="B53" s="61" t="s">
         <v>3</v>
@@ -12740,7 +12715,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="110"/>
       <c r="B54" s="61" t="s">
         <v>4</v>
@@ -12797,7 +12772,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="110"/>
       <c r="B55" s="61" t="s">
         <v>5</v>
@@ -12854,7 +12829,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="110"/>
       <c r="B56" s="61" t="s">
         <v>6</v>
@@ -12911,7 +12886,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="110"/>
       <c r="B57" s="61" t="s">
         <v>7</v>
@@ -12968,7 +12943,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="110"/>
       <c r="B58" s="61" t="s">
         <v>8</v>
@@ -13025,7 +13000,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="110"/>
       <c r="B59" s="61" t="s">
         <v>9</v>
@@ -13082,7 +13057,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="110"/>
       <c r="B60" s="61" t="s">
         <v>10</v>
@@ -13139,7 +13114,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="110"/>
       <c r="B61" s="61" t="s">
         <v>11</v>
@@ -13196,7 +13171,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="110"/>
       <c r="B62" s="61" t="s">
         <v>12</v>
@@ -13253,7 +13228,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="110"/>
       <c r="B63" s="61" t="s">
         <v>13</v>
@@ -13310,7 +13285,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="110"/>
       <c r="B64" s="61" t="s">
         <v>14</v>
@@ -13367,7 +13342,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="110"/>
       <c r="B65" s="61" t="s">
         <v>15</v>
@@ -13424,7 +13399,7 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="110" t="s">
         <v>103</v>
       </c>
@@ -13483,7 +13458,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="110"/>
       <c r="B67" s="61" t="s">
         <v>1</v>
@@ -13540,7 +13515,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="110"/>
       <c r="B68" s="61" t="s">
         <v>2</v>
@@ -13597,7 +13572,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="110"/>
       <c r="B69" s="61" t="s">
         <v>3</v>
@@ -13654,7 +13629,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="110"/>
       <c r="B70" s="61" t="s">
         <v>4</v>
@@ -13711,7 +13686,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="110"/>
       <c r="B71" s="61" t="s">
         <v>5</v>
@@ -13768,7 +13743,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="110"/>
       <c r="B72" s="61" t="s">
         <v>6</v>
@@ -13825,7 +13800,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="110"/>
       <c r="B73" s="61" t="s">
         <v>7</v>
@@ -13882,7 +13857,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="110"/>
       <c r="B74" s="61" t="s">
         <v>8</v>
@@ -13939,7 +13914,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="110"/>
       <c r="B75" s="61" t="s">
         <v>9</v>
@@ -13996,7 +13971,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="110"/>
       <c r="B76" s="61" t="s">
         <v>10</v>
@@ -14053,7 +14028,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="110"/>
       <c r="B77" s="61" t="s">
         <v>11</v>
@@ -14110,7 +14085,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="110"/>
       <c r="B78" s="61" t="s">
         <v>12</v>
@@ -14167,7 +14142,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="110"/>
       <c r="B79" s="61" t="s">
         <v>13</v>
@@ -14224,7 +14199,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="110"/>
       <c r="B80" s="61" t="s">
         <v>14</v>
@@ -14281,7 +14256,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="110"/>
       <c r="B81" s="61" t="s">
         <v>15</v>
@@ -14338,7 +14313,7 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="110" t="s">
         <v>104</v>
       </c>
@@ -14397,7 +14372,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="110"/>
       <c r="B83" s="61" t="s">
         <v>1</v>
@@ -14454,7 +14429,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="110"/>
       <c r="B84" s="61" t="s">
         <v>2</v>
@@ -14511,7 +14486,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="110"/>
       <c r="B85" s="61" t="s">
         <v>3</v>
@@ -14568,7 +14543,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="110"/>
       <c r="B86" s="61" t="s">
         <v>4</v>
@@ -14625,7 +14600,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="110"/>
       <c r="B87" s="61" t="s">
         <v>5</v>
@@ -14682,7 +14657,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="110"/>
       <c r="B88" s="61" t="s">
         <v>6</v>
@@ -14739,7 +14714,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="110"/>
       <c r="B89" s="61" t="s">
         <v>7</v>
@@ -14796,7 +14771,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="110"/>
       <c r="B90" s="61" t="s">
         <v>8</v>
@@ -14853,7 +14828,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="110"/>
       <c r="B91" s="61" t="s">
         <v>9</v>
@@ -14910,7 +14885,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="110"/>
       <c r="B92" s="61" t="s">
         <v>10</v>
@@ -14967,7 +14942,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="110"/>
       <c r="B93" s="61" t="s">
         <v>11</v>
@@ -15024,7 +14999,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="110"/>
       <c r="B94" s="61" t="s">
         <v>12</v>
@@ -15081,7 +15056,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="110"/>
       <c r="B95" s="61" t="s">
         <v>13</v>
@@ -15138,7 +15113,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="110"/>
       <c r="B96" s="61" t="s">
         <v>14</v>
@@ -15195,7 +15170,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="110"/>
       <c r="B97" s="61" t="s">
         <v>15</v>
@@ -15252,7 +15227,7 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="110" t="s">
         <v>105</v>
       </c>
@@ -15311,7 +15286,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="110"/>
       <c r="B99" s="61" t="s">
         <v>1</v>
@@ -15368,7 +15343,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="110"/>
       <c r="B100" s="61" t="s">
         <v>2</v>
@@ -15425,7 +15400,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="110"/>
       <c r="B101" s="61" t="s">
         <v>3</v>
@@ -15482,7 +15457,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="110"/>
       <c r="B102" s="61" t="s">
         <v>4</v>
@@ -15539,7 +15514,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="110"/>
       <c r="B103" s="61" t="s">
         <v>5</v>
@@ -15596,7 +15571,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="110"/>
       <c r="B104" s="61" t="s">
         <v>6</v>
@@ -15653,7 +15628,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="110"/>
       <c r="B105" s="61" t="s">
         <v>7</v>
@@ -15710,7 +15685,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="110"/>
       <c r="B106" s="61" t="s">
         <v>8</v>
@@ -15767,7 +15742,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="110"/>
       <c r="B107" s="61" t="s">
         <v>9</v>
@@ -15824,7 +15799,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="110"/>
       <c r="B108" s="61" t="s">
         <v>10</v>
@@ -15881,7 +15856,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="110"/>
       <c r="B109" s="61" t="s">
         <v>11</v>
@@ -15938,7 +15913,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="110"/>
       <c r="B110" s="61" t="s">
         <v>12</v>
@@ -15995,7 +15970,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="110"/>
       <c r="B111" s="61" t="s">
         <v>13</v>
@@ -16052,7 +16027,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="110"/>
       <c r="B112" s="61" t="s">
         <v>14</v>
@@ -16109,7 +16084,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="110"/>
       <c r="B113" s="61" t="s">
         <v>15</v>
@@ -16191,9 +16166,9 @@
       <selection activeCell="A34" sqref="A34:S113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -16252,7 +16227,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="110" t="s">
         <v>90</v>
       </c>
@@ -16311,7 +16286,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="110"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -16368,7 +16343,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="110"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -16425,7 +16400,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="110"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -16482,7 +16457,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="110"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -16539,7 +16514,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="110"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -16596,7 +16571,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="110"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -16653,7 +16628,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="110"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -16710,7 +16685,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="110"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -16767,7 +16742,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="110"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -16824,7 +16799,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="110"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -16881,7 +16856,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="110"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -16938,7 +16913,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="110"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -16995,7 +16970,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="110"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -17052,7 +17027,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="110"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -17109,7 +17084,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="110"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -17166,7 +17141,7 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="110" t="s">
         <v>96</v>
       </c>
@@ -17225,7 +17200,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="110"/>
       <c r="B19" s="37" t="s">
         <v>1</v>
@@ -17282,7 +17257,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="110"/>
       <c r="B20" s="37" t="s">
         <v>2</v>
@@ -17339,7 +17314,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="110"/>
       <c r="B21" s="37" t="s">
         <v>3</v>
@@ -17396,7 +17371,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="110"/>
       <c r="B22" s="37" t="s">
         <v>4</v>
@@ -17453,7 +17428,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="110"/>
       <c r="B23" s="37" t="s">
         <v>5</v>
@@ -17510,7 +17485,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="110"/>
       <c r="B24" s="37" t="s">
         <v>6</v>
@@ -17567,7 +17542,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="110"/>
       <c r="B25" s="37" t="s">
         <v>7</v>
@@ -17624,7 +17599,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="110"/>
       <c r="B26" s="37" t="s">
         <v>8</v>
@@ -17681,7 +17656,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="110"/>
       <c r="B27" s="37" t="s">
         <v>9</v>
@@ -17738,7 +17713,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="110"/>
       <c r="B28" s="37" t="s">
         <v>10</v>
@@ -17795,7 +17770,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="110"/>
       <c r="B29" s="37" t="s">
         <v>11</v>
@@ -17852,7 +17827,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="110"/>
       <c r="B30" s="37" t="s">
         <v>12</v>
@@ -17909,7 +17884,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="110"/>
       <c r="B31" s="37" t="s">
         <v>13</v>
@@ -17966,7 +17941,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="110"/>
       <c r="B32" s="37" t="s">
         <v>14</v>
@@ -18023,7 +17998,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="110"/>
       <c r="B33" s="37" t="s">
         <v>15</v>
@@ -18080,7 +18055,7 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="110" t="s">
         <v>101</v>
       </c>
@@ -18139,7 +18114,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="110"/>
       <c r="B35" s="61" t="s">
         <v>1</v>
@@ -18196,7 +18171,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="110"/>
       <c r="B36" s="61" t="s">
         <v>2</v>
@@ -18253,7 +18228,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="110"/>
       <c r="B37" s="61" t="s">
         <v>3</v>
@@ -18310,7 +18285,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="110"/>
       <c r="B38" s="61" t="s">
         <v>4</v>
@@ -18367,7 +18342,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="110"/>
       <c r="B39" s="61" t="s">
         <v>5</v>
@@ -18424,7 +18399,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="110"/>
       <c r="B40" s="61" t="s">
         <v>6</v>
@@ -18481,7 +18456,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="110"/>
       <c r="B41" s="61" t="s">
         <v>7</v>
@@ -18538,7 +18513,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="110"/>
       <c r="B42" s="61" t="s">
         <v>8</v>
@@ -18595,7 +18570,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="110"/>
       <c r="B43" s="61" t="s">
         <v>9</v>
@@ -18652,7 +18627,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="110"/>
       <c r="B44" s="61" t="s">
         <v>10</v>
@@ -18709,7 +18684,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="110"/>
       <c r="B45" s="61" t="s">
         <v>11</v>
@@ -18766,7 +18741,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="110"/>
       <c r="B46" s="61" t="s">
         <v>12</v>
@@ -18823,7 +18798,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="110"/>
       <c r="B47" s="61" t="s">
         <v>13</v>
@@ -18880,7 +18855,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="110"/>
       <c r="B48" s="61" t="s">
         <v>14</v>
@@ -18937,7 +18912,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="110"/>
       <c r="B49" s="61" t="s">
         <v>15</v>
@@ -18994,7 +18969,7 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="110" t="s">
         <v>102</v>
       </c>
@@ -19053,7 +19028,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="110"/>
       <c r="B51" s="61" t="s">
         <v>1</v>
@@ -19110,7 +19085,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="110"/>
       <c r="B52" s="61" t="s">
         <v>2</v>
@@ -19167,7 +19142,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="110"/>
       <c r="B53" s="61" t="s">
         <v>3</v>
@@ -19224,7 +19199,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="110"/>
       <c r="B54" s="61" t="s">
         <v>4</v>
@@ -19281,7 +19256,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="110"/>
       <c r="B55" s="61" t="s">
         <v>5</v>
@@ -19338,7 +19313,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="110"/>
       <c r="B56" s="61" t="s">
         <v>6</v>
@@ -19395,7 +19370,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="110"/>
       <c r="B57" s="61" t="s">
         <v>7</v>
@@ -19452,7 +19427,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="110"/>
       <c r="B58" s="61" t="s">
         <v>8</v>
@@ -19509,7 +19484,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="110"/>
       <c r="B59" s="61" t="s">
         <v>9</v>
@@ -19566,7 +19541,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="110"/>
       <c r="B60" s="61" t="s">
         <v>10</v>
@@ -19623,7 +19598,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="110"/>
       <c r="B61" s="61" t="s">
         <v>11</v>
@@ -19680,7 +19655,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="110"/>
       <c r="B62" s="61" t="s">
         <v>12</v>
@@ -19737,7 +19712,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="110"/>
       <c r="B63" s="61" t="s">
         <v>13</v>
@@ -19794,7 +19769,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="110"/>
       <c r="B64" s="61" t="s">
         <v>14</v>
@@ -19851,7 +19826,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="110"/>
       <c r="B65" s="61" t="s">
         <v>15</v>
@@ -19908,7 +19883,7 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="110" t="s">
         <v>103</v>
       </c>
@@ -19967,7 +19942,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="110"/>
       <c r="B67" s="61" t="s">
         <v>1</v>
@@ -20024,7 +19999,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="110"/>
       <c r="B68" s="61" t="s">
         <v>2</v>
@@ -20081,7 +20056,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="110"/>
       <c r="B69" s="61" t="s">
         <v>3</v>
@@ -20138,7 +20113,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="110"/>
       <c r="B70" s="61" t="s">
         <v>4</v>
@@ -20195,7 +20170,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="110"/>
       <c r="B71" s="61" t="s">
         <v>5</v>
@@ -20252,7 +20227,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="110"/>
       <c r="B72" s="61" t="s">
         <v>6</v>
@@ -20309,7 +20284,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="110"/>
       <c r="B73" s="61" t="s">
         <v>7</v>
@@ -20366,7 +20341,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="110"/>
       <c r="B74" s="61" t="s">
         <v>8</v>
@@ -20423,7 +20398,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="110"/>
       <c r="B75" s="61" t="s">
         <v>9</v>
@@ -20480,7 +20455,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="110"/>
       <c r="B76" s="61" t="s">
         <v>10</v>
@@ -20537,7 +20512,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="110"/>
       <c r="B77" s="61" t="s">
         <v>11</v>
@@ -20594,7 +20569,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="110"/>
       <c r="B78" s="61" t="s">
         <v>12</v>
@@ -20651,7 +20626,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="110"/>
       <c r="B79" s="61" t="s">
         <v>13</v>
@@ -20708,7 +20683,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="110"/>
       <c r="B80" s="61" t="s">
         <v>14</v>
@@ -20765,7 +20740,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="110"/>
       <c r="B81" s="61" t="s">
         <v>15</v>
@@ -20822,7 +20797,7 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="110" t="s">
         <v>104</v>
       </c>
@@ -20881,7 +20856,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="110"/>
       <c r="B83" s="61" t="s">
         <v>1</v>
@@ -20938,7 +20913,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="110"/>
       <c r="B84" s="61" t="s">
         <v>2</v>
@@ -20995,7 +20970,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="110"/>
       <c r="B85" s="61" t="s">
         <v>3</v>
@@ -21052,7 +21027,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="110"/>
       <c r="B86" s="61" t="s">
         <v>4</v>
@@ -21109,7 +21084,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="110"/>
       <c r="B87" s="61" t="s">
         <v>5</v>
@@ -21166,7 +21141,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="110"/>
       <c r="B88" s="61" t="s">
         <v>6</v>
@@ -21223,7 +21198,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="110"/>
       <c r="B89" s="61" t="s">
         <v>7</v>
@@ -21280,7 +21255,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="110"/>
       <c r="B90" s="61" t="s">
         <v>8</v>
@@ -21337,7 +21312,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="110"/>
       <c r="B91" s="61" t="s">
         <v>9</v>
@@ -21394,7 +21369,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="110"/>
       <c r="B92" s="61" t="s">
         <v>10</v>
@@ -21451,7 +21426,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="110"/>
       <c r="B93" s="61" t="s">
         <v>11</v>
@@ -21508,7 +21483,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="110"/>
       <c r="B94" s="61" t="s">
         <v>12</v>
@@ -21565,7 +21540,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="110"/>
       <c r="B95" s="61" t="s">
         <v>13</v>
@@ -21622,7 +21597,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="110"/>
       <c r="B96" s="61" t="s">
         <v>14</v>
@@ -21679,7 +21654,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="110"/>
       <c r="B97" s="61" t="s">
         <v>15</v>
@@ -21736,7 +21711,7 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="110" t="s">
         <v>105</v>
       </c>
@@ -21795,7 +21770,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="110"/>
       <c r="B99" s="61" t="s">
         <v>1</v>
@@ -21852,7 +21827,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="110"/>
       <c r="B100" s="61" t="s">
         <v>2</v>
@@ -21909,7 +21884,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="110"/>
       <c r="B101" s="61" t="s">
         <v>3</v>
@@ -21966,7 +21941,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="110"/>
       <c r="B102" s="61" t="s">
         <v>4</v>
@@ -22023,7 +21998,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="110"/>
       <c r="B103" s="61" t="s">
         <v>5</v>
@@ -22080,7 +22055,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="110"/>
       <c r="B104" s="61" t="s">
         <v>6</v>
@@ -22137,7 +22112,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="110"/>
       <c r="B105" s="61" t="s">
         <v>7</v>
@@ -22194,7 +22169,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="110"/>
       <c r="B106" s="61" t="s">
         <v>8</v>
@@ -22251,7 +22226,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="110"/>
       <c r="B107" s="61" t="s">
         <v>9</v>
@@ -22308,7 +22283,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="110"/>
       <c r="B108" s="61" t="s">
         <v>10</v>
@@ -22365,7 +22340,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="110"/>
       <c r="B109" s="61" t="s">
         <v>11</v>
@@ -22422,7 +22397,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="110"/>
       <c r="B110" s="61" t="s">
         <v>12</v>
@@ -22479,7 +22454,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="110"/>
       <c r="B111" s="61" t="s">
         <v>13</v>
@@ -22536,7 +22511,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="110"/>
       <c r="B112" s="61" t="s">
         <v>14</v>
@@ -22593,7 +22568,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="110"/>
       <c r="B113" s="61" t="s">
         <v>15</v>
@@ -22675,9 +22650,9 @@
       <selection activeCell="A34" sqref="A34:S113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -22736,7 +22711,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="110" t="s">
         <v>90</v>
       </c>
@@ -22795,7 +22770,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="110"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -22852,7 +22827,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="110"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -22909,7 +22884,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="110"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -22966,7 +22941,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="110"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -23023,7 +22998,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="110"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -23080,7 +23055,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="110"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -23137,7 +23112,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="110"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -23194,7 +23169,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="110"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -23251,7 +23226,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="110"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -23308,7 +23283,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="110"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -23365,7 +23340,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="110"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -23422,7 +23397,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="110"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -23479,7 +23454,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="110"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -23536,7 +23511,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="110"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -23593,7 +23568,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="110"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -23650,7 +23625,7 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="110" t="s">
         <v>96</v>
       </c>
@@ -23709,7 +23684,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="110"/>
       <c r="B19" s="37" t="s">
         <v>1</v>
@@ -23766,7 +23741,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="110"/>
       <c r="B20" s="37" t="s">
         <v>2</v>
@@ -23823,7 +23798,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="110"/>
       <c r="B21" s="37" t="s">
         <v>3</v>
@@ -23880,7 +23855,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="110"/>
       <c r="B22" s="37" t="s">
         <v>4</v>
@@ -23937,7 +23912,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="110"/>
       <c r="B23" s="37" t="s">
         <v>5</v>
@@ -23994,7 +23969,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="110"/>
       <c r="B24" s="37" t="s">
         <v>6</v>
@@ -24051,7 +24026,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="110"/>
       <c r="B25" s="37" t="s">
         <v>7</v>
@@ -24108,7 +24083,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="110"/>
       <c r="B26" s="37" t="s">
         <v>8</v>
@@ -24165,7 +24140,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="110"/>
       <c r="B27" s="37" t="s">
         <v>9</v>
@@ -24222,7 +24197,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="110"/>
       <c r="B28" s="37" t="s">
         <v>10</v>
@@ -24279,7 +24254,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="110"/>
       <c r="B29" s="37" t="s">
         <v>11</v>
@@ -24336,7 +24311,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="110"/>
       <c r="B30" s="37" t="s">
         <v>12</v>
@@ -24393,7 +24368,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="110"/>
       <c r="B31" s="37" t="s">
         <v>13</v>
@@ -24450,7 +24425,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="110"/>
       <c r="B32" s="37" t="s">
         <v>14</v>
@@ -24507,7 +24482,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="110"/>
       <c r="B33" s="37" t="s">
         <v>15</v>
@@ -24564,7 +24539,7 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="110" t="s">
         <v>101</v>
       </c>
@@ -24623,7 +24598,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="110"/>
       <c r="B35" s="61" t="s">
         <v>1</v>
@@ -24680,7 +24655,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="110"/>
       <c r="B36" s="61" t="s">
         <v>2</v>
@@ -24737,7 +24712,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="110"/>
       <c r="B37" s="61" t="s">
         <v>3</v>
@@ -24794,7 +24769,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="110"/>
       <c r="B38" s="61" t="s">
         <v>4</v>
@@ -24851,7 +24826,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="110"/>
       <c r="B39" s="61" t="s">
         <v>5</v>
@@ -24908,7 +24883,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="110"/>
       <c r="B40" s="61" t="s">
         <v>6</v>
@@ -24965,7 +24940,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="110"/>
       <c r="B41" s="61" t="s">
         <v>7</v>
@@ -25022,7 +24997,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="110"/>
       <c r="B42" s="61" t="s">
         <v>8</v>
@@ -25079,7 +25054,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="110"/>
       <c r="B43" s="61" t="s">
         <v>9</v>
@@ -25136,7 +25111,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="110"/>
       <c r="B44" s="61" t="s">
         <v>10</v>
@@ -25193,7 +25168,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="110"/>
       <c r="B45" s="61" t="s">
         <v>11</v>
@@ -25250,7 +25225,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="110"/>
       <c r="B46" s="61" t="s">
         <v>12</v>
@@ -25307,7 +25282,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="110"/>
       <c r="B47" s="61" t="s">
         <v>13</v>
@@ -25364,7 +25339,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="110"/>
       <c r="B48" s="61" t="s">
         <v>14</v>
@@ -25421,7 +25396,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="110"/>
       <c r="B49" s="61" t="s">
         <v>15</v>
@@ -25478,7 +25453,7 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="110" t="s">
         <v>102</v>
       </c>
@@ -25537,7 +25512,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="110"/>
       <c r="B51" s="61" t="s">
         <v>1</v>
@@ -25594,7 +25569,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="110"/>
       <c r="B52" s="61" t="s">
         <v>2</v>
@@ -25651,7 +25626,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="110"/>
       <c r="B53" s="61" t="s">
         <v>3</v>
@@ -25708,7 +25683,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="110"/>
       <c r="B54" s="61" t="s">
         <v>4</v>
@@ -25765,7 +25740,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="110"/>
       <c r="B55" s="61" t="s">
         <v>5</v>
@@ -25822,7 +25797,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="110"/>
       <c r="B56" s="61" t="s">
         <v>6</v>
@@ -25879,7 +25854,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="110"/>
       <c r="B57" s="61" t="s">
         <v>7</v>
@@ -25936,7 +25911,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="110"/>
       <c r="B58" s="61" t="s">
         <v>8</v>
@@ -25993,7 +25968,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="110"/>
       <c r="B59" s="61" t="s">
         <v>9</v>
@@ -26050,7 +26025,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="110"/>
       <c r="B60" s="61" t="s">
         <v>10</v>
@@ -26107,7 +26082,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="110"/>
       <c r="B61" s="61" t="s">
         <v>11</v>
@@ -26164,7 +26139,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="110"/>
       <c r="B62" s="61" t="s">
         <v>12</v>
@@ -26221,7 +26196,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="110"/>
       <c r="B63" s="61" t="s">
         <v>13</v>
@@ -26278,7 +26253,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="110"/>
       <c r="B64" s="61" t="s">
         <v>14</v>
@@ -26335,7 +26310,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="110"/>
       <c r="B65" s="61" t="s">
         <v>15</v>
@@ -26392,7 +26367,7 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="110" t="s">
         <v>103</v>
       </c>
@@ -26451,7 +26426,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="110"/>
       <c r="B67" s="61" t="s">
         <v>1</v>
@@ -26508,7 +26483,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="110"/>
       <c r="B68" s="61" t="s">
         <v>2</v>
@@ -26565,7 +26540,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="110"/>
       <c r="B69" s="61" t="s">
         <v>3</v>
@@ -26622,7 +26597,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="110"/>
       <c r="B70" s="61" t="s">
         <v>4</v>
@@ -26679,7 +26654,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="110"/>
       <c r="B71" s="61" t="s">
         <v>5</v>
@@ -26736,7 +26711,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="110"/>
       <c r="B72" s="61" t="s">
         <v>6</v>
@@ -26793,7 +26768,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="110"/>
       <c r="B73" s="61" t="s">
         <v>7</v>
@@ -26850,7 +26825,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="110"/>
       <c r="B74" s="61" t="s">
         <v>8</v>
@@ -26907,7 +26882,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="110"/>
       <c r="B75" s="61" t="s">
         <v>9</v>
@@ -26964,7 +26939,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="110"/>
       <c r="B76" s="61" t="s">
         <v>10</v>
@@ -27021,7 +26996,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="110"/>
       <c r="B77" s="61" t="s">
         <v>11</v>
@@ -27078,7 +27053,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="110"/>
       <c r="B78" s="61" t="s">
         <v>12</v>
@@ -27135,7 +27110,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="110"/>
       <c r="B79" s="61" t="s">
         <v>13</v>
@@ -27192,7 +27167,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="110"/>
       <c r="B80" s="61" t="s">
         <v>14</v>
@@ -27249,7 +27224,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="110"/>
       <c r="B81" s="61" t="s">
         <v>15</v>
@@ -27306,7 +27281,7 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="110" t="s">
         <v>104</v>
       </c>
@@ -27365,7 +27340,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="110"/>
       <c r="B83" s="61" t="s">
         <v>1</v>
@@ -27422,7 +27397,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="110"/>
       <c r="B84" s="61" t="s">
         <v>2</v>
@@ -27479,7 +27454,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="110"/>
       <c r="B85" s="61" t="s">
         <v>3</v>
@@ -27536,7 +27511,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="110"/>
       <c r="B86" s="61" t="s">
         <v>4</v>
@@ -27593,7 +27568,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="110"/>
       <c r="B87" s="61" t="s">
         <v>5</v>
@@ -27650,7 +27625,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="110"/>
       <c r="B88" s="61" t="s">
         <v>6</v>
@@ -27707,7 +27682,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="110"/>
       <c r="B89" s="61" t="s">
         <v>7</v>
@@ -27764,7 +27739,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="110"/>
       <c r="B90" s="61" t="s">
         <v>8</v>
@@ -27821,7 +27796,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="110"/>
       <c r="B91" s="61" t="s">
         <v>9</v>
@@ -27878,7 +27853,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="110"/>
       <c r="B92" s="61" t="s">
         <v>10</v>
@@ -27935,7 +27910,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="110"/>
       <c r="B93" s="61" t="s">
         <v>11</v>
@@ -27992,7 +27967,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="110"/>
       <c r="B94" s="61" t="s">
         <v>12</v>
@@ -28049,7 +28024,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="110"/>
       <c r="B95" s="61" t="s">
         <v>13</v>
@@ -28106,7 +28081,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="110"/>
       <c r="B96" s="61" t="s">
         <v>14</v>
@@ -28163,7 +28138,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="110"/>
       <c r="B97" s="61" t="s">
         <v>15</v>
@@ -28220,7 +28195,7 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="110" t="s">
         <v>105</v>
       </c>
@@ -28279,7 +28254,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="110"/>
       <c r="B99" s="61" t="s">
         <v>1</v>
@@ -28336,7 +28311,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="110"/>
       <c r="B100" s="61" t="s">
         <v>2</v>
@@ -28393,7 +28368,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="110"/>
       <c r="B101" s="61" t="s">
         <v>3</v>
@@ -28450,7 +28425,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="110"/>
       <c r="B102" s="61" t="s">
         <v>4</v>
@@ -28507,7 +28482,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="110"/>
       <c r="B103" s="61" t="s">
         <v>5</v>
@@ -28564,7 +28539,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="110"/>
       <c r="B104" s="61" t="s">
         <v>6</v>
@@ -28621,7 +28596,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="110"/>
       <c r="B105" s="61" t="s">
         <v>7</v>
@@ -28678,7 +28653,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="110"/>
       <c r="B106" s="61" t="s">
         <v>8</v>
@@ -28735,7 +28710,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="110"/>
       <c r="B107" s="61" t="s">
         <v>9</v>
@@ -28792,7 +28767,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="110"/>
       <c r="B108" s="61" t="s">
         <v>10</v>
@@ -28849,7 +28824,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="110"/>
       <c r="B109" s="61" t="s">
         <v>11</v>
@@ -28906,7 +28881,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="110"/>
       <c r="B110" s="61" t="s">
         <v>12</v>
@@ -28963,7 +28938,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="110"/>
       <c r="B111" s="61" t="s">
         <v>13</v>
@@ -29020,7 +28995,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="110"/>
       <c r="B112" s="61" t="s">
         <v>14</v>
@@ -29077,7 +29052,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="110"/>
       <c r="B113" s="61" t="s">
         <v>15</v>
@@ -29159,12 +29134,12 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -29187,7 +29162,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -29210,7 +29185,7 @@
         <v>3.0298294321208146</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -29236,7 +29211,7 @@
         <v>2.7100141031747289</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
         <v>101</v>
       </c>
@@ -29259,7 +29234,7 @@
         <v>3.6526277042789821</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
         <v>102</v>
       </c>
@@ -29282,7 +29257,7 @@
         <v>3.5011362326729416</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="62" t="s">
         <v>103</v>
       </c>
@@ -29305,7 +29280,7 @@
         <v>2.1208806024845703</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="62" t="s">
         <v>104</v>
       </c>
@@ -29328,7 +29303,7 @@
         <v>2.0367186738145477</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="62" t="s">
         <v>105</v>
       </c>
@@ -29363,29 +29338,29 @@
   </sheetPr>
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>17</v>
       </c>
@@ -29429,7 +29404,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="114" t="s">
         <v>90</v>
       </c>
@@ -29469,7 +29444,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="115"/>
       <c r="B3" s="69" t="s">
         <v>80</v>
@@ -29507,7 +29482,7 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="115"/>
       <c r="B4" s="69" t="s">
         <v>82</v>
@@ -29539,7 +29514,7 @@
       <c r="M4" s="72"/>
       <c r="N4" s="72"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="115"/>
       <c r="B5" s="69" t="s">
         <v>84</v>
@@ -29577,7 +29552,7 @@
         <v>43998</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="115"/>
       <c r="B6" s="69" t="s">
         <v>86</v>
@@ -29613,7 +29588,7 @@
       </c>
       <c r="N6" s="72"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="115"/>
       <c r="B7" s="69" t="s">
         <v>88</v>
@@ -29647,7 +29622,7 @@
       <c r="M7" s="72"/>
       <c r="N7" s="72"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="116"/>
       <c r="B8" s="76" t="s">
         <v>89</v>
@@ -29681,7 +29656,7 @@
       <c r="M8" s="53"/>
       <c r="N8" s="52"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="117" t="s">
         <v>96</v>
       </c>
@@ -29721,7 +29696,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="118"/>
       <c r="B10" s="89" t="s">
         <v>80</v>
@@ -29759,7 +29734,7 @@
         <v>43966</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="118"/>
       <c r="B11" s="89" t="s">
         <v>82</v>
@@ -29791,7 +29766,7 @@
       <c r="M11" s="92"/>
       <c r="N11" s="92"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="118"/>
       <c r="B12" s="89" t="s">
         <v>84</v>
@@ -29829,7 +29804,7 @@
         <v>44001</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="118"/>
       <c r="B13" s="89" t="s">
         <v>86</v>
@@ -29865,7 +29840,7 @@
       </c>
       <c r="N13" s="92"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="118"/>
       <c r="B14" s="89" t="s">
         <v>88</v>
@@ -29899,7 +29874,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="92"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="119"/>
       <c r="B15" s="95" t="s">
         <v>89</v>
@@ -29933,7 +29908,7 @@
       <c r="M15" s="100"/>
       <c r="N15" s="101"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="114" t="s">
         <v>101</v>
       </c>
@@ -29973,7 +29948,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="115"/>
       <c r="B17" s="69" t="s">
         <v>80</v>
@@ -30011,7 +29986,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="115"/>
       <c r="B18" s="69" t="s">
         <v>82</v>
@@ -30049,7 +30024,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="115"/>
       <c r="B19" s="69" t="s">
         <v>84</v>
@@ -30087,7 +30062,7 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="115"/>
       <c r="B20" s="69" t="s">
         <v>86</v>
@@ -30125,7 +30100,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="115"/>
       <c r="B21" s="69" t="s">
         <v>88</v>
@@ -30161,7 +30136,7 @@
       </c>
       <c r="N21" s="75"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="115"/>
       <c r="B22" s="108" t="s">
         <v>89</v>
@@ -30195,7 +30170,7 @@
       <c r="M22" s="72"/>
       <c r="N22" s="75"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="116"/>
       <c r="B23" s="76" t="s">
         <v>106</v>
@@ -30229,7 +30204,7 @@
       <c r="M23" s="72"/>
       <c r="N23" s="52"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="111" t="s">
         <v>102</v>
       </c>
@@ -30269,7 +30244,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="112"/>
       <c r="B25" s="42" t="s">
         <v>80</v>
@@ -30305,7 +30280,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="112"/>
       <c r="B26" s="42" t="s">
         <v>82</v>
@@ -30341,7 +30316,7 @@
         <v>43958</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="112"/>
       <c r="B27" s="42" t="s">
         <v>84</v>
@@ -30377,7 +30352,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="112"/>
       <c r="B28" s="42" t="s">
         <v>86</v>
@@ -30413,7 +30388,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="112"/>
       <c r="B29" s="42" t="s">
         <v>88</v>
@@ -30447,7 +30422,7 @@
       </c>
       <c r="N29" s="35"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="112"/>
       <c r="B30" s="42" t="s">
         <v>89</v>
@@ -30479,7 +30454,7 @@
       <c r="M30" s="43"/>
       <c r="N30" s="81"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="113"/>
       <c r="B31" s="42" t="s">
         <v>106</v>
@@ -30511,7 +30486,7 @@
       <c r="M31" s="43"/>
       <c r="N31" s="43"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="114" t="s">
         <v>103</v>
       </c>
@@ -30551,7 +30526,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="115"/>
       <c r="B33" s="69" t="s">
         <v>80</v>
@@ -30589,7 +30564,7 @@
         <v>43912</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="115"/>
       <c r="B34" s="69" t="s">
         <v>82</v>
@@ -30627,7 +30602,7 @@
         <v>43966</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="115"/>
       <c r="B35" s="69" t="s">
         <v>84</v>
@@ -30665,7 +30640,7 @@
         <v>43995</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="115"/>
       <c r="B36" s="69" t="s">
         <v>86</v>
@@ -30701,7 +30676,7 @@
       </c>
       <c r="N36" s="72"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="115"/>
       <c r="B37" s="69" t="s">
         <v>88</v>
@@ -30735,7 +30710,7 @@
       <c r="M37" s="72"/>
       <c r="N37" s="72"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="115"/>
       <c r="B38" s="69" t="s">
         <v>89</v>
@@ -30769,7 +30744,7 @@
       <c r="M38" s="72"/>
       <c r="N38" s="75"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="111" t="s">
         <v>104</v>
       </c>
@@ -30809,7 +30784,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="112"/>
       <c r="B40" s="42" t="s">
         <v>80</v>
@@ -30845,7 +30820,7 @@
         <v>43912</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="112"/>
       <c r="B41" s="42" t="s">
         <v>82</v>
@@ -30881,7 +30856,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="112"/>
       <c r="B42" s="42" t="s">
         <v>84</v>
@@ -30917,7 +30892,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="112"/>
       <c r="B43" s="42" t="s">
         <v>86</v>
@@ -30951,7 +30926,7 @@
       </c>
       <c r="N43" s="35"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="112"/>
       <c r="B44" s="42" t="s">
         <v>88</v>
@@ -30983,7 +30958,7 @@
       <c r="M44" s="43"/>
       <c r="N44" s="43"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="113"/>
       <c r="B45" s="44" t="s">
         <v>89</v>
@@ -31017,7 +30992,7 @@
       <c r="M45" s="22"/>
       <c r="N45" s="23"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="114" t="s">
         <v>105</v>
       </c>
@@ -31057,7 +31032,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="115"/>
       <c r="B47" s="69" t="s">
         <v>80</v>
@@ -31095,7 +31070,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="115"/>
       <c r="B48" s="69" t="s">
         <v>82</v>
@@ -31133,7 +31108,7 @@
         <v>43971</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="115"/>
       <c r="B49" s="69" t="s">
         <v>84</v>
@@ -31171,7 +31146,7 @@
         <v>43999</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="115"/>
       <c r="B50" s="69" t="s">
         <v>86</v>
@@ -31207,7 +31182,7 @@
       </c>
       <c r="N50" s="72"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="115"/>
       <c r="B51" s="69" t="s">
         <v>88</v>
@@ -31241,7 +31216,7 @@
       <c r="M51" s="72"/>
       <c r="N51" s="72"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="116"/>
       <c r="B52" s="76" t="s">
         <v>89</v>
@@ -31297,20 +31272,20 @@
   </sheetPr>
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -31381,7 +31356,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -31432,7 +31407,7 @@
         <v>60</v>
       </c>
       <c r="Q2">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="R2">
         <v>1000</v>
@@ -31453,7 +31428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -31525,7 +31500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="61" t="s">
         <v>101</v>
       </c>
@@ -31596,7 +31571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
         <v>102</v>
       </c>
@@ -31667,7 +31642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
         <v>103</v>
       </c>
@@ -31739,7 +31714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="61" t="s">
         <v>104</v>
       </c>
@@ -31811,7 +31786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
         <v>105</v>
       </c>
@@ -31901,20 +31876,20 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="33" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>17</v>
       </c>
@@ -31943,7 +31918,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="122" t="s">
         <v>90</v>
       </c>
@@ -31968,7 +31943,7 @@
       <c r="H2" s="50"/>
       <c r="I2" s="48"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="123"/>
       <c r="B3" s="51" t="s">
         <v>94</v>
@@ -31987,7 +31962,7 @@
       <c r="H3" s="53"/>
       <c r="I3" s="52"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="120" t="s">
         <v>96</v>
       </c>
@@ -32012,7 +31987,7 @@
       <c r="H4" s="57"/>
       <c r="I4" s="55"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="121"/>
       <c r="B5" s="58" t="s">
         <v>94</v>
@@ -32031,7 +32006,7 @@
       <c r="H5" s="60"/>
       <c r="I5" s="59"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="122" t="s">
         <v>101</v>
       </c>
@@ -32056,7 +32031,7 @@
       <c r="H6" s="50"/>
       <c r="I6" s="48"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="123"/>
       <c r="B7" s="51" t="s">
         <v>94</v>
@@ -32075,7 +32050,7 @@
       <c r="H7" s="53"/>
       <c r="I7" s="52"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="120" t="s">
         <v>102</v>
       </c>
@@ -32100,7 +32075,7 @@
       <c r="H8" s="57"/>
       <c r="I8" s="55"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="121"/>
       <c r="B9" s="58" t="s">
         <v>94</v>
@@ -32119,7 +32094,7 @@
       <c r="H9" s="60"/>
       <c r="I9" s="59"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="122" t="s">
         <v>103</v>
       </c>
@@ -32144,7 +32119,7 @@
       <c r="H10" s="50"/>
       <c r="I10" s="48"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="123"/>
       <c r="B11" s="51" t="s">
         <v>94</v>
@@ -32163,7 +32138,7 @@
       <c r="H11" s="53"/>
       <c r="I11" s="52"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="120" t="s">
         <v>104</v>
       </c>
@@ -32188,7 +32163,7 @@
       <c r="H12" s="57"/>
       <c r="I12" s="55"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="121"/>
       <c r="B13" s="58" t="s">
         <v>94</v>
@@ -32207,7 +32182,7 @@
       <c r="H13" s="60"/>
       <c r="I13" s="59"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="122" t="s">
         <v>105</v>
       </c>
@@ -32232,7 +32207,7 @@
       <c r="H14" s="50"/>
       <c r="I14" s="48"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="123"/>
       <c r="B15" s="51" t="s">
         <v>94</v>
@@ -32278,21 +32253,21 @@
       <selection activeCell="A4" sqref="A4:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -32324,7 +32299,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -32356,7 +32331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -32388,7 +32363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
         <v>101</v>
       </c>
@@ -32420,7 +32395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="102" t="s">
         <v>102</v>
       </c>
@@ -32452,7 +32427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
         <v>103</v>
       </c>
@@ -32484,7 +32459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="102" t="s">
         <v>104</v>
       </c>
@@ -32516,7 +32491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
         <v>105</v>
       </c>
@@ -32565,20 +32540,20 @@
       <selection activeCell="A4" sqref="A4:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -32610,7 +32585,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -32642,7 +32617,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -32674,7 +32649,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
         <v>101</v>
       </c>
@@ -32706,7 +32681,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="102" t="s">
         <v>102</v>
       </c>
@@ -32738,7 +32713,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
         <v>103</v>
       </c>
@@ -32770,7 +32745,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="102" t="s">
         <v>104</v>
       </c>
@@ -32802,7 +32777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
         <v>105</v>
       </c>
@@ -32850,20 +32825,20 @@
       <selection activeCell="A4" sqref="A4:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -32895,7 +32870,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -32927,7 +32902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -32959,7 +32934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
         <v>101</v>
       </c>
@@ -32991,7 +32966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="102" t="s">
         <v>102</v>
       </c>
@@ -33023,7 +32998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
         <v>103</v>
       </c>
@@ -33055,7 +33030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="102" t="s">
         <v>104</v>
       </c>
@@ -33087,7 +33062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
         <v>105</v>
       </c>
@@ -33135,21 +33110,21 @@
       <selection activeCell="A4" sqref="A4:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="5"/>
-    <col min="9" max="9" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="5"/>
+    <col min="9" max="9" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
@@ -33181,7 +33156,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -33213,7 +33188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -33245,7 +33220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
         <v>101</v>
       </c>
@@ -33277,7 +33252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
         <v>102</v>
       </c>
@@ -33309,7 +33284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
         <v>103</v>
       </c>
@@ -33341,7 +33316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="102" t="s">
         <v>104</v>
       </c>
@@ -33373,7 +33348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
         <v>105</v>
       </c>

--- a/data/input_data_US_group2.xlsx
+++ b/data/input_data_US_group2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\GitHub\covasim-australia\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104F1DFA-88C7-40FE-A2A5-B47E44440FDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE8231D-F964-477F-A3CA-A0B0A124A097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age_sex" sheetId="1" r:id="rId1"/>
@@ -1009,6 +1009,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1025,27 +1046,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1441,13 +1441,13 @@
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="111" t="s">
         <v>90</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>522367</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="111"/>
       <c r="B3" s="36" t="s">
         <v>20</v>
@@ -1624,7 +1624,7 @@
         <v>500366</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="111" t="s">
         <v>90</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>1022733</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="111"/>
       <c r="B5" s="36" t="s">
         <v>21</v>
@@ -1774,7 +1774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="111" t="s">
         <v>96</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>307086</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="111"/>
       <c r="B7" s="37" t="s">
         <v>20</v>
@@ -1892,7 +1892,7 @@
         <v>276445</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="111" t="s">
         <v>96</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>583531</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="111"/>
       <c r="B9" s="37" t="s">
         <v>21</v>
@@ -2042,7 +2042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="111" t="s">
         <v>101</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>2658903</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="111"/>
       <c r="B11" s="61" t="s">
         <v>20</v>
@@ -2158,7 +2158,7 @@
         <v>2550308</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="111" t="s">
         <v>101</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>5209211</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="111"/>
       <c r="B13" s="61" t="s">
         <v>21</v>
@@ -2274,7 +2274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="111" t="s">
         <v>102</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>1029728</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="111"/>
       <c r="B15" s="61" t="s">
         <v>20</v>
@@ -2390,7 +2390,7 @@
         <v>968185</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="111" t="s">
         <v>102</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>1997913</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="111"/>
       <c r="B17" s="61" t="s">
         <v>21</v>
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="111" t="s">
         <v>103</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>5154</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="111"/>
       <c r="B19" s="61" t="s">
         <v>20</v>
@@ -2622,7 +2622,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="111" t="s">
         <v>103</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>7838</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="111"/>
       <c r="B21" s="61" t="s">
         <v>21</v>
@@ -2738,7 +2738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="111" t="s">
         <v>104</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>9529195</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="111"/>
       <c r="B23" s="61" t="s">
         <v>20</v>
@@ -2854,7 +2854,7 @@
         <v>9185858</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="111" t="s">
         <v>104</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>18715053</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="111"/>
       <c r="B25" s="61" t="s">
         <v>21</v>
@@ -2970,7 +2970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="111" t="s">
         <v>105</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>419544</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="111"/>
       <c r="B27" s="61" t="s">
         <v>20</v>
@@ -3086,7 +3086,7 @@
         <v>399459</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="111" t="s">
         <v>105</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>819003</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="111"/>
       <c r="B29" s="61" t="s">
         <v>21</v>
@@ -3202,7 +3202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="111" t="s">
         <v>109</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>355655</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="111"/>
       <c r="B31" s="110" t="s">
         <v>20</v>
@@ -3320,7 +3320,7 @@
         <v>326168</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="111" t="s">
         <v>109</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>681823</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="111"/>
       <c r="B33" s="110" t="s">
         <v>21</v>
@@ -3472,22 +3472,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3504,12 +3504,12 @@
       <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="111" t="s">
         <v>90</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="111"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -3684,7 +3684,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="111"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -3741,7 +3741,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="111"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -3798,7 +3798,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="111"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -3855,7 +3855,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="111"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -3912,7 +3912,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="111"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -3969,7 +3969,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="111"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -4026,7 +4026,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="111"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -4083,7 +4083,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="111"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -4140,7 +4140,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="111"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -4197,7 +4197,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="111"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -4254,7 +4254,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="111"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -4311,7 +4311,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="111"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -4368,7 +4368,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="111"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -4425,7 +4425,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="111"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -4482,7 +4482,7 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="111" t="s">
         <v>96</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="111"/>
       <c r="B19" s="37" t="s">
         <v>1</v>
@@ -4598,7 +4598,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="111"/>
       <c r="B20" s="37" t="s">
         <v>2</v>
@@ -4655,7 +4655,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="111"/>
       <c r="B21" s="37" t="s">
         <v>3</v>
@@ -4712,7 +4712,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="111"/>
       <c r="B22" s="37" t="s">
         <v>4</v>
@@ -4769,7 +4769,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="111"/>
       <c r="B23" s="37" t="s">
         <v>5</v>
@@ -4826,7 +4826,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="111"/>
       <c r="B24" s="37" t="s">
         <v>6</v>
@@ -4883,7 +4883,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="111"/>
       <c r="B25" s="37" t="s">
         <v>7</v>
@@ -4940,7 +4940,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="111"/>
       <c r="B26" s="37" t="s">
         <v>8</v>
@@ -4997,7 +4997,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="111"/>
       <c r="B27" s="37" t="s">
         <v>9</v>
@@ -5054,7 +5054,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="111"/>
       <c r="B28" s="37" t="s">
         <v>10</v>
@@ -5111,7 +5111,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="111"/>
       <c r="B29" s="37" t="s">
         <v>11</v>
@@ -5168,7 +5168,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="111"/>
       <c r="B30" s="37" t="s">
         <v>12</v>
@@ -5225,7 +5225,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="111"/>
       <c r="B31" s="37" t="s">
         <v>13</v>
@@ -5282,7 +5282,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="111"/>
       <c r="B32" s="37" t="s">
         <v>14</v>
@@ -5339,7 +5339,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="111"/>
       <c r="B33" s="37" t="s">
         <v>15</v>
@@ -5396,7 +5396,7 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="111" t="s">
         <v>101</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="111"/>
       <c r="B35" s="61" t="s">
         <v>1</v>
@@ -5512,7 +5512,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="111"/>
       <c r="B36" s="61" t="s">
         <v>2</v>
@@ -5569,7 +5569,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="111"/>
       <c r="B37" s="61" t="s">
         <v>3</v>
@@ -5626,7 +5626,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="111"/>
       <c r="B38" s="61" t="s">
         <v>4</v>
@@ -5683,7 +5683,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="111"/>
       <c r="B39" s="61" t="s">
         <v>5</v>
@@ -5740,7 +5740,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="111"/>
       <c r="B40" s="61" t="s">
         <v>6</v>
@@ -5797,7 +5797,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="111"/>
       <c r="B41" s="61" t="s">
         <v>7</v>
@@ -5854,7 +5854,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="111"/>
       <c r="B42" s="61" t="s">
         <v>8</v>
@@ -5911,7 +5911,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="111"/>
       <c r="B43" s="61" t="s">
         <v>9</v>
@@ -5968,7 +5968,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="111"/>
       <c r="B44" s="61" t="s">
         <v>10</v>
@@ -6025,7 +6025,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="111"/>
       <c r="B45" s="61" t="s">
         <v>11</v>
@@ -6082,7 +6082,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="111"/>
       <c r="B46" s="61" t="s">
         <v>12</v>
@@ -6139,7 +6139,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="111"/>
       <c r="B47" s="61" t="s">
         <v>13</v>
@@ -6196,7 +6196,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="111"/>
       <c r="B48" s="61" t="s">
         <v>14</v>
@@ -6253,7 +6253,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="111"/>
       <c r="B49" s="61" t="s">
         <v>15</v>
@@ -6310,7 +6310,7 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="111" t="s">
         <v>102</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="111"/>
       <c r="B51" s="61" t="s">
         <v>1</v>
@@ -6426,7 +6426,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="111"/>
       <c r="B52" s="61" t="s">
         <v>2</v>
@@ -6483,7 +6483,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="111"/>
       <c r="B53" s="61" t="s">
         <v>3</v>
@@ -6540,7 +6540,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="111"/>
       <c r="B54" s="61" t="s">
         <v>4</v>
@@ -6597,7 +6597,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="111"/>
       <c r="B55" s="61" t="s">
         <v>5</v>
@@ -6654,7 +6654,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="111"/>
       <c r="B56" s="61" t="s">
         <v>6</v>
@@ -6711,7 +6711,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="111"/>
       <c r="B57" s="61" t="s">
         <v>7</v>
@@ -6768,7 +6768,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="111"/>
       <c r="B58" s="61" t="s">
         <v>8</v>
@@ -6825,7 +6825,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="111"/>
       <c r="B59" s="61" t="s">
         <v>9</v>
@@ -6882,7 +6882,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="111"/>
       <c r="B60" s="61" t="s">
         <v>10</v>
@@ -6939,7 +6939,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" s="111"/>
       <c r="B61" s="61" t="s">
         <v>11</v>
@@ -6996,7 +6996,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="111"/>
       <c r="B62" s="61" t="s">
         <v>12</v>
@@ -7053,7 +7053,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="111"/>
       <c r="B63" s="61" t="s">
         <v>13</v>
@@ -7110,7 +7110,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="111"/>
       <c r="B64" s="61" t="s">
         <v>14</v>
@@ -7167,7 +7167,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" s="111"/>
       <c r="B65" s="61" t="s">
         <v>15</v>
@@ -7224,7 +7224,7 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" s="111" t="s">
         <v>103</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" s="111"/>
       <c r="B67" s="61" t="s">
         <v>1</v>
@@ -7340,7 +7340,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" s="111"/>
       <c r="B68" s="61" t="s">
         <v>2</v>
@@ -7397,7 +7397,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" s="111"/>
       <c r="B69" s="61" t="s">
         <v>3</v>
@@ -7454,7 +7454,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" s="111"/>
       <c r="B70" s="61" t="s">
         <v>4</v>
@@ -7511,7 +7511,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" s="111"/>
       <c r="B71" s="61" t="s">
         <v>5</v>
@@ -7568,7 +7568,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" s="111"/>
       <c r="B72" s="61" t="s">
         <v>6</v>
@@ -7625,7 +7625,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" s="111"/>
       <c r="B73" s="61" t="s">
         <v>7</v>
@@ -7682,7 +7682,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" s="111"/>
       <c r="B74" s="61" t="s">
         <v>8</v>
@@ -7739,7 +7739,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" s="111"/>
       <c r="B75" s="61" t="s">
         <v>9</v>
@@ -7796,7 +7796,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" s="111"/>
       <c r="B76" s="61" t="s">
         <v>10</v>
@@ -7853,7 +7853,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" s="111"/>
       <c r="B77" s="61" t="s">
         <v>11</v>
@@ -7910,7 +7910,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" s="111"/>
       <c r="B78" s="61" t="s">
         <v>12</v>
@@ -7967,7 +7967,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" s="111"/>
       <c r="B79" s="61" t="s">
         <v>13</v>
@@ -8024,7 +8024,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" s="111"/>
       <c r="B80" s="61" t="s">
         <v>14</v>
@@ -8081,7 +8081,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" s="111"/>
       <c r="B81" s="61" t="s">
         <v>15</v>
@@ -8138,7 +8138,7 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" s="111" t="s">
         <v>104</v>
       </c>
@@ -8197,7 +8197,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83" s="111"/>
       <c r="B83" s="61" t="s">
         <v>1</v>
@@ -8254,7 +8254,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" s="111"/>
       <c r="B84" s="61" t="s">
         <v>2</v>
@@ -8311,7 +8311,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" s="111"/>
       <c r="B85" s="61" t="s">
         <v>3</v>
@@ -8368,7 +8368,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" s="111"/>
       <c r="B86" s="61" t="s">
         <v>4</v>
@@ -8425,7 +8425,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" s="111"/>
       <c r="B87" s="61" t="s">
         <v>5</v>
@@ -8482,7 +8482,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" s="111"/>
       <c r="B88" s="61" t="s">
         <v>6</v>
@@ -8539,7 +8539,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" s="111"/>
       <c r="B89" s="61" t="s">
         <v>7</v>
@@ -8596,7 +8596,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" s="111"/>
       <c r="B90" s="61" t="s">
         <v>8</v>
@@ -8653,7 +8653,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" s="111"/>
       <c r="B91" s="61" t="s">
         <v>9</v>
@@ -8710,7 +8710,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92" s="111"/>
       <c r="B92" s="61" t="s">
         <v>10</v>
@@ -8767,7 +8767,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93" s="111"/>
       <c r="B93" s="61" t="s">
         <v>11</v>
@@ -8824,7 +8824,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94" s="111"/>
       <c r="B94" s="61" t="s">
         <v>12</v>
@@ -8881,7 +8881,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95" s="111"/>
       <c r="B95" s="61" t="s">
         <v>13</v>
@@ -8938,7 +8938,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96" s="111"/>
       <c r="B96" s="61" t="s">
         <v>14</v>
@@ -8995,7 +8995,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97" s="111"/>
       <c r="B97" s="61" t="s">
         <v>15</v>
@@ -9052,7 +9052,7 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98" s="111" t="s">
         <v>105</v>
       </c>
@@ -9111,7 +9111,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99" s="111"/>
       <c r="B99" s="61" t="s">
         <v>1</v>
@@ -9168,7 +9168,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100" s="111"/>
       <c r="B100" s="61" t="s">
         <v>2</v>
@@ -9225,7 +9225,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101" s="111"/>
       <c r="B101" s="61" t="s">
         <v>3</v>
@@ -9282,7 +9282,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102" s="111"/>
       <c r="B102" s="61" t="s">
         <v>4</v>
@@ -9339,7 +9339,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103" s="111"/>
       <c r="B103" s="61" t="s">
         <v>5</v>
@@ -9396,7 +9396,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104" s="111"/>
       <c r="B104" s="61" t="s">
         <v>6</v>
@@ -9453,7 +9453,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A105" s="111"/>
       <c r="B105" s="61" t="s">
         <v>7</v>
@@ -9510,7 +9510,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A106" s="111"/>
       <c r="B106" s="61" t="s">
         <v>8</v>
@@ -9567,7 +9567,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A107" s="111"/>
       <c r="B107" s="61" t="s">
         <v>9</v>
@@ -9624,7 +9624,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A108" s="111"/>
       <c r="B108" s="61" t="s">
         <v>10</v>
@@ -9681,7 +9681,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A109" s="111"/>
       <c r="B109" s="61" t="s">
         <v>11</v>
@@ -9738,7 +9738,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A110" s="111"/>
       <c r="B110" s="61" t="s">
         <v>12</v>
@@ -9795,7 +9795,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111" s="111"/>
       <c r="B111" s="61" t="s">
         <v>13</v>
@@ -9852,7 +9852,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" s="111"/>
       <c r="B112" s="61" t="s">
         <v>14</v>
@@ -9909,7 +9909,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A113" s="111"/>
       <c r="B113" s="61" t="s">
         <v>15</v>
@@ -9966,7 +9966,7 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A114" s="111" t="s">
         <v>109</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>3.5668052131556029</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A115" s="111"/>
       <c r="B115" s="110" t="s">
         <v>1</v>
@@ -10082,7 +10082,7 @@
         <v>4.0529896903791238</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A116" s="111"/>
       <c r="B116" s="110" t="s">
         <v>2</v>
@@ -10139,7 +10139,7 @@
         <v>4.3115733563210163</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A117" s="111"/>
       <c r="B117" s="110" t="s">
         <v>3</v>
@@ -10196,7 +10196,7 @@
         <v>3.629724341565661</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A118" s="111"/>
       <c r="B118" s="110" t="s">
         <v>4</v>
@@ -10253,7 +10253,7 @@
         <v>2.949193529531942</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A119" s="111"/>
       <c r="B119" s="110" t="s">
         <v>5</v>
@@ -10310,7 +10310,7 @@
         <v>2.5959713809084199</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A120" s="111"/>
       <c r="B120" s="110" t="s">
         <v>6</v>
@@ -10367,7 +10367,7 @@
         <v>2.930654020980263</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A121" s="111"/>
       <c r="B121" s="110" t="s">
         <v>7</v>
@@ -10424,7 +10424,7 @@
         <v>3.462886762272865</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A122" s="111"/>
       <c r="B122" s="110" t="s">
         <v>8</v>
@@ -10481,7 +10481,7 @@
         <v>3.1796263978546309</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A123" s="111"/>
       <c r="B123" s="110" t="s">
         <v>9</v>
@@ -10538,7 +10538,7 @@
         <v>3.1822678358086711</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A124" s="111"/>
       <c r="B124" s="110" t="s">
         <v>10</v>
@@ -10595,7 +10595,7 @@
         <v>3.07658862942833</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A125" s="111"/>
       <c r="B125" s="110" t="s">
         <v>11</v>
@@ -10652,7 +10652,7 @@
         <v>3.5861552161648351</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A126" s="111"/>
       <c r="B126" s="110" t="s">
         <v>12</v>
@@ -10709,7 +10709,7 @@
         <v>3.001371404115428</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A127" s="111"/>
       <c r="B127" s="110" t="s">
         <v>13</v>
@@ -10766,7 +10766,7 @@
         <v>2.9768279935895898</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A128" s="111"/>
       <c r="B128" s="110" t="s">
         <v>14</v>
@@ -10823,7 +10823,7 @@
         <v>2.4423431400467339</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A129" s="111"/>
       <c r="B129" s="110" t="s">
         <v>15</v>
@@ -10906,9 +10906,9 @@
       <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -10967,7 +10967,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="111" t="s">
         <v>90</v>
       </c>
@@ -11026,7 +11026,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="111"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -11083,7 +11083,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="111"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -11140,7 +11140,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="111"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -11197,7 +11197,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="111"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -11254,7 +11254,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="111"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -11311,7 +11311,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="111"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -11368,7 +11368,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="111"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -11425,7 +11425,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="111"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -11482,7 +11482,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="111"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -11539,7 +11539,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="111"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -11596,7 +11596,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="111"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -11653,7 +11653,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="111"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -11710,7 +11710,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="111"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -11767,7 +11767,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="111"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -11824,7 +11824,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="111"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -11881,7 +11881,7 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="111" t="s">
         <v>96</v>
       </c>
@@ -11940,7 +11940,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="111"/>
       <c r="B19" s="37" t="s">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="111"/>
       <c r="B20" s="37" t="s">
         <v>2</v>
@@ -12054,7 +12054,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="111"/>
       <c r="B21" s="37" t="s">
         <v>3</v>
@@ -12111,7 +12111,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="111"/>
       <c r="B22" s="37" t="s">
         <v>4</v>
@@ -12168,7 +12168,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="111"/>
       <c r="B23" s="37" t="s">
         <v>5</v>
@@ -12225,7 +12225,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="111"/>
       <c r="B24" s="37" t="s">
         <v>6</v>
@@ -12282,7 +12282,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="111"/>
       <c r="B25" s="37" t="s">
         <v>7</v>
@@ -12339,7 +12339,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="111"/>
       <c r="B26" s="37" t="s">
         <v>8</v>
@@ -12396,7 +12396,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="111"/>
       <c r="B27" s="37" t="s">
         <v>9</v>
@@ -12453,7 +12453,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="111"/>
       <c r="B28" s="37" t="s">
         <v>10</v>
@@ -12510,7 +12510,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="111"/>
       <c r="B29" s="37" t="s">
         <v>11</v>
@@ -12567,7 +12567,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="111"/>
       <c r="B30" s="37" t="s">
         <v>12</v>
@@ -12624,7 +12624,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="111"/>
       <c r="B31" s="37" t="s">
         <v>13</v>
@@ -12681,7 +12681,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="111"/>
       <c r="B32" s="37" t="s">
         <v>14</v>
@@ -12738,7 +12738,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="111"/>
       <c r="B33" s="37" t="s">
         <v>15</v>
@@ -12795,7 +12795,7 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="111" t="s">
         <v>101</v>
       </c>
@@ -12854,7 +12854,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="111"/>
       <c r="B35" s="61" t="s">
         <v>1</v>
@@ -12911,7 +12911,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="111"/>
       <c r="B36" s="61" t="s">
         <v>2</v>
@@ -12968,7 +12968,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="111"/>
       <c r="B37" s="61" t="s">
         <v>3</v>
@@ -13025,7 +13025,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="111"/>
       <c r="B38" s="61" t="s">
         <v>4</v>
@@ -13082,7 +13082,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="111"/>
       <c r="B39" s="61" t="s">
         <v>5</v>
@@ -13139,7 +13139,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="111"/>
       <c r="B40" s="61" t="s">
         <v>6</v>
@@ -13196,7 +13196,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="111"/>
       <c r="B41" s="61" t="s">
         <v>7</v>
@@ -13253,7 +13253,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="111"/>
       <c r="B42" s="61" t="s">
         <v>8</v>
@@ -13310,7 +13310,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="111"/>
       <c r="B43" s="61" t="s">
         <v>9</v>
@@ -13367,7 +13367,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="111"/>
       <c r="B44" s="61" t="s">
         <v>10</v>
@@ -13424,7 +13424,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="111"/>
       <c r="B45" s="61" t="s">
         <v>11</v>
@@ -13481,7 +13481,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="111"/>
       <c r="B46" s="61" t="s">
         <v>12</v>
@@ -13538,7 +13538,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="111"/>
       <c r="B47" s="61" t="s">
         <v>13</v>
@@ -13595,7 +13595,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="111"/>
       <c r="B48" s="61" t="s">
         <v>14</v>
@@ -13652,7 +13652,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="111"/>
       <c r="B49" s="61" t="s">
         <v>15</v>
@@ -13709,7 +13709,7 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="111" t="s">
         <v>102</v>
       </c>
@@ -13768,7 +13768,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="111"/>
       <c r="B51" s="61" t="s">
         <v>1</v>
@@ -13825,7 +13825,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="111"/>
       <c r="B52" s="61" t="s">
         <v>2</v>
@@ -13882,7 +13882,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="111"/>
       <c r="B53" s="61" t="s">
         <v>3</v>
@@ -13939,7 +13939,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="111"/>
       <c r="B54" s="61" t="s">
         <v>4</v>
@@ -13996,7 +13996,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="111"/>
       <c r="B55" s="61" t="s">
         <v>5</v>
@@ -14053,7 +14053,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="111"/>
       <c r="B56" s="61" t="s">
         <v>6</v>
@@ -14110,7 +14110,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="111"/>
       <c r="B57" s="61" t="s">
         <v>7</v>
@@ -14167,7 +14167,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="111"/>
       <c r="B58" s="61" t="s">
         <v>8</v>
@@ -14224,7 +14224,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="111"/>
       <c r="B59" s="61" t="s">
         <v>9</v>
@@ -14281,7 +14281,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="111"/>
       <c r="B60" s="61" t="s">
         <v>10</v>
@@ -14338,7 +14338,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" s="111"/>
       <c r="B61" s="61" t="s">
         <v>11</v>
@@ -14395,7 +14395,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="111"/>
       <c r="B62" s="61" t="s">
         <v>12</v>
@@ -14452,7 +14452,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="111"/>
       <c r="B63" s="61" t="s">
         <v>13</v>
@@ -14509,7 +14509,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="111"/>
       <c r="B64" s="61" t="s">
         <v>14</v>
@@ -14566,7 +14566,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" s="111"/>
       <c r="B65" s="61" t="s">
         <v>15</v>
@@ -14623,7 +14623,7 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" s="111" t="s">
         <v>103</v>
       </c>
@@ -14682,7 +14682,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" s="111"/>
       <c r="B67" s="61" t="s">
         <v>1</v>
@@ -14739,7 +14739,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" s="111"/>
       <c r="B68" s="61" t="s">
         <v>2</v>
@@ -14796,7 +14796,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" s="111"/>
       <c r="B69" s="61" t="s">
         <v>3</v>
@@ -14853,7 +14853,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" s="111"/>
       <c r="B70" s="61" t="s">
         <v>4</v>
@@ -14910,7 +14910,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" s="111"/>
       <c r="B71" s="61" t="s">
         <v>5</v>
@@ -14967,7 +14967,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" s="111"/>
       <c r="B72" s="61" t="s">
         <v>6</v>
@@ -15024,7 +15024,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" s="111"/>
       <c r="B73" s="61" t="s">
         <v>7</v>
@@ -15081,7 +15081,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" s="111"/>
       <c r="B74" s="61" t="s">
         <v>8</v>
@@ -15138,7 +15138,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" s="111"/>
       <c r="B75" s="61" t="s">
         <v>9</v>
@@ -15195,7 +15195,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" s="111"/>
       <c r="B76" s="61" t="s">
         <v>10</v>
@@ -15252,7 +15252,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" s="111"/>
       <c r="B77" s="61" t="s">
         <v>11</v>
@@ -15309,7 +15309,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" s="111"/>
       <c r="B78" s="61" t="s">
         <v>12</v>
@@ -15366,7 +15366,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" s="111"/>
       <c r="B79" s="61" t="s">
         <v>13</v>
@@ -15423,7 +15423,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" s="111"/>
       <c r="B80" s="61" t="s">
         <v>14</v>
@@ -15480,7 +15480,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" s="111"/>
       <c r="B81" s="61" t="s">
         <v>15</v>
@@ -15537,7 +15537,7 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" s="111" t="s">
         <v>104</v>
       </c>
@@ -15596,7 +15596,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83" s="111"/>
       <c r="B83" s="61" t="s">
         <v>1</v>
@@ -15653,7 +15653,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" s="111"/>
       <c r="B84" s="61" t="s">
         <v>2</v>
@@ -15710,7 +15710,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" s="111"/>
       <c r="B85" s="61" t="s">
         <v>3</v>
@@ -15767,7 +15767,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" s="111"/>
       <c r="B86" s="61" t="s">
         <v>4</v>
@@ -15824,7 +15824,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" s="111"/>
       <c r="B87" s="61" t="s">
         <v>5</v>
@@ -15881,7 +15881,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" s="111"/>
       <c r="B88" s="61" t="s">
         <v>6</v>
@@ -15938,7 +15938,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" s="111"/>
       <c r="B89" s="61" t="s">
         <v>7</v>
@@ -15995,7 +15995,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" s="111"/>
       <c r="B90" s="61" t="s">
         <v>8</v>
@@ -16052,7 +16052,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" s="111"/>
       <c r="B91" s="61" t="s">
         <v>9</v>
@@ -16109,7 +16109,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92" s="111"/>
       <c r="B92" s="61" t="s">
         <v>10</v>
@@ -16166,7 +16166,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93" s="111"/>
       <c r="B93" s="61" t="s">
         <v>11</v>
@@ -16223,7 +16223,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94" s="111"/>
       <c r="B94" s="61" t="s">
         <v>12</v>
@@ -16280,7 +16280,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95" s="111"/>
       <c r="B95" s="61" t="s">
         <v>13</v>
@@ -16337,7 +16337,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96" s="111"/>
       <c r="B96" s="61" t="s">
         <v>14</v>
@@ -16394,7 +16394,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97" s="111"/>
       <c r="B97" s="61" t="s">
         <v>15</v>
@@ -16451,7 +16451,7 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98" s="111" t="s">
         <v>105</v>
       </c>
@@ -16510,7 +16510,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99" s="111"/>
       <c r="B99" s="61" t="s">
         <v>1</v>
@@ -16567,7 +16567,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100" s="111"/>
       <c r="B100" s="61" t="s">
         <v>2</v>
@@ -16624,7 +16624,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101" s="111"/>
       <c r="B101" s="61" t="s">
         <v>3</v>
@@ -16681,7 +16681,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102" s="111"/>
       <c r="B102" s="61" t="s">
         <v>4</v>
@@ -16738,7 +16738,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103" s="111"/>
       <c r="B103" s="61" t="s">
         <v>5</v>
@@ -16795,7 +16795,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104" s="111"/>
       <c r="B104" s="61" t="s">
         <v>6</v>
@@ -16852,7 +16852,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A105" s="111"/>
       <c r="B105" s="61" t="s">
         <v>7</v>
@@ -16909,7 +16909,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A106" s="111"/>
       <c r="B106" s="61" t="s">
         <v>8</v>
@@ -16966,7 +16966,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A107" s="111"/>
       <c r="B107" s="61" t="s">
         <v>9</v>
@@ -17023,7 +17023,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A108" s="111"/>
       <c r="B108" s="61" t="s">
         <v>10</v>
@@ -17080,7 +17080,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A109" s="111"/>
       <c r="B109" s="61" t="s">
         <v>11</v>
@@ -17137,7 +17137,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A110" s="111"/>
       <c r="B110" s="61" t="s">
         <v>12</v>
@@ -17194,7 +17194,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111" s="111"/>
       <c r="B111" s="61" t="s">
         <v>13</v>
@@ -17251,7 +17251,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" s="111"/>
       <c r="B112" s="61" t="s">
         <v>14</v>
@@ -17308,7 +17308,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A113" s="111"/>
       <c r="B113" s="61" t="s">
         <v>15</v>
@@ -17365,7 +17365,7 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A114" s="111" t="s">
         <v>109</v>
       </c>
@@ -17424,7 +17424,7 @@
         <v>1.9303406046028391</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A115" s="111"/>
       <c r="B115" s="110" t="s">
         <v>1</v>
@@ -17481,7 +17481,7 @@
         <v>3.7477763404398901</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A116" s="111"/>
       <c r="B116" s="110" t="s">
         <v>2</v>
@@ -17538,7 +17538,7 @@
         <v>5.4372924116155366</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A117" s="111"/>
       <c r="B117" s="110" t="s">
         <v>3</v>
@@ -17595,7 +17595,7 @@
         <v>7.7911518064499461</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A118" s="111"/>
       <c r="B118" s="110" t="s">
         <v>4</v>
@@ -17652,7 +17652,7 @@
         <v>1.141416962812404</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A119" s="111"/>
       <c r="B119" s="110" t="s">
         <v>5</v>
@@ -17709,7 +17709,7 @@
         <v>0.74299743745883251</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A120" s="111"/>
       <c r="B120" s="110" t="s">
         <v>6</v>
@@ -17766,7 +17766,7 @@
         <v>0.91562964911041378</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A121" s="111"/>
       <c r="B121" s="110" t="s">
         <v>7</v>
@@ -17823,7 +17823,7 @@
         <v>0.6753458306423481</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A122" s="111"/>
       <c r="B122" s="110" t="s">
         <v>8</v>
@@ -17880,7 +17880,7 @@
         <v>0.76489167529992985</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A123" s="111"/>
       <c r="B123" s="110" t="s">
         <v>9</v>
@@ -17937,7 +17937,7 @@
         <v>1.453299615717849</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A124" s="111"/>
       <c r="B124" s="110" t="s">
         <v>10</v>
@@ -17994,7 +17994,7 @@
         <v>1.8367487786824079</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A125" s="111"/>
       <c r="B125" s="110" t="s">
         <v>11</v>
@@ -18051,7 +18051,7 @@
         <v>1.562940460840295</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A126" s="111"/>
       <c r="B126" s="110" t="s">
         <v>12</v>
@@ -18108,7 +18108,7 @@
         <v>0.57118490850485704</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A127" s="111"/>
       <c r="B127" s="110" t="s">
         <v>13</v>
@@ -18165,7 +18165,7 @@
         <v>0.13510911184621879</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A128" s="111"/>
       <c r="B128" s="110" t="s">
         <v>14</v>
@@ -18222,7 +18222,7 @@
         <v>0.14601050001903429</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A129" s="111"/>
       <c r="B129" s="110" t="s">
         <v>15</v>
@@ -18305,9 +18305,9 @@
       <selection activeCell="B114" sqref="A114:S129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -18366,7 +18366,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="111" t="s">
         <v>90</v>
       </c>
@@ -18425,7 +18425,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="111"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -18482,7 +18482,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="111"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -18539,7 +18539,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="111"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -18596,7 +18596,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="111"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -18653,7 +18653,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="111"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -18710,7 +18710,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="111"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -18767,7 +18767,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="111"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -18824,7 +18824,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="111"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -18881,7 +18881,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="111"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -18938,7 +18938,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="111"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -18995,7 +18995,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="111"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -19052,7 +19052,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="111"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -19109,7 +19109,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="111"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -19166,7 +19166,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="111"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -19223,7 +19223,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="111"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -19280,7 +19280,7 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="111" t="s">
         <v>96</v>
       </c>
@@ -19339,7 +19339,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="111"/>
       <c r="B19" s="37" t="s">
         <v>1</v>
@@ -19396,7 +19396,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="111"/>
       <c r="B20" s="37" t="s">
         <v>2</v>
@@ -19453,7 +19453,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="111"/>
       <c r="B21" s="37" t="s">
         <v>3</v>
@@ -19510,7 +19510,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="111"/>
       <c r="B22" s="37" t="s">
         <v>4</v>
@@ -19567,7 +19567,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="111"/>
       <c r="B23" s="37" t="s">
         <v>5</v>
@@ -19624,7 +19624,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="111"/>
       <c r="B24" s="37" t="s">
         <v>6</v>
@@ -19681,7 +19681,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="111"/>
       <c r="B25" s="37" t="s">
         <v>7</v>
@@ -19738,7 +19738,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="111"/>
       <c r="B26" s="37" t="s">
         <v>8</v>
@@ -19795,7 +19795,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="111"/>
       <c r="B27" s="37" t="s">
         <v>9</v>
@@ -19852,7 +19852,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="111"/>
       <c r="B28" s="37" t="s">
         <v>10</v>
@@ -19909,7 +19909,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="111"/>
       <c r="B29" s="37" t="s">
         <v>11</v>
@@ -19966,7 +19966,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="111"/>
       <c r="B30" s="37" t="s">
         <v>12</v>
@@ -20023,7 +20023,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="111"/>
       <c r="B31" s="37" t="s">
         <v>13</v>
@@ -20080,7 +20080,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="111"/>
       <c r="B32" s="37" t="s">
         <v>14</v>
@@ -20137,7 +20137,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="111"/>
       <c r="B33" s="37" t="s">
         <v>15</v>
@@ -20194,7 +20194,7 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="111" t="s">
         <v>101</v>
       </c>
@@ -20253,7 +20253,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="111"/>
       <c r="B35" s="61" t="s">
         <v>1</v>
@@ -20310,7 +20310,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="111"/>
       <c r="B36" s="61" t="s">
         <v>2</v>
@@ -20367,7 +20367,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="111"/>
       <c r="B37" s="61" t="s">
         <v>3</v>
@@ -20424,7 +20424,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="111"/>
       <c r="B38" s="61" t="s">
         <v>4</v>
@@ -20481,7 +20481,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="111"/>
       <c r="B39" s="61" t="s">
         <v>5</v>
@@ -20538,7 +20538,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="111"/>
       <c r="B40" s="61" t="s">
         <v>6</v>
@@ -20595,7 +20595,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="111"/>
       <c r="B41" s="61" t="s">
         <v>7</v>
@@ -20652,7 +20652,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="111"/>
       <c r="B42" s="61" t="s">
         <v>8</v>
@@ -20709,7 +20709,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="111"/>
       <c r="B43" s="61" t="s">
         <v>9</v>
@@ -20766,7 +20766,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="111"/>
       <c r="B44" s="61" t="s">
         <v>10</v>
@@ -20823,7 +20823,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="111"/>
       <c r="B45" s="61" t="s">
         <v>11</v>
@@ -20880,7 +20880,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="111"/>
       <c r="B46" s="61" t="s">
         <v>12</v>
@@ -20937,7 +20937,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="111"/>
       <c r="B47" s="61" t="s">
         <v>13</v>
@@ -20994,7 +20994,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="111"/>
       <c r="B48" s="61" t="s">
         <v>14</v>
@@ -21051,7 +21051,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="111"/>
       <c r="B49" s="61" t="s">
         <v>15</v>
@@ -21108,7 +21108,7 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="111" t="s">
         <v>102</v>
       </c>
@@ -21167,7 +21167,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="111"/>
       <c r="B51" s="61" t="s">
         <v>1</v>
@@ -21224,7 +21224,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="111"/>
       <c r="B52" s="61" t="s">
         <v>2</v>
@@ -21281,7 +21281,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="111"/>
       <c r="B53" s="61" t="s">
         <v>3</v>
@@ -21338,7 +21338,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="111"/>
       <c r="B54" s="61" t="s">
         <v>4</v>
@@ -21395,7 +21395,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="111"/>
       <c r="B55" s="61" t="s">
         <v>5</v>
@@ -21452,7 +21452,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="111"/>
       <c r="B56" s="61" t="s">
         <v>6</v>
@@ -21509,7 +21509,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="111"/>
       <c r="B57" s="61" t="s">
         <v>7</v>
@@ -21566,7 +21566,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="111"/>
       <c r="B58" s="61" t="s">
         <v>8</v>
@@ -21623,7 +21623,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="111"/>
       <c r="B59" s="61" t="s">
         <v>9</v>
@@ -21680,7 +21680,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="111"/>
       <c r="B60" s="61" t="s">
         <v>10</v>
@@ -21737,7 +21737,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" s="111"/>
       <c r="B61" s="61" t="s">
         <v>11</v>
@@ -21794,7 +21794,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="111"/>
       <c r="B62" s="61" t="s">
         <v>12</v>
@@ -21851,7 +21851,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="111"/>
       <c r="B63" s="61" t="s">
         <v>13</v>
@@ -21908,7 +21908,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="111"/>
       <c r="B64" s="61" t="s">
         <v>14</v>
@@ -21965,7 +21965,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" s="111"/>
       <c r="B65" s="61" t="s">
         <v>15</v>
@@ -22022,7 +22022,7 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" s="111" t="s">
         <v>103</v>
       </c>
@@ -22081,7 +22081,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" s="111"/>
       <c r="B67" s="61" t="s">
         <v>1</v>
@@ -22138,7 +22138,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" s="111"/>
       <c r="B68" s="61" t="s">
         <v>2</v>
@@ -22195,7 +22195,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" s="111"/>
       <c r="B69" s="61" t="s">
         <v>3</v>
@@ -22252,7 +22252,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" s="111"/>
       <c r="B70" s="61" t="s">
         <v>4</v>
@@ -22309,7 +22309,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" s="111"/>
       <c r="B71" s="61" t="s">
         <v>5</v>
@@ -22366,7 +22366,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" s="111"/>
       <c r="B72" s="61" t="s">
         <v>6</v>
@@ -22423,7 +22423,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" s="111"/>
       <c r="B73" s="61" t="s">
         <v>7</v>
@@ -22480,7 +22480,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" s="111"/>
       <c r="B74" s="61" t="s">
         <v>8</v>
@@ -22537,7 +22537,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" s="111"/>
       <c r="B75" s="61" t="s">
         <v>9</v>
@@ -22594,7 +22594,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" s="111"/>
       <c r="B76" s="61" t="s">
         <v>10</v>
@@ -22651,7 +22651,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" s="111"/>
       <c r="B77" s="61" t="s">
         <v>11</v>
@@ -22708,7 +22708,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" s="111"/>
       <c r="B78" s="61" t="s">
         <v>12</v>
@@ -22765,7 +22765,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" s="111"/>
       <c r="B79" s="61" t="s">
         <v>13</v>
@@ -22822,7 +22822,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" s="111"/>
       <c r="B80" s="61" t="s">
         <v>14</v>
@@ -22879,7 +22879,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" s="111"/>
       <c r="B81" s="61" t="s">
         <v>15</v>
@@ -22936,7 +22936,7 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" s="111" t="s">
         <v>104</v>
       </c>
@@ -22995,7 +22995,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83" s="111"/>
       <c r="B83" s="61" t="s">
         <v>1</v>
@@ -23052,7 +23052,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" s="111"/>
       <c r="B84" s="61" t="s">
         <v>2</v>
@@ -23109,7 +23109,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" s="111"/>
       <c r="B85" s="61" t="s">
         <v>3</v>
@@ -23166,7 +23166,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" s="111"/>
       <c r="B86" s="61" t="s">
         <v>4</v>
@@ -23223,7 +23223,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" s="111"/>
       <c r="B87" s="61" t="s">
         <v>5</v>
@@ -23280,7 +23280,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" s="111"/>
       <c r="B88" s="61" t="s">
         <v>6</v>
@@ -23337,7 +23337,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" s="111"/>
       <c r="B89" s="61" t="s">
         <v>7</v>
@@ -23394,7 +23394,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" s="111"/>
       <c r="B90" s="61" t="s">
         <v>8</v>
@@ -23451,7 +23451,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" s="111"/>
       <c r="B91" s="61" t="s">
         <v>9</v>
@@ -23508,7 +23508,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92" s="111"/>
       <c r="B92" s="61" t="s">
         <v>10</v>
@@ -23565,7 +23565,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93" s="111"/>
       <c r="B93" s="61" t="s">
         <v>11</v>
@@ -23622,7 +23622,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94" s="111"/>
       <c r="B94" s="61" t="s">
         <v>12</v>
@@ -23679,7 +23679,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95" s="111"/>
       <c r="B95" s="61" t="s">
         <v>13</v>
@@ -23736,7 +23736,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96" s="111"/>
       <c r="B96" s="61" t="s">
         <v>14</v>
@@ -23793,7 +23793,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97" s="111"/>
       <c r="B97" s="61" t="s">
         <v>15</v>
@@ -23850,7 +23850,7 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98" s="111" t="s">
         <v>105</v>
       </c>
@@ -23909,7 +23909,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99" s="111"/>
       <c r="B99" s="61" t="s">
         <v>1</v>
@@ -23966,7 +23966,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100" s="111"/>
       <c r="B100" s="61" t="s">
         <v>2</v>
@@ -24023,7 +24023,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101" s="111"/>
       <c r="B101" s="61" t="s">
         <v>3</v>
@@ -24080,7 +24080,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102" s="111"/>
       <c r="B102" s="61" t="s">
         <v>4</v>
@@ -24137,7 +24137,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103" s="111"/>
       <c r="B103" s="61" t="s">
         <v>5</v>
@@ -24194,7 +24194,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104" s="111"/>
       <c r="B104" s="61" t="s">
         <v>6</v>
@@ -24251,7 +24251,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A105" s="111"/>
       <c r="B105" s="61" t="s">
         <v>7</v>
@@ -24308,7 +24308,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A106" s="111"/>
       <c r="B106" s="61" t="s">
         <v>8</v>
@@ -24365,7 +24365,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A107" s="111"/>
       <c r="B107" s="61" t="s">
         <v>9</v>
@@ -24422,7 +24422,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A108" s="111"/>
       <c r="B108" s="61" t="s">
         <v>10</v>
@@ -24479,7 +24479,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A109" s="111"/>
       <c r="B109" s="61" t="s">
         <v>11</v>
@@ -24536,7 +24536,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A110" s="111"/>
       <c r="B110" s="61" t="s">
         <v>12</v>
@@ -24593,7 +24593,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111" s="111"/>
       <c r="B111" s="61" t="s">
         <v>13</v>
@@ -24650,7 +24650,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" s="111"/>
       <c r="B112" s="61" t="s">
         <v>14</v>
@@ -24707,7 +24707,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A113" s="111"/>
       <c r="B113" s="61" t="s">
         <v>15</v>
@@ -24764,7 +24764,7 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A114" s="111" t="s">
         <v>109</v>
       </c>
@@ -24823,7 +24823,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A115" s="111"/>
       <c r="B115" s="110" t="s">
         <v>1</v>
@@ -24880,7 +24880,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A116" s="111"/>
       <c r="B116" s="110" t="s">
         <v>2</v>
@@ -24937,7 +24937,7 @@
         <v>0.2813185441721629</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A117" s="111"/>
       <c r="B117" s="110" t="s">
         <v>3</v>
@@ -24994,7 +24994,7 @@
         <v>2.8842754143599101</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A118" s="111"/>
       <c r="B118" s="110" t="s">
         <v>4</v>
@@ -25051,7 +25051,7 @@
         <v>4.6393921641713387</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A119" s="111"/>
       <c r="B119" s="110" t="s">
         <v>5</v>
@@ -25108,7 +25108,7 @@
         <v>6.1400745552879066</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A120" s="111"/>
       <c r="B120" s="110" t="s">
         <v>6</v>
@@ -25165,7 +25165,7 @@
         <v>5.8764005129956374</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A121" s="111"/>
       <c r="B121" s="110" t="s">
         <v>7</v>
@@ -25222,7 +25222,7 @@
         <v>6.3000370430396302</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A122" s="111"/>
       <c r="B122" s="110" t="s">
         <v>8</v>
@@ -25279,7 +25279,7 @@
         <v>6.5027859240419721</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A123" s="111"/>
       <c r="B123" s="110" t="s">
         <v>9</v>
@@ -25336,7 +25336,7 @@
         <v>5.3296444077456453</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A124" s="111"/>
       <c r="B124" s="110" t="s">
         <v>10</v>
@@ -25393,7 +25393,7 @@
         <v>5.5825541518369617</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A125" s="111"/>
       <c r="B125" s="110" t="s">
         <v>11</v>
@@ -25450,7 +25450,7 @@
         <v>3.6317270633078929</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A126" s="111"/>
       <c r="B126" s="110" t="s">
         <v>12</v>
@@ -25507,7 +25507,7 @@
         <v>1.0832747747492379</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A127" s="111"/>
       <c r="B127" s="110" t="s">
         <v>13</v>
@@ -25564,7 +25564,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A128" s="111"/>
       <c r="B128" s="110" t="s">
         <v>14</v>
@@ -25621,7 +25621,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A129" s="111"/>
       <c r="B129" s="110" t="s">
         <v>15</v>
@@ -25704,9 +25704,9 @@
       <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -25765,7 +25765,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="111" t="s">
         <v>90</v>
       </c>
@@ -25824,7 +25824,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="111"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -25881,7 +25881,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="111"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -25938,7 +25938,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="111"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -25995,7 +25995,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="111"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -26052,7 +26052,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="111"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -26109,7 +26109,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="111"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -26166,7 +26166,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="111"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -26223,7 +26223,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="111"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -26280,7 +26280,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="111"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -26337,7 +26337,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="111"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -26394,7 +26394,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="111"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -26451,7 +26451,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="111"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -26508,7 +26508,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="111"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -26565,7 +26565,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="111"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -26622,7 +26622,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="111"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -26679,7 +26679,7 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="111" t="s">
         <v>96</v>
       </c>
@@ -26738,7 +26738,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="111"/>
       <c r="B19" s="37" t="s">
         <v>1</v>
@@ -26795,7 +26795,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="111"/>
       <c r="B20" s="37" t="s">
         <v>2</v>
@@ -26852,7 +26852,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="111"/>
       <c r="B21" s="37" t="s">
         <v>3</v>
@@ -26909,7 +26909,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="111"/>
       <c r="B22" s="37" t="s">
         <v>4</v>
@@ -26966,7 +26966,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="111"/>
       <c r="B23" s="37" t="s">
         <v>5</v>
@@ -27023,7 +27023,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="111"/>
       <c r="B24" s="37" t="s">
         <v>6</v>
@@ -27080,7 +27080,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="111"/>
       <c r="B25" s="37" t="s">
         <v>7</v>
@@ -27137,7 +27137,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="111"/>
       <c r="B26" s="37" t="s">
         <v>8</v>
@@ -27194,7 +27194,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="111"/>
       <c r="B27" s="37" t="s">
         <v>9</v>
@@ -27251,7 +27251,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="111"/>
       <c r="B28" s="37" t="s">
         <v>10</v>
@@ -27308,7 +27308,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="111"/>
       <c r="B29" s="37" t="s">
         <v>11</v>
@@ -27365,7 +27365,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="111"/>
       <c r="B30" s="37" t="s">
         <v>12</v>
@@ -27422,7 +27422,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="111"/>
       <c r="B31" s="37" t="s">
         <v>13</v>
@@ -27479,7 +27479,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="111"/>
       <c r="B32" s="37" t="s">
         <v>14</v>
@@ -27536,7 +27536,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="111"/>
       <c r="B33" s="37" t="s">
         <v>15</v>
@@ -27593,7 +27593,7 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="111" t="s">
         <v>101</v>
       </c>
@@ -27652,7 +27652,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="111"/>
       <c r="B35" s="61" t="s">
         <v>1</v>
@@ -27709,7 +27709,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="111"/>
       <c r="B36" s="61" t="s">
         <v>2</v>
@@ -27766,7 +27766,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="111"/>
       <c r="B37" s="61" t="s">
         <v>3</v>
@@ -27823,7 +27823,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="111"/>
       <c r="B38" s="61" t="s">
         <v>4</v>
@@ -27880,7 +27880,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="111"/>
       <c r="B39" s="61" t="s">
         <v>5</v>
@@ -27937,7 +27937,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="111"/>
       <c r="B40" s="61" t="s">
         <v>6</v>
@@ -27994,7 +27994,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="111"/>
       <c r="B41" s="61" t="s">
         <v>7</v>
@@ -28051,7 +28051,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="111"/>
       <c r="B42" s="61" t="s">
         <v>8</v>
@@ -28108,7 +28108,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="111"/>
       <c r="B43" s="61" t="s">
         <v>9</v>
@@ -28165,7 +28165,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="111"/>
       <c r="B44" s="61" t="s">
         <v>10</v>
@@ -28222,7 +28222,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="111"/>
       <c r="B45" s="61" t="s">
         <v>11</v>
@@ -28279,7 +28279,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="111"/>
       <c r="B46" s="61" t="s">
         <v>12</v>
@@ -28336,7 +28336,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="111"/>
       <c r="B47" s="61" t="s">
         <v>13</v>
@@ -28393,7 +28393,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="111"/>
       <c r="B48" s="61" t="s">
         <v>14</v>
@@ -28450,7 +28450,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="111"/>
       <c r="B49" s="61" t="s">
         <v>15</v>
@@ -28507,7 +28507,7 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="111" t="s">
         <v>102</v>
       </c>
@@ -28566,7 +28566,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="111"/>
       <c r="B51" s="61" t="s">
         <v>1</v>
@@ -28623,7 +28623,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="111"/>
       <c r="B52" s="61" t="s">
         <v>2</v>
@@ -28680,7 +28680,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="111"/>
       <c r="B53" s="61" t="s">
         <v>3</v>
@@ -28737,7 +28737,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="111"/>
       <c r="B54" s="61" t="s">
         <v>4</v>
@@ -28794,7 +28794,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="111"/>
       <c r="B55" s="61" t="s">
         <v>5</v>
@@ -28851,7 +28851,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="111"/>
       <c r="B56" s="61" t="s">
         <v>6</v>
@@ -28908,7 +28908,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="111"/>
       <c r="B57" s="61" t="s">
         <v>7</v>
@@ -28965,7 +28965,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="111"/>
       <c r="B58" s="61" t="s">
         <v>8</v>
@@ -29022,7 +29022,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="111"/>
       <c r="B59" s="61" t="s">
         <v>9</v>
@@ -29079,7 +29079,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="111"/>
       <c r="B60" s="61" t="s">
         <v>10</v>
@@ -29136,7 +29136,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" s="111"/>
       <c r="B61" s="61" t="s">
         <v>11</v>
@@ -29193,7 +29193,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="111"/>
       <c r="B62" s="61" t="s">
         <v>12</v>
@@ -29250,7 +29250,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="111"/>
       <c r="B63" s="61" t="s">
         <v>13</v>
@@ -29307,7 +29307,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="111"/>
       <c r="B64" s="61" t="s">
         <v>14</v>
@@ -29364,7 +29364,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" s="111"/>
       <c r="B65" s="61" t="s">
         <v>15</v>
@@ -29421,7 +29421,7 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" s="111" t="s">
         <v>103</v>
       </c>
@@ -29480,7 +29480,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" s="111"/>
       <c r="B67" s="61" t="s">
         <v>1</v>
@@ -29537,7 +29537,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" s="111"/>
       <c r="B68" s="61" t="s">
         <v>2</v>
@@ -29594,7 +29594,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" s="111"/>
       <c r="B69" s="61" t="s">
         <v>3</v>
@@ -29651,7 +29651,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" s="111"/>
       <c r="B70" s="61" t="s">
         <v>4</v>
@@ -29708,7 +29708,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" s="111"/>
       <c r="B71" s="61" t="s">
         <v>5</v>
@@ -29765,7 +29765,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" s="111"/>
       <c r="B72" s="61" t="s">
         <v>6</v>
@@ -29822,7 +29822,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" s="111"/>
       <c r="B73" s="61" t="s">
         <v>7</v>
@@ -29879,7 +29879,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" s="111"/>
       <c r="B74" s="61" t="s">
         <v>8</v>
@@ -29936,7 +29936,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" s="111"/>
       <c r="B75" s="61" t="s">
         <v>9</v>
@@ -29993,7 +29993,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" s="111"/>
       <c r="B76" s="61" t="s">
         <v>10</v>
@@ -30050,7 +30050,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" s="111"/>
       <c r="B77" s="61" t="s">
         <v>11</v>
@@ -30107,7 +30107,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" s="111"/>
       <c r="B78" s="61" t="s">
         <v>12</v>
@@ -30164,7 +30164,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" s="111"/>
       <c r="B79" s="61" t="s">
         <v>13</v>
@@ -30221,7 +30221,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" s="111"/>
       <c r="B80" s="61" t="s">
         <v>14</v>
@@ -30278,7 +30278,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" s="111"/>
       <c r="B81" s="61" t="s">
         <v>15</v>
@@ -30335,7 +30335,7 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" s="111" t="s">
         <v>104</v>
       </c>
@@ -30394,7 +30394,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83" s="111"/>
       <c r="B83" s="61" t="s">
         <v>1</v>
@@ -30451,7 +30451,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" s="111"/>
       <c r="B84" s="61" t="s">
         <v>2</v>
@@ -30508,7 +30508,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" s="111"/>
       <c r="B85" s="61" t="s">
         <v>3</v>
@@ -30565,7 +30565,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" s="111"/>
       <c r="B86" s="61" t="s">
         <v>4</v>
@@ -30622,7 +30622,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" s="111"/>
       <c r="B87" s="61" t="s">
         <v>5</v>
@@ -30679,7 +30679,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" s="111"/>
       <c r="B88" s="61" t="s">
         <v>6</v>
@@ -30736,7 +30736,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" s="111"/>
       <c r="B89" s="61" t="s">
         <v>7</v>
@@ -30793,7 +30793,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" s="111"/>
       <c r="B90" s="61" t="s">
         <v>8</v>
@@ -30850,7 +30850,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" s="111"/>
       <c r="B91" s="61" t="s">
         <v>9</v>
@@ -30907,7 +30907,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92" s="111"/>
       <c r="B92" s="61" t="s">
         <v>10</v>
@@ -30964,7 +30964,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93" s="111"/>
       <c r="B93" s="61" t="s">
         <v>11</v>
@@ -31021,7 +31021,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94" s="111"/>
       <c r="B94" s="61" t="s">
         <v>12</v>
@@ -31078,7 +31078,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95" s="111"/>
       <c r="B95" s="61" t="s">
         <v>13</v>
@@ -31135,7 +31135,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96" s="111"/>
       <c r="B96" s="61" t="s">
         <v>14</v>
@@ -31192,7 +31192,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97" s="111"/>
       <c r="B97" s="61" t="s">
         <v>15</v>
@@ -31249,7 +31249,7 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98" s="111" t="s">
         <v>105</v>
       </c>
@@ -31308,7 +31308,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99" s="111"/>
       <c r="B99" s="61" t="s">
         <v>1</v>
@@ -31365,7 +31365,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100" s="111"/>
       <c r="B100" s="61" t="s">
         <v>2</v>
@@ -31422,7 +31422,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101" s="111"/>
       <c r="B101" s="61" t="s">
         <v>3</v>
@@ -31479,7 +31479,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102" s="111"/>
       <c r="B102" s="61" t="s">
         <v>4</v>
@@ -31536,7 +31536,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103" s="111"/>
       <c r="B103" s="61" t="s">
         <v>5</v>
@@ -31593,7 +31593,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104" s="111"/>
       <c r="B104" s="61" t="s">
         <v>6</v>
@@ -31650,7 +31650,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A105" s="111"/>
       <c r="B105" s="61" t="s">
         <v>7</v>
@@ -31707,7 +31707,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A106" s="111"/>
       <c r="B106" s="61" t="s">
         <v>8</v>
@@ -31764,7 +31764,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A107" s="111"/>
       <c r="B107" s="61" t="s">
         <v>9</v>
@@ -31821,7 +31821,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A108" s="111"/>
       <c r="B108" s="61" t="s">
         <v>10</v>
@@ -31878,7 +31878,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A109" s="111"/>
       <c r="B109" s="61" t="s">
         <v>11</v>
@@ -31935,7 +31935,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A110" s="111"/>
       <c r="B110" s="61" t="s">
         <v>12</v>
@@ -31992,7 +31992,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111" s="111"/>
       <c r="B111" s="61" t="s">
         <v>13</v>
@@ -32049,7 +32049,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" s="111"/>
       <c r="B112" s="61" t="s">
         <v>14</v>
@@ -32106,7 +32106,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A113" s="111"/>
       <c r="B113" s="61" t="s">
         <v>15</v>
@@ -32163,7 +32163,7 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A114" s="111" t="s">
         <v>109</v>
       </c>
@@ -32222,7 +32222,7 @@
         <v>4.0364878857657231</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A115" s="111"/>
       <c r="B115" s="110" t="s">
         <v>1</v>
@@ -32279,7 +32279,7 @@
         <v>4.8264302135039996</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A116" s="111"/>
       <c r="B116" s="110" t="s">
         <v>2</v>
@@ -32336,7 +32336,7 @@
         <v>5.8953726019480994</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A117" s="111"/>
       <c r="B117" s="110" t="s">
         <v>3</v>
@@ -32393,7 +32393,7 @@
         <v>7.5100852808606664</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A118" s="111"/>
       <c r="B118" s="110" t="s">
         <v>4</v>
@@ -32450,7 +32450,7 @@
         <v>6.3187413063126296</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A119" s="111"/>
       <c r="B119" s="110" t="s">
         <v>5</v>
@@ -32507,7 +32507,7 @@
         <v>4.7863154012733444</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A120" s="111"/>
       <c r="B120" s="110" t="s">
         <v>6</v>
@@ -32564,7 +32564,7 @@
         <v>4.2374844719734703</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A121" s="111"/>
       <c r="B121" s="110" t="s">
         <v>7</v>
@@ -32621,7 +32621,7 @@
         <v>4.193748230666789</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A122" s="111"/>
       <c r="B122" s="110" t="s">
         <v>8</v>
@@ -32678,7 +32678,7 @@
         <v>3.7909127248135972</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A123" s="111"/>
       <c r="B123" s="110" t="s">
         <v>9</v>
@@ -32735,7 +32735,7 @@
         <v>3.144364093904215</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A124" s="111"/>
       <c r="B124" s="110" t="s">
         <v>10</v>
@@ -32792,7 +32792,7 @@
         <v>4.2228844394466796</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A125" s="111"/>
       <c r="B125" s="110" t="s">
         <v>11</v>
@@ -32849,7 +32849,7 @@
         <v>4.2237722381557461</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A126" s="111"/>
       <c r="B126" s="110" t="s">
         <v>12</v>
@@ -32906,7 +32906,7 @@
         <v>3.7821197257623762</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A127" s="111"/>
       <c r="B127" s="110" t="s">
         <v>13</v>
@@ -32963,7 +32963,7 @@
         <v>3.213242026357217</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A128" s="111"/>
       <c r="B128" s="110" t="s">
         <v>14</v>
@@ -33020,7 +33020,7 @@
         <v>2.9272138015985911</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A129" s="111"/>
       <c r="B129" s="110" t="s">
         <v>15</v>
@@ -33103,12 +33103,12 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -33131,7 +33131,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -33154,7 +33154,7 @@
         <v>3.0298294321208146</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -33180,7 +33180,7 @@
         <v>2.7100141031747289</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="62" t="s">
         <v>101</v>
       </c>
@@ -33203,7 +33203,7 @@
         <v>3.6526277042789821</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="62" t="s">
         <v>102</v>
       </c>
@@ -33226,7 +33226,7 @@
         <v>3.5011362326729416</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="62" t="s">
         <v>103</v>
       </c>
@@ -33249,7 +33249,7 @@
         <v>2.1208806024845703</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="62" t="s">
         <v>104</v>
       </c>
@@ -33272,7 +33272,7 @@
         <v>2.0367186738145477</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="62" t="s">
         <v>105</v>
       </c>
@@ -33295,7 +33295,7 @@
         <v>3.3664771468009054</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="62" t="s">
         <v>109</v>
       </c>
@@ -33337,20 +33337,20 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="33" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7265625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.453125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>17</v>
       </c>
@@ -33379,8 +33379,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="123" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="114" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="47" t="s">
@@ -33404,8 +33404,8 @@
       <c r="H2" s="50"/>
       <c r="I2" s="48"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="124"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="115"/>
       <c r="B3" s="51" t="s">
         <v>94</v>
       </c>
@@ -33423,8 +33423,8 @@
       <c r="H3" s="53"/>
       <c r="I3" s="52"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="121" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="112" t="s">
         <v>96</v>
       </c>
       <c r="B4" s="54" t="s">
@@ -33448,8 +33448,8 @@
       <c r="H4" s="57"/>
       <c r="I4" s="55"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="122"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="113"/>
       <c r="B5" s="58" t="s">
         <v>94</v>
       </c>
@@ -33467,8 +33467,8 @@
       <c r="H5" s="60"/>
       <c r="I5" s="59"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="123" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="114" t="s">
         <v>101</v>
       </c>
       <c r="B6" s="47" t="s">
@@ -33492,8 +33492,8 @@
       <c r="H6" s="50"/>
       <c r="I6" s="48"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="124"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="115"/>
       <c r="B7" s="51" t="s">
         <v>94</v>
       </c>
@@ -33511,8 +33511,8 @@
       <c r="H7" s="53"/>
       <c r="I7" s="52"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="121" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="112" t="s">
         <v>102</v>
       </c>
       <c r="B8" s="54" t="s">
@@ -33536,8 +33536,8 @@
       <c r="H8" s="57"/>
       <c r="I8" s="55"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="122"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="113"/>
       <c r="B9" s="58" t="s">
         <v>94</v>
       </c>
@@ -33555,8 +33555,8 @@
       <c r="H9" s="60"/>
       <c r="I9" s="59"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="123" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="114" t="s">
         <v>103</v>
       </c>
       <c r="B10" s="47" t="s">
@@ -33580,8 +33580,8 @@
       <c r="H10" s="50"/>
       <c r="I10" s="48"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="124"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="115"/>
       <c r="B11" s="51" t="s">
         <v>94</v>
       </c>
@@ -33599,8 +33599,8 @@
       <c r="H11" s="53"/>
       <c r="I11" s="52"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="121" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="112" t="s">
         <v>104</v>
       </c>
       <c r="B12" s="54" t="s">
@@ -33624,8 +33624,8 @@
       <c r="H12" s="57"/>
       <c r="I12" s="55"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="122"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="113"/>
       <c r="B13" s="58" t="s">
         <v>94</v>
       </c>
@@ -33643,8 +33643,8 @@
       <c r="H13" s="60"/>
       <c r="I13" s="59"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="123" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="114" t="s">
         <v>105</v>
       </c>
       <c r="B14" s="47" t="s">
@@ -33668,8 +33668,8 @@
       <c r="H14" s="50"/>
       <c r="I14" s="48"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="124"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="115"/>
       <c r="B15" s="51" t="s">
         <v>94</v>
       </c>
@@ -33687,8 +33687,8 @@
       <c r="H15" s="53"/>
       <c r="I15" s="52"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="121" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="112" t="s">
         <v>109</v>
       </c>
       <c r="B16" s="54" t="s">
@@ -33712,8 +33712,8 @@
       <c r="H16" s="57"/>
       <c r="I16" s="55"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="122"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="113"/>
       <c r="B17" s="58" t="s">
         <v>94</v>
       </c>
@@ -33755,29 +33755,29 @@
   </sheetPr>
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="19" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>17</v>
       </c>
@@ -33821,8 +33821,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="122" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="64" t="s">
@@ -33861,8 +33861,8 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="116"/>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="123"/>
       <c r="B3" s="69" t="s">
         <v>80</v>
       </c>
@@ -33899,8 +33899,8 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="116"/>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="123"/>
       <c r="B4" s="69" t="s">
         <v>82</v>
       </c>
@@ -33931,8 +33931,8 @@
       <c r="M4" s="72"/>
       <c r="N4" s="72"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="116"/>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="123"/>
       <c r="B5" s="69" t="s">
         <v>84</v>
       </c>
@@ -33969,8 +33969,8 @@
         <v>43998</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="116"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="123"/>
       <c r="B6" s="69" t="s">
         <v>86</v>
       </c>
@@ -34005,8 +34005,8 @@
       </c>
       <c r="N6" s="72"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="116"/>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="123"/>
       <c r="B7" s="69" t="s">
         <v>88</v>
       </c>
@@ -34039,8 +34039,8 @@
       <c r="M7" s="72"/>
       <c r="N7" s="72"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="117"/>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="124"/>
       <c r="B8" s="76" t="s">
         <v>89</v>
       </c>
@@ -34073,8 +34073,8 @@
       <c r="M8" s="53"/>
       <c r="N8" s="52"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="118" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="116" t="s">
         <v>96</v>
       </c>
       <c r="B9" s="83" t="s">
@@ -34113,8 +34113,8 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="119"/>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="117"/>
       <c r="B10" s="89" t="s">
         <v>80</v>
       </c>
@@ -34151,8 +34151,8 @@
         <v>43966</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="119"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="117"/>
       <c r="B11" s="89" t="s">
         <v>82</v>
       </c>
@@ -34183,8 +34183,8 @@
       <c r="M11" s="92"/>
       <c r="N11" s="92"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="119"/>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="117"/>
       <c r="B12" s="89" t="s">
         <v>84</v>
       </c>
@@ -34221,8 +34221,8 @@
         <v>44001</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="119"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="117"/>
       <c r="B13" s="89" t="s">
         <v>86</v>
       </c>
@@ -34257,8 +34257,8 @@
       </c>
       <c r="N13" s="92"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="119"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="117"/>
       <c r="B14" s="89" t="s">
         <v>88</v>
       </c>
@@ -34291,8 +34291,8 @@
       <c r="M14" s="92"/>
       <c r="N14" s="92"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="120"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="118"/>
       <c r="B15" s="95" t="s">
         <v>89</v>
       </c>
@@ -34325,8 +34325,8 @@
       <c r="M15" s="100"/>
       <c r="N15" s="101"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="115" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="122" t="s">
         <v>101</v>
       </c>
       <c r="B16" s="64" t="s">
@@ -34365,8 +34365,8 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="116"/>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="123"/>
       <c r="B17" s="69" t="s">
         <v>80</v>
       </c>
@@ -34403,8 +34403,8 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="116"/>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="123"/>
       <c r="B18" s="69" t="s">
         <v>82</v>
       </c>
@@ -34441,8 +34441,8 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="116"/>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="123"/>
       <c r="B19" s="69" t="s">
         <v>84</v>
       </c>
@@ -34479,8 +34479,8 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="116"/>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="123"/>
       <c r="B20" s="69" t="s">
         <v>86</v>
       </c>
@@ -34517,8 +34517,8 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="116"/>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" s="123"/>
       <c r="B21" s="69" t="s">
         <v>88</v>
       </c>
@@ -34553,8 +34553,8 @@
       </c>
       <c r="N21" s="75"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="116"/>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" s="123"/>
       <c r="B22" s="108" t="s">
         <v>89</v>
       </c>
@@ -34587,8 +34587,8 @@
       <c r="M22" s="72"/>
       <c r="N22" s="75"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="117"/>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" s="124"/>
       <c r="B23" s="76" t="s">
         <v>106</v>
       </c>
@@ -34621,8 +34621,8 @@
       <c r="M23" s="72"/>
       <c r="N23" s="52"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="112" t="s">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" s="119" t="s">
         <v>102</v>
       </c>
       <c r="B24" s="39" t="s">
@@ -34661,8 +34661,8 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="113"/>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" s="120"/>
       <c r="B25" s="42" t="s">
         <v>80</v>
       </c>
@@ -34697,8 +34697,8 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="113"/>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" s="120"/>
       <c r="B26" s="42" t="s">
         <v>82</v>
       </c>
@@ -34733,8 +34733,8 @@
         <v>43958</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="113"/>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" s="120"/>
       <c r="B27" s="42" t="s">
         <v>84</v>
       </c>
@@ -34769,8 +34769,8 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="113"/>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" s="120"/>
       <c r="B28" s="42" t="s">
         <v>86</v>
       </c>
@@ -34805,8 +34805,8 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="113"/>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29" s="120"/>
       <c r="B29" s="42" t="s">
         <v>88</v>
       </c>
@@ -34839,8 +34839,8 @@
       </c>
       <c r="N29" s="35"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="113"/>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A30" s="120"/>
       <c r="B30" s="42" t="s">
         <v>89</v>
       </c>
@@ -34871,8 +34871,8 @@
       <c r="M30" s="43"/>
       <c r="N30" s="81"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="114"/>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A31" s="121"/>
       <c r="B31" s="42" t="s">
         <v>106</v>
       </c>
@@ -34903,8 +34903,8 @@
       <c r="M31" s="43"/>
       <c r="N31" s="43"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="115" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32" s="122" t="s">
         <v>103</v>
       </c>
       <c r="B32" s="64" t="s">
@@ -34943,8 +34943,8 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="116"/>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A33" s="123"/>
       <c r="B33" s="69" t="s">
         <v>80</v>
       </c>
@@ -34981,8 +34981,8 @@
         <v>43912</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="116"/>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A34" s="123"/>
       <c r="B34" s="69" t="s">
         <v>82</v>
       </c>
@@ -35019,8 +35019,8 @@
         <v>43966</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="116"/>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A35" s="123"/>
       <c r="B35" s="69" t="s">
         <v>84</v>
       </c>
@@ -35057,8 +35057,8 @@
         <v>43995</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="116"/>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A36" s="123"/>
       <c r="B36" s="69" t="s">
         <v>86</v>
       </c>
@@ -35093,8 +35093,8 @@
       </c>
       <c r="N36" s="72"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="116"/>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A37" s="123"/>
       <c r="B37" s="69" t="s">
         <v>88</v>
       </c>
@@ -35127,8 +35127,8 @@
       <c r="M37" s="72"/>
       <c r="N37" s="72"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="116"/>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A38" s="123"/>
       <c r="B38" s="69" t="s">
         <v>89</v>
       </c>
@@ -35161,8 +35161,8 @@
       <c r="M38" s="72"/>
       <c r="N38" s="75"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="112" t="s">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A39" s="119" t="s">
         <v>104</v>
       </c>
       <c r="B39" s="39" t="s">
@@ -35201,8 +35201,8 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="113"/>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A40" s="120"/>
       <c r="B40" s="42" t="s">
         <v>80</v>
       </c>
@@ -35237,8 +35237,8 @@
         <v>43912</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="113"/>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A41" s="120"/>
       <c r="B41" s="42" t="s">
         <v>82</v>
       </c>
@@ -35273,8 +35273,8 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="113"/>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A42" s="120"/>
       <c r="B42" s="42" t="s">
         <v>84</v>
       </c>
@@ -35309,8 +35309,8 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="113"/>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A43" s="120"/>
       <c r="B43" s="42" t="s">
         <v>86</v>
       </c>
@@ -35343,8 +35343,8 @@
       </c>
       <c r="N43" s="35"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="113"/>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A44" s="120"/>
       <c r="B44" s="42" t="s">
         <v>88</v>
       </c>
@@ -35375,8 +35375,8 @@
       <c r="M44" s="43"/>
       <c r="N44" s="43"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="114"/>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A45" s="121"/>
       <c r="B45" s="44" t="s">
         <v>89</v>
       </c>
@@ -35409,8 +35409,8 @@
       <c r="M45" s="22"/>
       <c r="N45" s="23"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="115" t="s">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A46" s="122" t="s">
         <v>105</v>
       </c>
       <c r="B46" s="64" t="s">
@@ -35449,8 +35449,8 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="116"/>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A47" s="123"/>
       <c r="B47" s="69" t="s">
         <v>80</v>
       </c>
@@ -35487,8 +35487,8 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="116"/>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A48" s="123"/>
       <c r="B48" s="69" t="s">
         <v>82</v>
       </c>
@@ -35525,8 +35525,8 @@
         <v>43971</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="116"/>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A49" s="123"/>
       <c r="B49" s="69" t="s">
         <v>84</v>
       </c>
@@ -35563,8 +35563,8 @@
         <v>43999</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="116"/>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A50" s="123"/>
       <c r="B50" s="69" t="s">
         <v>86</v>
       </c>
@@ -35599,8 +35599,8 @@
       </c>
       <c r="N50" s="72"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="116"/>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A51" s="123"/>
       <c r="B51" s="69" t="s">
         <v>88</v>
       </c>
@@ -35633,8 +35633,8 @@
       <c r="M51" s="72"/>
       <c r="N51" s="72"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="117"/>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A52" s="124"/>
       <c r="B52" s="76" t="s">
         <v>89</v>
       </c>
@@ -35667,8 +35667,8 @@
       <c r="M52" s="82"/>
       <c r="N52" s="52"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="118" t="s">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A53" s="116" t="s">
         <v>109</v>
       </c>
       <c r="B53" s="83" t="s">
@@ -35707,8 +35707,8 @@
         <v>43912</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="119"/>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A54" s="117"/>
       <c r="B54" s="89" t="s">
         <v>80</v>
       </c>
@@ -35745,8 +35745,8 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="119"/>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A55" s="117"/>
       <c r="B55" s="89" t="s">
         <v>82</v>
       </c>
@@ -35783,8 +35783,8 @@
         <v>43984</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="119"/>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A56" s="117"/>
       <c r="B56" s="89" t="s">
         <v>84</v>
       </c>
@@ -35821,8 +35821,8 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="119"/>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A57" s="117"/>
       <c r="B57" s="89" t="s">
         <v>86</v>
       </c>
@@ -35857,8 +35857,8 @@
       </c>
       <c r="N57" s="92"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="119"/>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A58" s="117"/>
       <c r="B58" s="89" t="s">
         <v>88</v>
       </c>
@@ -35891,8 +35891,8 @@
       <c r="M58" s="92"/>
       <c r="N58" s="92"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="120"/>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A59" s="118"/>
       <c r="B59" s="95" t="s">
         <v>89</v>
       </c>
@@ -35958,20 +35958,20 @@
   </sheetPr>
   <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7265625" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -36042,7 +36042,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -36114,7 +36114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -36171,7 +36171,7 @@
         <v>1000</v>
       </c>
       <c r="S3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="T3">
         <v>1</v>
@@ -36186,7 +36186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="61" t="s">
         <v>101</v>
       </c>
@@ -36257,7 +36257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="61" t="s">
         <v>102</v>
       </c>
@@ -36313,7 +36313,7 @@
         <v>1000</v>
       </c>
       <c r="S5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T5">
         <v>1</v>
@@ -36328,7 +36328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="61" t="s">
         <v>103</v>
       </c>
@@ -36385,7 +36385,7 @@
         <v>1000</v>
       </c>
       <c r="S6">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="T6">
         <v>1</v>
@@ -36400,7 +36400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="61" t="s">
         <v>104</v>
       </c>
@@ -36472,7 +36472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="61" t="s">
         <v>105</v>
       </c>
@@ -36529,7 +36529,7 @@
         <v>1000</v>
       </c>
       <c r="S8">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="T8">
         <v>1</v>
@@ -36544,7 +36544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="110" t="s">
         <v>109</v>
       </c>
@@ -36634,21 +36634,21 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -36680,7 +36680,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -36712,7 +36712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -36744,7 +36744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="102" t="s">
         <v>101</v>
       </c>
@@ -36776,7 +36776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="102" t="s">
         <v>102</v>
       </c>
@@ -36808,7 +36808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="102" t="s">
         <v>103</v>
       </c>
@@ -36840,7 +36840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="102" t="s">
         <v>104</v>
       </c>
@@ -36872,7 +36872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="102" t="s">
         <v>105</v>
       </c>
@@ -36904,7 +36904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="102" t="s">
         <v>109</v>
       </c>
@@ -36953,20 +36953,20 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -36998,7 +36998,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -37030,7 +37030,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -37062,7 +37062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="102" t="s">
         <v>101</v>
       </c>
@@ -37094,7 +37094,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="102" t="s">
         <v>102</v>
       </c>
@@ -37126,7 +37126,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="102" t="s">
         <v>103</v>
       </c>
@@ -37158,7 +37158,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="102" t="s">
         <v>104</v>
       </c>
@@ -37190,7 +37190,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="102" t="s">
         <v>105</v>
       </c>
@@ -37222,7 +37222,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="102" t="s">
         <v>109</v>
       </c>
@@ -37270,20 +37270,20 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -37315,7 +37315,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -37347,7 +37347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -37379,7 +37379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="102" t="s">
         <v>101</v>
       </c>
@@ -37411,7 +37411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="102" t="s">
         <v>102</v>
       </c>
@@ -37443,7 +37443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="102" t="s">
         <v>103</v>
       </c>
@@ -37475,7 +37475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="102" t="s">
         <v>104</v>
       </c>
@@ -37507,7 +37507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="102" t="s">
         <v>105</v>
       </c>
@@ -37539,7 +37539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="102" t="s">
         <v>109</v>
       </c>
@@ -37587,21 +37587,21 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="5"/>
-    <col min="9" max="9" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" style="5"/>
+    <col min="9" max="9" width="10.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
@@ -37633,7 +37633,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
@@ -37665,7 +37665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
         <v>96</v>
       </c>
@@ -37697,7 +37697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="62" t="s">
         <v>101</v>
       </c>
@@ -37729,7 +37729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="62" t="s">
         <v>102</v>
       </c>
@@ -37761,7 +37761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="102" t="s">
         <v>103</v>
       </c>
@@ -37793,7 +37793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="102" t="s">
         <v>104</v>
       </c>
@@ -37825,7 +37825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="102" t="s">
         <v>105</v>
       </c>
@@ -37857,7 +37857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="102" t="s">
         <v>109</v>
       </c>
